--- a/src/main/resources/script/db/init-data/devops_service/hzero_platform/choerodon-fd-report.xlsx
+++ b/src/main/resources/script/db/init-data/devops_service/hzero_platform/choerodon-fd-report.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\choerodon\choerodon-iam\src\main\resources\script\db\init-data\hzero_platform\hzero_platform\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\choerodon\devops-service\src\main\resources\script\db\init-data\devops_service\hzero_platform\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -2026,15 +2026,15 @@
   </si>
   <si>
     <t>#report_type</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>icon</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>#title</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>DevOps 报表</t>
@@ -2101,204 +2101,69 @@
   </si>
   <si>
     <t>choerodon</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>图表项目类型</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>FD_REPORT_PROJECT_CATEGORY</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>#report_id</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>#project_category</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>*</t>
-    <phoneticPr fontId="21" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>report</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>-1</t>
-    </r>
-    <phoneticPr fontId="21" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>report</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>-2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t/>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>report</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>-3</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t/>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>report</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>-4</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t/>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>report</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>-5</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t/>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>report</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>-6</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t/>
-    </r>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>N_DEVOPS</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>N_OPERATIONS</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>type_sequence</t>
+  </si>
+  <si>
+    <t>fd_report-1</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>fd_report-2</t>
+  </si>
+  <si>
+    <t>fd_report-3</t>
+  </si>
+  <si>
+    <t>fd_report-4</t>
+  </si>
+  <si>
+    <t>fd_report-5</t>
+  </si>
+  <si>
+    <t>fd_report-6</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="22">
+  <fonts count="21">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <family val="2"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -2566,14 +2431,14 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2582,60 +2447,60 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3218,7 +3083,7 @@
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="C19:E19"/>
   </mergeCells>
-  <phoneticPr fontId="21" type="noConversion"/>
+  <phoneticPr fontId="20" type="noConversion"/>
   <pageMargins left="0.69791666666666696" right="0.69791666666666696" top="0.75" bottom="0.75" header="0.51041666666666696" footer="0.51041666666666696"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
@@ -3228,8 +3093,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18:E24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
@@ -3300,12 +3165,12 @@
         <v>57</v>
       </c>
       <c r="L7" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
     </row>
     <row r="8" spans="1:12">
       <c r="E8" s="32" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="F8" t="s">
         <v>63</v>
@@ -3331,7 +3196,7 @@
     </row>
     <row r="9" spans="1:12">
       <c r="E9" s="32" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="F9" t="s">
         <v>63</v>
@@ -3357,7 +3222,7 @@
     </row>
     <row r="10" spans="1:12">
       <c r="E10" s="32" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="F10" t="s">
         <v>63</v>
@@ -3383,7 +3248,7 @@
     </row>
     <row r="11" spans="1:12">
       <c r="E11" s="32" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="F11" t="s">
         <v>63</v>
@@ -3409,7 +3274,7 @@
     </row>
     <row r="12" spans="1:12">
       <c r="E12" s="32" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="F12" t="s">
         <v>63</v>
@@ -3435,7 +3300,7 @@
     </row>
     <row r="13" spans="1:12">
       <c r="E13" s="32" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="F13" t="s">
         <v>63</v>
@@ -3489,10 +3354,10 @@
       </c>
       <c r="F17" s="32" t="str">
         <f>E8</f>
-        <v>report-1</v>
+        <v>fd_report-1</v>
       </c>
       <c r="G17" s="32" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
     </row>
     <row r="18" spans="5:7">
@@ -3501,10 +3366,10 @@
       </c>
       <c r="F18" s="32" t="str">
         <f t="shared" ref="F18:F22" si="0">E9</f>
-        <v>report-2</v>
+        <v>fd_report-2</v>
       </c>
       <c r="G18" s="32" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
     </row>
     <row r="19" spans="5:7">
@@ -3513,10 +3378,10 @@
       </c>
       <c r="F19" s="32" t="str">
         <f t="shared" si="0"/>
-        <v>report-3</v>
+        <v>fd_report-3</v>
       </c>
       <c r="G19" s="32" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
     </row>
     <row r="20" spans="5:7">
@@ -3525,10 +3390,10 @@
       </c>
       <c r="F20" s="32" t="str">
         <f t="shared" si="0"/>
-        <v>report-4</v>
+        <v>fd_report-4</v>
       </c>
       <c r="G20" s="32" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
     </row>
     <row r="21" spans="5:7">
@@ -3537,10 +3402,10 @@
       </c>
       <c r="F21" s="32" t="str">
         <f t="shared" si="0"/>
-        <v>report-5</v>
+        <v>fd_report-5</v>
       </c>
       <c r="G21" s="32" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
     </row>
     <row r="22" spans="5:7">
@@ -3549,10 +3414,10 @@
       </c>
       <c r="F22" s="32" t="str">
         <f t="shared" si="0"/>
-        <v>report-6</v>
+        <v>fd_report-6</v>
       </c>
       <c r="G22" s="32" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
     </row>
     <row r="23" spans="5:7">
@@ -3561,10 +3426,10 @@
       </c>
       <c r="F23" s="32" t="str">
         <f>E12</f>
-        <v>report-5</v>
+        <v>fd_report-5</v>
       </c>
       <c r="G23" s="32" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
     </row>
     <row r="24" spans="5:7">
@@ -3573,14 +3438,14 @@
       </c>
       <c r="F24" s="32" t="str">
         <f>E13</f>
-        <v>report-6</v>
+        <v>fd_report-6</v>
       </c>
       <c r="G24" s="32" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="21" type="noConversion"/>
+  <phoneticPr fontId="20" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>

--- a/src/main/resources/script/db/init-data/devops_service/hzero_platform/choerodon-fd-report.xlsx
+++ b/src/main/resources/script/db/init-data/devops_service/hzero_platform/choerodon-fd-report.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\choerodon\devops-service\src\main\resources\script\db\init-data\devops_service\hzero_platform\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="597" activeTab="1"/>
+    <workbookView windowWidth="23040" windowHeight="9420" tabRatio="597" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
@@ -21,19 +16,18 @@
     <definedName name="qwe">REPT(local_year_format,4)&amp;local_date_separator&amp;REPT(local_month_format,2)&amp;local_date_separator&amp;REPT(local_day_format,2)&amp;" "&amp;REPT(local_hour_format,2)&amp;local_time_separator&amp;REPT(local_minute_format,2)&amp;local_time_separator&amp;REPT(local_second_format,2)</definedName>
     <definedName name="wqewqe">REPT(local_year_format,4)&amp;local_date_separator&amp;REPT(local_month_format,2)&amp;local_date_separator&amp;REPT(local_day_format,2)&amp;" "&amp;REPT(local_hour_format,2)&amp;local_time_separator&amp;REPT(local_minute_format,2)&amp;local_time_separator&amp;REPT(local_second_format,2)</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="106">
   <si>
     <r>
       <rPr>
         <sz val="12"/>
         <color rgb="FFFF0000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">注意这个文档不能 </t>
@@ -52,7 +46,6 @@
         <sz val="12"/>
         <color rgb="FFFF0000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>！！
@@ -65,7 +58,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">正式的数据从第二个 </t>
@@ -84,7 +76,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>页开始</t>
@@ -103,7 +94,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">每页 从 </t>
@@ -122,7 +112,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">单元格开始有效
@@ -154,7 +143,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>颜色示例</t>
@@ -173,7 +161,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>非必须</t>
@@ -192,7 +179,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>非强制</t>
@@ -214,7 +200,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>请给特殊单元格</t>
@@ -235,7 +220,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>列名添加颜色</t>
@@ -256,7 +240,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>提高数据可读性</t>
@@ -277,7 +260,6 @@
         <sz val="12"/>
         <color rgb="FFC55A11"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>自动生成</t>
@@ -298,7 +280,6 @@
         <sz val="12"/>
         <color rgb="FF2E75B6"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>唯一性检查</t>
@@ -310,7 +291,6 @@
         <sz val="12"/>
         <color rgb="FF548235"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>公式</t>
@@ -329,7 +309,6 @@
         <sz val="12"/>
         <color rgb="FF548235"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>外键引用</t>
@@ -341,7 +320,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>理论上</t>
@@ -360,7 +338,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>表的前后顺序</t>
@@ -379,7 +356,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>页的顺序没有严格要求</t>
@@ -398,7 +374,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>但请尽量按照先插 后引用的顺序排列</t>
@@ -417,7 +392,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>减少迭代次数</t>
@@ -465,7 +439,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>前置</t>
@@ -484,7 +457,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>该列的值自动生成</t>
@@ -503,7 +475,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>当数据库存在等价记录时</t>
@@ -522,7 +493,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>这个值会被替换为数据库中已存在的值</t>
@@ -534,7 +504,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>自增长</t>
@@ -553,7 +522,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>或序列</t>
@@ -572,7 +540,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>主键列</t>
@@ -592,7 +559,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>当不作为外键引用时</t>
@@ -611,7 +577,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>一般写</t>
@@ -631,7 +596,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>作为外键时</t>
@@ -650,7 +614,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>写可读的值</t>
@@ -662,7 +625,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">目前 </t>
@@ -681,7 +643,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>是序列</t>
@@ -700,7 +661,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>其他自增涨</t>
@@ -724,7 +684,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>前置</t>
@@ -743,7 +702,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>表中所有带有</t>
@@ -762,7 +720,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>的列组成一个唯一性校验</t>
@@ -781,7 +738,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>在执行插入之前</t>
@@ -800,7 +756,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>会首先按照唯一键来检查数据库是否存在等价记录</t>
@@ -812,7 +767,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>可以有多列</t>
@@ -831,7 +785,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>仅支持</t>
@@ -842,7 +795,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>数字</t>
@@ -863,7 +815,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">字符串
@@ -874,7 +825,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>当</t>
@@ -893,7 +843,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>列涉及到公式时</t>
@@ -912,7 +861,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>会先确定公式的值</t>
@@ -936,7 +884,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>指定这一列的类型</t>
@@ -955,7 +902,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>默认会自动检测</t>
@@ -975,7 +921,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>结尾为数字</t>
@@ -995,7 +940,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>结尾为日期</t>
@@ -1015,7 +959,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>其他默认为</t>
@@ -1036,7 +979,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>一般不需要指定</t>
@@ -1056,7 +998,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>日期格式仅支持</t>
@@ -1091,7 +1032,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>指定语言环境</t>
@@ -1112,7 +1052,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>表数据不需要专门写</t>
@@ -1124,7 +1063,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>外键引用</t>
@@ -1143,7 +1081,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>公式</t>
@@ -1164,7 +1101,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>用于引用外键</t>
@@ -1183,7 +1119,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>也可用于普通值
@@ -1196,7 +1131,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>自动增长列</t>
@@ -1215,7 +1149,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>如果被公式引用</t>
@@ -1234,7 +1167,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>最好写一个人可以读懂的值</t>
@@ -1253,7 +1185,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>增强公式可读性</t>
@@ -1268,7 +1199,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>一般用于引用自动生成的外键</t>
@@ -1287,7 +1217,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">所有公式均为 </t>
@@ -1306,7 +1235,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>支持的标准公式</t>
@@ -1325,7 +1253,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>但不支持特别复杂的计算公式</t>
@@ -1344,7 +1271,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>比如范围计算</t>
@@ -1360,7 +1286,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>相对</t>
@@ -1370,7 +1295,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">引用当前页 </t>
@@ -1389,7 +1313,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>单元格</t>
@@ -1405,7 +1328,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>绝对</t>
@@ -1415,7 +1337,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">引用当前页 </t>
@@ -1434,7 +1355,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>单元格</t>
@@ -1449,7 +1369,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">引用 </t>
@@ -1468,7 +1387,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">页的 </t>
@@ -1487,7 +1405,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>单元格</t>
@@ -1507,7 +1424,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>相对</t>
@@ -1531,7 +1447,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">引用 </t>
@@ -1550,7 +1465,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">页的 </t>
@@ -1569,7 +1483,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>单元格</t>
@@ -1589,7 +1502,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>绝对</t>
@@ -1610,7 +1522,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>关于</t>
@@ -1621,7 +1532,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>相对</t>
@@ -1631,7 +1541,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>引用</t>
@@ -1643,7 +1552,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>举例</t>
@@ -1662,7 +1570,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">当 </t>
@@ -1681,7 +1588,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">单元格引用 </t>
@@ -1700,7 +1606,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">时
@@ -1720,7 +1625,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">的复制到 </t>
@@ -1739,7 +1643,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>单元格时</t>
@@ -1758,7 +1661,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">引用的是 </t>
@@ -1778,7 +1680,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">将 </t>
@@ -1797,7 +1698,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">的复制到 </t>
@@ -1816,7 +1716,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>时</t>
@@ -1835,7 +1734,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">实际引用的是 </t>
@@ -1855,7 +1753,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>以上情况适用于拖拽填充</t>
@@ -1867,7 +1764,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>关于</t>
@@ -1878,7 +1774,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>绝对</t>
@@ -1888,7 +1783,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>引用</t>
@@ -1900,7 +1794,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>复制公式单元格时</t>
@@ -1919,7 +1812,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>保持公式不变</t>
@@ -1931,7 +1823,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>相对引用</t>
@@ -1950,7 +1841,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>绝对引用各有用途</t>
@@ -1970,7 +1860,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>直接拖拽填充就可以避免大量重复工作</t>
@@ -2010,6 +1899,15 @@
     <t>*id</t>
   </si>
   <si>
+    <t>#report_type</t>
+  </si>
+  <si>
+    <t>icon</t>
+  </si>
+  <si>
+    <t>#title</t>
+  </si>
+  <si>
     <t>description</t>
   </si>
   <si>
@@ -2019,45 +1917,45 @@
     <t>sort</t>
   </si>
   <si>
+    <t>type_sequence</t>
+  </si>
+  <si>
+    <t>fd_report-1</t>
+  </si>
+  <si>
+    <t>DevOps 报表</t>
+  </si>
+  <si>
+    <t>data:image/svg+xml;base64,PD94bWwgdmVyc2lvbj0iMS4wIiBlbmNvZGluZz0iVVRGLTgiIHN0YW5kYWxvbmU9Im5vIj8+Cjxzdmcgd2lkdGg9IjIwOXB4IiBoZWlnaHQ9IjEyNHB4IiB2aWV3Qm94PSIwIDAgMjA5IDEyNCIgdmVyc2lvbj0iMS4xIiB4bWxucz0iaHR0cDovL3d3dy53My5vcmcvMjAwMC9zdmciIHhtbG5zOnhsaW5rPSJodHRwOi8vd3d3LnczLm9yZy8xOTk5L3hsaW5rIj4KICAgIDwhLS0gR2VuZXJhdG9yOiBTa2V0Y2ggNDkgKDUxMDAyKSAtIGh0dHA6Ly93d3cuYm9oZW1pYW5jb2RpbmcuY29tL3NrZXRjaCAtLT4KICAgIDx0aXRsZT5Hcm91cCAxNzwvdGl0bGU+CiAgICA8ZGVzYz5DcmVhdGVkIHdpdGggU2tldGNoLjwvZGVzYz4KICAgIDxkZWZzPjwvZGVmcz4KICAgIDxnIGlkPSLmiqXooagiIHN0cm9rZT0ibm9uZSIgc3Ryb2tlLXdpZHRoPSIxIiBmaWxsPSJub25lIiBmaWxsLXJ1bGU9ImV2ZW5vZGQiPgogICAgICAgIDxnIGlkPSJEZXZPcHPmiqXooagiIHRyYW5zZm9ybT0idHJhbnNsYXRlKC0zMDguMDAwMDAwLCAtMjczLjAwMDAwMCkiPgogICAgICAgICAgICA8ZyBpZD0iR3JvdXAtNSIgdHJhbnNmb3JtPSJ0cmFuc2xhdGUoMjc0LjAwMDAwMCwgMTMyLjAwMDAwMCkiPgogICAgICAgICAgICAgICAgPGcgaWQ9IuaJgOacieaKpeihqO+8jeS7o+eggeaPkOS6pOaDheWGtSIgdHJhbnNmb3JtPSJ0cmFuc2xhdGUoMC4wMDAwMDAsIDEwMi4wMDAwMDApIj4KICAgICAgICAgICAgICAgICAgICA8ZyBpZD0iR3JvdXAiIHRyYW5zZm9ybT0idHJhbnNsYXRlKDE4LjAwMDAwMCwgMTguMDAwMDAwKSI+CiAgICAgICAgICAgICAgICAgICAgICAgIDxnIGlkPSJHcm91cC0xNyIgdHJhbnNmb3JtPSJ0cmFuc2xhdGUoMTcuMDAwMDAwLCAyMi4wMDAwMDApIj4KICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxnIGlkPSJHcm91cC0xNSI+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPGcgaWQ9Ikdyb3VwLTE2IiBzdHJva2U9IiMwMDAwMDAiIHN0cm9rZS1saW5lY2FwPSJzcXVhcmUiIHN0cm9rZS1vcGFjaXR5PSIwLjA0Ij4KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPHBhdGggZD0iTTAsNjkuNDQ0NDQ0NCBMMjA3LjEyODQ5Miw2OS40NDQ0NDQ0IiBpZD0iTGluZSI+PC9wYXRoPgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8cGF0aCBkPSJNMCw1MS42NjY2NjY3IEwyMDcuMTI4NDkyLDUxLjY2NjY2NjciIGlkPSJMaW5lIj48L3BhdGg+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxwYXRoIGQ9Ik0wLDM1IEwyMDcuMTI4NDkyLDM1IiBpZD0iTGluZSI+PC9wYXRoPgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8cGF0aCBkPSJNMCwxNy4yMjIyMjIyIEwyMDcuMTI4NDkyLDE3LjIyMjIyMjIiIGlkPSJMaW5lIj48L3BhdGg+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxwYXRoIGQ9Ik0wLDAuNTU1NTU1NTU2IEwyMDcuMTI4NDkyLDAuNTU1NTU1NTU2IiBpZD0iTGluZSI+PC9wYXRoPgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8cGF0aCBkPSJNMSwwIEwxLDcwIiBpZD0iTGluZS02Ij48L3BhdGg+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxwYXRoIGQ9Ik0zNS4xNjY2NjY3LDAgTDM1LjE2NjY2NjcsNzAiIGlkPSJMaW5lLTYiPjwvcGF0aD4KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPHBhdGggZD0iTTY5LjMzMzMzMzMsMCBMNjkuMzMzMzMzMyw3MCIgaWQ9IkxpbmUtNiI+PC9wYXRoPgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8cGF0aCBkPSJNMTAzLjUsMCBMMTAzLjUsNzAiIGlkPSJMaW5lLTYiPjwvcGF0aD4KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPHBhdGggZD0iTTEzNy42NjY2NjcsMCBMMTM3LjY2NjY2Nyw3MCIgaWQ9IkxpbmUtNiI+PC9wYXRoPgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8cGF0aCBkPSJNMTcxLjgzMzMzMywwIEwxNzEuODMzMzMzLDcwIiBpZD0iTGluZS02Ij48L3BhdGg+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxwYXRoIGQ9Ik0yMDYsMCBMMjA2LDcwIiBpZD0iTGluZS02Ij48L3BhdGg+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPC9nPgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxnIGlkPSJHcm91cC00IiB0cmFuc2Zvcm09InRyYW5zbGF0ZSgwLjAwMDAwMCwgOC4wMDAwMDApIj4KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPHBhdGggZD0iTTIwNiwxNC40NzA1MDY0IEMyMDEuMzMzMzMzLDMyLjI1ODU2NjkgMTk1LDQxLjE1MjU5NzIgMTg3LDQxLjE1MjU5NzIgQzE3NSw0MS4xNTI1OTcyIDE2Niw5LjE2NjU3ODE0ZS0xNCAxNTEsMS45NTE1ODE2OGUtMTQgQzEzNiwtNS4zODEwMjYwNWUtMTQgMTMwLjY4MDYyMiwzMy4zNzU1MjI5IDEyMywzMy4zNzU1MjI5IEMxMTUuMzE5Mzc4LDMzLjM3NTUyMjkgMTE1LDE0LjQ3MDUwNjQgMTAzLjU2NDI0NiwxNC40NzA1MDY0IEM5Mi4xMjg0OTE2LDE0LjQ3MDUwNjQgODQuMTc1MTI4NSw1MC4wODM5Mjg0IDcwLDUwLjA4MzkyODQgQzU1LjgyNDg3MTUsNTAuMDgzOTI4NCAzOSwzLjcwMzMzNTI5ZS0xNCAyNiwwIEMxNy4zMzMzMzMzLC0yLjQ1MjIzNzg2ZS0xNCA4LjY2NjY2NjY3LDkuNzQ4MDUxODIgMS40MjEwODU0N2UtMTQsMjkuMjQ0MTU1NSBMMCw2MSBMMjA2LDYxIEwyMDYsMTQuNDcwNTA2NCBaIiBpZD0iTGluZSIgZmlsbC1vcGFjaXR5PSIwLjQiIGZpbGw9IiM0Njc3REQiPjwvcGF0aD4KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPHBhdGggZD0iTTIwNiwxNC40NDYyNTc0IEMyMDEuMzMzMzMzLDMyLjIwNDUwOTQgMTk1LDQxLjA4MzYzNTUgMTg3LDQxLjA4MzYzNTUgQzE3NSw0MS4wODM2MzU1IDE2Niw5LjE1MTIxNzE5ZS0xNCAxNTEsMS45NDgzMTEzZS0xNCBDMTM2LC01LjM3MjAwODc3ZS0xNCAxMzAuNjgwNjIyLDMzLjMxOTU5MzcgMTIzLDMzLjMxOTU5MzcgQzExNS4zMTkzNzgsMzMuMzE5NTkzNyAxMTUsMTQuNDQ2MjU3NCAxMDMuNTY0MjQ2LDE0LjQ0NjI1NzQgQzkyLjEyODQ5MTYsMTQuNDQ2MjU3NCA4NC4xNzUxMjg1LDUwIDcwLDUwIEM1NS44MjQ4NzE1LDUwIDM5LDMuNjk3MTI5NDFlLTE0IDI2LDAgQzE3LjMzMzMzMzMsLTIuNDQ4MTI4NTFlLTE0IDguNjY2NjY2NjcsOS43MzE3MTY0NyAwLDI5LjE5NTE0OTQiIGlkPSJMaW5lIiBzdHJva2U9IiM0Njc3REQiIHN0cm9rZS1saW5lY2FwPSJzcXVhcmUiPjwvcGF0aD4KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8L2c+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICA8L2c+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICA8ZyBpZD0iR3JvdXAtMTQiIHRyYW5zZm9ybT0idHJhbnNsYXRlKDAuMDAwMDAwLCA3OC4wMDAwMDApIj4KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8ZyBpZD0iR3JvdXAtMTYiIHN0cm9rZT0iIzAwMDAwMCIgc3Ryb2tlLWxpbmVjYXA9InNxdWFyZSIgc3Ryb2tlLW9wYWNpdHk9IjAuMDQiPgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8cGF0aCBkPSJNMCwxNSBMMTAwLDE1IiBpZD0iTGluZSI+PC9wYXRoPgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8cGF0aCBkPSJNMCwyOSBMMTAwLDI5IiBpZD0iTGluZSI+PC9wYXRoPgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8cGF0aCBkPSJNMCw0MyBMMTAwLDQzIiBpZD0iTGluZSI+PC9wYXRoPgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8cGF0aCBkPSJNMCwxIEwxMDAsMSIgaWQ9IkxpbmUiPjwvcGF0aD4KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPHBhdGggZD0iTTEsMCBMMSw0NCIgaWQ9IkxpbmUtNiI+PC9wYXRoPgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8cGF0aCBkPSJNMzQsMCBMMzQsNDQiIGlkPSJMaW5lLTYiPjwvcGF0aD4KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPHBhdGggZD0iTTY3LDAgTDY3LDQ0IiBpZD0iTGluZS02Ij48L3BhdGg+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxwYXRoIGQ9Ik0xMDAsMCBMMTAwLDQ0IiBpZD0iTGluZS02Ij48L3BhdGg+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPC9nPgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxnIGlkPSJHcm91cC00IiB0cmFuc2Zvcm09InRyYW5zbGF0ZSg1MC41MDAwMDAsIDI1LjUwMDAwMCkgc2NhbGUoLTEsIDEpIHRyYW5zbGF0ZSgtNTAuNTAwMDAwLCAtMjUuNTAwMDAwKSB0cmFuc2xhdGUoMS4wMDAwMDAsIDcuMDAwMDAwKSI+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxwYXRoIGQ9Ik03OSwtNS42ODQzNDE4OWUtMTQgQzY4LC03LjU3MTgwMTI1ZS0xNCA1OCwyOCA0NywyOCBDMzQsMjggMzMsMTUgMjMsMTUgQzE2LjMzMzMzMzMsMTUgOC42NjY2NjY2NywyMi4zMzMzMzMzIDAsMzcgTDk4LjQwMTM4ODEsMzcgQzkyLjgwMDQ2MjcsMTIuMzMzMzMzMyA4Ni4zMzMzMzMzLC00LjUwMDEwMzk5ZS0xNCA3OSwtNS42ODQzNDE4OWUtMTQgWiIgaWQ9IkxpbmUiIGZpbGwtb3BhY2l0eT0iMC40IiBmaWxsPSIjRkY5OTE1Ij48L3BhdGg+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxwYXRoIGQ9Ik05OSwzNyBDOTMsMTIuMzMzMzMzMyA4Ni4zMzMzMzMzLC00LjUwMDEwMzk5ZS0xNCA3OSwtNS42ODQzNDE4OWUtMTQgQzY4LC03LjU3MTgwMTI1ZS0xNCA1OCwyOCA0NywyOCBDMzQsMjggMzMsMTUgMjMsMTUgQzE2LjMzMzMzMzMsMTUgOC42NjY2NjY2NywyMi4zMzMzMzMzIDAsMzciIGlkPSJMaW5lIiBzdHJva2U9IiNGRjk5MTUiIHN0cm9rZS1saW5lY2FwPSJzcXVhcmUiPjwvcGF0aD4KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8L2c+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICA8L2c+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICA8ZyBpZD0iR3JvdXAtMTQiIHRyYW5zZm9ybT0idHJhbnNsYXRlKDEwNy4wMDAwMDAsIDc4LjAwMDAwMCkiPgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxnIGlkPSJHcm91cC0xNiIgc3Ryb2tlPSIjMDAwMDAwIiBzdHJva2UtbGluZWNhcD0ic3F1YXJlIiBzdHJva2Utb3BhY2l0eT0iMC4wNCI+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxwYXRoIGQ9Ik0wLDE1IEwxMDAsMTUiIGlkPSJMaW5lIj48L3BhdGg+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxwYXRoIGQ9Ik0wLDI5IEwxMDAsMjkiIGlkPSJMaW5lIj48L3BhdGg+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxwYXRoIGQ9Ik0wLDQzIEwxMDAsNDMiIGlkPSJMaW5lIj48L3BhdGg+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxwYXRoIGQ9Ik0wLDEgTDEwMCwxIiBpZD0iTGluZSI+PC9wYXRoPgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8cGF0aCBkPSJNMSwwIEwxLDQ0IiBpZD0iTGluZS02Ij48L3BhdGg+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxwYXRoIGQ9Ik0zNCwwIEwzNCw0NCIgaWQ9IkxpbmUtNiI+PC9wYXRoPgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8cGF0aCBkPSJNNjcsMCBMNjcsNDQiIGlkPSJMaW5lLTYiPjwvcGF0aD4KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPHBhdGggZD0iTTEwMCwwIEwxMDAsNDQiIGlkPSJMaW5lLTYiPjwvcGF0aD4KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8L2c+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPGcgaWQ9Ikdyb3VwLTQiIHRyYW5zZm9ybT0idHJhbnNsYXRlKDEuMDAwMDAwLCA5LjAwMDAwMCkiPgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8cGF0aCBkPSJNOTguNDAxMzg4MSwxOS4wOTM5NjU2IEM5NS40NjcxMjk0LDE1LjAzMTMyMTkgOTIuMzMzMzMzMywxMyA4OSwxMyBDODQsMTMgNzAsMjggNjIsMjggQzQzLDI4IDM3LDAgMjUsMCBDMTcsMy40ODQ3MTgxNmUtMTYgOC42NjY2NjY2NywxMS42NjY2NjY3IDAsMzUgTDk4LjQwMTM4ODEsMzUgTDk4LjQwMTM4ODEsMTkuMDkzOTY1NiBaIiBpZD0iTGluZSIgZmlsbC1vcGFjaXR5PSIwLjQiIGZpbGw9IiNGRjk5MTUiPjwvcGF0aD4KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPHBhdGggZD0iTTk4LjQwMTM4ODEsMTkuMDkzOTY1NiBDOTUuNDY3MTI5NCwxNS4wMzEzMjE5IDkyLjMzMzMzMzMsMTMgODksMTMgQzg0LDEzIDcwLDI4IDYyLDI4IEM0MywyOCAzNywwIDI1LDAgQzE3LDMuNDg0NzE4MTZlLTE2IDguNjY2NjY2NjcsMTEuNjY2NjY2NyAwLDM1IiBpZD0iTGluZSIgc3Ryb2tlPSIjRkY5OTE1IiBzdHJva2UtbGluZWNhcD0ic3F1YXJlIj48L3BhdGg+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPC9nPgogICAgICAgICAgICAgICAgICAgICAgICAgICAgPC9nPgogICAgICAgICAgICAgICAgICAgICAgICA8L2c+CiAgICAgICAgICAgICAgICAgICAgPC9nPgogICAgICAgICAgICAgICAgPC9nPgogICAgICAgICAgICA8L2c+CiAgICAgICAgPC9nPgogICAgPC9nPgo8L3N2Zz4=</t>
+  </si>
+  <si>
+    <t>代码提交图</t>
+  </si>
+  <si>
+    <t>跟踪项目下团队与个人的代码提交情况。这有助于了解团队的整体效率与个人效率。</t>
+  </si>
+  <si>
+    <t>/devops/reports/submission</t>
+  </si>
+  <si>
+    <t>fd_report-2</t>
+  </si>
+  <si>
+    <t>data:image/svg+xml;base64,PHN2ZyB4bWxucz0iaHR0cDovL3d3dy53My5vcmcvMjAwMC9zdmciIHdpZHRoPSIyMDgiIGhlaWdodD0iMTIyIiB2aWV3Qm94PSIwIDAgMjA4IDEyMiI+CiAgPGcgZmlsbD0ibm9uZSIgZmlsbC1ydWxlPSJldmVub2RkIj4KICAgIDxyZWN0IHdpZHRoPSIyMDgiIGhlaWdodD0iMzYiIGZpbGw9IiMwMDAiIGZpbGwtb3BhY2l0eT0iLjA0IiByeD0iMiIvPgogICAgPGcgdHJhbnNmb3JtPSJ0cmFuc2xhdGUoMTIgMTApIj4KICAgICAgPGNpcmNsZSBjeD0iOCIgY3k9IjgiIHI9IjgiIGZpbGw9IiMwMEJGQTUiIGZpbGwtb3BhY2l0eT0iLjgiLz4KICAgICAgPHBhdGggZmlsbD0iI0YzRjNGMyIgZD0iTTcuMyw0IEw4Ljc4OCw0IEwxMi4wODgsMTIuNTY4IEwxMC42ODQsMTIuNTY4IEw5Ljg4LDEwLjM2IEw2LjE5NiwxMC4zNiBMNS4zOTIsMTIuNTY4IEw0LDEyLjU2OCBMNy4zLDQgWiBNNi41OTIsOS4yOCBMOS40ODQsOS4yOCBMOC4wNjgsNS40MDQgTDguMDIsNS40MDQgTDYuNTkyLDkuMjggWiIvPgogICAgPC9nPgogICAgPGcgdHJhbnNmb3JtPSJ0cmFuc2xhdGUoNDAgMTApIj4KICAgICAgPGNpcmNsZSBjeD0iOCIgY3k9IjgiIHI9IjgiIGZpbGw9IiM0RDkwRkUiIGZpbGwtb3BhY2l0eT0iLjgiLz4KICAgICAgPHBhdGggZmlsbD0iI0YzRjNGMyIgZD0iTTUsNCBMOC45MTIsNCBDOS43NTIsNCAxMC40LDQuMTkyIDEwLjg4LDQuNiBDMTEuMzM2LDQuOTg0IDExLjU2NCw1LjUgMTEuNTY0LDYuMTYgQzExLjU2NCw2LjY0IDExLjQ0NCw3LjA0OCAxMS4yMDQsNy4zODQgQzEwLjk2NCw3LjY5NiAxMC42NCw3LjkzNiAxMC4yMDgsOC4wOTIgQzEwLjc3Miw4LjIgMTEuMjA0LDguNDI4IDExLjQ5Miw4Ljc3NiBDMTEuNzgsOS4xMjQgMTEuOTI0LDkuNTkyIDExLjkyNCwxMC4xNjggQzExLjkyNCwxMS4wMzIgMTEuNjI0LDExLjY1NiAxMS4wMzYsMTIuMDY0IEMxMC41MzIsMTIuNCA5LjgyNCwxMi41NjggOC45MTIsMTIuNTY4IEw1LDEyLjU2OCBMNSw0IFogTTYuMzA4LDUuMDggTDYuMzA4LDcuNjM2IEw4LjU2NCw3LjYzNiBDOS4xNjQsNy42MzYgOS41OTYsNy41MjggOS44Niw3LjMyNCBDMTAuMTI0LDcuMTA4IDEwLjI1Niw2Ljc3MiAxMC4yNTYsNi4zMTYgQzEwLjI1Niw1Ljg4NCAxMC4xMjQsNS41NzIgOS44Niw1LjM4IEM5LjU5Niw1LjE3NiA5LjE2NCw1LjA4IDguNTg4LDUuMDggTDYuMzA4LDUuMDggWiBNNi4zMDgsOC43MDQgTDYuMzA4LDExLjQ4OCBMOC43MzIsMTEuNDg4IEM5LjI4NCwxMS40ODggOS43MTYsMTEuMzkyIDEwLjAyOCwxMS4yMjQgQzEwLjQxMiwxMC45OTYgMTAuNjE2LDEwLjYzNiAxMC42MTYsMTAuMTQ0IEMxMC42MTYsOS42NCAxMC40Niw5LjI2OCAxMC4xNiw5LjA0IEM5Ljg2LDguODEyIDkuMzkyLDguNzA0IDguNzY4LDguNzA0IEw2LjMwOCw4LjcwNCBaIi8+CiAgICA8L2c+CiAgICA8ZyB0cmFuc2Zvcm09InRyYW5zbGF0ZSg2OCAxMCkiPgogICAgICA8Y2lyY2xlIGN4PSI4IiBjeT0iOCIgcj0iOCIgZmlsbD0iI0ZGQjEwMCIgZmlsbC1vcGFjaXR5PSIuOCIvPgogICAgICA8cGF0aCBmaWxsPSIjRjNGM0YzIiBkPSJNOC4wOCw0IEM5LjA3Niw0IDkuOTA0LDQuMjUyIDEwLjU1Miw0Ljc4IEMxMS4xNzYsNS4yODQgMTEuNTYsNS45OCAxMS42OTIsNi44NDQgTDEwLjQyLDYuODQ0IEMxMC4yNzYsNi4yNjggMTAsNS44MzYgOS41OTIsNS41NiBDOS4xODQsNS4yODQgOC42OCw1LjE1MiA4LjA1Niw1LjE1MiBDNy4xMzIsNS4xNTIgNi40MzYsNS40NjQgNS45NjgsNi4xIEM1LjUyNCw2LjY3NiA1LjMwOCw3LjQ2OCA1LjMwOCw4LjQ2NCBDNS4zMDgsOS40OTYgNS41MjQsMTAuMjg4IDUuOTU2LDEwLjg1MiBDNi40MTIsMTEuNDUyIDcuMTIsMTEuNzUyIDguMDgsMTEuNzUyIEM4LjcwNCwxMS43NTIgOS4yMzIsMTEuNTk2IDkuNjQsMTEuMjg0IEMxMC4wNzIsMTAuOTQ4IDEwLjM3MiwxMC40NDQgMTAuNTQsOS43NzIgTDExLjgxMiw5Ljc3MiBDMTEuNjIsMTAuNzY4IDExLjE3NiwxMS41NDggMTAuNDY4LDEyLjExMiBDOS44MDgsMTIuNjQgOS4wMTYsMTIuOTA0IDguMDkyLDEyLjkwNCBDNi42ODgsMTIuOTA0IDUuNjMyLDEyLjQ0OCA0LjkyNCwxMS41NiBDNC4zLDEwLjc5MiA0LDkuNzYgNCw4LjQ2NCBDNCw3LjE5MiA0LjMxMiw2LjE2IDQuOTYsNS4zNTYgQzUuNjgsNC40NDQgNi43MTIsNCA4LjA4LDQgWiIvPgogICAgPC9nPgogICAgPGNpcmNsZSBjeD0iMTA0IiBjeT0iMTgiIHI9IjYiIHN0cm9rZT0iI0Y0NDMzNiIgc3Ryb2tlLW9wYWNpdHk9Ii44IiBzdHJva2Utd2lkdGg9IjQiLz4KICAgIDxnIHRyYW5zZm9ybT0idHJhbnNsYXRlKDEyNCAxMCkiPgogICAgICA8Y2lyY2xlIGN4PSI4IiBjeT0iOCIgcj0iNyIgc3Ryb2tlPSIjNEQ5MEZFIiBzdHJva2Utb3BhY2l0eT0iLjgiIHN0cm9rZS13aWR0aD0iMiIvPgogICAgICA8Y2lyY2xlIGN4PSI4IiBjeT0iOCIgcj0iNC4yNjciIGZpbGw9IiM0RDkwRkUiIGZpbGwtb3BhY2l0eT0iLjgiLz4KICAgIDwvZz4KICAgIDxyZWN0IHdpZHRoPSIzMCIgaGVpZ2h0PSI2IiB4PSIxNjYiIHk9IjkiIGZpbGw9IiMwMDAiIGZpbGwtb3BhY2l0eT0iLjA4IiByeD0iMyIvPgogICAgPHJlY3Qgd2lkdGg9IjMwIiBoZWlnaHQ9IjYiIHg9IjE2NiIgeT0iMjEiIGZpbGw9IiMwMDAiIGZpbGwtb3BhY2l0eT0iLjA4IiByeD0iMyIvPgogICAgPGcgdHJhbnNmb3JtPSJ0cmFuc2xhdGUoMCA0MykiPgogICAgICA8cmVjdCB3aWR0aD0iMjA4IiBoZWlnaHQ9IjM2IiBmaWxsPSIjMDAwIiBmaWxsLW9wYWNpdHk9Ii4wNCIgcng9IjIiLz4KICAgICAgPGcgdHJhbnNmb3JtPSJ0cmFuc2xhdGUoMTIgMTApIj4KICAgICAgICA8Y2lyY2xlIGN4PSI4IiBjeT0iOCIgcj0iOCIgZmlsbD0iIzAwQkZBNSIgZmlsbC1vcGFjaXR5PSIuOCIvPgogICAgICAgIDxwYXRoIGZpbGw9IiNGM0YzRjMiIGQ9Ik03LjMsNCBMOC43ODgsNCBMMTIuMDg4LDEyLjU2OCBMMTAuNjg0LDEyLjU2OCBMOS44OCwxMC4zNiBMNi4xOTYsMTAuMzYgTDUuMzkyLDEyLjU2OCBMNCwxMi41NjggTDcuMyw0IFogTTYuNTkyLDkuMjggTDkuNDg0LDkuMjggTDguMDY4LDUuNDA0IEw4LjAyLDUuNDA0IEw2LjU5Miw5LjI4IFoiLz4KICAgICAgICA8ZyB0cmFuc2Zvcm09InRyYW5zbGF0ZSgyOCkiPgogICAgICAgICAgPGNpcmNsZSBjeD0iOCIgY3k9IjgiIHI9IjgiIGZpbGw9IiM0RDkwRkUiIGZpbGwtb3BhY2l0eT0iLjgiLz4KICAgICAgICAgIDxwYXRoIGZpbGw9IiNGM0YzRjMiIGQ9Ik01LDQgTDguOTEyLDQgQzkuNzUyLDQgMTAuNCw0LjE5MiAxMC44OCw0LjYgQzExLjMzNiw0Ljk4NCAxMS41NjQsNS41IDExLjU2NCw2LjE2IEMxMS41NjQsNi42NCAxMS40NDQsNy4wNDggMTEuMjA0LDcuMzg0IEMxMC45NjQsNy42OTYgMTAuNjQsNy45MzYgMTAuMjA4LDguMDkyIEMxMC43NzIsOC4yIDExLjIwNCw4LjQyOCAxMS40OTIsOC43NzYgQzExLjc4LDkuMTI0IDExLjkyNCw5LjU5MiAxMS45MjQsMTAuMTY4IEMxMS45MjQsMTEuMDMyIDExLjYyNCwxMS42NTYgMTEuMDM2LDEyLjA2NCBDMTAuNTMyLDEyLjQgOS44MjQsMTIuNTY4IDguOTEyLDEyLjU2OCBMNSwxMi41NjggTDUsNCBaIE02LjMwOCw1LjA4IEw2LjMwOCw3LjYzNiBMOC41NjQsNy42MzYgQzkuMTY0LDcuNjM2IDkuNTk2LDcuNTI4IDkuODYsNy4zMjQgQzEwLjEyNCw3LjEwOCAxMC4yNTYsNi43NzIgMTAuMjU2LDYuMzE2IEMxMC4yNTYsNS44ODQgMTAuMTI0LDUuNTcyIDkuODYsNS4zOCBDOS41OTYsNS4xNzYgOS4xNjQsNS4wOCA4LjU4OCw1LjA4IEw2LjMwOCw1LjA4IFogTTYuMzA4LDguNzA0IEw2LjMwOCwxMS40ODggTDguNzMyLDExLjQ4OCBDOS4yODQsMTEuNDg4IDkuNzE2LDExLjM5MiAxMC4wMjgsMTEuMjI0IEMxMC40MTIsMTAuOTk2IDEwLjYxNiwxMC42MzYgMTAuNjE2LDEwLjE0NCBDMTAuNjE2LDkuNjQgMTAuNDYsOS4yNjggMTAuMTYsOS4wNCBDOS44Niw4LjgxMiA5LjM5Miw4LjcwNCA4Ljc2OCw4LjcwNCBMNi4zMDgsOC43MDQgWiIvPgogICAgICAgIDwvZz4KICAgICAgICA8ZyB0cmFuc2Zvcm09InRyYW5zbGF0ZSg1NikiPgogICAgICAgICAgPGNpcmNsZSBjeD0iOCIgY3k9IjgiIHI9IjgiIGZpbGw9IiNGRkIxMDAiIGZpbGwtb3BhY2l0eT0iLjgiLz4KICAgICAgICAgIDxwYXRoIGZpbGw9IiNGM0YzRjMiIGQ9Ik04LjA4LDQgQzkuMDc2LDQgOS45MDQsNC4yNTIgMTAuNTUyLDQuNzggQzExLjE3Niw1LjI4NCAxMS41Niw1Ljk4IDExLjY5Miw2Ljg0NCBMMTAuNDIsNi44NDQgQzEwLjI3Niw2LjI2OCAxMCw1LjgzNiA5LjU5Miw1LjU2IEM5LjE4NCw1LjI4NCA4LjY4LDUuMTUyIDguMDU2LDUuMTUyIEM3LjEzMiw1LjE1MiA2LjQzNiw1LjQ2NCA1Ljk2OCw2LjEgQzUuNTI0LDYuNjc2IDUuMzA4LDcuNDY4IDUuMzA4LDguNDY0IEM1LjMwOCw5LjQ5NiA1LjUyNCwxMC4yODggNS45NTYsMTAuODUyIEM2LjQxMiwxMS40NTIgNy4xMiwxMS43NTIgOC4wOCwxMS43NTIgQzguNzA0LDExLjc1MiA5LjIzMiwxMS41OTYgOS42NCwxMS4yODQgQzEwLjA3MiwxMC45NDggMTAuMzcyLDEwLjQ0NCAxMC41NCw5Ljc3MiBMMTEuODEyLDkuNzcyIEMxMS42MiwxMC43NjggMTEuMTc2LDExLjU0OCAxMC40NjgsMTIuMTEyIEM5LjgwOCwxMi42NCA5LjAxNiwxMi45MDQgOC4wOTIsMTIuOTA0IEM2LjY4OCwxMi45MDQgNS42MzIsMTIuNDQ4IDQuOTI0LDExLjU2IEM0LjMsMTAuNzkyIDQsOS43NiA0LDguNDY0IEM0LDcuMTkyIDQuMzEyLDYuMTYgNC45Niw1LjM1NiBDNS42OCw0LjQ0NCA2LjcxMiw0IDguMDgsNCBaIi8+CiAgICAgICAgPC9nPgogICAgICA8L2c+CiAgICAgIDxjaXJjbGUgY3g9IjEwNCIgY3k9IjE4IiByPSI2IiBzdHJva2U9IiMwMEJGQTUiIHN0cm9rZS1vcGFjaXR5PSIuOCIgc3Ryb2tlLXdpZHRoPSI0Ii8+CiAgICAgIDxnIHRyYW5zZm9ybT0idHJhbnNsYXRlKDEyNCAxMCkiPgogICAgICAgIDxjaXJjbGUgY3g9IjgiIGN5PSI4IiByPSI3IiBzdHJva2U9IiM0RDkwRkUiIHN0cm9rZS1vcGFjaXR5PSIuOCIgc3Ryb2tlLXdpZHRoPSIyIi8+CiAgICAgICAgPGNpcmNsZSBjeD0iOCIgY3k9IjgiIHI9IjQuMjY3IiBmaWxsPSIjNEQ5MEZFIiBmaWxsLW9wYWNpdHk9Ii44Ii8+CiAgICAgIDwvZz4KICAgICAgPHJlY3Qgd2lkdGg9IjMwIiBoZWlnaHQ9IjYiIHg9IjE2NiIgeT0iOSIgZmlsbD0iIzAwMCIgZmlsbC1vcGFjaXR5PSIuMDgiIHJ4PSIzIi8+CiAgICAgIDxyZWN0IHdpZHRoPSIzMCIgaGVpZ2h0PSI2IiB4PSIxNjYiIHk9IjIxIiBmaWxsPSIjMDAwIiBmaWxsLW9wYWNpdHk9Ii4wOCIgcng9IjMiLz4KICAgIDwvZz4KICAgIDxnIHRyYW5zZm9ybT0idHJhbnNsYXRlKDAgODYpIj4KICAgICAgPHJlY3Qgd2lkdGg9IjIwOCIgaGVpZ2h0PSIzNiIgZmlsbD0iIzAwMCIgZmlsbC1vcGFjaXR5PSIuMDQiIHJ4PSIyIi8+CiAgICAgIDxnIHRyYW5zZm9ybT0idHJhbnNsYXRlKDEyIDEwKSI+CiAgICAgICAgPGNpcmNsZSBjeD0iOCIgY3k9IjgiIHI9IjgiIGZpbGw9IiMwMEJGQTUiIGZpbGwtb3BhY2l0eT0iLjgiLz4KICAgICAgICA8cGF0aCBmaWxsPSIjRjNGM0YzIiBkPSJNNy4zLDQgTDguNzg4LDQgTDEyLjA4OCwxMi41NjggTDEwLjY4NCwxMi41NjggTDkuODgsMTAuMzYgTDYuMTk2LDEwLjM2IEw1LjM5MiwxMi41NjggTDQsMTIuNTY4IEw3LjMsNCBaIE02LjU5Miw5LjI4IEw5LjQ4NCw5LjI4IEw4LjA2OCw1LjQwNCBMOC4wMiw1LjQwNCBMNi41OTIsOS4yOCBaIi8+CiAgICAgICAgPGcgdHJhbnNmb3JtPSJ0cmFuc2xhdGUoMjgpIj4KICAgICAgICAgIDxjaXJjbGUgY3g9IjgiIGN5PSI4IiByPSI4IiBmaWxsPSIjNEQ5MEZFIiBmaWxsLW9wYWNpdHk9Ii44Ii8+CiAgICAgICAgICA8cGF0aCBmaWxsPSIjRjNGM0YzIiBkPSJNNSw0IEw4LjkxMiw0IEM5Ljc1Miw0IDEwLjQsNC4xOTIgMTAuODgsNC42IEMxMS4zMzYsNC45ODQgMTEuNTY0LDUuNSAxMS41NjQsNi4xNiBDMTEuNTY0LDYuNjQgMTEuNDQ0LDcuMDQ4IDExLjIwNCw3LjM4NCBDMTAuOTY0LDcuNjk2IDEwLjY0LDcuOTM2IDEwLjIwOCw4LjA5MiBDMTAuNzcyLDguMiAxMS4yMDQsOC40MjggMTEuNDkyLDguNzc2IEMxMS43OCw5LjEyNCAxMS45MjQsOS41OTIgMTEuOTI0LDEwLjE2OCBDMTEuOTI0LDExLjAzMiAxMS42MjQsMTEuNjU2IDExLjAzNiwxMi4wNjQgQzEwLjUzMiwxMi40IDkuODI0LDEyLjU2OCA4LjkxMiwxMi41NjggTDUsMTIuNTY4IEw1LDQgWiBNNi4zMDgsNS4wOCBMNi4zMDgsNy42MzYgTDguNTY0LDcuNjM2IEM5LjE2NCw3LjYzNiA5LjU5Niw3LjUyOCA5Ljg2LDcuMzI0IEMxMC4xMjQsNy4xMDggMTAuMjU2LDYuNzcyIDEwLjI1Niw2LjMxNiBDMTAuMjU2LDUuODg0IDEwLjEyNCw1LjU3MiA5Ljg2LDUuMzggQzkuNTk2LDUuMTc2IDkuMTY0LDUuMDggOC41ODgsNS4wOCBMNi4zMDgsNS4wOCBaIE02LjMwOCw4LjcwNCBMNi4zMDgsMTEuNDg4IEw4LjczMiwxMS40ODggQzkuMjg0LDExLjQ4OCA5LjcxNiwxMS4zOTIgMTAuMDI4LDExLjIyNCBDMTAuNDEyLDEwLjk5NiAxMC42MTYsMTAuNjM2IDEwLjYxNiwxMC4xNDQgQzEwLjYxNiw5LjY0IDEwLjQ2LDkuMjY4IDEwLjE2LDkuMDQgQzkuODYsOC44MTIgOS4zOTIsOC43MDQgOC43NjgsOC43MDQgTDYuMzA4LDguNzA0IFoiLz4KICAgICAgICA8L2c+CiAgICAgICAgPGcgdHJhbnNmb3JtPSJ0cmFuc2xhdGUoNTYpIj4KICAgICAgICAgIDxjaXJjbGUgY3g9IjgiIGN5PSI4IiByPSI4IiBmaWxsPSIjRkZCMTAwIiBmaWxsLW9wYWNpdHk9Ii44Ii8+CiAgICAgICAgICA8cGF0aCBmaWxsPSIjRjNGM0YzIiBkPSJNOC4wOCw0IEM5LjA3Niw0IDkuOTA0LDQuMjUyIDEwLjU1Miw0Ljc4IEMxMS4xNzYsNS4yODQgMTEuNTYsNS45OCAxMS42OTIsNi44NDQgTDEwLjQyLDYuODQ0IEMxMC4yNzYsNi4yNjggMTAsNS44MzYgOS41OTIsNS41NiBDOS4xODQsNS4yODQgOC42OCw1LjE1MiA4LjA1Niw1LjE1MiBDNy4xMzIsNS4xNTIgNi40MzYsNS40NjQgNS45NjgsNi4xIEM1LjUyNCw2LjY3NiA1LjMwOCw3LjQ2OCA1LjMwOCw4LjQ2NCBDNS4zMDgsOS40OTYgNS41MjQsMTAuMjg4IDUuOTU2LDEwLjg1MiBDNi40MTIsMTEuNDUyIDcuMTIsMTEuNzUyIDguMDgsMTEuNzUyIEM4LjcwNCwxMS43NTIgOS4yMzIsMTEuNTk2IDkuNjQsMTEuMjg0IEMxMC4wNzIsMTAuOTQ4IDEwLjM3MiwxMC40NDQgMTAuNTQsOS43NzIgTDExLjgxMiw5Ljc3MiBDMTEuNjIsMTAuNzY4IDExLjE3NiwxMS41NDggMTAuNDY4LDEyLjExMiBDOS44MDgsMTIuNjQgOS4wMTYsMTIuOTA0IDguMDkyLDEyLjkwNCBDNi42ODgsMTIuOTA0IDUuNjMyLDEyLjQ0OCA0LjkyNCwxMS41NiBDNC4zLDEwLjc5MiA0LDkuNzYgNCw4LjQ2NCBDNCw3LjE5MiA0LjMxMiw2LjE2IDQuOTYsNS4zNTYgQzUuNjgsNC40NDQgNi43MTIsNCA4LjA4LDQgWiIvPgogICAgICAgIDwvZz4KICAgICAgPC9nPgogICAgICA8Y2lyY2xlIGN4PSIxMDQiIGN5PSIxOCIgcj0iNiIgc3Ryb2tlPSIjRjQ0MzM2IiBzdHJva2Utb3BhY2l0eT0iLjgiIHN0cm9rZS13aWR0aD0iNCIvPgogICAgICA8ZyB0cmFuc2Zvcm09InRyYW5zbGF0ZSgxMjQgMTApIj4KICAgICAgICA8Y2lyY2xlIGN4PSI4IiBjeT0iOCIgcj0iNyIgc3Ryb2tlPSIjNEQ5MEZFIiBzdHJva2Utb3BhY2l0eT0iLjgiIHN0cm9rZS13aWR0aD0iMiIvPgogICAgICAgIDxjaXJjbGUgY3g9IjgiIGN5PSI4IiByPSI0LjI2NyIgZmlsbD0iIzREOTBGRSIgZmlsbC1vcGFjaXR5PSIuOCIvPgogICAgICA8L2c+CiAgICAgIDxyZWN0IHdpZHRoPSIzMCIgaGVpZ2h0PSI2IiB4PSIxNjYiIHk9IjkiIGZpbGw9IiMwMDAiIGZpbGwtb3BhY2l0eT0iLjA4IiByeD0iMyIvPgogICAgICA8cmVjdCB3aWR0aD0iMzAiIGhlaWdodD0iNiIgeD0iMTY2IiB5PSIyMSIgZmlsbD0iIzAwMCIgZmlsbC1vcGFjaXR5PSIuMDgiIHJ4PSIzIi8+CiAgICA8L2c+CiAgPC9nPgo8L3N2Zz4K</t>
+  </si>
+  <si>
     <t>代码质量图</t>
   </si>
   <si>
     <t>展示项目下所有应用的代码质量详情。这有助于您了解到每个应用的质量情况。</t>
   </si>
   <si>
-    <t>#report_type</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>icon</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>#title</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>DevOps 报表</t>
-  </si>
-  <si>
-    <t>data:image/svg+xml;base64,PD94bWwgdmVyc2lvbj0iMS4wIiBlbmNvZGluZz0iVVRGLTgiIHN0YW5kYWxvbmU9Im5vIj8+Cjxzdmcgd2lkdGg9IjIwOXB4IiBoZWlnaHQ9IjEyNHB4IiB2aWV3Qm94PSIwIDAgMjA5IDEyNCIgdmVyc2lvbj0iMS4xIiB4bWxucz0iaHR0cDovL3d3dy53My5vcmcvMjAwMC9zdmciIHhtbG5zOnhsaW5rPSJodHRwOi8vd3d3LnczLm9yZy8xOTk5L3hsaW5rIj4KICAgIDwhLS0gR2VuZXJhdG9yOiBTa2V0Y2ggNDkgKDUxMDAyKSAtIGh0dHA6Ly93d3cuYm9oZW1pYW5jb2RpbmcuY29tL3NrZXRjaCAtLT4KICAgIDx0aXRsZT5Hcm91cCAxNzwvdGl0bGU+CiAgICA8ZGVzYz5DcmVhdGVkIHdpdGggU2tldGNoLjwvZGVzYz4KICAgIDxkZWZzPjwvZGVmcz4KICAgIDxnIGlkPSLmiqXooagiIHN0cm9rZT0ibm9uZSIgc3Ryb2tlLXdpZHRoPSIxIiBmaWxsPSJub25lIiBmaWxsLXJ1bGU9ImV2ZW5vZGQiPgogICAgICAgIDxnIGlkPSJEZXZPcHPmiqXooagiIHRyYW5zZm9ybT0idHJhbnNsYXRlKC0zMDguMDAwMDAwLCAtMjczLjAwMDAwMCkiPgogICAgICAgICAgICA8ZyBpZD0iR3JvdXAtNSIgdHJhbnNmb3JtPSJ0cmFuc2xhdGUoMjc0LjAwMDAwMCwgMTMyLjAwMDAwMCkiPgogICAgICAgICAgICAgICAgPGcgaWQ9IuaJgOacieaKpeihqO+8jeS7o+eggeaPkOS6pOaDheWGtSIgdHJhbnNmb3JtPSJ0cmFuc2xhdGUoMC4wMDAwMDAsIDEwMi4wMDAwMDApIj4KICAgICAgICAgICAgICAgICAgICA8ZyBpZD0iR3JvdXAiIHRyYW5zZm9ybT0idHJhbnNsYXRlKDE4LjAwMDAwMCwgMTguMDAwMDAwKSI+CiAgICAgICAgICAgICAgICAgICAgICAgIDxnIGlkPSJHcm91cC0xNyIgdHJhbnNmb3JtPSJ0cmFuc2xhdGUoMTcuMDAwMDAwLCAyMi4wMDAwMDApIj4KICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxnIGlkPSJHcm91cC0xNSI+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPGcgaWQ9Ikdyb3VwLTE2IiBzdHJva2U9IiMwMDAwMDAiIHN0cm9rZS1saW5lY2FwPSJzcXVhcmUiIHN0cm9rZS1vcGFjaXR5PSIwLjA0Ij4KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPHBhdGggZD0iTTAsNjkuNDQ0NDQ0NCBMMjA3LjEyODQ5Miw2OS40NDQ0NDQ0IiBpZD0iTGluZSI+PC9wYXRoPgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8cGF0aCBkPSJNMCw1MS42NjY2NjY3IEwyMDcuMTI4NDkyLDUxLjY2NjY2NjciIGlkPSJMaW5lIj48L3BhdGg+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxwYXRoIGQ9Ik0wLDM1IEwyMDcuMTI4NDkyLDM1IiBpZD0iTGluZSI+PC9wYXRoPgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8cGF0aCBkPSJNMCwxNy4yMjIyMjIyIEwyMDcuMTI4NDkyLDE3LjIyMjIyMjIiIGlkPSJMaW5lIj48L3BhdGg+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxwYXRoIGQ9Ik0wLDAuNTU1NTU1NTU2IEwyMDcuMTI4NDkyLDAuNTU1NTU1NTU2IiBpZD0iTGluZSI+PC9wYXRoPgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8cGF0aCBkPSJNMSwwIEwxLDcwIiBpZD0iTGluZS02Ij48L3BhdGg+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxwYXRoIGQ9Ik0zNS4xNjY2NjY3LDAgTDM1LjE2NjY2NjcsNzAiIGlkPSJMaW5lLTYiPjwvcGF0aD4KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPHBhdGggZD0iTTY5LjMzMzMzMzMsMCBMNjkuMzMzMzMzMyw3MCIgaWQ9IkxpbmUtNiI+PC9wYXRoPgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8cGF0aCBkPSJNMTAzLjUsMCBMMTAzLjUsNzAiIGlkPSJMaW5lLTYiPjwvcGF0aD4KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPHBhdGggZD0iTTEzNy42NjY2NjcsMCBMMTM3LjY2NjY2Nyw3MCIgaWQ9IkxpbmUtNiI+PC9wYXRoPgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8cGF0aCBkPSJNMTcxLjgzMzMzMywwIEwxNzEuODMzMzMzLDcwIiBpZD0iTGluZS02Ij48L3BhdGg+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxwYXRoIGQ9Ik0yMDYsMCBMMjA2LDcwIiBpZD0iTGluZS02Ij48L3BhdGg+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPC9nPgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxnIGlkPSJHcm91cC00IiB0cmFuc2Zvcm09InRyYW5zbGF0ZSgwLjAwMDAwMCwgOC4wMDAwMDApIj4KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPHBhdGggZD0iTTIwNiwxNC40NzA1MDY0IEMyMDEuMzMzMzMzLDMyLjI1ODU2NjkgMTk1LDQxLjE1MjU5NzIgMTg3LDQxLjE1MjU5NzIgQzE3NSw0MS4xNTI1OTcyIDE2Niw5LjE2NjU3ODE0ZS0xNCAxNTEsMS45NTE1ODE2OGUtMTQgQzEzNiwtNS4zODEwMjYwNWUtMTQgMTMwLjY4MDYyMiwzMy4zNzU1MjI5IDEyMywzMy4zNzU1MjI5IEMxMTUuMzE5Mzc4LDMzLjM3NTUyMjkgMTE1LDE0LjQ3MDUwNjQgMTAzLjU2NDI0NiwxNC40NzA1MDY0IEM5Mi4xMjg0OTE2LDE0LjQ3MDUwNjQgODQuMTc1MTI4NSw1MC4wODM5Mjg0IDcwLDUwLjA4MzkyODQgQzU1LjgyNDg3MTUsNTAuMDgzOTI4NCAzOSwzLjcwMzMzNTI5ZS0xNCAyNiwwIEMxNy4zMzMzMzMzLC0yLjQ1MjIzNzg2ZS0xNCA4LjY2NjY2NjY3LDkuNzQ4MDUxODIgMS40MjEwODU0N2UtMTQsMjkuMjQ0MTU1NSBMMCw2MSBMMjA2LDYxIEwyMDYsMTQuNDcwNTA2NCBaIiBpZD0iTGluZSIgZmlsbC1vcGFjaXR5PSIwLjQiIGZpbGw9IiM0Njc3REQiPjwvcGF0aD4KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPHBhdGggZD0iTTIwNiwxNC40NDYyNTc0IEMyMDEuMzMzMzMzLDMyLjIwNDUwOTQgMTk1LDQxLjA4MzYzNTUgMTg3LDQxLjA4MzYzNTUgQzE3NSw0MS4wODM2MzU1IDE2Niw5LjE1MTIxNzE5ZS0xNCAxNTEsMS45NDgzMTEzZS0xNCBDMTM2LC01LjM3MjAwODc3ZS0xNCAxMzAuNjgwNjIyLDMzLjMxOTU5MzcgMTIzLDMzLjMxOTU5MzcgQzExNS4zMTkzNzgsMzMuMzE5NTkzNyAxMTUsMTQuNDQ2MjU3NCAxMDMuNTY0MjQ2LDE0LjQ0NjI1NzQgQzkyLjEyODQ5MTYsMTQuNDQ2MjU3NCA4NC4xNzUxMjg1LDUwIDcwLDUwIEM1NS44MjQ4NzE1LDUwIDM5LDMuNjk3MTI5NDFlLTE0IDI2LDAgQzE3LjMzMzMzMzMsLTIuNDQ4MTI4NTFlLTE0IDguNjY2NjY2NjcsOS43MzE3MTY0NyAwLDI5LjE5NTE0OTQiIGlkPSJMaW5lIiBzdHJva2U9IiM0Njc3REQiIHN0cm9rZS1saW5lY2FwPSJzcXVhcmUiPjwvcGF0aD4KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8L2c+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICA8L2c+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICA8ZyBpZD0iR3JvdXAtMTQiIHRyYW5zZm9ybT0idHJhbnNsYXRlKDAuMDAwMDAwLCA3OC4wMDAwMDApIj4KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8ZyBpZD0iR3JvdXAtMTYiIHN0cm9rZT0iIzAwMDAwMCIgc3Ryb2tlLWxpbmVjYXA9InNxdWFyZSIgc3Ryb2tlLW9wYWNpdHk9IjAuMDQiPgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8cGF0aCBkPSJNMCwxNSBMMTAwLDE1IiBpZD0iTGluZSI+PC9wYXRoPgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8cGF0aCBkPSJNMCwyOSBMMTAwLDI5IiBpZD0iTGluZSI+PC9wYXRoPgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8cGF0aCBkPSJNMCw0MyBMMTAwLDQzIiBpZD0iTGluZSI+PC9wYXRoPgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8cGF0aCBkPSJNMCwxIEwxMDAsMSIgaWQ9IkxpbmUiPjwvcGF0aD4KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPHBhdGggZD0iTTEsMCBMMSw0NCIgaWQ9IkxpbmUtNiI+PC9wYXRoPgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8cGF0aCBkPSJNMzQsMCBMMzQsNDQiIGlkPSJMaW5lLTYiPjwvcGF0aD4KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPHBhdGggZD0iTTY3LDAgTDY3LDQ0IiBpZD0iTGluZS02Ij48L3BhdGg+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxwYXRoIGQ9Ik0xMDAsMCBMMTAwLDQ0IiBpZD0iTGluZS02Ij48L3BhdGg+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPC9nPgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxnIGlkPSJHcm91cC00IiB0cmFuc2Zvcm09InRyYW5zbGF0ZSg1MC41MDAwMDAsIDI1LjUwMDAwMCkgc2NhbGUoLTEsIDEpIHRyYW5zbGF0ZSgtNTAuNTAwMDAwLCAtMjUuNTAwMDAwKSB0cmFuc2xhdGUoMS4wMDAwMDAsIDcuMDAwMDAwKSI+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxwYXRoIGQ9Ik03OSwtNS42ODQzNDE4OWUtMTQgQzY4LC03LjU3MTgwMTI1ZS0xNCA1OCwyOCA0NywyOCBDMzQsMjggMzMsMTUgMjMsMTUgQzE2LjMzMzMzMzMsMTUgOC42NjY2NjY2NywyMi4zMzMzMzMzIDAsMzcgTDk4LjQwMTM4ODEsMzcgQzkyLjgwMDQ2MjcsMTIuMzMzMzMzMyA4Ni4zMzMzMzMzLC00LjUwMDEwMzk5ZS0xNCA3OSwtNS42ODQzNDE4OWUtMTQgWiIgaWQ9IkxpbmUiIGZpbGwtb3BhY2l0eT0iMC40IiBmaWxsPSIjRkY5OTE1Ij48L3BhdGg+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxwYXRoIGQ9Ik05OSwzNyBDOTMsMTIuMzMzMzMzMyA4Ni4zMzMzMzMzLC00LjUwMDEwMzk5ZS0xNCA3OSwtNS42ODQzNDE4OWUtMTQgQzY4LC03LjU3MTgwMTI1ZS0xNCA1OCwyOCA0NywyOCBDMzQsMjggMzMsMTUgMjMsMTUgQzE2LjMzMzMzMzMsMTUgOC42NjY2NjY2NywyMi4zMzMzMzMzIDAsMzciIGlkPSJMaW5lIiBzdHJva2U9IiNGRjk5MTUiIHN0cm9rZS1saW5lY2FwPSJzcXVhcmUiPjwvcGF0aD4KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8L2c+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICA8L2c+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICA8ZyBpZD0iR3JvdXAtMTQiIHRyYW5zZm9ybT0idHJhbnNsYXRlKDEwNy4wMDAwMDAsIDc4LjAwMDAwMCkiPgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxnIGlkPSJHcm91cC0xNiIgc3Ryb2tlPSIjMDAwMDAwIiBzdHJva2UtbGluZWNhcD0ic3F1YXJlIiBzdHJva2Utb3BhY2l0eT0iMC4wNCI+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxwYXRoIGQ9Ik0wLDE1IEwxMDAsMTUiIGlkPSJMaW5lIj48L3BhdGg+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxwYXRoIGQ9Ik0wLDI5IEwxMDAsMjkiIGlkPSJMaW5lIj48L3BhdGg+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxwYXRoIGQ9Ik0wLDQzIEwxMDAsNDMiIGlkPSJMaW5lIj48L3BhdGg+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxwYXRoIGQ9Ik0wLDEgTDEwMCwxIiBpZD0iTGluZSI+PC9wYXRoPgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8cGF0aCBkPSJNMSwwIEwxLDQ0IiBpZD0iTGluZS02Ij48L3BhdGg+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxwYXRoIGQ9Ik0zNCwwIEwzNCw0NCIgaWQ9IkxpbmUtNiI+PC9wYXRoPgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8cGF0aCBkPSJNNjcsMCBMNjcsNDQiIGlkPSJMaW5lLTYiPjwvcGF0aD4KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPHBhdGggZD0iTTEwMCwwIEwxMDAsNDQiIGlkPSJMaW5lLTYiPjwvcGF0aD4KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8L2c+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPGcgaWQ9Ikdyb3VwLTQiIHRyYW5zZm9ybT0idHJhbnNsYXRlKDEuMDAwMDAwLCA5LjAwMDAwMCkiPgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8cGF0aCBkPSJNOTguNDAxMzg4MSwxOS4wOTM5NjU2IEM5NS40NjcxMjk0LDE1LjAzMTMyMTkgOTIuMzMzMzMzMywxMyA4OSwxMyBDODQsMTMgNzAsMjggNjIsMjggQzQzLDI4IDM3LDAgMjUsMCBDMTcsMy40ODQ3MTgxNmUtMTYgOC42NjY2NjY2NywxMS42NjY2NjY3IDAsMzUgTDk4LjQwMTM4ODEsMzUgTDk4LjQwMTM4ODEsMTkuMDkzOTY1NiBaIiBpZD0iTGluZSIgZmlsbC1vcGFjaXR5PSIwLjQiIGZpbGw9IiNGRjk5MTUiPjwvcGF0aD4KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPHBhdGggZD0iTTk4LjQwMTM4ODEsMTkuMDkzOTY1NiBDOTUuNDY3MTI5NCwxNS4wMzEzMjE5IDkyLjMzMzMzMzMsMTMgODksMTMgQzg0LDEzIDcwLDI4IDYyLDI4IEM0MywyOCAzNywwIDI1LDAgQzE3LDMuNDg0NzE4MTZlLTE2IDguNjY2NjY2NjcsMTEuNjY2NjY2NyAwLDM1IiBpZD0iTGluZSIgc3Ryb2tlPSIjRkY5OTE1IiBzdHJva2UtbGluZWNhcD0ic3F1YXJlIj48L3BhdGg+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPC9nPgogICAgICAgICAgICAgICAgICAgICAgICAgICAgPC9nPgogICAgICAgICAgICAgICAgICAgICAgICA8L2c+CiAgICAgICAgICAgICAgICAgICAgPC9nPgogICAgICAgICAgICAgICAgPC9nPgogICAgICAgICAgICA8L2c+CiAgICAgICAgPC9nPgogICAgPC9nPgo8L3N2Zz4=</t>
-  </si>
-  <si>
-    <t>代码提交图</t>
-  </si>
-  <si>
-    <t>跟踪项目下团队与个人的代码提交情况。这有助于了解团队的整体效率与个人效率。</t>
-  </si>
-  <si>
-    <t>/devops/reports/submission</t>
-  </si>
-  <si>
-    <t>data:image/svg+xml;base64,PHN2ZyB4bWxucz0iaHR0cDovL3d3dy53My5vcmcvMjAwMC9zdmciIHdpZHRoPSIyMDgiIGhlaWdodD0iMTIyIiB2aWV3Qm94PSIwIDAgMjA4IDEyMiI+CiAgPGcgZmlsbD0ibm9uZSIgZmlsbC1ydWxlPSJldmVub2RkIj4KICAgIDxyZWN0IHdpZHRoPSIyMDgiIGhlaWdodD0iMzYiIGZpbGw9IiMwMDAiIGZpbGwtb3BhY2l0eT0iLjA0IiByeD0iMiIvPgogICAgPGcgdHJhbnNmb3JtPSJ0cmFuc2xhdGUoMTIgMTApIj4KICAgICAgPGNpcmNsZSBjeD0iOCIgY3k9IjgiIHI9IjgiIGZpbGw9IiMwMEJGQTUiIGZpbGwtb3BhY2l0eT0iLjgiLz4KICAgICAgPHBhdGggZmlsbD0iI0YzRjNGMyIgZD0iTTcuMyw0IEw4Ljc4OCw0IEwxMi4wODgsMTIuNTY4IEwxMC42ODQsMTIuNTY4IEw5Ljg4LDEwLjM2IEw2LjE5NiwxMC4zNiBMNS4zOTIsMTIuNTY4IEw0LDEyLjU2OCBMNy4zLDQgWiBNNi41OTIsOS4yOCBMOS40ODQsOS4yOCBMOC4wNjgsNS40MDQgTDguMDIsNS40MDQgTDYuNTkyLDkuMjggWiIvPgogICAgPC9nPgogICAgPGcgdHJhbnNmb3JtPSJ0cmFuc2xhdGUoNDAgMTApIj4KICAgICAgPGNpcmNsZSBjeD0iOCIgY3k9IjgiIHI9IjgiIGZpbGw9IiM0RDkwRkUiIGZpbGwtb3BhY2l0eT0iLjgiLz4KICAgICAgPHBhdGggZmlsbD0iI0YzRjNGMyIgZD0iTTUsNCBMOC45MTIsNCBDOS43NTIsNCAxMC40LDQuMTkyIDEwLjg4LDQuNiBDMTEuMzM2LDQuOTg0IDExLjU2NCw1LjUgMTEuNTY0LDYuMTYgQzExLjU2NCw2LjY0IDExLjQ0NCw3LjA0OCAxMS4yMDQsNy4zODQgQzEwLjk2NCw3LjY5NiAxMC42NCw3LjkzNiAxMC4yMDgsOC4wOTIgQzEwLjc3Miw4LjIgMTEuMjA0LDguNDI4IDExLjQ5Miw4Ljc3NiBDMTEuNzgsOS4xMjQgMTEuOTI0LDkuNTkyIDExLjkyNCwxMC4xNjggQzExLjkyNCwxMS4wMzIgMTEuNjI0LDExLjY1NiAxMS4wMzYsMTIuMDY0IEMxMC41MzIsMTIuNCA5LjgyNCwxMi41NjggOC45MTIsMTIuNTY4IEw1LDEyLjU2OCBMNSw0IFogTTYuMzA4LDUuMDggTDYuMzA4LDcuNjM2IEw4LjU2NCw3LjYzNiBDOS4xNjQsNy42MzYgOS41OTYsNy41MjggOS44Niw3LjMyNCBDMTAuMTI0LDcuMTA4IDEwLjI1Niw2Ljc3MiAxMC4yNTYsNi4zMTYgQzEwLjI1Niw1Ljg4NCAxMC4xMjQsNS41NzIgOS44Niw1LjM4IEM5LjU5Niw1LjE3NiA5LjE2NCw1LjA4IDguNTg4LDUuMDggTDYuMzA4LDUuMDggWiBNNi4zMDgsOC43MDQgTDYuMzA4LDExLjQ4OCBMOC43MzIsMTEuNDg4IEM5LjI4NCwxMS40ODggOS43MTYsMTEuMzkyIDEwLjAyOCwxMS4yMjQgQzEwLjQxMiwxMC45OTYgMTAuNjE2LDEwLjYzNiAxMC42MTYsMTAuMTQ0IEMxMC42MTYsOS42NCAxMC40Niw5LjI2OCAxMC4xNiw5LjA0IEM5Ljg2LDguODEyIDkuMzkyLDguNzA0IDguNzY4LDguNzA0IEw2LjMwOCw4LjcwNCBaIi8+CiAgICA8L2c+CiAgICA8ZyB0cmFuc2Zvcm09InRyYW5zbGF0ZSg2OCAxMCkiPgogICAgICA8Y2lyY2xlIGN4PSI4IiBjeT0iOCIgcj0iOCIgZmlsbD0iI0ZGQjEwMCIgZmlsbC1vcGFjaXR5PSIuOCIvPgogICAgICA8cGF0aCBmaWxsPSIjRjNGM0YzIiBkPSJNOC4wOCw0IEM5LjA3Niw0IDkuOTA0LDQuMjUyIDEwLjU1Miw0Ljc4IEMxMS4xNzYsNS4yODQgMTEuNTYsNS45OCAxMS42OTIsNi44NDQgTDEwLjQyLDYuODQ0IEMxMC4yNzYsNi4yNjggMTAsNS44MzYgOS41OTIsNS41NiBDOS4xODQsNS4yODQgOC42OCw1LjE1MiA4LjA1Niw1LjE1MiBDNy4xMzIsNS4xNTIgNi40MzYsNS40NjQgNS45NjgsNi4xIEM1LjUyNCw2LjY3NiA1LjMwOCw3LjQ2OCA1LjMwOCw4LjQ2NCBDNS4zMDgsOS40OTYgNS41MjQsMTAuMjg4IDUuOTU2LDEwLjg1MiBDNi40MTIsMTEuNDUyIDcuMTIsMTEuNzUyIDguMDgsMTEuNzUyIEM4LjcwNCwxMS43NTIgOS4yMzIsMTEuNTk2IDkuNjQsMTEuMjg0IEMxMC4wNzIsMTAuOTQ4IDEwLjM3MiwxMC40NDQgMTAuNTQsOS43NzIgTDExLjgxMiw5Ljc3MiBDMTEuNjIsMTAuNzY4IDExLjE3NiwxMS41NDggMTAuNDY4LDEyLjExMiBDOS44MDgsMTIuNjQgOS4wMTYsMTIuOTA0IDguMDkyLDEyLjkwNCBDNi42ODgsMTIuOTA0IDUuNjMyLDEyLjQ0OCA0LjkyNCwxMS41NiBDNC4zLDEwLjc5MiA0LDkuNzYgNCw4LjQ2NCBDNCw3LjE5MiA0LjMxMiw2LjE2IDQuOTYsNS4zNTYgQzUuNjgsNC40NDQgNi43MTIsNCA4LjA4LDQgWiIvPgogICAgPC9nPgogICAgPGNpcmNsZSBjeD0iMTA0IiBjeT0iMTgiIHI9IjYiIHN0cm9rZT0iI0Y0NDMzNiIgc3Ryb2tlLW9wYWNpdHk9Ii44IiBzdHJva2Utd2lkdGg9IjQiLz4KICAgIDxnIHRyYW5zZm9ybT0idHJhbnNsYXRlKDEyNCAxMCkiPgogICAgICA8Y2lyY2xlIGN4PSI4IiBjeT0iOCIgcj0iNyIgc3Ryb2tlPSIjNEQ5MEZFIiBzdHJva2Utb3BhY2l0eT0iLjgiIHN0cm9rZS13aWR0aD0iMiIvPgogICAgICA8Y2lyY2xlIGN4PSI4IiBjeT0iOCIgcj0iNC4yNjciIGZpbGw9IiM0RDkwRkUiIGZpbGwtb3BhY2l0eT0iLjgiLz4KICAgIDwvZz4KICAgIDxyZWN0IHdpZHRoPSIzMCIgaGVpZ2h0PSI2IiB4PSIxNjYiIHk9IjkiIGZpbGw9IiMwMDAiIGZpbGwtb3BhY2l0eT0iLjA4IiByeD0iMyIvPgogICAgPHJlY3Qgd2lkdGg9IjMwIiBoZWlnaHQ9IjYiIHg9IjE2NiIgeT0iMjEiIGZpbGw9IiMwMDAiIGZpbGwtb3BhY2l0eT0iLjA4IiByeD0iMyIvPgogICAgPGcgdHJhbnNmb3JtPSJ0cmFuc2xhdGUoMCA0MykiPgogICAgICA8cmVjdCB3aWR0aD0iMjA4IiBoZWlnaHQ9IjM2IiBmaWxsPSIjMDAwIiBmaWxsLW9wYWNpdHk9Ii4wNCIgcng9IjIiLz4KICAgICAgPGcgdHJhbnNmb3JtPSJ0cmFuc2xhdGUoMTIgMTApIj4KICAgICAgICA8Y2lyY2xlIGN4PSI4IiBjeT0iOCIgcj0iOCIgZmlsbD0iIzAwQkZBNSIgZmlsbC1vcGFjaXR5PSIuOCIvPgogICAgICAgIDxwYXRoIGZpbGw9IiNGM0YzRjMiIGQ9Ik03LjMsNCBMOC43ODgsNCBMMTIuMDg4LDEyLjU2OCBMMTAuNjg0LDEyLjU2OCBMOS44OCwxMC4zNiBMNi4xOTYsMTAuMzYgTDUuMzkyLDEyLjU2OCBMNCwxMi41NjggTDcuMyw0IFogTTYuNTkyLDkuMjggTDkuNDg0LDkuMjggTDguMDY4LDUuNDA0IEw4LjAyLDUuNDA0IEw2LjU5Miw5LjI4IFoiLz4KICAgICAgICA8ZyB0cmFuc2Zvcm09InRyYW5zbGF0ZSgyOCkiPgogICAgICAgICAgPGNpcmNsZSBjeD0iOCIgY3k9IjgiIHI9IjgiIGZpbGw9IiM0RDkwRkUiIGZpbGwtb3BhY2l0eT0iLjgiLz4KICAgICAgICAgIDxwYXRoIGZpbGw9IiNGM0YzRjMiIGQ9Ik01LDQgTDguOTEyLDQgQzkuNzUyLDQgMTAuNCw0LjE5MiAxMC44OCw0LjYgQzExLjMzNiw0Ljk4NCAxMS41NjQsNS41IDExLjU2NCw2LjE2IEMxMS41NjQsNi42NCAxMS40NDQsNy4wNDggMTEuMjA0LDcuMzg0IEMxMC45NjQsNy42OTYgMTAuNjQsNy45MzYgMTAuMjA4LDguMDkyIEMxMC43NzIsOC4yIDExLjIwNCw4LjQyOCAxMS40OTIsOC43NzYgQzExLjc4LDkuMTI0IDExLjkyNCw5LjU5MiAxMS45MjQsMTAuMTY4IEMxMS45MjQsMTEuMDMyIDExLjYyNCwxMS42NTYgMTEuMDM2LDEyLjA2NCBDMTAuNTMyLDEyLjQgOS44MjQsMTIuNTY4IDguOTEyLDEyLjU2OCBMNSwxMi41NjggTDUsNCBaIE02LjMwOCw1LjA4IEw2LjMwOCw3LjYzNiBMOC41NjQsNy42MzYgQzkuMTY0LDcuNjM2IDkuNTk2LDcuNTI4IDkuODYsNy4zMjQgQzEwLjEyNCw3LjEwOCAxMC4yNTYsNi43NzIgMTAuMjU2LDYuMzE2IEMxMC4yNTYsNS44ODQgMTAuMTI0LDUuNTcyIDkuODYsNS4zOCBDOS41OTYsNS4xNzYgOS4xNjQsNS4wOCA4LjU4OCw1LjA4IEw2LjMwOCw1LjA4IFogTTYuMzA4LDguNzA0IEw2LjMwOCwxMS40ODggTDguNzMyLDExLjQ4OCBDOS4yODQsMTEuNDg4IDkuNzE2LDExLjM5MiAxMC4wMjgsMTEuMjI0IEMxMC40MTIsMTAuOTk2IDEwLjYxNiwxMC42MzYgMTAuNjE2LDEwLjE0NCBDMTAuNjE2LDkuNjQgMTAuNDYsOS4yNjggMTAuMTYsOS4wNCBDOS44Niw4LjgxMiA5LjM5Miw4LjcwNCA4Ljc2OCw4LjcwNCBMNi4zMDgsOC43MDQgWiIvPgogICAgICAgIDwvZz4KICAgICAgICA8ZyB0cmFuc2Zvcm09InRyYW5zbGF0ZSg1NikiPgogICAgICAgICAgPGNpcmNsZSBjeD0iOCIgY3k9IjgiIHI9IjgiIGZpbGw9IiNGRkIxMDAiIGZpbGwtb3BhY2l0eT0iLjgiLz4KICAgICAgICAgIDxwYXRoIGZpbGw9IiNGM0YzRjMiIGQ9Ik04LjA4LDQgQzkuMDc2LDQgOS45MDQsNC4yNTIgMTAuNTUyLDQuNzggQzExLjE3Niw1LjI4NCAxMS41Niw1Ljk4IDExLjY5Miw2Ljg0NCBMMTAuNDIsNi44NDQgQzEwLjI3Niw2LjI2OCAxMCw1LjgzNiA5LjU5Miw1LjU2IEM5LjE4NCw1LjI4NCA4LjY4LDUuMTUyIDguMDU2LDUuMTUyIEM3LjEzMiw1LjE1MiA2LjQzNiw1LjQ2NCA1Ljk2OCw2LjEgQzUuNTI0LDYuNjc2IDUuMzA4LDcuNDY4IDUuMzA4LDguNDY0IEM1LjMwOCw5LjQ5NiA1LjUyNCwxMC4yODggNS45NTYsMTAuODUyIEM2LjQxMiwxMS40NTIgNy4xMiwxMS43NTIgOC4wOCwxMS43NTIgQzguNzA0LDExLjc1MiA5LjIzMiwxMS41OTYgOS42NCwxMS4yODQgQzEwLjA3MiwxMC45NDggMTAuMzcyLDEwLjQ0NCAxMC41NCw5Ljc3MiBMMTEuODEyLDkuNzcyIEMxMS42MiwxMC43NjggMTEuMTc2LDExLjU0OCAxMC40NjgsMTIuMTEyIEM5LjgwOCwxMi42NCA5LjAxNiwxMi45MDQgOC4wOTIsMTIuOTA0IEM2LjY4OCwxMi45MDQgNS42MzIsMTIuNDQ4IDQuOTI0LDExLjU2IEM0LjMsMTAuNzkyIDQsOS43NiA0LDguNDY0IEM0LDcuMTkyIDQuMzEyLDYuMTYgNC45Niw1LjM1NiBDNS42OCw0LjQ0NCA2LjcxMiw0IDguMDgsNCBaIi8+CiAgICAgICAgPC9nPgogICAgICA8L2c+CiAgICAgIDxjaXJjbGUgY3g9IjEwNCIgY3k9IjE4IiByPSI2IiBzdHJva2U9IiMwMEJGQTUiIHN0cm9rZS1vcGFjaXR5PSIuOCIgc3Ryb2tlLXdpZHRoPSI0Ii8+CiAgICAgIDxnIHRyYW5zZm9ybT0idHJhbnNsYXRlKDEyNCAxMCkiPgogICAgICAgIDxjaXJjbGUgY3g9IjgiIGN5PSI4IiByPSI3IiBzdHJva2U9IiM0RDkwRkUiIHN0cm9rZS1vcGFjaXR5PSIuOCIgc3Ryb2tlLXdpZHRoPSIyIi8+CiAgICAgICAgPGNpcmNsZSBjeD0iOCIgY3k9IjgiIHI9IjQuMjY3IiBmaWxsPSIjNEQ5MEZFIiBmaWxsLW9wYWNpdHk9Ii44Ii8+CiAgICAgIDwvZz4KICAgICAgPHJlY3Qgd2lkdGg9IjMwIiBoZWlnaHQ9IjYiIHg9IjE2NiIgeT0iOSIgZmlsbD0iIzAwMCIgZmlsbC1vcGFjaXR5PSIuMDgiIHJ4PSIzIi8+CiAgICAgIDxyZWN0IHdpZHRoPSIzMCIgaGVpZ2h0PSI2IiB4PSIxNjYiIHk9IjIxIiBmaWxsPSIjMDAwIiBmaWxsLW9wYWNpdHk9Ii4wOCIgcng9IjMiLz4KICAgIDwvZz4KICAgIDxnIHRyYW5zZm9ybT0idHJhbnNsYXRlKDAgODYpIj4KICAgICAgPHJlY3Qgd2lkdGg9IjIwOCIgaGVpZ2h0PSIzNiIgZmlsbD0iIzAwMCIgZmlsbC1vcGFjaXR5PSIuMDQiIHJ4PSIyIi8+CiAgICAgIDxnIHRyYW5zZm9ybT0idHJhbnNsYXRlKDEyIDEwKSI+CiAgICAgICAgPGNpcmNsZSBjeD0iOCIgY3k9IjgiIHI9IjgiIGZpbGw9IiMwMEJGQTUiIGZpbGwtb3BhY2l0eT0iLjgiLz4KICAgICAgICA8cGF0aCBmaWxsPSIjRjNGM0YzIiBkPSJNNy4zLDQgTDguNzg4LDQgTDEyLjA4OCwxMi41NjggTDEwLjY4NCwxMi41NjggTDkuODgsMTAuMzYgTDYuMTk2LDEwLjM2IEw1LjM5MiwxMi41NjggTDQsMTIuNTY4IEw3LjMsNCBaIE02LjU5Miw5LjI4IEw5LjQ4NCw5LjI4IEw4LjA2OCw1LjQwNCBMOC4wMiw1LjQwNCBMNi41OTIsOS4yOCBaIi8+CiAgICAgICAgPGcgdHJhbnNmb3JtPSJ0cmFuc2xhdGUoMjgpIj4KICAgICAgICAgIDxjaXJjbGUgY3g9IjgiIGN5PSI4IiByPSI4IiBmaWxsPSIjNEQ5MEZFIiBmaWxsLW9wYWNpdHk9Ii44Ii8+CiAgICAgICAgICA8cGF0aCBmaWxsPSIjRjNGM0YzIiBkPSJNNSw0IEw4LjkxMiw0IEM5Ljc1Miw0IDEwLjQsNC4xOTIgMTAuODgsNC42IEMxMS4zMzYsNC45ODQgMTEuNTY0LDUuNSAxMS41NjQsNi4xNiBDMTEuNTY0LDYuNjQgMTEuNDQ0LDcuMDQ4IDExLjIwNCw3LjM4NCBDMTAuOTY0LDcuNjk2IDEwLjY0LDcuOTM2IDEwLjIwOCw4LjA5MiBDMTAuNzcyLDguMiAxMS4yMDQsOC40MjggMTEuNDkyLDguNzc2IEMxMS43OCw5LjEyNCAxMS45MjQsOS41OTIgMTEuOTI0LDEwLjE2OCBDMTEuOTI0LDExLjAzMiAxMS42MjQsMTEuNjU2IDExLjAzNiwxMi4wNjQgQzEwLjUzMiwxMi40IDkuODI0LDEyLjU2OCA4LjkxMiwxMi41NjggTDUsMTIuNTY4IEw1LDQgWiBNNi4zMDgsNS4wOCBMNi4zMDgsNy42MzYgTDguNTY0LDcuNjM2IEM5LjE2NCw3LjYzNiA5LjU5Niw3LjUyOCA5Ljg2LDcuMzI0IEMxMC4xMjQsNy4xMDggMTAuMjU2LDYuNzcyIDEwLjI1Niw2LjMxNiBDMTAuMjU2LDUuODg0IDEwLjEyNCw1LjU3MiA5Ljg2LDUuMzggQzkuNTk2LDUuMTc2IDkuMTY0LDUuMDggOC41ODgsNS4wOCBMNi4zMDgsNS4wOCBaIE02LjMwOCw4LjcwNCBMNi4zMDgsMTEuNDg4IEw4LjczMiwxMS40ODggQzkuMjg0LDExLjQ4OCA5LjcxNiwxMS4zOTIgMTAuMDI4LDExLjIyNCBDMTAuNDEyLDEwLjk5NiAxMC42MTYsMTAuNjM2IDEwLjYxNiwxMC4xNDQgQzEwLjYxNiw5LjY0IDEwLjQ2LDkuMjY4IDEwLjE2LDkuMDQgQzkuODYsOC44MTIgOS4zOTIsOC43MDQgOC43NjgsOC43MDQgTDYuMzA4LDguNzA0IFoiLz4KICAgICAgICA8L2c+CiAgICAgICAgPGcgdHJhbnNmb3JtPSJ0cmFuc2xhdGUoNTYpIj4KICAgICAgICAgIDxjaXJjbGUgY3g9IjgiIGN5PSI4IiByPSI4IiBmaWxsPSIjRkZCMTAwIiBmaWxsLW9wYWNpdHk9Ii44Ii8+CiAgICAgICAgICA8cGF0aCBmaWxsPSIjRjNGM0YzIiBkPSJNOC4wOCw0IEM5LjA3Niw0IDkuOTA0LDQuMjUyIDEwLjU1Miw0Ljc4IEMxMS4xNzYsNS4yODQgMTEuNTYsNS45OCAxMS42OTIsNi44NDQgTDEwLjQyLDYuODQ0IEMxMC4yNzYsNi4yNjggMTAsNS44MzYgOS41OTIsNS41NiBDOS4xODQsNS4yODQgOC42OCw1LjE1MiA4LjA1Niw1LjE1MiBDNy4xMzIsNS4xNTIgNi40MzYsNS40NjQgNS45NjgsNi4xIEM1LjUyNCw2LjY3NiA1LjMwOCw3LjQ2OCA1LjMwOCw4LjQ2NCBDNS4zMDgsOS40OTYgNS41MjQsMTAuMjg4IDUuOTU2LDEwLjg1MiBDNi40MTIsMTEuNDUyIDcuMTIsMTEuNzUyIDguMDgsMTEuNzUyIEM4LjcwNCwxMS43NTIgOS4yMzIsMTEuNTk2IDkuNjQsMTEuMjg0IEMxMC4wNzIsMTAuOTQ4IDEwLjM3MiwxMC40NDQgMTAuNTQsOS43NzIgTDExLjgxMiw5Ljc3MiBDMTEuNjIsMTAuNzY4IDExLjE3NiwxMS41NDggMTAuNDY4LDEyLjExMiBDOS44MDgsMTIuNjQgOS4wMTYsMTIuOTA0IDguMDkyLDEyLjkwNCBDNi42ODgsMTIuOTA0IDUuNjMyLDEyLjQ0OCA0LjkyNCwxMS41NiBDNC4zLDEwLjc5MiA0LDkuNzYgNCw4LjQ2NCBDNCw3LjE5MiA0LjMxMiw2LjE2IDQuOTYsNS4zNTYgQzUuNjgsNC40NDQgNi43MTIsNCA4LjA4LDQgWiIvPgogICAgICAgIDwvZz4KICAgICAgPC9nPgogICAgICA8Y2lyY2xlIGN4PSIxMDQiIGN5PSIxOCIgcj0iNiIgc3Ryb2tlPSIjRjQ0MzM2IiBzdHJva2Utb3BhY2l0eT0iLjgiIHN0cm9rZS13aWR0aD0iNCIvPgogICAgICA8ZyB0cmFuc2Zvcm09InRyYW5zbGF0ZSgxMjQgMTApIj4KICAgICAgICA8Y2lyY2xlIGN4PSI4IiBjeT0iOCIgcj0iNyIgc3Ryb2tlPSIjNEQ5MEZFIiBzdHJva2Utb3BhY2l0eT0iLjgiIHN0cm9rZS13aWR0aD0iMiIvPgogICAgICAgIDxjaXJjbGUgY3g9IjgiIGN5PSI4IiByPSI0LjI2NyIgZmlsbD0iIzREOTBGRSIgZmlsbC1vcGFjaXR5PSIuOCIvPgogICAgICA8L2c+CiAgICAgIDxyZWN0IHdpZHRoPSIzMCIgaGVpZ2h0PSI2IiB4PSIxNjYiIHk9IjkiIGZpbGw9IiMwMDAiIGZpbGwtb3BhY2l0eT0iLjA4IiByeD0iMyIvPgogICAgICA8cmVjdCB3aWR0aD0iMzAiIGhlaWdodD0iNiIgeD0iMTY2IiB5PSIyMSIgZmlsbD0iIzAwMCIgZmlsbC1vcGFjaXR5PSIuMDgiIHJ4PSIzIi8+CiAgICA8L2c+CiAgPC9nPgo8L3N2Zz4K</t>
-  </si>
-  <si>
     <t>/devops/reports/code-quality</t>
   </si>
   <si>
+    <t>fd_report-3</t>
+  </si>
+  <si>
     <t>data:image/svg+xml;base64,PD94bWwgdmVyc2lvbj0iMS4wIiBlbmNvZGluZz0iVVRGLTgiIHN0YW5kYWxvbmU9Im5vIj8+Cjxzdmcgd2lkdGg9IjIwOHB4IiBoZWlnaHQ9IjEyM3B4IiB2aWV3Qm94PSIwIDAgMjA4IDEyMyIgdmVyc2lvbj0iMS4xIiB4bWxucz0iaHR0cDovL3d3dy53My5vcmcvMjAwMC9zdmciIHhtbG5zOnhsaW5rPSJodHRwOi8vd3d3LnczLm9yZy8xOTk5L3hsaW5rIj4KICAgIDwhLS0gR2VuZXJhdG9yOiBTa2V0Y2ggNDkgKDUxMDAyKSAtIGh0dHA6Ly93d3cuYm9oZW1pYW5jb2RpbmcuY29tL3NrZXRjaCAtLT4KICAgIDx0aXRsZT5Hcm91cCA4PC90aXRsZT4KICAgIDxkZXNjPkNyZWF0ZWQgd2l0aCBTa2V0Y2guPC9kZXNjPgogICAgPGRlZnM+PC9kZWZzPgogICAgPGcgaWQ9IuaKpeihqCIgc3Ryb2tlPSJub25lIiBzdHJva2Utd2lkdGg9IjEiIGZpbGw9Im5vbmUiIGZpbGwtcnVsZT0iZXZlbm9kZCI+CiAgICAgICAgPGcgaWQ9IkRldk9wc+aKpeihqCIgdHJhbnNmb3JtPSJ0cmFuc2xhdGUoLTkxOC4wMDAwMDAsIC0yNzUuMDAwMDAwKSI+CiAgICAgICAgICAgIDxnIGlkPSJHcm91cC01IiB0cmFuc2Zvcm09InRyYW5zbGF0ZSgyNzQuMDAwMDAwLCAxMzIuMDAwMDAwKSI+CiAgICAgICAgICAgICAgICA8ZyBpZD0i5omA5pyJ5oql6KGo77yN54mI5pys5oql5ZGKIiB0cmFuc2Zvcm09InRyYW5zbGF0ZSg2MDguMDAwMDAwLCAxMDIuMDAwMDAwKSI+CiAgICAgICAgICAgICAgICAgICAgPGcgaWQ9Ikdyb3VwIiB0cmFuc2Zvcm09InRyYW5zbGF0ZSgxOC4wMDAwMDAsIDE4LjAwMDAwMCkiPgogICAgICAgICAgICAgICAgICAgICAgICA8ZyBpZD0iR3JvdXAtOCIgdHJhbnNmb3JtPSJ0cmFuc2xhdGUoMTguMDAwMDAwLCAyNC4wMDAwMDApIj4KICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxnIGlkPSJHcm91cC02IiB0cmFuc2Zvcm09InRyYW5zbGF0ZSgwLjAwMDAwMCwgOTYuMDAwMDAwKSIgZmlsbD0iIzAwMDAwMCIgZmlsbC1vcGFjaXR5PSIwLjA4Ij4KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8ZyBpZD0iUmVjdGFuZ2xlLTQiPgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8cmVjdCB4PSIwIiB5PSIwIiB3aWR0aD0iOTAuNDM0NzgyNiIgaGVpZ2h0PSI5IiByeD0iNCI+PC9yZWN0PgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8cmVjdCB4PSIxMDEuNzM5MTMiIHk9IjAiIHdpZHRoPSI0NS4yMTczOTEzIiBoZWlnaHQ9IjkiIHJ4PSI0Ij48L3JlY3Q+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxyZWN0IHg9IjE1OC4yNjA4NyIgeT0iMCIgd2lkdGg9IjQ5LjczOTEzMDQiIGhlaWdodD0iOSIgcng9IjQiPjwvcmVjdD4KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8L2c+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICA8L2c+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICA8ZyBpZD0iR3JvdXAtNiIgdHJhbnNmb3JtPSJ0cmFuc2xhdGUoMC4wMDAwMDAsIDExMy4wMDAwMDApIiBmaWxsPSIjMDAwMDAwIiBmaWxsLW9wYWNpdHk9IjAuMDgiPgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxnIGlkPSJSZWN0YW5nbGUtNCI+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxyZWN0IHg9IjAiIHk9IjAiIHdpZHRoPSI5MC40MzQ3ODI2IiBoZWlnaHQ9IjkiIHJ4PSI0Ij48L3JlY3Q+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxyZWN0IHg9IjEwMS43MzkxMyIgeT0iMCIgd2lkdGg9IjQ1LjIxNzM5MTMiIGhlaWdodD0iOSIgcng9IjQiPjwvcmVjdD4KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPHJlY3QgeD0iMTU4LjI2MDg3IiB5PSIwIiB3aWR0aD0iNDkuNzM5MTMwNCIgaGVpZ2h0PSI5IiByeD0iNCI+PC9yZWN0PgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDwvZz4KICAgICAgICAgICAgICAgICAgICAgICAgICAgIDwvZz4KICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxnIGlkPSJHcm91cC0xMyI+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPGcgaWQ9Ikdyb3VwLTIiIHN0cm9rZS1saW5lY2FwPSJzcXVhcmUiPgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8cGF0aCBkPSJNMS45NzE1NjM5OCw3OC41IEwyMDYuMDIzNjc0LDc4LjUiIGlkPSJMaW5lIiBzdHJva2U9IiNERkRGREYiPjwvcGF0aD4KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPHBhdGggZD0iTTEuOTcxNTYzOTgsNTguNSBMMjA2LjAyMzY3NCw1OC41IiBpZD0iTGluZSIgc3Ryb2tlPSIjREZERkRGIj48L3BhdGg+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxwYXRoIGQ9Ik0xLjk3MTU2Mzk4LDM5LjUgTDIwNi4wMjM2NzQsMzkuNSIgaWQ9IkxpbmUiIHN0cm9rZT0iI0RGREZERiI+PC9wYXRoPgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8cGF0aCBkPSJNMS45NzE1NjM5OCwxOS41IEwyMDYuMDIzNjc0LDE5LjUiIGlkPSJMaW5lIiBzdHJva2U9IiNERkRGREYiPjwvcGF0aD4KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPHBhdGggZD0iTTEuOTcxNTYzOTgsMC41IEwyMDYuMDIzNjc0LDAuNSIgaWQ9IkxpbmUiIHN0cm9rZT0iI0RGREZERiI+PC9wYXRoPgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8cGF0aCBkPSJNMTM4LjUwOTUxMywwIEwxMzguNTA5NTEzLDgwIiBpZD0iTGluZS02IiBzdHJva2Utb3BhY2l0eT0iMC4wNCIgc3Ryb2tlPSIjMDAwMDAwIj48L3BhdGg+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxwYXRoIGQ9Ik0xLjQ4NTgxNjMzLDAgTDEuNDg1ODE2MzMsODAiIGlkPSJMaW5lLTYiIHN0cm9rZS1vcGFjaXR5PSIwLjA0IiBzdHJva2U9IiMwMDAwMDAiPjwvcGF0aD4KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPHBhdGggZD0iTTM1Ljk4ODE4NiwwIEwzNS45ODgxODYsODAiIGlkPSJMaW5lLTYiIHN0cm9rZS1vcGFjaXR5PSIwLjA0IiBzdHJva2U9IiMwMDAwMDAiPjwvcGF0aD4KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPHBhdGggZD0iTTE3Mi4wMjYxMDEsMCBMMTcyLjAyNjEwMSw4MCIgaWQ9IkxpbmUtNiIgc3Ryb2tlLW9wYWNpdHk9IjAuMDQiIHN0cm9rZT0iIzAwMDAwMCI+PC9wYXRoPgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8cGF0aCBkPSJNMTA0LjAwNzE0MywwIEwxMDQuMDA3MTQzLDgwIiBpZD0iTGluZS02IiBzdHJva2Utb3BhY2l0eT0iMC4wNCIgc3Ryb2tlPSIjMDAwMDAwIj48L3BhdGg+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxwYXRoIGQ9Ik0yMDYuNTI4NDcsMCBMMjA2LjUyODQ3LDgwIiBpZD0iTGluZS02IiBzdHJva2Utb3BhY2l0eT0iMC4wNCIgc3Ryb2tlPSIjMDAwMDAwIj48L3BhdGg+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxwYXRoIGQ9Ik02OS41MDQ3NzM3LDAgTDY5LjUwNDc3MzcsODAiIGlkPSJMaW5lLTYiIHN0cm9rZS1vcGFjaXR5PSIwLjA0IiBzdHJva2U9IiMwMDAwMDAiPjwvcGF0aD4KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8L2c+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPGcgaWQ9ImNoYXJ0IiB0cmFuc2Zvcm09InRyYW5zbGF0ZSg3LjAwMDAwMCwgNi4wMDAwMDApIiBmaWxsLW9wYWNpdHk9IjAuNiI+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxnIGlkPSJHcm91cC05IiB0cmFuc2Zvcm09InRyYW5zbGF0ZSgwLjAwMDAwMCwgMjMuMDAwMDAwKSI+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8cGF0aCBkPSJNMi44NDUzNjczNSwwLjUyOTQxMTc2NSBMOC44NDUzNjczNSwwLjUyOTQxMTc2NSBDOS45NDk5MzY4NSwwLjUyOTQxMTc2NSAxMC44NDUzNjc0LDEuNDI0ODQyMjcgMTAuODQ1MzY3NCwyLjUyOTQxMTc2IEwxMC44NDUzNjc0LDEyLjc2NDcwNTkgTDAuODQ1MzY3MzU0LDEyLjc2NDcwNTkgTDAuODQ1MzY3MzU0LDIuNTI5NDExNzYgQzAuODQ1MzY3MzU0LDEuNDI0ODQyMjcgMS43NDA3OTc4NSwwLjUyOTQxMTc2NSAyLjg0NTM2NzM1LDAuNTI5NDExNzY1IFoiIGlkPSJSZWN0YW5nbGUtMyIgZmlsbD0iI0ZGQjEwMCI+PC9wYXRoPgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPHJlY3QgaWQ9IlJlY3RhbmdsZS0zIiBmaWxsPSIjMDBCRkE1IiB4PSIwLjg0NTM2NzM1NCIgeT0iMTIuNDk0MjM3MiIgd2lkdGg9IjEwIiBoZWlnaHQ9IjM3LjIxMTMwMzciPjwvcmVjdD4KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPC9nPgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8ZyBpZD0iR3JvdXAtMTAiIHRyYW5zZm9ybT0idHJhbnNsYXRlKDIzLjYwODY5NiwgMC4wMDAwMDApIj4KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxyZWN0IGlkPSJSZWN0YW5nbGUtMyIgZmlsbD0iIzAwQkZBNSIgeD0iMC42MDg2OTU2NTIiIHk9IjEyLjIzNTI5NDEiIHdpZHRoPSIxMCIgaGVpZ2h0PSI2MC43NDA3MTU0Ij48L3JlY3Q+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8cGF0aCBkPSJNMi42MDg2OTU2NSw3LjEwNTQyNzM2ZS0xNCBMOC42MDg2OTU2NSw3LjA4MzIyMjllLTE0IEM5LjcxMzI2NTE1LDcuMDYyOTMyMjhlLTE0IDEwLjYwODY5NTcsMC44OTU0MzA1IDEwLjYwODY5NTcsMiBMMTAuNjA4Njk1NywxMi4yMzUyOTQxIEwwLjYwODY5NTY1MiwxMi4yMzUyOTQxIEwwLjYwODY5NTY1MiwyIEMwLjYwODY5NTY1MiwwLjg5NTQzMDUgMS41MDQxMjYxNSw3LjEyNTcxNzk3ZS0xNCAyLjYwODY5NTY1LDcuMTA1NDI3MzZlLTE0IFoiIGlkPSJSZWN0YW5nbGUtMyIgZmlsbD0iI0ZGQjEwMCI+PC9wYXRoPgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8L2c+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxnIGlkPSJHcm91cC0xMSIgdHJhbnNmb3JtPSJ0cmFuc2xhdGUoNDYuNjA4Njk2LCAxMy4wMDAwMDApIj4KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxyZWN0IGlkPSJSZWN0YW5nbGUtMyIgZmlsbD0iIzAwQkZBNSIgeD0iMC42MDg2OTU2NTIiIHk9IjE0IiB3aWR0aD0iMTAiIGhlaWdodD0iNDUuOTc2MDA5NiI+PC9yZWN0PgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPHBhdGggZD0iTTIuNjA4Njk1NjUsMC40NzI4OTMzNjYgTDguNjA4Njk1NjUsMC40NzI4OTMzNjYgQzkuNzEzMjY1MTUsMC40NzI4OTMzNjYgMTAuNjA4Njk1NywxLjM2ODMyMzg3IDEwLjYwODY5NTcsMi40NzI4OTMzNyBMMTAuNjA4Njk1NywxNCBMMC42MDg2OTU2NTIsMTQgTDAuNjA4Njk1NjUyLDIuNDcyODkzMzcgQzAuNjA4Njk1NjUyLDEuMzY4MzIzODcgMS41MDQxMjYxNSwwLjQ3Mjg5MzM2NiAyLjYwODY5NTY1LDAuNDcyODkzMzY2IFoiIGlkPSJSZWN0YW5nbGUtMyIgZmlsbD0iI0ZGQjEwMCI+PC9wYXRoPgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8L2c+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxnIGlkPSJHcm91cC0xMiIgdHJhbnNmb3JtPSJ0cmFuc2xhdGUoNzAuNjA4Njk2LCAzNS4wMDAwMDApIj4KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxyZWN0IGlkPSJSZWN0YW5nbGUtMyIgZmlsbD0iIzAwQkZBNSIgeD0iMC42MDg2OTU2NTIiIHk9IjEzIiB3aWR0aD0iMTAiIGhlaWdodD0iMjQuOTc2MDA5NiI+PC9yZWN0PgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPHBhdGggZD0iTTIuNjA4Njk1NjUsMC43NjQ3MDU4ODIgTDguNjA4Njk1NjUsMC43NjQ3MDU4ODIgQzkuNzEzMjY1MTUsMC43NjQ3MDU4ODIgMTAuNjA4Njk1NywxLjY2MDEzNjM4IDEwLjYwODY5NTcsMi43NjQ3MDU4OCBMMTAuNjA4Njk1NywxMyBMMC42MDg2OTU2NTIsMTMgTDAuNjA4Njk1NjUyLDIuNzY0NzA1ODggQzAuNjA4Njk1NjUyLDEuNjYwMTM2MzggMS41MDQxMjYxNSwwLjc2NDcwNTg4MiAyLjYwODY5NTY1LDAuNzY0NzA1ODgyIFoiIGlkPSJSZWN0YW5nbGUtMyIgZmlsbD0iI0ZGQjEwMCI+PC9wYXRoPgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8L2c+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxnIGlkPSJHcm91cC0xOCIgdHJhbnNmb3JtPSJ0cmFuc2xhdGUoOTMuNjA4Njk2LCAyMy4wMDAwMDApIj4KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxwYXRoIGQ9Ik0yLjYwODY5NTY1LDAuNzk5ODgwNDc1IEw4LjYwODY5NTY1LDAuNzk5ODgwNDc1IEM5LjcxMzI2NTE1LDAuNzk5ODgwNDc1IDEwLjYwODY5NTcsMS42OTUzMTA5OCAxMC42MDg2OTU3LDIuNzk5ODgwNDcgTDEwLjYwODY5NTcsMTUgTDAuNjA4Njk1NjUyLDE1IEwwLjYwODY5NTY1MiwyLjc5OTg4MDQ3IEMwLjYwODY5NTY1MiwxLjY5NTMxMDk4IDEuNTA0MTI2MTUsMC43OTk4ODA0NzUgMi42MDg2OTU2NSwwLjc5OTg4MDQ3NSBaIiBpZD0iUmVjdGFuZ2xlLTMiIGZpbGw9IiNGRkIxMDAiPjwvcGF0aD4KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxyZWN0IGlkPSJSZWN0YW5nbGUtMyIgZmlsbD0iIzAwQkZBNSIgeD0iMC42MDg2OTU2NTIiIHk9IjE1IiB3aWR0aD0iMTAiIGhlaWdodD0iMzQuOTc2MDA5NiI+PC9yZWN0PgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8L2c+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxnIGlkPSJHcm91cC0xOSIgdHJhbnNmb3JtPSJ0cmFuc2xhdGUoMTE2LjYwODY5NiwgNDAuMDAwMDAwKSI+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8cmVjdCBpZD0iUmVjdGFuZ2xlLTMiIGZpbGw9IiMwMEJGQTUiIHg9IjAuNjA4Njk1NjUyIiB5PSIxMi45NzYzNTExIiB3aWR0aD0iMTAiIGhlaWdodD0iMTkuOTk5NjU4NSI+PC9yZWN0PgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPHBhdGggZD0iTTIuNjA4Njk1NjUsMC43NDEwNTY5NDUgTDguNjA4Njk1NjUsMC43NDEwNTY5NDUgQzkuNzEzMjY1MTUsMC43NDEwNTY5NDUgMTAuNjA4Njk1NywxLjYzNjQ4NzQ1IDEwLjYwODY5NTcsMi43NDEwNTY5NSBMMTAuNjA4Njk1NywxMi45NzYzNTExIEwwLjYwODY5NTY1MiwxMi45NzYzNTExIEwwLjYwODY5NTY1MiwyLjc0MTA1Njk1IEMwLjYwODY5NTY1MiwxLjYzNjQ4NzQ1IDEuNTA0MTI2MTUsMC43NDEwNTY5NDUgMi42MDg2OTU2NSwwLjc0MTA1Njk0NSBaIiBpZD0iUmVjdGFuZ2xlLTMiIGZpbGw9IiNGRkIxMDAiPjwvcGF0aD4KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPC9nPgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8ZyBpZD0iR3JvdXAtMjAiIHRyYW5zZm9ybT0idHJhbnNsYXRlKDE0MC42MDg2OTYsIDI5LjAwMDAwMCkiPgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPHJlY3QgaWQ9IlJlY3RhbmdsZS0zIiBmaWxsPSIjMDBCRkE1IiB4PSIwIiB5PSIxMi4yMzUyOTQxIiB3aWR0aD0iMTAiIGhlaWdodD0iMzEuNzY0MzY0NCI+PC9yZWN0PgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPHBhdGggZD0iTTIsMCBMOCwtMi4yMjA0NDYwNWUtMTYgQzkuMTA0NTY5NSwtNC4yNDk1MDczZS0xNiAxMCwwLjg5NTQzMDUgMTAsMiBMMTAsMTIuMjM1Mjk0MSBMMCwxMi4yMzUyOTQxIEwwLDIgQy0xLjM1MjcwNzVlLTE2LDAuODk1NDMwNSAwLjg5NTQzMDUsMi4wMjkwNjEyNWUtMTYgMiwwIFoiIGlkPSJSZWN0YW5nbGUtMyIgZmlsbD0iI0ZGQjEwMCI+PC9wYXRoPgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8L2c+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxnIGlkPSJHcm91cC0yMSIgdHJhbnNmb3JtPSJ0cmFuc2xhdGUoMTYyLjYwODY5NiwgMTIuMDAwMDAwKSI+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8cmVjdCBpZD0iUmVjdGFuZ2xlLTMiIGZpbGw9IiMwMEJGQTUiIHg9IjAiIHk9IjEyLjIzNTI5NDEiIHdpZHRoPSIxMCIgaGVpZ2h0PSI0OC43NjQzNjQ0Ij48L3JlY3Q+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8cGF0aCBkPSJNMiwwIEw4LC0yLjIyMDQ0NjA1ZS0xNiBDOS4xMDQ1Njk1LC00LjI0OTUwNzNlLTE2IDEwLDAuODk1NDMwNSAxMCwyIEwxMCwxMi4yMzUyOTQxIEwwLDEyLjIzNTI5NDEgTDAsMiBDLTEuMzUyNzA3NWUtMTYsMC44OTU0MzA1IDAuODk1NDMwNSwyLjAyOTA2MTI1ZS0xNiAyLDAgWiIgaWQ9IlJlY3RhbmdsZS0zIiBmaWxsPSIjRkZCMTAwIj48L3BhdGg+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDwvZz4KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPGcgaWQ9Ikdyb3VwLTIyIiB0cmFuc2Zvcm09InRyYW5zbGF0ZSgxODQuNjA4Njk2LCA0MS4wMDAwMDApIj4KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxyZWN0IGlkPSJSZWN0YW5nbGUtMyIgZmlsbD0iIzAwQkZBNSIgeD0iMCIgeT0iMTIiIHdpZHRoPSIxMCIgaGVpZ2h0PSIxOS45OTk2NTg1Ij48L3JlY3Q+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8cGF0aCBkPSJNMiwwIEw4LC0yLjIyMDQ0NjA1ZS0xNiBDOS4xMDQ1Njk1LC00LjI0OTUwNzNlLTE2IDEwLDAuODk1NDMwNSAxMCwyIEwxMCwxMi4yMzUyOTQxIEwwLDEyLjIzNTI5NDEgTDAsMiBDLTEuMzUyNzA3NWUtMTYsMC44OTU0MzA1IDAuODk1NDMwNSwyLjAyOTA2MTI1ZS0xNiAyLDAgWiIgaWQ9IlJlY3RhbmdsZS0zIiBmaWxsPSIjRkZCMTAwIj48L3BhdGg+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDwvZz4KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8L2c+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICA8L2c+CiAgICAgICAgICAgICAgICAgICAgICAgIDwvZz4KICAgICAgICAgICAgICAgICAgICA8L2c+CiAgICAgICAgICAgICAgICA8L2c+CiAgICAgICAgICAgIDwvZz4KICAgICAgICA8L2c+CiAgICA8L2c+Cjwvc3ZnPg==</t>
   </si>
   <si>
@@ -2067,6 +1965,9 @@
     <t>/devops/reports/build-number</t>
   </si>
   <si>
+    <t>fd_report-4</t>
+  </si>
+  <si>
     <t>data:image/svg+xml;base64,PD94bWwgdmVyc2lvbj0iMS4wIiBlbmNvZGluZz0iVVRGLTgiIHN0YW5kYWxvbmU9Im5vIj8+Cjxzdmcgd2lkdGg9IjIwOHB4IiBoZWlnaHQ9IjEyM3B4IiB2aWV3Qm94PSIwIDAgMjA4IDEyMyIgdmVyc2lvbj0iMS4xIiB4bWxucz0iaHR0cDovL3d3dy53My5vcmcvMjAwMC9zdmciIHhtbG5zOnhsaW5rPSJodHRwOi8vd3d3LnczLm9yZy8xOTk5L3hsaW5rIj4KICAgIDwhLS0gR2VuZXJhdG9yOiBTa2V0Y2ggNDkgKDUxMDAyKSAtIGh0dHA6Ly93d3cuYm9oZW1pYW5jb2RpbmcuY29tL3NrZXRjaCAtLT4KICAgIDx0aXRsZT5Hcm91cCA4PC90aXRsZT4KICAgIDxkZXNjPkNyZWF0ZWQgd2l0aCBTa2V0Y2guPC9kZXNjPgogICAgPGRlZnM+PC9kZWZzPgogICAgPGcgaWQ9IuaKpeihqCIgc3Ryb2tlPSJub25lIiBzdHJva2Utd2lkdGg9IjEiIGZpbGw9Im5vbmUiIGZpbGwtcnVsZT0iZXZlbm9kZCI+CiAgICAgICAgPGcgaWQ9IkRldk9wc+aKpeihqCIgdHJhbnNmb3JtPSJ0cmFuc2xhdGUoLTMwOS4wMDAwMDAsIC02MTEuMDAwMDAwKSI+CiAgICAgICAgICAgIDxnIGlkPSJHcm91cC01IiB0cmFuc2Zvcm09InRyYW5zbGF0ZSgyNzQuMDAwMDAwLCAxMzIuMDAwMDAwKSI+CiAgICAgICAgICAgICAgICA8ZyBpZD0i5omA5pyJ5oql6KGo77yN54mI5pys5oql5ZGKIiB0cmFuc2Zvcm09InRyYW5zbGF0ZSgwLjAwMDAwMCwgNDM4LjAwMDAwMCkiPgogICAgICAgICAgICAgICAgICAgIDxnIGlkPSJHcm91cCIgdHJhbnNmb3JtPSJ0cmFuc2xhdGUoMTguMDAwMDAwLCAxOC4wMDAwMDApIj4KICAgICAgICAgICAgICAgICAgICAgICAgPGcgaWQ9Ikdyb3VwLTgiIHRyYW5zZm9ybT0idHJhbnNsYXRlKDE3LjAwMDAwMCwgMjQuMDAwMDAwKSI+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICA8ZyBpZD0iR3JvdXAtNiIgdHJhbnNmb3JtPSJ0cmFuc2xhdGUoMC4wMDAwMDAsIDk2LjAwMDAwMCkiIGZpbGw9IiMwMDAwMDAiIGZpbGwtb3BhY2l0eT0iMC4wOCI+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPGcgaWQ9IlJlY3RhbmdsZS00Ij4KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPHJlY3QgeD0iMCIgeT0iMCIgd2lkdGg9IjkwLjQzNDc4MjYiIGhlaWdodD0iOSIgcng9IjQiPjwvcmVjdD4KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPHJlY3QgeD0iMTAxLjczOTEzIiB5PSIwIiB3aWR0aD0iNDUuMjE3MzkxMyIgaGVpZ2h0PSI5IiByeD0iNCI+PC9yZWN0PgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8cmVjdCB4PSIxNTguMjYwODciIHk9IjAiIHdpZHRoPSI0OS43MzkxMzA0IiBoZWlnaHQ9IjkiIHJ4PSI0Ij48L3JlY3Q+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPC9nPgogICAgICAgICAgICAgICAgICAgICAgICAgICAgPC9nPgogICAgICAgICAgICAgICAgICAgICAgICAgICAgPGcgaWQ9Ikdyb3VwLTYiIHRyYW5zZm9ybT0idHJhbnNsYXRlKDAuMDAwMDAwLCAxMTMuMDAwMDAwKSIgZmlsbD0iIzAwMDAwMCIgZmlsbC1vcGFjaXR5PSIwLjA4Ij4KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8ZyBpZD0iUmVjdGFuZ2xlLTQiPgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8cmVjdCB4PSIwIiB5PSIwIiB3aWR0aD0iOTAuNDM0NzgyNiIgaGVpZ2h0PSI5IiByeD0iNCI+PC9yZWN0PgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8cmVjdCB4PSIxMDEuNzM5MTMiIHk9IjAiIHdpZHRoPSI0NS4yMTczOTEzIiBoZWlnaHQ9IjkiIHJ4PSI0Ij48L3JlY3Q+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxyZWN0IHg9IjE1OC4yNjA4NyIgeT0iMCIgd2lkdGg9IjQ5LjczOTEzMDQiIGhlaWdodD0iOSIgcng9IjQiPjwvcmVjdD4KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8L2c+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICA8L2c+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICA8ZyBpZD0iR3JvdXAtMTMiPgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxnIGlkPSJHcm91cC0yIiBzdHJva2UtbGluZWNhcD0ic3F1YXJlIj4KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPHBhdGggZD0iTTEuOTcxNTYzOTgsNzguNSBMMjA2LjAyMzY3NCw3OC41IiBpZD0iTGluZSIgc3Ryb2tlPSIjREZERkRGIj48L3BhdGg+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxwYXRoIGQ9Ik0xLjk3MTU2Mzk4LDU4LjUgTDIwNi4wMjM2NzQsNTguNSIgaWQ9IkxpbmUiIHN0cm9rZT0iI0RGREZERiI+PC9wYXRoPgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8cGF0aCBkPSJNMS45NzE1NjM5OCwzOS41IEwyMDYuMDIzNjc0LDM5LjUiIGlkPSJMaW5lIiBzdHJva2U9IiNERkRGREYiPjwvcGF0aD4KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPHBhdGggZD0iTTEuOTcxNTYzOTgsMTkuNSBMMjA2LjAyMzY3NCwxOS41IiBpZD0iTGluZSIgc3Ryb2tlPSIjREZERkRGIj48L3BhdGg+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxwYXRoIGQ9Ik0xLjk3MTU2Mzk4LDAuNSBMMjA2LjAyMzY3NCwwLjUiIGlkPSJMaW5lIiBzdHJva2U9IiNERkRGREYiPjwvcGF0aD4KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPHBhdGggZD0iTTEzOC41MDk1MTMsMCBMMTM4LjUwOTUxMyw4MCIgaWQ9IkxpbmUtNiIgc3Ryb2tlLW9wYWNpdHk9IjAuMDQiIHN0cm9rZT0iIzAwMDAwMCI+PC9wYXRoPgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8cGF0aCBkPSJNMS40ODU4MTYzMywwIEwxLjQ4NTgxNjMzLDgwIiBpZD0iTGluZS02IiBzdHJva2Utb3BhY2l0eT0iMC4wNCIgc3Ryb2tlPSIjMDAwMDAwIj48L3BhdGg+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxwYXRoIGQ9Ik0zNS45ODgxODYsMCBMMzUuOTg4MTg2LDgwIiBpZD0iTGluZS02IiBzdHJva2Utb3BhY2l0eT0iMC4wNCIgc3Ryb2tlPSIjMDAwMDAwIj48L3BhdGg+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxwYXRoIGQ9Ik0xNzIuMDI2MTAxLDAgTDE3Mi4wMjYxMDEsODAiIGlkPSJMaW5lLTYiIHN0cm9rZS1vcGFjaXR5PSIwLjA0IiBzdHJva2U9IiMwMDAwMDAiPjwvcGF0aD4KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPHBhdGggZD0iTTEwNC4wMDcxNDMsMCBMMTA0LjAwNzE0Myw4MCIgaWQ9IkxpbmUtNiIgc3Ryb2tlLW9wYWNpdHk9IjAuMDQiIHN0cm9rZT0iIzAwMDAwMCI+PC9wYXRoPgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8cGF0aCBkPSJNMjA2LjUyODQ3LDAgTDIwNi41Mjg0Nyw4MCIgaWQ9IkxpbmUtNiIgc3Ryb2tlLW9wYWNpdHk9IjAuMDQiIHN0cm9rZT0iIzAwMDAwMCI+PC9wYXRoPgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8cGF0aCBkPSJNNjkuNTA0NzczNywwIEw2OS41MDQ3NzM3LDgwIiBpZD0iTGluZS02IiBzdHJva2Utb3BhY2l0eT0iMC4wNCIgc3Ryb2tlPSIjMDAwMDAwIj48L3BhdGg+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPC9nPgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxnIGlkPSJjaGFydCIgdHJhbnNmb3JtPSJ0cmFuc2xhdGUoNS4wMDAwMDAsIDYuMDAwMDAwKSIgZmlsbD0iIzREOTBGRSIgZmlsbC1vcGFjaXR5PSIwLjYiPgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8cGF0aCBkPSJNMi44NDk0NTEyNSwzMC4wODkzNDk3IEw0Ljg3ODQzNjc2LDMwLjA4OTM0OTcgQzUuOTgzMDA2MjYsMzAuMDg5MzQ5NyA2Ljg3ODQzNjc2LDMwLjk4NDc4MDIgNi44Nzg0MzY3NiwzMi4wODkzNDk3IEw2Ljg3ODQzNjc2LDcyLjY2NjUzOTEgTDAuODQ5NDUxMjU0LDcyLjY2NjUzOTEgTDAuODQ5NDUxMjU0LDMyLjA4OTM0OTcgQzAuODQ5NDUxMjU0LDMwLjk4NDc4MDIgMS43NDQ4ODE3NSwzMC4wODkzNDk3IDIuODQ5NDUxMjUsMzAuMDg5MzQ5NyBaIiBpZD0iUmVjdGFuZ2xlLTMiPjwvcGF0aD4KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPHBhdGggZD0iTTMyLjU4MjY1MDcsMCBMMzQuNjExNjM2MiwwIEMzNS43MTYyMDU3LC0yLjAyOTA2MTI1ZS0xNiAzNi42MTE2MzYyLDAuODk1NDMwNSAzNi42MTE2MzYyLDIgTDM2LjYxMTYzNjIsNzIuOTc2MDA5NiBMMzAuNTgyNjUwNyw3Mi45NzYwMDk2IEwzMC41ODI2NTA3LDIgQzMwLjU4MjY1MDcsMC44OTU0MzA1IDMxLjQ3ODA4MTIsMi4wMjkwNjEyNWUtMTYgMzIuNTgyNjUwNywwIFoiIGlkPSJSZWN0YW5nbGUtMyI+PC9wYXRoPgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8cGF0aCBkPSJNNjEuNTgyNjUwNywyMC4zNzAyMzk5IEw2My42MTE2MzYyLDIwLjM3MDIzOTkgQzY0LjcxNjIwNTcsMjAuMzcwMjM5OSA2NS42MTE2MzYyLDIxLjI2NTY3MDQgNjUuNjExNjM2MiwyMi4zNzAyMzk5IEw2NS42MTE2MzYyLDcyLjk3NjAwOTYgTDU5LjU4MjY1MDcsNzIuOTc2MDA5NiBMNTkuNTgyNjUwNywyMi4zNzAyMzk5IEM1OS41ODI2NTA3LDIxLjI2NTY3MDQgNjAuNDc4MDgxMiwyMC4zNzAyMzk5IDYxLjU4MjY1MDcsMjAuMzcwMjM5OSBaIiBpZD0iUmVjdGFuZ2xlLTMiPjwvcGF0aD4KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPHBhdGggZD0iTTc1LjU4MjY1MDcsNDQuMzk4NDQ4OCBMNzcuNjExNjM2Miw0NC4zOTg0NDg4IEM3OC43MTYyMDU3LDQ0LjM5ODQ0ODggNzkuNjExNjM2Miw0NS4yOTM4NzkzIDc5LjYxMTYzNjIsNDYuMzk4NDQ4OCBMNzkuNjExNjM2Miw3Mi45NzYwMDk2IEw3My41ODI2NTA3LDcyLjk3NjAwOTYgTDczLjU4MjY1MDcsNDYuMzk4NDQ4OCBDNzMuNTgyNjUwNyw0NS4yOTM4NzkzIDc0LjQ3ODA4MTIsNDQuMzk4NDQ4OCA3NS41ODI2NTA3LDQ0LjM5ODQ0ODggWiIgaWQ9IlJlY3RhbmdsZS0zIj48L3BhdGg+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxwYXRoIGQ9Ik0xMDUuNTgyNjUxLDMyLjk1NjQ0NDYgTDEwNy42MTE2MzYsMzIuOTU2NDQ0NiBDMTA4LjcxNjIwNiwzMi45NTY0NDQ2IDEwOS42MTE2MzYsMzMuODUxODc1MSAxMDkuNjExNjM2LDM0Ljk1NjQ0NDYgTDEwOS42MTE2MzYsNzIuOTc2MDA5NiBMMTAzLjU4MjY1MSw3Mi45NzYwMDk2IEwxMDMuNTgyNjUxLDM0Ljk1NjQ0NDYgQzEwMy41ODI2NTEsMzMuODUxODc1MSAxMDQuNDc4MDgxLDMyLjk1NjQ0NDYgMTA1LjU4MjY1MSwzMi45NTY0NDQ2IFoiIGlkPSJSZWN0YW5nbGUtMyI+PC9wYXRoPgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8cGF0aCBkPSJNMTE5LjU4MjY1MSw1MC4wOTIzOTE4IEwxMjEuNjExNjM2LDUwLjA5MjM5MTggQzEyMi43MTYyMDYsNTAuMDkyMzkxOCAxMjMuNjExNjM2LDUwLjk4NzgyMjMgMTIzLjYxMTYzNiw1Mi4wOTIzOTE4IEwxMjMuNjExNjM2LDcyLjk3NjAwOTYgTDExNy41ODI2NTEsNzIuOTc2MDA5NiBMMTE3LjU4MjY1MSw1Mi4wOTIzOTE4IEMxMTcuNTgyNjUxLDUwLjk4NzgyMjMgMTE4LjQ3ODA4MSw1MC4wOTIzOTE4IDExOS41ODI2NTEsNTAuMDkyMzkxOCBaIiBpZD0iUmVjdGFuZ2xlLTMiPjwvcGF0aD4KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPHBhdGggZD0iTTE3LjU4MjY1MDcsNDEuNjkwNTI5NiBMMTkuNjExNjM2Miw0MS42OTA1Mjk2IEMyMC43MTYyMDU3LDQxLjY5MDUyOTYgMjEuNjExNjM2Miw0Mi41ODU5NjAxIDIxLjYxMTYzNjIsNDMuNjkwNTI5NiBMMjEuNjExNjM2Miw3Mi42NjY1MzkxIEwxNS41ODI2NTA3LDcyLjY2NjUzOTEgTDE1LjU4MjY1MDcsNDMuNjkwNTI5NiBDMTUuNTgyNjUwNyw0Mi41ODU5NjAxIDE2LjQ3ODA4MTIsNDEuNjkwNTI5NiAxNy41ODI2NTA3LDQxLjY5MDUyOTYgWiIgaWQ9IlJlY3RhbmdsZS0zIj48L3BhdGg+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxwYXRoIGQ9Ik00Ni41ODI2NTA3LDkgTDQ4LjYxMTYzNjIsOSBDNDkuNzE2MjA1Nyw5IDUwLjYxMTYzNjIsOS44OTU0MzA1IDUwLjYxMTYzNjIsMTEgTDUwLjYxMTYzNjIsNzIuOTc2MDA5NiBMNDQuNTgyNjUwNyw3Mi45NzYwMDk2IEw0NC41ODI2NTA3LDExIEM0NC41ODI2NTA3LDkuODk1NDMwNSA0NS40NzgwODEyLDkgNDYuNTgyNjUwNyw5IFoiIGlkPSJSZWN0YW5nbGUtMyI+PC9wYXRoPgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8cGF0aCBkPSJNMTQ5LjU4MjY1MSwyMC4zNzAyMzk5IEwxNTEuNjExNjM2LDIwLjM3MDIzOTkgQzE1Mi43MTYyMDYsMjAuMzcwMjM5OSAxNTMuNjExNjM2LDIxLjI2NTY3MDQgMTUzLjYxMTYzNiwyMi4zNzAyMzk5IEwxNTMuNjExNjM2LDcyLjk3NjAwOTYgTDE0Ny41ODI2NTEsNzIuOTc2MDA5NiBMMTQ3LjU4MjY1MSwyMi4zNzAyMzk5IEMxNDcuNTgyNjUxLDIxLjI2NTY3MDQgMTQ4LjQ3ODA4MSwyMC4zNzAyMzk5IDE0OS41ODI2NTEsMjAuMzcwMjM5OSBaIiBpZD0iUmVjdGFuZ2xlLTMiPjwvcGF0aD4KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPHBhdGggZD0iTTE2My41ODI2NTEsNDIgTDE2NS42MTE2MzYsNDIgQzE2Ni43MTYyMDYsNDIgMTY3LjYxMTYzNiw0Mi44OTU0MzA1IDE2Ny42MTE2MzYsNDQgTDE2Ny42MTE2MzYsNzIuOTc2MDA5NiBMMTYxLjU4MjY1MSw3Mi45NzYwMDk2IEwxNjEuNTgyNjUxLDQ0IEMxNjEuNTgyNjUxLDQyLjg5NTQzMDUgMTYyLjQ3ODA4MSw0MiAxNjMuNTgyNjUxLDQyIFoiIGlkPSJSZWN0YW5nbGUtMyI+PC9wYXRoPgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8cGF0aCBkPSJNOTAuNTgyNjUwNywzMCBMOTIuNjExNjM2MiwzMCBDOTMuNzE2MjA1NywzMCA5NC42MTE2MzYyLDMwLjg5NTQzMDUgOTQuNjExNjM2MiwzMiBMOTQuNjExNjM2Miw3Mi41NzcxODk1IEw4OC41ODI2NTA3LDcyLjU3NzE4OTUgTDg4LjU4MjY1MDcsMzIgQzg4LjU4MjY1MDcsMzAuODk1NDMwNSA4OS40NzgwODEyLDMwIDkwLjU4MjY1MDcsMzAgWiIgaWQ9IlJlY3RhbmdsZS0zIj48L3BhdGg+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxwYXRoIGQ9Ik0xMzQuNTgyNjUxLDMgTDEzNi42MTE2MzYsMyBDMTM3LjcxNjIwNiwzIDEzOC42MTE2MzYsMy44OTU0MzA1IDEzOC42MTE2MzYsNSBMMTM4LjYxMTYzNiw3Mi40OTk1NTI0IEwxMzIuNTgyNjUxLDcyLjQ5OTU1MjQgTDEzMi41ODI2NTEsNSBDMTMyLjU4MjY1MSwzLjg5NTQzMDUgMTMzLjQ3ODA4MSwzIDEzNC41ODI2NTEsMyBaIiBpZD0iUmVjdGFuZ2xlLTMiPjwvcGF0aD4KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPHBhdGggZD0iTTE3OC41ODI2NTEsMzIuODY0MDUyOCBMMTgwLjYxMTYzNiwzMi44NjQwNTI4IEMxODEuNzE2MjA2LDMyLjg2NDA1MjggMTgyLjYxMTYzNiwzMy43NTk0ODMzIDE4Mi42MTE2MzYsMzQuODY0MDUyOCBMMTgyLjYxMTYzNiw3Mi44ODM2MTc3IEwxNzYuNTgyNjUxLDcyLjg4MzYxNzcgTDE3Ni41ODI2NTEsMzQuODY0MDUyOCBDMTc2LjU4MjY1MSwzMy43NTk0ODMzIDE3Ny40NzgwODEsMzIuODY0MDUyOCAxNzguNTgyNjUxLDMyLjg2NDA1MjggWiIgaWQ9IlJlY3RhbmdsZS0zIj48L3BhdGg+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxwYXRoIGQ9Ik0xOTIuNTgyNjUxLDYxLjQ0MTgwODkgTDE5NC42MTE2MzYsNjEuNDQxODA4OSBDMTk1LjcxNjIwNiw2MS40NDE4MDg5IDE5Ni42MTE2MzYsNjIuMzM3MjM5NCAxOTYuNjExNjM2LDYzLjQ0MTgwODkgTDE5Ni42MTE2MzYsNzIuODgzNjE3NyBMMTkwLjU4MjY1MSw3Mi44ODM2MTc3IEwxOTAuNTgyNjUxLDYzLjQ0MTgwODkgQzE5MC41ODI2NTEsNjIuMzM3MjM5NCAxOTEuNDc4MDgxLDYxLjQ0MTgwODkgMTkyLjU4MjY1MSw2MS40NDE4MDg5IFoiIGlkPSJSZWN0YW5nbGUtMyI+PC9wYXRoPgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDwvZz4KICAgICAgICAgICAgICAgICAgICAgICAgICAgIDwvZz4KICAgICAgICAgICAgICAgICAgICAgICAgPC9nPgogICAgICAgICAgICAgICAgICAgIDwvZz4KICAgICAgICAgICAgICAgIDwvZz4KICAgICAgICAgICAgPC9nPgogICAgICAgIDwvZz4KICAgIDwvZz4KPC9zdmc+</t>
   </si>
   <si>
@@ -2079,12 +1980,18 @@
     <t>/devops/reports/build-duration</t>
   </si>
   <si>
+    <t>fd_report-5</t>
+  </si>
+  <si>
     <t>部署次数图</t>
   </si>
   <si>
     <t>/devops/reports/deploy-times</t>
   </si>
   <si>
+    <t>fd_report-6</t>
+  </si>
+  <si>
     <t>data:image/svg+xml;base64,PD94bWwgdmVyc2lvbj0iMS4wIiBlbmNvZGluZz0iVVRGLTgiIHN0YW5kYWxvbmU9Im5vIj8+Cjxzdmcgd2lkdGg9IjIwOHB4IiBoZWlnaHQ9IjEyM3B4IiB2aWV3Qm94PSIwIDAgMjA4IDEyMyIgdmVyc2lvbj0iMS4xIiB4bWxucz0iaHR0cDovL3d3dy53My5vcmcvMjAwMC9zdmciIHhtbG5zOnhsaW5rPSJodHRwOi8vd3d3LnczLm9yZy8xOTk5L3hsaW5rIj4KICAgIDwhLS0gR2VuZXJhdG9yOiBTa2V0Y2ggNDkgKDUxMDAyKSAtIGh0dHA6Ly93d3cuYm9oZW1pYW5jb2RpbmcuY29tL3NrZXRjaCAtLT4KICAgIDx0aXRsZT5Hcm91cCA4PC90aXRsZT4KICAgIDxkZXNjPkNyZWF0ZWQgd2l0aCBTa2V0Y2guPC9kZXNjPgogICAgPGRlZnM+PC9kZWZzPgogICAgPGcgaWQ9IuaKpeihqCIgc3Ryb2tlPSJub25lIiBzdHJva2Utd2lkdGg9IjEiIGZpbGw9Im5vbmUiIGZpbGwtcnVsZT0iZXZlbm9kZCI+CiAgICAgICAgPGcgaWQ9IkRldk9wc+aKpeihqCIgdHJhbnNmb3JtPSJ0cmFuc2xhdGUoLTkxOC4wMDAwMDAsIC02MTEuMDAwMDAwKSI+CiAgICAgICAgICAgIDxnIGlkPSJHcm91cC01IiB0cmFuc2Zvcm09InRyYW5zbGF0ZSgyNzQuMDAwMDAwLCAxMzIuMDAwMDAwKSI+CiAgICAgICAgICAgICAgICA8ZyBpZD0i5omA5pyJ5oql6KGo77yN54eD5bC95Zu+IiB0cmFuc2Zvcm09InRyYW5zbGF0ZSg2MDguMDAwMDAwLCA0MzguMDAwMDAwKSI+CiAgICAgICAgICAgICAgICAgICAgPGcgaWQ9Ikdyb3VwIiB0cmFuc2Zvcm09InRyYW5zbGF0ZSgxOC4wMDAwMDAsIDE4LjAwMDAwMCkiPgogICAgICAgICAgICAgICAgICAgICAgICA8ZyBpZD0iR3JvdXAtOCIgdHJhbnNmb3JtPSJ0cmFuc2xhdGUoMTguMDAwMDAwLCAyNC4wMDAwMDApIj4KICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxnIGlkPSJHcm91cC02IiB0cmFuc2Zvcm09InRyYW5zbGF0ZSgwLjAwMDAwMCwgOTUuMDAwMDAwKSIgZmlsbD0iIzAwMDAwMCIgZmlsbC1vcGFjaXR5PSIwLjA4Ij4KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8ZyBpZD0iUmVjdGFuZ2xlLTQiPgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8cmVjdCB4PSIwIiB5PSIwIiB3aWR0aD0iOTAuNDM0NzgyNiIgaGVpZ2h0PSI5IiByeD0iNCI+PC9yZWN0PgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8cmVjdCB4PSIxMDEuNzM5MTMiIHk9IjAiIHdpZHRoPSI0NS4yMTczOTEzIiBoZWlnaHQ9IjkiIHJ4PSI0Ij48L3JlY3Q+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxyZWN0IHg9IjE1OC4yNjA4NyIgeT0iMCIgd2lkdGg9IjQ5LjczOTEzMDQiIGhlaWdodD0iOSIgcng9IjQiPjwvcmVjdD4KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8L2c+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICA8L2c+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICA8ZyBpZD0iR3JvdXAtNiIgdHJhbnNmb3JtPSJ0cmFuc2xhdGUoMC4wMDAwMDAsIDExMi43OTI0NTMpIiBmaWxsPSIjMDAwMDAwIiBmaWxsLW9wYWNpdHk9IjAuMDgiPgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxnIGlkPSJSZWN0YW5nbGUtNCI+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxyZWN0IHg9IjAiIHk9IjAiIHdpZHRoPSI5MC40MzQ3ODI2IiBoZWlnaHQ9IjkiIHJ4PSI0Ij48L3JlY3Q+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxyZWN0IHg9IjEwMS43MzkxMyIgeT0iMCIgd2lkdGg9IjQ1LjIxNzM5MTMiIGhlaWdodD0iOSIgcng9IjQiPjwvcmVjdD4KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPHJlY3QgeD0iMTU4LjI2MDg3IiB5PSIwIiB3aWR0aD0iNDkuNzM5MTMwNCIgaGVpZ2h0PSI5IiByeD0iNCI+PC9yZWN0PgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDwvZz4KICAgICAgICAgICAgICAgICAgICAgICAgICAgIDwvZz4KICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxnIGlkPSJHcm91cC0xMyI+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPGcgaWQ9Ikdyb3VwLTIiIHN0cm9rZS1saW5lY2FwPSJzcXVhcmUiPgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8cGF0aCBkPSJNMS45NzE1NjM5OCw3OC41IEwyMDYuMDIzNjc0LDc4LjUiIGlkPSJMaW5lIiBzdHJva2U9IiNERkRGREYiPjwvcGF0aD4KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPHBhdGggZD0iTTEuOTcxNTYzOTgsNTguNSBMMjA2LjAyMzY3NCw1OC41IiBpZD0iTGluZSIgc3Ryb2tlPSIjREZERkRGIj48L3BhdGg+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxwYXRoIGQ9Ik0xLjk3MTU2Mzk4LDM5LjUgTDIwNi4wMjM2NzQsMzkuNSIgaWQ9IkxpbmUiIHN0cm9rZT0iI0RGREZERiI+PC9wYXRoPgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8cGF0aCBkPSJNMS45NzE1NjM5OCwxOS41IEwyMDYuMDIzNjc0LDE5LjUiIGlkPSJMaW5lIiBzdHJva2U9IiNERkRGREYiPjwvcGF0aD4KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPHBhdGggZD0iTTEuOTcxNTYzOTgsMC41IEwyMDYuMDIzNjc0LDAuNSIgaWQ9IkxpbmUiIHN0cm9rZT0iI0RGREZERiI+PC9wYXRoPgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8cGF0aCBkPSJNMTM4LjUwOTUxMywwIEwxMzguNTA5NTEzLDgwIiBpZD0iTGluZS02IiBzdHJva2Utb3BhY2l0eT0iMC4wNCIgc3Ryb2tlPSIjMDAwMDAwIj48L3BhdGg+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxwYXRoIGQ9Ik0xLjQ4NTgxNjMzLDAgTDEuNDg1ODE2MzMsODAiIGlkPSJMaW5lLTYiIHN0cm9rZS1vcGFjaXR5PSIwLjA0IiBzdHJva2U9IiMwMDAwMDAiPjwvcGF0aD4KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPHBhdGggZD0iTTM1Ljk4ODE4NiwwIEwzNS45ODgxODYsODAiIGlkPSJMaW5lLTYiIHN0cm9rZS1vcGFjaXR5PSIwLjA0IiBzdHJva2U9IiMwMDAwMDAiPjwvcGF0aD4KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPHBhdGggZD0iTTE3Mi4wMjYxMDEsMCBMMTcyLjAyNjEwMSw4MCIgaWQ9IkxpbmUtNiIgc3Ryb2tlLW9wYWNpdHk9IjAuMDQiIHN0cm9rZT0iIzAwMDAwMCI+PC9wYXRoPgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8cGF0aCBkPSJNMTA0LjAwNzE0MywwIEwxMDQuMDA3MTQzLDgwIiBpZD0iTGluZS02IiBzdHJva2Utb3BhY2l0eT0iMC4wNCIgc3Ryb2tlPSIjMDAwMDAwIj48L3BhdGg+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxwYXRoIGQ9Ik0yMDYuNTI4NDcsMCBMMjA2LjUyODQ3LDgwIiBpZD0iTGluZS02IiBzdHJva2Utb3BhY2l0eT0iMC4wNCIgc3Ryb2tlPSIjMDAwMDAwIj48L3BhdGg+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxwYXRoIGQ9Ik02OS41MDQ3NzM3LDAgTDY5LjUwNDc3MzcsODAiIGlkPSJMaW5lLTYiIHN0cm9rZS1vcGFjaXR5PSIwLjA0IiBzdHJva2U9IiMwMDAwMDAiPjwvcGF0aD4KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8L2c+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPGcgaWQ9Ikdyb3VwLTciIHRyYW5zZm9ybT0idHJhbnNsYXRlKDcuMDAwMDAwLCAyLjAwMDAwMCkiPgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8ZyBpZD0iR3JvdXAtNCIgZmlsbD0iIzU3QUFGOCIgZmlsbC1vcGFjaXR5PSIwLjUiIHN0cm9rZT0iIzU3QUFGOCI+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8ZWxsaXBzZSBpZD0iT3ZhbC0yIiBjeD0iMi42MTAwODk5MyIgY3k9IjQwLjIyMTY3MzUiIHJ4PSIyLjYxMDA4OTkzIiByeT0iMi42MTE3OTY5OCI+PC9lbGxpcHNlPgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPGVsbGlwc2UgaWQ9Ik92YWwtMiIgY3g9IjgwLjQ5MjM5NzEiIGN5PSIzNC4zMjQ0MTk1IiByeD0iMi42MTAwODk5MyIgcnk9IjIuNjExNzk2OTgiPjwvZWxsaXBzZT4KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxlbGxpcHNlIGlkPSJPdmFsLTIiIGN4PSIxMi4wODc3MTU2IiBjeT0iMjAuODYzMTIzNiIgcng9IjIuNjEwMDg5OTMiIHJ5PSIyLjYxMTc5Njk4Ij48L2VsbGlwc2U+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8ZWxsaXBzZSBpZD0iT3ZhbC0yIiBjeD0iNjEuMjAyMDIzMSIgY3k9IjIzLjI3NTk5NzQiIHJ4PSIyLjYxMDA4OTkzIiByeT0iMi42MTE3OTY5OCI+PC9lbGxpcHNlPgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPGVsbGlwc2UgaWQ9Ik92YWwtMiIgY3g9IjIyLjQ0Njc3MzQiIGN5PSIzMi45MDg2NDIiIHJ4PSIyLjYxMDA4OTkzIiByeT0iMi42MTE3OTY5OCI+PC9lbGxpcHNlPgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPGVsbGlwc2UgaWQ9Ik92YWwtMiIgY3g9IjgyLjgzNzkxNDkiIGN5PSI0OC44OTYxODA0IiByeD0iMi42MTAwODk5MyIgcnk9IjIuNjExNzk2OTgiPjwvZWxsaXBzZT4KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxlbGxpcHNlIGlkPSJPdmFsLTIiIGN4PSIyNi42MjI5MTcyIiBjeT0iMTYuMTkzMTQxMyIgcng9IjIuNjEwMDg5OTMiIHJ5PSIyLjYxMTc5Njk4Ij48L2VsbGlwc2U+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8ZWxsaXBzZSBpZD0iT3ZhbC0yIiBjeD0iOTIuNDIxOTcwNSIgY3k9IjI0Ljc5OTkxNzciIHJ4PSIyLjYxMDA4OTkzIiByeT0iMi42MTE3OTY5OCI+PC9lbGxpcHNlPgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPGVsbGlwc2UgaWQ9Ik92YWwtMiIgY3g9IjMxLjg0MzA5NzEiIGN5PSIzMS44NjM5MjMyIiByeD0iMi42MTAwODk5MyIgcnk9IjIuNjExNzk2OTgiPjwvZWxsaXBzZT4KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxlbGxpcHNlIGlkPSJPdmFsLTIiIGN4PSI5OC4zODY3NTcyIiBjeT0iMzUuODQ4MzM5OCIgcng9IjIuNjEwMDg5OTMiIHJ5PSIyLjYxMTc5Njk4Ij48L2VsbGlwc2U+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8ZWxsaXBzZSBpZD0iT3ZhbC0yIiBjeD0iMjQuNTM0ODQ1MyIgY3k9IjQzLjM1NTgyOTkiIHJ4PSIyLjYxMDA4OTkzIiByeT0iMi42MTE3OTY5OCI+PC9lbGxpcHNlPgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPGVsbGlwc2UgaWQ9Ik92YWwtMiIgY3g9IjEwNC45MjU2MTUiIGN5PSIyMC4zNzIwMTY1IiByeD0iMi42MTAwODk5MyIgcnk9IjIuNjExNzk2OTgiPjwvZWxsaXBzZT4KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxlbGxpcHNlIGlkPSJPdmFsLTIiIGN4PSI0My4zMjc0OTI4IiBjeT0iMzcuMDg3NTE3MSIgcng9IjIuNjEwMDg5OTMiIHJ5PSIyLjYxMTc5Njk4Ij48L2VsbGlwc2U+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8ZWxsaXBzZSBpZD0iT3ZhbC0yIiBjeD0iMTEwLjY5NzA2MiIgY3k9IjMyLjgwMDQ5OTIiIHJ4PSIyLjYxMDA4OTkzIiByeT0iMi42MTE3OTY5OCI+PC9lbGxpcHNlPgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPGVsbGlwc2UgaWQ9Ik92YWwtMiIgY3g9IjQzLjMyNzQ5MjgiIGN5PSI1MC42Njg4NjE1IiByeD0iMi42MTAwODk5MyIgcnk9IjIuNjExNzk2OTgiPjwvZWxsaXBzZT4KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxlbGxpcHNlIGlkPSJPdmFsLTIiIGN4PSI0My4zMjc0OTI4IiBjeT0iMjAuMzcyMDE2NSIgcng9IjIuNjEwMDg5OTMiIHJ5PSIyLjYxMTc5Njk4Ij48L2VsbGlwc2U+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8ZWxsaXBzZSBpZD0iT3ZhbC0yIiBjeD0iMTE2LjI4MTExNyIgY3k9IjIuNjExNzk2OTgiIHJ4PSIyLjYxMDA4OTkzIiByeT0iMi42MTE3OTY5OCI+PC9lbGxpcHNlPgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPGVsbGlwc2UgaWQ9Ik92YWwtMiIgY3g9IjU2Ljg5OTk2MDQiIGN5PSI2Ljc5MDY3MjE1IiByeD0iMi42MTAwODk5MyIgcnk9IjIuNjExNzk2OTgiPjwvZWxsaXBzZT4KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxlbGxpcHNlIGlkPSJPdmFsLTIiIGN4PSIxMjIuNjc0MjI2IiBjeT0iMjIuNDYxNDU0IiByeD0iMi42MTAwODk5MyIgcnk9IjIuNjExNzk2OTgiPjwvZWxsaXBzZT4KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxlbGxpcHNlIGlkPSJPdmFsLTIiIGN4PSI3MC40NzI0MjgiIGN5PSI1NC44NDc3MzY2IiByeD0iMi42MTAwODk5MyIgcnk9IjIuNjExNzk2OTgiPjwvZWxsaXBzZT4KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxlbGxpcHNlIGlkPSJPdmFsLTIiIGN4PSI1NC44MTE4ODg0IiBjeT0iNDQuNDAwNTQ4NyIgcng9IjIuNjEwMDg5OTMiIHJ5PSIyLjYxMTc5Njk4Ij48L2VsbGlwc2U+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8ZWxsaXBzZSBpZD0iT3ZhbC0yIiBjeD0iMTE2LjQxMDAxMSIgY3k9IjY2LjMzOTY0MzMiIHJ4PSIyLjYxMDA4OTkzIiByeT0iMi42MTE3OTY5OCI+PC9lbGxpcHNlPgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPGVsbGlwc2UgaWQ9Ik92YWwtMiIgY3g9IjY5LjQyODM5MiIgY3k9IjI5Ljc3NDQ4NTYiIHJ4PSIyLjYxMDA4OTkzIiByeT0iMi42MTE3OTY5OCI+PC9lbGxpcHNlPgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPGVsbGlwc2UgaWQ9Ik92YWwtMiIgY3g9IjEwMi44Mzc1NDMiIGN5PSI2Ljc5MDY3MjE1IiByeD0iMi42MTAwODk5MyIgcnk9IjIuNjExNzk2OTgiPjwvZWxsaXBzZT4KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxlbGxpcHNlIGlkPSJPdmFsLTIiIGN4PSIxMzguMzM0NzY2IiBjeT0iNTAuNjY4ODYxNSIgcng9IjIuNjEwMDg5OTMiIHJ5PSIyLjYxMTc5Njk4Ij48L2VsbGlwc2U+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8ZWxsaXBzZSBpZD0iT3ZhbC0yIiBjeD0iMTY5LjYxMDA5IiBjeT0iMzEuNjExNzk3IiByeD0iMi42MTAwODk5MyIgcnk9IjIuNjExNzk2OTgiPjwvZWxsaXBzZT4KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxlbGxpcHNlIGlkPSJPdmFsLTIiIGN4PSIxNjkuNjEwMDkiIGN5PSI0Ni42MTE3OTciIHJ4PSIyLjYxMDA4OTkzIiByeT0iMi42MTE3OTY5OCI+PC9lbGxpcHNlPgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPGVsbGlwc2UgaWQ9Ik92YWwtMiIgY3g9IjE0OC42MTAwOSIgY3k9IjQwLjYxMTc5NyIgcng9IjIuNjEwMDg5OTMiIHJ5PSIyLjYxMTc5Njk4Ij48L2VsbGlwc2U+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8ZWxsaXBzZSBpZD0iT3ZhbC0yIiBjeD0iMTYyLjYxMDA5IiBjeT0iNDEuNjExNzk3IiByeD0iMi42MTAwODk5MyIgcnk9IjIuNjExNzk2OTgiPjwvZWxsaXBzZT4KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxlbGxpcHNlIGlkPSJPdmFsLTIiIGN4PSIxNzcuNjEwMDkiIGN5PSI0OS42MTE3OTciIHJ4PSIyLjYxMDA4OTkzIiByeT0iMi42MTE3OTY5OCI+PC9lbGxpcHNlPgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8L2c+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxnIGlkPSJHcm91cC00IiB0cmFuc2Zvcm09InRyYW5zbGF0ZSgyLjAyNzk4NCwgMTIuMTY3OTAxKSIgZmlsbD0iIzMyQzZERSIgZmlsbC1vcGFjaXR5PSIwLjQiIHN0cm9rZT0iIzMyQzZERSI+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8ZWxsaXBzZSBpZD0iT3ZhbC0yIiBjeD0iMi42MTE3OTY5OCIgY3k9IjQwLjc2MDIxMDEiIHJ4PSIyLjYxMTc5Njk4IiByeT0iMi42MTgwOTM1Ij48L2VsbGlwc2U+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8ZWxsaXBzZSBpZD0iT3ZhbC0yIiBjeD0iNzcuODMxNTUwMSIgY3k9IjM5LjI3MTQwMjYiIHJ4PSIyLjYxMTc5Njk4IiByeT0iMi42MTgwOTM1Ij48L2VsbGlwc2U+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8ZWxsaXBzZSBpZD0iT3ZhbC0yIiBjeD0iOC45NjE0NjQ4NiIgY3k9IjI1LjczODg2NzYiIHJ4PSIyLjYxMTc5Njk4IiByeT0iMi42MTgwOTM1Ij48L2VsbGlwc2U+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8ZWxsaXBzZSBpZD0iT3ZhbC0yIiBjeD0iMzkuMTc2OTU0NyIgY3k9IjMwLjg5MzUwMzMiIHJ4PSIyLjYxMTc5Njk4IiByeT0iMi42MTgwOTM1Ij48L2VsbGlwc2U+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8ZWxsaXBzZSBpZD0iT3ZhbC0yIiBjeD0iMTQuOTMwMTUyNyIgY3k9IjMxLjIxMjc0NjYiIHJ4PSIyLjYxMTc5Njk4IiByeT0iMi42MTgwOTM1Ij48L2VsbGlwc2U+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8ZWxsaXBzZSBpZD0iT3ZhbC0yIiBjeD0iODIuMDEwNDI1MiIgY3k9IjIxLjQ2ODM2NjciIHJ4PSIyLjYxMTc5Njk4IiByeT0iMi42MTgwOTM1Ij48L2VsbGlwc2U+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8ZWxsaXBzZSBpZD0iT3ZhbC0yIiBjeD0iMTcuOTc3OTkzMiIgY3k9IjI1LjEwMjM3IiByeD0iMi42MTE3OTY5OCIgcnk9IjIuNjE4MDkzNSI+PC9lbGxpcHNlPgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPGVsbGlwc2UgaWQ9Ik92YWwtMiIgY3g9IjkxLjQxMjg5NDQiIGN5PSIyNS42NTczMTYzIiByeD0iMi42MTE3OTY5OCIgcnk9IjIuNjE4MDkzNSI+PC9lbGxpcHNlPgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPGVsbGlwc2UgaWQ9Ik92YWwtMiIgY3g9IjI1LjU5NTYxMDQiIGN5PSI1Mi44ODU0ODg4IiByeD0iMi42MTE3OTY5OCIgcnk9IjIuNjE4MDkzNSI+PC9lbGxpcHNlPgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPGVsbGlwc2UgaWQ9Ik92YWwtMiIgY3g9Ijk1LjMxNjk0OCIgY3k9IjQwLjc2MDIxMDEiIHJ4PSIyLjYxMTc5Njk4IiByeT0iMi42MTgwOTM1Ij48L2VsbGlwc2U+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8ZWxsaXBzZSBpZD0iT3ZhbC0yIiBjeD0iNzUuNzQyMTEyNSIgY3k9IjMwLjg5MzUwMzMiIHJ4PSIyLjYxMTc5Njk4IiByeT0iMi42MTgwOTM1Ij48L2VsbGlwc2U+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8ZWxsaXBzZSBpZD0iT3ZhbC0yIiBjeD0iMzEuODIwMjY5MiIgY3k9IjM1Ljc5NTUyOTEiIHJ4PSIyLjYxMTc5Njk4IiByeT0iMi42MTgwOTM1Ij48L2VsbGlwc2U+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8ZWxsaXBzZSBpZD0iT3ZhbC0yIiBjeD0iMzEuODIwMjY5MiIgY3k9IjI1LjczODg2NzYiIHJ4PSIyLjYxMTc5Njk4IiByeT0iMi42MTgwOTM1Ij48L2VsbGlwc2U+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8ZWxsaXBzZSBpZD0iT3ZhbC0yIiBjeD0iMzMuOTUzMzYwOCIgY3k9IjE3LjI3OTQxNzEiIHJ4PSIyLjYxMTc5Njk4IiByeT0iMi42MTgwOTM1Ij48L2VsbGlwc2U+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8ZWxsaXBzZSBpZD0iT3ZhbC0yIiBjeD0iMTA3LjA4MzY3NiIgY3k9IjU5LjE2ODkxMzIiIHJ4PSIyLjYxMTc5Njk4IiByeT0iMi42MTgwOTM1Ij48L2VsbGlwc2U+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8ZWxsaXBzZSBpZD0iT3ZhbC0yIiBjeD0iMjAuMzcyMDE2NSIgY3k9IjEyLjA0MzIzMDEiIHJ4PSIyLjYxMTc5Njk4IiByeT0iMi42MTgwOTM1Ij48L2VsbGlwc2U+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8ZWxsaXBzZSBpZD0iT3ZhbC0yIiBjeD0iMTEyLjMwNzI3IiBjeT0iMzkuMjcxNDAyNiIgcng9IjIuNjExNzk2OTgiIHJ5PSIyLjYxODA5MzUiPjwvZWxsaXBzZT4KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxlbGxpcHNlIGlkPSJPdmFsLTIiIGN4PSI1MS43MTM1ODAyIiBjeT0iMzguMjI0MTY1MSIgcng9IjIuNjExNzk2OTgiIHJ5PSIyLjYxODA5MzUiPjwvZWxsaXBzZT4KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxlbGxpcHNlIGlkPSJPdmFsLTIiIGN4PSIzOS4xNzY5NTQ3IiBjeT0iMjEuNDY4MzY2NyIgcng9IjIuNjExNzk2OTgiIHJ5PSIyLjYxODA5MzUiPjwvZWxsaXBzZT4KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxlbGxpcHNlIGlkPSJPdmFsLTIiIGN4PSI5OS43NzA2NDQ3IiBjeT0iNTcuMDc0NDM4NCIgcng9IjIuNjExNzk2OTgiIHJ5PSIyLjYxODA5MzUiPjwvZWxsaXBzZT4KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxlbGxpcHNlIGlkPSJPdmFsLTIiIGN4PSI1MS42MzEyMzMiIGN5PSIxOS4zNzM4OTE5IiByeD0iMi42MTE3OTY5OCIgcnk9IjIuNjE4MDkzNSI+PC9lbGxpcHNlPgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPGVsbGlwc2UgaWQ9Ik92YWwtMiIgY3g9IjY2LjMzOTY0MzMiIGN5PSIyLjYxODA5MzUiIHJ4PSIyLjYxMTc5Njk4IiByeT0iMi42MTgwOTM1Ij48L2VsbGlwc2U+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8ZWxsaXBzZSBpZD0iT3ZhbC0yIiBjeD0iODIuMDEwNDI1MiIgY3k9IjQ3LjY0OTMwMTgiIHJ4PSIyLjYxMTc5Njk4IiByeT0iMi42MTgwOTM1Ij48L2VsbGlwc2U+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8ZWxsaXBzZSBpZD0iT3ZhbC0yIiBjeD0iNDYuNDg5OTg2MyIgY3k9IjMxLjk0MDc0MDciIHJ4PSIyLjYxMTc5Njk4IiByeT0iMi42MTgwOTM1Ij48L2VsbGlwc2U+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8ZWxsaXBzZSBpZD0iT3ZhbC0yIiBjeD0iNTMuODAzMDE3OCIgY3k9IjI2LjcwNDU1MzciIHJ4PSIyLjYxMTc5Njk4IiByeT0iMi42MTgwOTM1Ij48L2VsbGlwc2U+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8ZWxsaXBzZSBpZD0iT3ZhbC0yIiBjeD0iMTI2LjMwMzMyNyIgY3k9IjQzLjgxNTM5ODUiIHJ4PSIyLjYxMTc5Njk4IiByeT0iMi42MTgwOTM1Ij48L2VsbGlwc2U+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8ZWxsaXBzZSBpZD0iT3ZhbC0yIiBjeD0iNTkuMDI2NjExOCIgY3k9IjUwLjc5MTAxNCIgcng9IjIuNjExNzk2OTgiIHJ5PSIyLjYxODA5MzUiPjwvZWxsaXBzZT4KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxlbGxpcHNlIGlkPSJPdmFsLTIiIGN4PSI2NC40NTc1NjIxIiBjeT0iMjUuNzM4ODY3NiIgcng9IjIuNjExNzk2OTgiIHJ5PSIyLjYxODA5MzUiPjwvZWxsaXBzZT4KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxlbGxpcHNlIGlkPSJPdmFsLTIiIGN4PSIxMzUuMjkxMDg0IiBjeT0iNjEuMjYzMzg4IiByeD0iMi42MTE3OTY5OCIgcnk9IjIuNjE4MDkzNSI+PC9lbGxpcHNlPgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPGVsbGlwc2UgaWQ9Ik92YWwtMiIgY3g9IjE1NC42MTE3OTciIGN5PSIzOC42MTgwOTM1IiByeD0iMi42MTE3OTY5OCIgcnk9IjIuNjE4MDkzNSI+PC9lbGxpcHNlPgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPGVsbGlwc2UgaWQ9Ik92YWwtMiIgY3g9IjE4MS42MTE3OTciIGN5PSIyMy42MTgwOTM1IiByeD0iMi42MTE3OTY5OCIgcnk9IjIuNjE4MDkzNSI+PC9lbGxpcHNlPgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPGVsbGlwc2UgaWQ9Ik92YWwtMiIgY3g9IjE5MS42MTE3OTciIGN5PSI0MC42MTgwOTM1IiByeD0iMi42MTE3OTY5OCIgcnk9IjIuNjE4MDkzNSI+PC9lbGxpcHNlPgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPGVsbGlwc2UgaWQ9Ik92YWwtMiIgY3g9IjE2My42MTE3OTciIGN5PSI1LjYxODA5MzUiIHJ4PSIyLjYxMTc5Njk4IiByeT0iMi42MTgwOTM1Ij48L2VsbGlwc2U+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8ZWxsaXBzZSBpZD0iT3ZhbC0yIiBjeD0iMTY4LjYxMTc5NyIgY3k9IjI2LjYxODA5MzUiIHJ4PSIyLjYxMTc5Njk4IiByeT0iMi42MTgwOTM1Ij48L2VsbGlwc2U+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8ZWxsaXBzZSBpZD0iT3ZhbC0yIiBjeD0iMTQ0LjYxMTc5NyIgY3k9IjM2LjYxODA5MzUiIHJ4PSIyLjYxMTc5Njk4IiByeT0iMi42MTgwOTM1Ij48L2VsbGlwc2U+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDwvZz4KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8L2c+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICA8L2c+CiAgICAgICAgICAgICAgICAgICAgICAgIDwvZz4KICAgICAgICAgICAgICAgICAgICA8L2c+CiAgICAgICAgICAgICAgICA8L2c+CiAgICAgICAgICAgIDwvZz4KICAgICAgICA8L2c+CiAgICA8L2c+Cjwvc3ZnPg==</t>
   </si>
   <si>
@@ -2097,68 +2004,65 @@
     <t>/devops/reports/deploy-duration</t>
   </si>
   <si>
+    <t>fd_report-7</t>
+  </si>
+  <si>
+    <t>data:image/svg+xml;base64,PD94bWwgdmVyc2lvbj0iMS4wIiBlbmNvZGluZz0iVVRGLTgiPz4KPHN2ZyB3aWR0aD0iMjA4cHgiIGhlaWdodD0iMTIzcHgiIHZpZXdCb3g9IjAgMCAyMDggMTIzIiB2ZXJzaW9uPSIxLjEiIHhtbG5zPSJodHRwOi8vd3d3LnczLm9yZy8yMDAwL3N2ZyIgeG1sbnM6eGxpbms9Imh0dHA6Ly93d3cudzMub3JnLzE5OTkveGxpbmsiPgogICAgPHRpdGxlPkdyb3VwIDg8L3RpdGxlPgogICAgPGcgaWQ9IuaKpeihqCIgc3Ryb2tlPSJub25lIiBzdHJva2Utd2lkdGg9IjEiIGZpbGw9Im5vbmUiIGZpbGwtcnVsZT0iZXZlbm9kZCI+CiAgICAgICAgPGcgaWQ9Iui/kOiQpS3miqXooagiIHRyYW5zZm9ybT0idHJhbnNsYXRlKC04OTAuMDAwMDAwLCAtMTk1Ny4wMDAwMDApIj4KICAgICAgICAgICAgPGcgaWQ9IuaJgOacieaKpeihqO+8jeeHg+WwveWbviIgdHJhbnNmb3JtPSJ0cmFuc2xhdGUoODU0LjAwMDAwMCwgMTkxNS4wMDAwMDApIj4KICAgICAgICAgICAgICAgIDxnIGlkPSJHcm91cCIgdHJhbnNmb3JtPSJ0cmFuc2xhdGUoMTguMDAwMDAwLCAxOC4wMDAwMDApIj4KICAgICAgICAgICAgICAgICAgICA8ZyBpZD0iR3JvdXAtOCIgdHJhbnNmb3JtPSJ0cmFuc2xhdGUoMTguMDAwMDAwLCAyNS4wMDAwMDApIj4KICAgICAgICAgICAgICAgICAgICAgICAgPGcgaWQ9Iue8lue7hCIgdHJhbnNmb3JtPSJ0cmFuc2xhdGUoMC4wMDAwMDAsIDk2LjAwMDAwMCkiIGZpbGw9IiMwMDAwMDAiIGZpbGwtb3BhY2l0eT0iMC4wOCI+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICA8ZyBpZD0iUmVjdGFuZ2xlLTQiPgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxyZWN0IHg9IjAiIHk9IjAiIHdpZHRoPSI5MC40MzQ3ODI2IiBoZWlnaHQ9IjkiIHJ4PSI0Ij48L3JlY3Q+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPHJlY3QgeD0iMTAxLjczOTEzIiB5PSIwIiB3aWR0aD0iNDUuMjE3MzkxMyIgaGVpZ2h0PSI5IiByeD0iNCI+PC9yZWN0PgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxyZWN0IHg9IjE1OC4yNjA4NyIgeT0iMCIgd2lkdGg9IjQ5LjczOTEzMDQiIGhlaWdodD0iOSIgcng9IjQiPjwvcmVjdD4KICAgICAgICAgICAgICAgICAgICAgICAgICAgIDwvZz4KICAgICAgICAgICAgICAgICAgICAgICAgPC9nPgogICAgICAgICAgICAgICAgICAgICAgICA8ZyBpZD0i57yW57uEIiB0cmFuc2Zvcm09InRyYW5zbGF0ZSgwLjAwMDAwMCwgMTEzLjAwMDAwMCkiIGZpbGw9IiMwMDAwMDAiIGZpbGwtb3BhY2l0eT0iMC4wOCI+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICA8ZyBpZD0iUmVjdGFuZ2xlLTQiPgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxyZWN0IHg9IjAiIHk9IjAiIHdpZHRoPSI5MC40MzQ3ODI2IiBoZWlnaHQ9IjkiIHJ4PSI0Ij48L3JlY3Q+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPHJlY3QgeD0iMTAxLjczOTEzIiB5PSIwIiB3aWR0aD0iNDUuMjE3MzkxMyIgaGVpZ2h0PSI5IiByeD0iNCI+PC9yZWN0PgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxyZWN0IHg9IjE1OC4yNjA4NyIgeT0iMCIgd2lkdGg9IjQ5LjczOTEzMDQiIGhlaWdodD0iOSIgcng9IjQiPjwvcmVjdD4KICAgICAgICAgICAgICAgICAgICAgICAgICAgIDwvZz4KICAgICAgICAgICAgICAgICAgICAgICAgPC9nPgogICAgICAgICAgICAgICAgICAgICAgICA8ZyBpZD0iR3JvdXAtMTMiPgogICAgICAgICAgICAgICAgICAgICAgICAgICAgPGcgaWQ9Ikdyb3VwLTIiIHN0cm9rZS1saW5lY2FwPSJzcXVhcmUiPgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxsaW5lIHgxPSIxLjk3MTU2Mzk4IiB5MT0iNzguNSIgeDI9IjIwNi4wMjM2NzQiIHkyPSI3OC41IiBpZD0iTGluZSIgc3Ryb2tlPSIjREZERkRGIj48L2xpbmU+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPGxpbmUgeDE9IjEuOTcxNTYzOTgiIHkxPSI1OC41IiB4Mj0iMjA2LjAyMzY3NCIgeTI9IjU4LjUiIGlkPSJMaW5lIiBzdHJva2U9IiNERkRGREYiPjwvbGluZT4KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8bGluZSB4MT0iMS45NzE1NjM5OCIgeTE9IjM5LjUiIHgyPSIyMDYuMDIzNjc0IiB5Mj0iMzkuNSIgaWQ9IkxpbmUiIHN0cm9rZT0iI0RGREZERiI+PC9saW5lPgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxsaW5lIHgxPSIxLjk3MTU2Mzk4IiB5MT0iMTkuNSIgeDI9IjIwNi4wMjM2NzQiIHkyPSIxOS41IiBpZD0iTGluZSIgc3Ryb2tlPSIjREZERkRGIj48L2xpbmU+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPGxpbmUgeDE9IjEuOTcxNTYzOTgiIHkxPSIwLjUiIHgyPSIyMDYuMDIzNjc0IiB5Mj0iMC41IiBpZD0iTGluZSIgc3Ryb2tlPSIjREZERkRGIj48L2xpbmU+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPGxpbmUgeDE9IjEzOC41MDk1MTMiIHkxPSIwIiB4Mj0iMTM4LjUwOTUxMyIgeTI9IjgwIiBpZD0iTGluZS02IiBzdHJva2Utb3BhY2l0eT0iMC4wNCIgc3Ryb2tlPSIjMDAwMDAwIj48L2xpbmU+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPGxpbmUgeDE9IjEuNDg1ODE2MzMiIHkxPSIwIiB4Mj0iMS40ODU4MTYzMyIgeTI9IjgwIiBpZD0iTGluZS02IiBzdHJva2Utb3BhY2l0eT0iMC4wNCIgc3Ryb2tlPSIjMDAwMDAwIj48L2xpbmU+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPGxpbmUgeDE9IjM1Ljk4ODE4NiIgeTE9IjAiIHgyPSIzNS45ODgxODYiIHkyPSI4MCIgaWQ9IkxpbmUtNiIgc3Ryb2tlLW9wYWNpdHk9IjAuMDQiIHN0cm9rZT0iIzAwMDAwMCI+PC9saW5lPgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxsaW5lIHgxPSIxNzIuMDI2MTAxIiB5MT0iMCIgeDI9IjE3Mi4wMjYxMDEiIHkyPSI4MCIgaWQ9IkxpbmUtNiIgc3Ryb2tlLW9wYWNpdHk9IjAuMDQiIHN0cm9rZT0iIzAwMDAwMCI+PC9saW5lPgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxsaW5lIHgxPSIxMDQuMDA3MTQzIiB5MT0iMCIgeDI9IjEwNC4wMDcxNDMiIHkyPSI4MCIgaWQ9IkxpbmUtNiIgc3Ryb2tlLW9wYWNpdHk9IjAuMDQiIHN0cm9rZT0iIzAwMDAwMCI+PC9saW5lPgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxsaW5lIHgxPSIyMDYuNTI4NDciIHkxPSIwIiB4Mj0iMjA2LjUyODQ3IiB5Mj0iODAiIGlkPSJMaW5lLTYiIHN0cm9rZS1vcGFjaXR5PSIwLjA0IiBzdHJva2U9IiMwMDAwMDAiPjwvbGluZT4KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8bGluZSB4MT0iNjkuNTA0NzczNyIgeTE9IjAiIHgyPSI2OS41MDQ3NzM3IiB5Mj0iODAiIGlkPSJMaW5lLTYiIHN0cm9rZS1vcGFjaXR5PSIwLjA0IiBzdHJva2U9IiMwMDAwMDAiPjwvbGluZT4KICAgICAgICAgICAgICAgICAgICAgICAgICAgIDwvZz4KICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxnIGlkPSJjaGFydCIgdHJhbnNmb3JtPSJ0cmFuc2xhdGUoMjUuMDAwMDAwLCA4LjAwMDAwMCkiIGZpbGwtb3BhY2l0eT0iMC42Ij4KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8ZyBpZD0iR3JvdXAtOSI+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxwYXRoIGQ9Ik0yLjg0NTM2NzM1LDAuMzI5NDExNzY1IEw2Ljg0NTM2NzM1LDAuMzI5NDExNzY1IEM3Ljk0OTkzNjg1LDAuMzI5NDExNzY1IDguODQ1MzY3MzUsMS4yMjQ4NDIyNyA4Ljg0NTM2NzM1LDIuMzI5NDExNzYgTDguODQ1MzY3MzUsNzAuMzI5NDExOCBMOC44NDUzNjczNSw3MC4zMjk0MTE4IEwwLjg0NTM2NzM1NCw3MC4zMjk0MTE4IEwwLjg0NTM2NzM1NCwyLjMyOTQxMTc2IEMwLjg0NTM2NzM1NCwxLjIyNDg0MjI3IDEuNzQwNzk3ODUsMC4zMjk0MTE3NjUgMi44NDUzNjczNSwwLjMyOTQxMTc2NSBaIiBpZD0iUmVjdGFuZ2xlLTMiIGZpbGw9IiMxRkMyQkIiPjwvcGF0aD4KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPHBhdGggZD0iTTE0Ljg0NTM2NzQsNTYuODI5NDExOCBMMTguODQ1MzY3NCw1Ni44Mjk0MTE4IEMxOS45NDk5MzY5LDU2LjgyOTQxMTggMjAuODQ1MzY3NCw1Ny43MjQ4NDIzIDIwLjg0NTM2NzQsNTguODI5NDExOCBMMjAuODQ1MzY3NCw3MC4zMjk0MTE4IEwyMC44NDUzNjc0LDcwLjMyOTQxMTggTDEyLjg0NTM2NzQsNzAuMzI5NDExOCBMMTIuODQ1MzY3NCw1OC44Mjk0MTE4IEMxMi44NDUzNjc0LDU3LjcyNDg0MjMgMTMuNzQwNzk3OSw1Ni44Mjk0MTE4IDE0Ljg0NTM2NzQsNTYuODI5NDExOCBaIiBpZD0iUmVjdGFuZ2xlLTMiIGZpbGw9IiNGRDcyOUMiPjwvcGF0aD4KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPHBhdGggZD0iTTM2LjM0NTM2NzQsMzUuNjI0MjgxNSBMNDAuMzQ1MzY3NCwzNS42MjQyODE1IEM0MS40NDk5MzY5LDM1LjYyNDI4MTUgNDIuMzQ1MzY3NCwzNi41MTk3MTIgNDIuMzQ1MzY3NCwzNy42MjQyODE1IEw0Mi4zNDUzNjc0LDcwLjMyOTQxMTggTDQyLjM0NTM2NzQsNzAuMzI5NDExOCBMMzQuMzQ1MzY3NCw3MC4zMjk0MTE4IEwzNC4zNDUzNjc0LDM3LjYyNDI4MTUgQzM0LjM0NTM2NzQsMzYuNTE5NzEyIDM1LjI0MDc5NzksMzUuNjI0MjgxNSAzNi4zNDUzNjc0LDM1LjYyNDI4MTUgWiIgaWQ9IlJlY3RhbmdsZS0zIiBmaWxsPSIjMUZDMkJCIj48L3BhdGg+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxwYXRoIGQ9Ik00OC4zNDUzNjc0LDQ5LjkyOTQxMTggTDUyLjM0NTM2NzQsNDkuOTI5NDExOCBDNTMuNDQ5OTM2OSw0OS45Mjk0MTE4IDU0LjM0NTM2NzQsNTAuODI0ODQyMyA1NC4zNDUzNjc0LDUxLjkyOTQxMTggTDU0LjM0NTM2NzQsNzAuMzI5NDExOCBMNTQuMzQ1MzY3NCw3MC4zMjk0MTE4IEw0Ni4zNDUzNjc0LDcwLjMyOTQxMTggTDQ2LjM0NTM2NzQsNTEuOTI5NDExOCBDNDYuMzQ1MzY3NCw1MC44MjQ4NDIzIDQ3LjI0MDc5NzksNDkuOTI5NDExOCA0OC4zNDUzNjc0LDQ5LjkyOTQxMTggWiIgaWQ9IlJlY3RhbmdsZS0zIiBmaWxsPSIjRkQ3MjlDIj48L3BhdGg+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxwYXRoIGQ9Ik03MS4zNDUzNjc0LDIyLjMyOTQxMTggTDc1LjM0NTM2NzQsMjIuMzI5NDExOCBDNzYuNDQ5OTM2OSwyMi4zMjk0MTE4IDc3LjM0NTM2NzQsMjMuMjI0ODQyMyA3Ny4zNDUzNjc0LDI0LjMyOTQxMTggTDc3LjM0NTM2NzQsNzAuMzI5NDExOCBMNzcuMzQ1MzY3NCw3MC4zMjk0MTE4IEw2OS4zNDUzNjc0LDcwLjMyOTQxMTggTDY5LjM0NTM2NzQsMjQuMzI5NDExOCBDNjkuMzQ1MzY3NCwyMy4yMjQ4NDIzIDcwLjI0MDc5NzksMjIuMzI5NDExOCA3MS4zNDUzNjc0LDIyLjMyOTQxMTggWiIgaWQ9IlJlY3RhbmdsZS0zIiBmaWxsPSIjMUZDMkJCIj48L3BhdGg+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxwYXRoIGQ9Ik04My4zNDUzNjc0LDYwLjEyOTQxMTggTDg3LjM0NTM2NzQsNjAuMTI5NDExOCBDODguNDQ5OTM2OSw2MC4xMjk0MTE4IDg5LjM0NTM2NzQsNjEuMDI0ODQyMyA4OS4zNDUzNjc0LDYyLjEyOTQxMTggTDg5LjM0NTM2NzQsNzAuMzI5NDExOCBMODkuMzQ1MzY3NCw3MC4zMjk0MTE4IEw4MS4zNDUzNjc0LDcwLjMyOTQxMTggTDgxLjM0NTM2NzQsNjIuMTI5NDExOCBDODEuMzQ1MzY3NCw2MS4wMjQ4NDIzIDgyLjI0MDc5NzksNjAuMTI5NDExOCA4My4zNDUzNjc0LDYwLjEyOTQxMTggWiIgaWQ9IlJlY3RhbmdsZS0zIiBmaWxsPSIjRkQ3MjlDIj48L3BhdGg+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxwYXRoIGQ9Ik0xMDUuODQ1MzY3LDM3LjgyOTQxMTggTDEwOS44NDUzNjcsMzcuODI5NDExOCBDMTEwLjk0OTkzNywzNy44Mjk0MTE4IDExMS44NDUzNjcsMzguNzI0ODQyMyAxMTEuODQ1MzY3LDM5LjgyOTQxMTggTDExMS44NDUzNjcsNzAuMzI5NDExOCBMMTExLjg0NTM2Nyw3MC4zMjk0MTE4IEwxMDMuODQ1MzY3LDcwLjMyOTQxMTggTDEwMy44NDUzNjcsMzkuODI5NDExOCBDMTAzLjg0NTM2NywzOC43MjQ4NDIzIDEwNC43NDA3OTgsMzcuODI5NDExOCAxMDUuODQ1MzY3LDM3LjgyOTQxMTggWiIgaWQ9IlJlY3RhbmdsZS0zIiBmaWxsPSIjMUZDMkJCIj48L3BhdGg+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxwYXRoIGQ9Ik0xMTcuODQ1MzY3LDU0LjMyOTQxMTggTDEyMS44NDUzNjcsNTQuMzI5NDExOCBDMTIyLjk0OTkzNyw1NC4zMjk0MTE4IDEyMy44NDUzNjcsNTUuMjI0ODQyMyAxMjMuODQ1MzY3LDU2LjMyOTQxMTggTDEyMy44NDUzNjcsNzAuMzI5NDExOCBMMTIzLjg0NTM2Nyw3MC4zMjk0MTE4IEwxMTUuODQ1MzY3LDcwLjMyOTQxMTggTDExNS44NDUzNjcsNTYuMzI5NDExOCBDMTE1Ljg0NTM2Nyw1NS4yMjQ4NDIzIDExNi43NDA3OTgsNTQuMzI5NDExOCAxMTcuODQ1MzY3LDU0LjMyOTQxMTggWiIgaWQ9IlJlY3RhbmdsZS0zIiBmaWxsPSIjRkQ3MjlDIj48L3BhdGg+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxwYXRoIGQ9Ik0xMzkuMzQ1MzY3LDE1LjgyOTQxMTggTDE0My4zNDUzNjcsMTUuODI5NDExOCBDMTQ0LjQ0OTkzNywxNS44Mjk0MTE4IDE0NS4zNDUzNjcsMTYuNzI0ODQyMyAxNDUuMzQ1MzY3LDE3LjgyOTQxMTggTDE0NS4zNDUzNjcsNzAuMzI5NDExOCBMMTQ1LjM0NTM2Nyw3MC4zMjk0MTE4IEwxMzcuMzQ1MzY3LDcwLjMyOTQxMTggTDEzNy4zNDUzNjcsMTcuODI5NDExOCBDMTM3LjM0NTM2NywxNi43MjQ4NDIzIDEzOC4yNDA3OTgsMTUuODI5NDExOCAxMzkuMzQ1MzY3LDE1LjgyOTQxMTggWiIgaWQ9IlJlY3RhbmdsZS0zIiBmaWxsPSIjMUZDMkJCIj48L3BhdGg+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxwYXRoIGQ9Ik0xNTEuMzQ1MzY3LDU4LjgyOTQxMTggTDE1NS4zNDUzNjcsNTguODI5NDExOCBDMTU2LjQ0OTkzNyw1OC44Mjk0MTE4IDE1Ny4zNDUzNjcsNTkuNzI0ODQyMyAxNTcuMzQ1MzY3LDYwLjgyOTQxMTggTDE1Ny4zNDUzNjcsNzAuMzI5NDExOCBMMTU3LjM0NTM2Nyw3MC4zMjk0MTE4IEwxNDkuMzQ1MzY3LDcwLjMyOTQxMTggTDE0OS4zNDUzNjcsNjAuODI5NDExOCBDMTQ5LjM0NTM2Nyw1OS43MjQ4NDIzIDE1MC4yNDA3OTgsNTguODI5NDExOCAxNTEuMzQ1MzY3LDU4LjgyOTQxMTggWiIgaWQ9IlJlY3RhbmdsZS0zIiBmaWxsPSIjRkQ3MjlDIj48L3BhdGg+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPC9nPgogICAgICAgICAgICAgICAgICAgICAgICAgICAgPC9nPgogICAgICAgICAgICAgICAgICAgICAgICA8L2c+CiAgICAgICAgICAgICAgICAgICAgPC9nPgogICAgICAgICAgICAgICAgPC9nPgogICAgICAgICAgICA8L2c+CiAgICAgICAgPC9nPgogICAgPC9nPgo8L3N2Zz4=</t>
+  </si>
+  <si>
+    <t>流水线触发次数图</t>
+  </si>
+  <si>
+    <t>展示了项目下各个环境中各个应用的部署频率，这将帮助您了解团队的部署频次与整体频率</t>
+  </si>
+  <si>
+    <t>/devops/reports/pipelineTrigger-number</t>
+  </si>
+  <si>
+    <t>fd_report-8</t>
+  </si>
+  <si>
+    <t>流水线执行时长图</t>
+  </si>
+  <si>
     <t>2020-05-29</t>
   </si>
   <si>
     <t>choerodon</t>
-    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>图表项目类型</t>
-    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>FD_REPORT_PROJECT_CATEGORY</t>
-    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>#report_id</t>
-    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>#project_category</t>
-    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>*</t>
-    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>N_DEVOPS</t>
-    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>N_OPERATIONS</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>type_sequence</t>
-  </si>
-  <si>
-    <t>fd_report-1</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>fd_report-2</t>
-  </si>
-  <si>
-    <t>fd_report-3</t>
-  </si>
-  <si>
-    <t>fd_report-4</t>
-  </si>
-  <si>
-    <t>fd_report-5</t>
-  </si>
-  <si>
-    <t>fd_report-6</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="21">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="38">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -2169,31 +2073,30 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="53"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="48"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="42"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FFFF0000"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -2201,13 +2104,6 @@
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="DengXian"/>
       <charset val="134"/>
     </font>
     <font>
@@ -2226,15 +2122,164 @@
       <sz val="12"/>
       <color rgb="FF548235"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
+      <name val="DengXian"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
@@ -2265,14 +2310,12 @@
       <sz val="12"/>
       <color rgb="FFC55A11"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF2E75B6"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -2281,21 +2324,8 @@
       <name val="DengXian"/>
       <charset val="134"/>
     </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
   </fonts>
-  <fills count="6">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2326,8 +2356,194 @@
         <bgColor rgb="FFE7E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="10">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -2339,28 +2555,12 @@
       <left style="thin">
         <color auto="1"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
       <top style="thin">
         <color auto="1"/>
       </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top/>
       <bottom/>
       <diagonal/>
     </border>
@@ -2385,12 +2585,21 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color auto="1"/>
       </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
+      <right/>
       <top style="thin">
         <color auto="1"/>
       </top>
@@ -2399,13 +2608,11 @@
     </border>
     <border>
       <left/>
-      <right style="thin">
+      <right/>
+      <top style="thin">
         <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -2420,6 +2627,15 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right style="thin">
         <color auto="1"/>
@@ -2428,90 +2644,377 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="21" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="50">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="1"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="常规 2" xfId="49"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium7"/>
   <colors>
     <indexedColors>
@@ -2584,9 +3087,6 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -2844,268 +3344,274 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:H27"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.4" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="15.58203125" style="5" customWidth="1"/>
-    <col min="2" max="2" width="10.33203125" style="6" customWidth="1"/>
-    <col min="3" max="3" width="28.08203125" customWidth="1"/>
-    <col min="4" max="4" width="35.33203125" style="7" customWidth="1"/>
-    <col min="5" max="5" width="38.58203125" customWidth="1"/>
-    <col min="6" max="6" width="23.4140625" customWidth="1"/>
-    <col min="7" max="7" width="21.58203125" customWidth="1"/>
+    <col min="1" max="1" width="15.5833333333333" style="6" customWidth="1"/>
+    <col min="2" max="2" width="10.3333333333333" style="7" customWidth="1"/>
+    <col min="3" max="3" width="28.0833333333333" customWidth="1"/>
+    <col min="4" max="4" width="35.3333333333333" style="5" customWidth="1"/>
+    <col min="5" max="5" width="38.5833333333333" customWidth="1"/>
+    <col min="6" max="6" width="23.4166666666667" customWidth="1"/>
+    <col min="7" max="7" width="21.5833333333333" customWidth="1"/>
     <col min="8" max="8" width="22" customWidth="1"/>
-    <col min="9" max="9" width="24.58203125" customWidth="1"/>
+    <col min="9" max="9" width="24.5833333333333" customWidth="1"/>
     <col min="10" max="10" width="27" customWidth="1"/>
-    <col min="11" max="11" width="19.08203125" customWidth="1"/>
-    <col min="12" max="12" width="18.58203125" customWidth="1"/>
-    <col min="13" max="13" width="13.08203125" customWidth="1"/>
-    <col min="14" max="1025" width="10.33203125" customWidth="1"/>
+    <col min="11" max="11" width="19.0833333333333" customWidth="1"/>
+    <col min="12" max="12" width="18.5833333333333" customWidth="1"/>
+    <col min="13" max="13" width="13.0833333333333" customWidth="1"/>
+    <col min="14" max="1025" width="10.3333333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="64.5" customHeight="1">
+    <row r="1" ht="64.5" customHeight="1" spans="1:8">
       <c r="A1" s="8"/>
-      <c r="C1" s="34" t="s">
+      <c r="C1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
-      <c r="H1" s="22"/>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="E2" s="19"/>
-    </row>
-    <row r="3" spans="1:8" ht="49.5" customHeight="1">
-      <c r="C3" s="33" t="s">
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+    </row>
+    <row r="2" spans="5:5">
+      <c r="E2" s="11"/>
+    </row>
+    <row r="3" ht="49.5" customHeight="1" spans="3:7">
+      <c r="C3" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="33"/>
-      <c r="E3" s="35" t="s">
+      <c r="D3" s="12"/>
+      <c r="E3" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="35"/>
-      <c r="G3" s="35"/>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="C4" s="36" t="s">
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
+    </row>
+    <row r="4" spans="3:7">
+      <c r="C4" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="36"/>
-      <c r="E4" s="23" t="s">
+      <c r="D4" s="14"/>
+      <c r="E4" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="24" t="s">
+      <c r="F4" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="25" t="s">
+      <c r="G4" s="17" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:3">
       <c r="A5" s="8"/>
       <c r="C5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
-      <c r="C7" s="9" t="s">
+    <row r="7" spans="3:5">
+      <c r="C7" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="10" t="s">
+      <c r="D7" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="26" t="s">
+      <c r="E7" s="20" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
-      <c r="C8" s="11" t="s">
+    <row r="8" spans="3:5">
+      <c r="C8" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="12" t="s">
+      <c r="D8" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="27"/>
-    </row>
-    <row r="9" spans="1:8" ht="52.2">
-      <c r="C9" s="13" t="s">
+      <c r="E8" s="23"/>
+    </row>
+    <row r="9" ht="52.2" spans="3:6">
+      <c r="C9" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="14" t="s">
+      <c r="D9" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="28" t="s">
+      <c r="E9" s="26" t="s">
         <v>15</v>
       </c>
       <c r="F9" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="52.2">
-      <c r="C10" s="15" t="s">
+    <row r="10" ht="52.2" spans="3:5">
+      <c r="C10" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="14" t="s">
+      <c r="D10" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="E10" s="28" t="s">
+      <c r="E10" s="26" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="69.599999999999994">
-      <c r="C11" s="11" t="s">
+    <row r="11" ht="69.6" spans="3:5">
+      <c r="C11" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="14" t="s">
+      <c r="D11" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="E11" s="28" t="s">
+      <c r="E11" s="26" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
-      <c r="C12" s="11" t="s">
+    <row r="12" spans="3:5">
+      <c r="C12" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="14" t="s">
+      <c r="D12" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="E12" s="29" t="s">
+      <c r="E12" s="28" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
-      <c r="C13" s="11"/>
-      <c r="D13" s="12"/>
-      <c r="E13" s="27"/>
-    </row>
-    <row r="14" spans="1:8">
-      <c r="C14" s="11"/>
-      <c r="D14" s="12"/>
-      <c r="E14" s="27"/>
-    </row>
-    <row r="15" spans="1:8" ht="34.799999999999997">
-      <c r="C15" s="16" t="s">
+    <row r="13" spans="3:5">
+      <c r="C13" s="21"/>
+      <c r="D13" s="22"/>
+      <c r="E13" s="23"/>
+    </row>
+    <row r="14" spans="3:5">
+      <c r="C14" s="21"/>
+      <c r="D14" s="22"/>
+      <c r="E14" s="23"/>
+    </row>
+    <row r="15" ht="34.8" spans="3:5">
+      <c r="C15" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="D15" s="17" t="s">
+      <c r="D15" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="E15" s="30" t="s">
+      <c r="E15" s="31" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="18" spans="3:5">
+    <row r="18" spans="3:3">
       <c r="C18" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="19" spans="3:5">
-      <c r="C19" s="37" t="s">
+      <c r="C19" s="32" t="s">
         <v>30</v>
       </c>
-      <c r="D19" s="37"/>
-      <c r="E19" s="37"/>
-    </row>
-    <row r="20" spans="3:5">
-      <c r="C20" s="18" t="s">
+      <c r="D19" s="32"/>
+      <c r="E19" s="32"/>
+    </row>
+    <row r="20" spans="3:4">
+      <c r="C20" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="D20" s="19" t="s">
+      <c r="D20" s="11" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="21" spans="3:5">
-      <c r="C21" s="18" t="s">
+    <row r="21" spans="3:4">
+      <c r="C21" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="D21" s="19" t="s">
+      <c r="D21" s="11" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="22" spans="3:5">
-      <c r="C22" s="18" t="s">
+    <row r="22" spans="3:4">
+      <c r="C22" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="D22" s="7" t="s">
+      <c r="D22" s="5" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="23" spans="3:5">
-      <c r="C23" s="18" t="s">
+    <row r="23" spans="3:4">
+      <c r="C23" s="33" t="s">
         <v>37</v>
       </c>
-      <c r="D23" s="7" t="s">
+      <c r="D23" s="5" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="25" spans="3:5" ht="69" customHeight="1">
-      <c r="C25" s="20" t="s">
+    <row r="25" ht="69" customHeight="1" spans="3:5">
+      <c r="C25" s="34" t="s">
         <v>39</v>
       </c>
-      <c r="D25" s="33" t="s">
+      <c r="D25" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="E25" s="33"/>
-    </row>
-    <row r="26" spans="3:5" ht="14.25" customHeight="1">
-      <c r="C26" s="12" t="s">
+      <c r="E25" s="12"/>
+    </row>
+    <row r="26" ht="14.25" customHeight="1" spans="3:5">
+      <c r="C26" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="D26" s="33" t="s">
+      <c r="D26" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="E26" s="33"/>
-    </row>
-    <row r="27" spans="3:5" ht="52.2">
-      <c r="C27" s="21" t="s">
+      <c r="E26" s="12"/>
+    </row>
+    <row r="27" ht="52.2" spans="3:3">
+      <c r="C27" s="35" t="s">
         <v>43</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="D26:E26"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="E3:G3"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="C19:E19"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="D26:E26"/>
   </mergeCells>
-  <phoneticPr fontId="20" type="noConversion"/>
-  <pageMargins left="0.69791666666666696" right="0.69791666666666696" top="0.75" bottom="0.75" header="0.51041666666666696" footer="0.51041666666666696"/>
+  <pageMargins left="0.697916666666667" right="0.697916666666667" top="0.75" bottom="0.75" header="0.510416666666667" footer="0.510416666666667"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L24"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:L28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView tabSelected="1" topLeftCell="C10" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.4"/>
   <cols>
     <col min="2" max="2" width="8.5" customWidth="1"/>
-    <col min="6" max="6" width="12.9140625" customWidth="1"/>
-    <col min="7" max="7" width="21.33203125" customWidth="1"/>
-    <col min="9" max="9" width="21.08203125" customWidth="1"/>
+    <col min="5" max="5" width="20.9166666666667" customWidth="1"/>
+    <col min="6" max="6" width="14.4166666666667" customWidth="1"/>
+    <col min="7" max="7" width="24.75" customWidth="1"/>
+    <col min="8" max="8" width="16.1666666666667" customWidth="1"/>
+    <col min="9" max="9" width="84.75" customWidth="1"/>
+    <col min="10" max="10" width="33.8333333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>44</v>
       </c>
@@ -3119,7 +3625,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="5:7">
       <c r="E4" s="2" t="s">
         <v>47</v>
       </c>
@@ -3146,31 +3652,31 @@
       <c r="E7" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="F7" s="31" t="s">
+      <c r="F7" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="I7" t="s">
+        <v>58</v>
+      </c>
+      <c r="J7" t="s">
+        <v>59</v>
+      </c>
+      <c r="K7" t="s">
         <v>60</v>
       </c>
-      <c r="G7" s="31" t="s">
+      <c r="L7" t="s">
         <v>61</v>
       </c>
-      <c r="H7" s="31" t="s">
+    </row>
+    <row r="8" spans="5:12">
+      <c r="E8" s="5" t="s">
         <v>62</v>
-      </c>
-      <c r="I7" t="s">
-        <v>55</v>
-      </c>
-      <c r="J7" t="s">
-        <v>56</v>
-      </c>
-      <c r="K7" t="s">
-        <v>57</v>
-      </c>
-      <c r="L7" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
-      <c r="E8" s="32" t="s">
-        <v>93</v>
       </c>
       <c r="F8" t="s">
         <v>63</v>
@@ -3194,24 +3700,24 @@
         <v>60</v>
       </c>
     </row>
-    <row r="9" spans="1:12">
-      <c r="E9" s="32" t="s">
-        <v>94</v>
+    <row r="9" spans="5:12">
+      <c r="E9" s="5" t="s">
+        <v>68</v>
       </c>
       <c r="F9" t="s">
         <v>63</v>
       </c>
       <c r="G9" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H9" t="s">
-        <v>58</v>
+        <v>70</v>
       </c>
       <c r="I9" t="s">
-        <v>59</v>
+        <v>71</v>
       </c>
       <c r="J9" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="K9">
         <v>20</v>
@@ -3220,24 +3726,24 @@
         <v>60</v>
       </c>
     </row>
-    <row r="10" spans="1:12">
-      <c r="E10" s="32" t="s">
-        <v>95</v>
+    <row r="10" spans="5:12">
+      <c r="E10" s="5" t="s">
+        <v>73</v>
       </c>
       <c r="F10" t="s">
         <v>63</v>
       </c>
       <c r="G10" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="H10" t="s">
+        <v>75</v>
+      </c>
+      <c r="I10" t="s">
         <v>71</v>
       </c>
-      <c r="I10" t="s">
-        <v>59</v>
-      </c>
       <c r="J10" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="K10">
         <v>30</v>
@@ -3246,24 +3752,24 @@
         <v>60</v>
       </c>
     </row>
-    <row r="11" spans="1:12">
-      <c r="E11" s="32" t="s">
-        <v>96</v>
+    <row r="11" spans="5:12">
+      <c r="E11" s="5" t="s">
+        <v>77</v>
       </c>
       <c r="F11" t="s">
         <v>63</v>
       </c>
       <c r="G11" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="H11" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="I11" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="J11" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="K11">
         <v>40</v>
@@ -3272,24 +3778,24 @@
         <v>60</v>
       </c>
     </row>
-    <row r="12" spans="1:12">
-      <c r="E12" s="32" t="s">
-        <v>97</v>
+    <row r="12" spans="5:12">
+      <c r="E12" s="5" t="s">
+        <v>82</v>
       </c>
       <c r="F12" t="s">
         <v>63</v>
       </c>
       <c r="G12" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="H12" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="I12" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="J12" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="K12">
         <v>50</v>
@@ -3298,24 +3804,24 @@
         <v>60</v>
       </c>
     </row>
-    <row r="13" spans="1:12">
-      <c r="E13" s="32" t="s">
-        <v>98</v>
+    <row r="13" spans="5:12">
+      <c r="E13" s="5" t="s">
+        <v>85</v>
       </c>
       <c r="F13" t="s">
         <v>63</v>
       </c>
       <c r="G13" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H13" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="I13" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="J13" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="K13">
         <v>60</v>
@@ -3324,129 +3830,205 @@
         <v>60</v>
       </c>
     </row>
-    <row r="16" spans="1:12">
-      <c r="A16" t="s">
-        <v>83</v>
-      </c>
-      <c r="B16" s="32" t="s">
-        <v>84</v>
-      </c>
-      <c r="C16" s="32" t="s">
-        <v>85</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="E16" s="2" t="s">
+    <row r="14" spans="5:12">
+      <c r="E14" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="F14" t="s">
+        <v>63</v>
+      </c>
+      <c r="G14" t="s">
+        <v>91</v>
+      </c>
+      <c r="H14" t="s">
+        <v>92</v>
+      </c>
+      <c r="I14" t="s">
+        <v>93</v>
+      </c>
+      <c r="J14" t="s">
+        <v>94</v>
+      </c>
+      <c r="K14">
+        <v>70</v>
+      </c>
+      <c r="L14">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="15" spans="5:12">
+      <c r="E15" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="F15" t="s">
+        <v>63</v>
+      </c>
+      <c r="G15" t="s">
+        <v>91</v>
+      </c>
+      <c r="H15" t="s">
+        <v>96</v>
+      </c>
+      <c r="I15" t="s">
+        <v>88</v>
+      </c>
+      <c r="J15" t="s">
+        <v>89</v>
+      </c>
+      <c r="K15">
+        <v>80</v>
+      </c>
+      <c r="L15">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
+      <c r="A18" t="s">
+        <v>97</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="E18" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="F16" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="G16" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="J16" s="3"/>
-    </row>
-    <row r="17" spans="5:7">
-      <c r="E17" s="32" t="s">
-        <v>89</v>
-      </c>
-      <c r="F17" s="32" t="str">
+      <c r="F18" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="J18" s="3"/>
+    </row>
+    <row r="19" spans="5:7">
+      <c r="E19" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="F19" s="5" t="str">
         <f>E8</f>
         <v>fd_report-1</v>
       </c>
-      <c r="G17" s="32" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="18" spans="5:7">
-      <c r="E18" s="32" t="s">
-        <v>89</v>
-      </c>
-      <c r="F18" s="32" t="str">
-        <f t="shared" ref="F18:F22" si="0">E9</f>
+      <c r="G19" s="5" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="20" spans="5:7">
+      <c r="E20" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="F20" s="5" t="str">
+        <f t="shared" ref="F20:F24" si="0">E9</f>
         <v>fd_report-2</v>
       </c>
-      <c r="G18" s="32" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="19" spans="5:7">
-      <c r="E19" s="32" t="s">
-        <v>89</v>
-      </c>
-      <c r="F19" s="32" t="str">
+      <c r="G20" s="5" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="21" spans="5:7">
+      <c r="E21" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="F21" s="5" t="str">
         <f t="shared" si="0"/>
         <v>fd_report-3</v>
       </c>
-      <c r="G19" s="32" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="20" spans="5:7">
-      <c r="E20" s="32" t="s">
-        <v>89</v>
-      </c>
-      <c r="F20" s="32" t="str">
+      <c r="G21" s="5" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="22" spans="5:7">
+      <c r="E22" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="F22" s="5" t="str">
         <f t="shared" si="0"/>
         <v>fd_report-4</v>
       </c>
-      <c r="G20" s="32" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="21" spans="5:7">
-      <c r="E21" s="32" t="s">
-        <v>89</v>
-      </c>
-      <c r="F21" s="32" t="str">
+      <c r="G22" s="5" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="23" spans="5:7">
+      <c r="E23" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="F23" s="5" t="str">
         <f t="shared" si="0"/>
         <v>fd_report-5</v>
       </c>
-      <c r="G21" s="32" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="22" spans="5:7">
-      <c r="E22" s="32" t="s">
-        <v>89</v>
-      </c>
-      <c r="F22" s="32" t="str">
+      <c r="G23" s="5" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="24" spans="5:7">
+      <c r="E24" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="F24" s="5" t="str">
         <f t="shared" si="0"/>
         <v>fd_report-6</v>
       </c>
-      <c r="G22" s="32" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="23" spans="5:7">
-      <c r="E23" s="32" t="s">
-        <v>89</v>
-      </c>
-      <c r="F23" s="32" t="str">
+      <c r="G24" s="5" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="25" spans="5:7">
+      <c r="E25" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="F25" s="5" t="str">
         <f>E12</f>
         <v>fd_report-5</v>
       </c>
-      <c r="G23" s="32" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="24" spans="5:7">
-      <c r="E24" s="32" t="s">
-        <v>89</v>
-      </c>
-      <c r="F24" s="32" t="str">
+      <c r="G25" s="5" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="26" spans="5:7">
+      <c r="E26" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="F26" s="5" t="str">
         <f>E13</f>
         <v>fd_report-6</v>
       </c>
-      <c r="G24" s="32" t="s">
-        <v>91</v>
+      <c r="G26" s="5" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="27" spans="5:7">
+      <c r="E27" t="s">
+        <v>103</v>
+      </c>
+      <c r="F27" t="str">
+        <f>E14</f>
+        <v>fd_report-7</v>
+      </c>
+      <c r="G27" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="28" spans="5:7">
+      <c r="E28" t="s">
+        <v>103</v>
+      </c>
+      <c r="F28" t="str">
+        <f>E15</f>
+        <v>fd_report-8</v>
+      </c>
+      <c r="G28" t="s">
+        <v>104</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="20" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/src/main/resources/script/db/init-data/devops_service/hzero_platform/choerodon-fd-report.xlsx
+++ b/src/main/resources/script/db/init-data/devops_service/hzero_platform/choerodon-fd-report.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="107">
   <si>
     <r>
       <rPr>
@@ -2023,6 +2023,9 @@
   </si>
   <si>
     <t>流水线执行时长图</t>
+  </si>
+  <si>
+    <t>/devops/reports/pipeline-duration</t>
   </si>
   <si>
     <t>2020-05-29</t>
@@ -2057,9 +2060,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="38">
@@ -2138,8 +2141,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2147,22 +2151,6 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -2176,6 +2164,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="等线"/>
@@ -2184,7 +2180,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2204,25 +2200,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2237,16 +2232,15 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2254,9 +2248,17 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2268,8 +2270,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2358,13 +2361,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2376,13 +2409,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2394,7 +2421,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2406,31 +2469,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2442,37 +2481,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2484,13 +2493,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2508,25 +2511,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2654,54 +2657,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -2728,6 +2683,54 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -2748,10 +2751,10 @@
     <xf numFmtId="42" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2760,16 +2763,16 @@
     <xf numFmtId="41" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2778,115 +2781,115 @@
     <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="6" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="21" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="16" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="21" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -3596,8 +3599,8 @@
   <sheetPr/>
   <dimension ref="A1:L28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C10" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.4"/>
@@ -3873,7 +3876,7 @@
         <v>88</v>
       </c>
       <c r="J15" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="K15">
         <v>80</v>
@@ -3884,146 +3887,146 @@
     </row>
     <row r="18" spans="1:10">
       <c r="A18" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>54</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="J18" s="3"/>
     </row>
     <row r="19" spans="5:7">
       <c r="E19" s="5" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F19" s="5" t="str">
         <f>E8</f>
         <v>fd_report-1</v>
       </c>
       <c r="G19" s="5" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="20" spans="5:7">
       <c r="E20" s="5" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F20" s="5" t="str">
         <f t="shared" ref="F20:F24" si="0">E9</f>
         <v>fd_report-2</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="21" spans="5:7">
       <c r="E21" s="5" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F21" s="5" t="str">
         <f t="shared" si="0"/>
         <v>fd_report-3</v>
       </c>
       <c r="G21" s="5" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="22" spans="5:7">
       <c r="E22" s="5" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F22" s="5" t="str">
         <f t="shared" si="0"/>
         <v>fd_report-4</v>
       </c>
       <c r="G22" s="5" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="23" spans="5:7">
       <c r="E23" s="5" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F23" s="5" t="str">
         <f t="shared" si="0"/>
         <v>fd_report-5</v>
       </c>
       <c r="G23" s="5" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="24" spans="5:7">
       <c r="E24" s="5" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F24" s="5" t="str">
         <f t="shared" si="0"/>
         <v>fd_report-6</v>
       </c>
       <c r="G24" s="5" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="25" spans="5:7">
       <c r="E25" s="5" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F25" s="5" t="str">
         <f>E12</f>
         <v>fd_report-5</v>
       </c>
       <c r="G25" s="5" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="26" spans="5:7">
       <c r="E26" s="5" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F26" s="5" t="str">
         <f>E13</f>
         <v>fd_report-6</v>
       </c>
       <c r="G26" s="5" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="27" spans="5:7">
       <c r="E27" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F27" t="str">
         <f>E14</f>
         <v>fd_report-7</v>
       </c>
       <c r="G27" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="28" spans="5:7">
       <c r="E28" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F28" t="str">
         <f>E15</f>
         <v>fd_report-8</v>
       </c>
       <c r="G28" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/script/db/init-data/devops_service/hzero_platform/choerodon-fd-report.xlsx
+++ b/src/main/resources/script/db/init-data/devops_service/hzero_platform/choerodon-fd-report.xlsx
@@ -2061,9 +2061,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="38">
     <font>
@@ -2135,38 +2135,38 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2179,8 +2179,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2201,17 +2209,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2224,38 +2224,7 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -2271,15 +2240,46 @@
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2361,13 +2361,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2385,37 +2415,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2433,13 +2439,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2451,7 +2451,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2463,19 +2475,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2487,19 +2493,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2511,7 +2505,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2523,7 +2523,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2648,37 +2648,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2694,15 +2674,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2726,21 +2697,50 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="double">
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -2748,148 +2748,148 @@
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="8" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="6" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="21" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -3599,8 +3599,8 @@
   <sheetPr/>
   <dimension ref="A1:L28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.4"/>
@@ -3608,7 +3608,7 @@
     <col min="2" max="2" width="8.5" customWidth="1"/>
     <col min="5" max="5" width="20.9166666666667" customWidth="1"/>
     <col min="6" max="6" width="14.4166666666667" customWidth="1"/>
-    <col min="7" max="7" width="24.75" customWidth="1"/>
+    <col min="7" max="7" width="30" customWidth="1"/>
     <col min="8" max="8" width="16.1666666666667" customWidth="1"/>
     <col min="9" max="9" width="84.75" customWidth="1"/>
     <col min="10" max="10" width="33.8333333333333" customWidth="1"/>
@@ -3867,7 +3867,7 @@
         <v>63</v>
       </c>
       <c r="G15" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="H15" t="s">
         <v>96</v>

--- a/src/main/resources/script/db/init-data/devops_service/hzero_platform/choerodon-fd-report.xlsx
+++ b/src/main/resources/script/db/init-data/devops_service/hzero_platform/choerodon-fd-report.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9420" tabRatio="597" activeTab="1"/>
+    <workbookView windowWidth="19815" windowHeight="7860" tabRatio="597" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="110">
   <si>
     <r>
       <rPr>
@@ -1962,6 +1962,9 @@
     <t>构建次数图</t>
   </si>
   <si>
+    <t>从应用的维度展示所选时间段某个应用的构建次数，构建成功次数以及构建成功率。这将帮助您快速地定位构建出现的问题，同时直观地了解到项目中某个应用的构建情况。</t>
+  </si>
+  <si>
     <t>/devops/reports/build-number</t>
   </si>
   <si>
@@ -1986,6 +1989,9 @@
     <t>部署次数图</t>
   </si>
   <si>
+    <t>展示该项目下各个环境中各个应用的部署频率，这将帮助您快速直观地了解团队的部署频次与整体的效率。</t>
+  </si>
+  <si>
     <t>/devops/reports/deploy-times</t>
   </si>
   <si>
@@ -2013,7 +2019,7 @@
     <t>流水线触发次数图</t>
   </si>
   <si>
-    <t>展示了项目下各个环境中各个应用的部署频率，这将帮助您了解团队的部署频次与整体频率</t>
+    <t>展示了项目下所有应用流水线的执行频率，这将帮助您了解团队持续交付的整体情况。</t>
   </si>
   <si>
     <t>/devops/reports/pipelineTrigger-number</t>
@@ -2023,6 +2029,9 @@
   </si>
   <si>
     <t>流水线执行时长图</t>
+  </si>
+  <si>
+    <t>展示该项目下所有流水线的执行耗时。这将帮助您了解项目下流水线的整体耗时情况。</t>
   </si>
   <si>
     <t>/devops/reports/pipeline-duration</t>
@@ -2060,10 +2069,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="38">
     <font>
@@ -2141,22 +2150,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="等线"/>
@@ -2164,16 +2157,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2195,29 +2180,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2231,9 +2209,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2248,24 +2232,50 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2277,9 +2287,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2361,7 +2370,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2373,7 +2406,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2391,37 +2442,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2433,25 +2466,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2475,43 +2496,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2523,25 +2550,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2648,6 +2657,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -2663,17 +2687,20 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2693,20 +2720,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2730,31 +2754,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2763,37 +2772,34 @@
     <xf numFmtId="41" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2802,94 +2808,97 @@
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="8" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="7" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -3359,21 +3368,21 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.4" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="15.5833333333333" style="6" customWidth="1"/>
+    <col min="1" max="1" width="15.5851851851852" style="6" customWidth="1"/>
     <col min="2" max="2" width="10.3333333333333" style="7" customWidth="1"/>
-    <col min="3" max="3" width="28.0833333333333" customWidth="1"/>
+    <col min="3" max="3" width="28.0814814814815" customWidth="1"/>
     <col min="4" max="4" width="35.3333333333333" style="5" customWidth="1"/>
-    <col min="5" max="5" width="38.5833333333333" customWidth="1"/>
-    <col min="6" max="6" width="23.4166666666667" customWidth="1"/>
-    <col min="7" max="7" width="21.5833333333333" customWidth="1"/>
+    <col min="5" max="5" width="38.5851851851852" customWidth="1"/>
+    <col min="6" max="6" width="23.4148148148148" customWidth="1"/>
+    <col min="7" max="7" width="21.5851851851852" customWidth="1"/>
     <col min="8" max="8" width="22" customWidth="1"/>
-    <col min="9" max="9" width="24.5833333333333" customWidth="1"/>
+    <col min="9" max="9" width="24.5851851851852" customWidth="1"/>
     <col min="10" max="10" width="27" customWidth="1"/>
-    <col min="11" max="11" width="19.0833333333333" customWidth="1"/>
-    <col min="12" max="12" width="18.5833333333333" customWidth="1"/>
-    <col min="13" max="13" width="13.0833333333333" customWidth="1"/>
+    <col min="11" max="11" width="19.0814814814815" customWidth="1"/>
+    <col min="12" max="12" width="18.5851851851852" customWidth="1"/>
+    <col min="13" max="13" width="13.0814814814815" customWidth="1"/>
     <col min="14" max="1025" width="10.3333333333333" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3388,7 +3397,7 @@
       <c r="G1" s="10"/>
       <c r="H1" s="10"/>
     </row>
-    <row r="2" spans="5:5">
+    <row r="2" ht="18" spans="5:5">
       <c r="E2" s="11"/>
     </row>
     <row r="3" ht="49.5" customHeight="1" spans="3:7">
@@ -3402,7 +3411,7 @@
       <c r="F3" s="13"/>
       <c r="G3" s="13"/>
     </row>
-    <row r="4" spans="3:7">
+    <row r="4" ht="18" spans="3:7">
       <c r="C4" s="14" t="s">
         <v>3</v>
       </c>
@@ -3423,7 +3432,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="3:5">
+    <row r="7" ht="18" spans="3:5">
       <c r="C7" s="18" t="s">
         <v>8</v>
       </c>
@@ -3443,7 +3452,7 @@
       </c>
       <c r="E8" s="23"/>
     </row>
-    <row r="9" ht="52.2" spans="3:6">
+    <row r="9" ht="51.75" spans="3:6">
       <c r="C9" s="24" t="s">
         <v>13</v>
       </c>
@@ -3457,7 +3466,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" ht="52.2" spans="3:5">
+    <row r="10" ht="51.75" spans="3:5">
       <c r="C10" s="27" t="s">
         <v>17</v>
       </c>
@@ -3468,7 +3477,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" ht="69.6" spans="3:5">
+    <row r="11" ht="69" spans="3:5">
       <c r="C11" s="21" t="s">
         <v>20</v>
       </c>
@@ -3500,7 +3509,7 @@
       <c r="D14" s="22"/>
       <c r="E14" s="23"/>
     </row>
-    <row r="15" ht="34.8" spans="3:5">
+    <row r="15" ht="34.5" spans="3:5">
       <c r="C15" s="29" t="s">
         <v>26</v>
       </c>
@@ -3523,7 +3532,7 @@
       <c r="D19" s="32"/>
       <c r="E19" s="32"/>
     </row>
-    <row r="20" spans="3:4">
+    <row r="20" ht="18" spans="3:4">
       <c r="C20" s="33" t="s">
         <v>31</v>
       </c>
@@ -3531,7 +3540,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="21" spans="3:4">
+    <row r="21" ht="18" spans="3:4">
       <c r="C21" s="33" t="s">
         <v>33</v>
       </c>
@@ -3539,7 +3548,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="22" spans="3:4">
+    <row r="22" ht="18" spans="3:4">
       <c r="C22" s="33" t="s">
         <v>35</v>
       </c>
@@ -3547,7 +3556,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="23" spans="3:4">
+    <row r="23" ht="18" spans="3:4">
       <c r="C23" s="33" t="s">
         <v>37</v>
       </c>
@@ -3573,7 +3582,7 @@
       </c>
       <c r="E26" s="12"/>
     </row>
-    <row r="27" ht="52.2" spans="3:3">
+    <row r="27" ht="51.75" spans="3:3">
       <c r="C27" s="35" t="s">
         <v>43</v>
       </c>
@@ -3599,19 +3608,19 @@
   <sheetPr/>
   <dimension ref="A1:L28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView tabSelected="1" topLeftCell="H7" workbookViewId="0">
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
   <cols>
-    <col min="2" max="2" width="8.5" customWidth="1"/>
-    <col min="5" max="5" width="20.9166666666667" customWidth="1"/>
-    <col min="6" max="6" width="14.4166666666667" customWidth="1"/>
+    <col min="2" max="2" width="8.5037037037037" customWidth="1"/>
+    <col min="5" max="5" width="20.9185185185185" customWidth="1"/>
+    <col min="6" max="6" width="14.4148148148148" customWidth="1"/>
     <col min="7" max="7" width="30" customWidth="1"/>
-    <col min="8" max="8" width="16.1666666666667" customWidth="1"/>
-    <col min="9" max="9" width="84.75" customWidth="1"/>
-    <col min="10" max="10" width="33.8333333333333" customWidth="1"/>
+    <col min="8" max="8" width="16.162962962963" customWidth="1"/>
+    <col min="9" max="9" width="84.7481481481481" customWidth="1"/>
+    <col min="10" max="10" width="33.8296296296296" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -3743,10 +3752,10 @@
         <v>75</v>
       </c>
       <c r="I10" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="J10" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="K10">
         <v>30</v>
@@ -3757,22 +3766,22 @@
     </row>
     <row r="11" spans="5:12">
       <c r="E11" s="5" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F11" t="s">
         <v>63</v>
       </c>
       <c r="G11" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H11" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I11" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="J11" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K11">
         <v>40</v>
@@ -3783,7 +3792,7 @@
     </row>
     <row r="12" spans="5:12">
       <c r="E12" s="5" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F12" t="s">
         <v>63</v>
@@ -3792,13 +3801,13 @@
         <v>74</v>
       </c>
       <c r="H12" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="I12" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="J12" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="K12">
         <v>50</v>
@@ -3809,22 +3818,22 @@
     </row>
     <row r="13" spans="5:12">
       <c r="E13" s="5" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="F13" t="s">
         <v>63</v>
       </c>
       <c r="G13" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="H13" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="I13" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="J13" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="K13">
         <v>60</v>
@@ -3835,22 +3844,22 @@
     </row>
     <row r="14" spans="5:12">
       <c r="E14" s="5" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="F14" t="s">
         <v>63</v>
       </c>
       <c r="G14" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="H14" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="I14" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="J14" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="K14">
         <v>70</v>
@@ -3861,22 +3870,22 @@
     </row>
     <row r="15" spans="5:12">
       <c r="E15" s="5" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="F15" t="s">
         <v>63</v>
       </c>
       <c r="G15" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="H15" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="I15" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="J15" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="K15">
         <v>80</v>
@@ -3887,146 +3896,146 @@
     </row>
     <row r="18" spans="1:10">
       <c r="A18" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>54</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="J18" s="3"/>
     </row>
     <row r="19" spans="5:7">
       <c r="E19" s="5" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="F19" s="5" t="str">
         <f>E8</f>
         <v>fd_report-1</v>
       </c>
       <c r="G19" s="5" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
     </row>
     <row r="20" spans="5:7">
       <c r="E20" s="5" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="F20" s="5" t="str">
         <f t="shared" ref="F20:F24" si="0">E9</f>
         <v>fd_report-2</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
     </row>
     <row r="21" spans="5:7">
       <c r="E21" s="5" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="F21" s="5" t="str">
         <f t="shared" si="0"/>
         <v>fd_report-3</v>
       </c>
       <c r="G21" s="5" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
     </row>
     <row r="22" spans="5:7">
       <c r="E22" s="5" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="F22" s="5" t="str">
         <f t="shared" si="0"/>
         <v>fd_report-4</v>
       </c>
       <c r="G22" s="5" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
     </row>
     <row r="23" spans="5:7">
       <c r="E23" s="5" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="F23" s="5" t="str">
         <f t="shared" si="0"/>
         <v>fd_report-5</v>
       </c>
       <c r="G23" s="5" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
     </row>
     <row r="24" spans="5:7">
       <c r="E24" s="5" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="F24" s="5" t="str">
         <f t="shared" si="0"/>
         <v>fd_report-6</v>
       </c>
       <c r="G24" s="5" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
     </row>
     <row r="25" spans="5:7">
       <c r="E25" s="5" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="F25" s="5" t="str">
         <f>E12</f>
         <v>fd_report-5</v>
       </c>
       <c r="G25" s="5" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
     </row>
     <row r="26" spans="5:7">
       <c r="E26" s="5" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="F26" s="5" t="str">
         <f>E13</f>
         <v>fd_report-6</v>
       </c>
       <c r="G26" s="5" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
     </row>
     <row r="27" spans="5:7">
       <c r="E27" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="F27" t="str">
         <f>E14</f>
         <v>fd_report-7</v>
       </c>
       <c r="G27" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
     </row>
     <row r="28" spans="5:7">
       <c r="E28" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="F28" t="str">
         <f>E15</f>
         <v>fd_report-8</v>
       </c>
       <c r="G28" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/script/db/init-data/devops_service/hzero_platform/choerodon-fd-report.xlsx
+++ b/src/main/resources/script/db/init-data/devops_service/hzero_platform/choerodon-fd-report.xlsx
@@ -1962,7 +1962,7 @@
     <t>构建次数图</t>
   </si>
   <si>
-    <t>从应用的维度展示所选时间段某个应用的构建次数，构建成功次数以及构建成功率。这将帮助您快速地定位构建出现的问题，同时直观地了解到项目中某个应用的构建情况。</t>
+    <t>从应用的维度为您展示任意时间段某个应用的构建次数，构建成功次数以及构建成功率。</t>
   </si>
   <si>
     <t>/devops/reports/build-number</t>
@@ -2069,10 +2069,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="38">
     <font>
@@ -2150,10 +2150,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2164,30 +2165,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2203,31 +2182,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2239,11 +2196,40 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="18"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2258,6 +2244,13 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2280,15 +2273,22 @@
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2370,37 +2370,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2418,13 +2394,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2436,13 +2454,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2460,19 +2490,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2484,31 +2502,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2526,31 +2526,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2658,16 +2658,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2689,33 +2689,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2735,6 +2713,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -2746,11 +2739,18 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
-      </top>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2760,10 +2760,10 @@
     <xf numFmtId="42" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2772,133 +2772,133 @@
     <xf numFmtId="41" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="7" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -3609,7 +3609,7 @@
   <dimension ref="A1:L28"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="H7" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>

--- a/src/main/resources/script/db/init-data/devops_service/hzero_platform/choerodon-fd-report.xlsx
+++ b/src/main/resources/script/db/init-data/devops_service/hzero_platform/choerodon-fd-report.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19815" windowHeight="7860" tabRatio="597" activeTab="1"/>
+    <workbookView windowWidth="23040" windowHeight="9420" tabRatio="597" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="113">
   <si>
     <r>
       <rPr>
@@ -1920,6 +1920,9 @@
     <t>type_sequence</t>
   </si>
   <si>
+    <t>module</t>
+  </si>
+  <si>
     <t>fd_report-1</t>
   </si>
   <si>
@@ -1938,6 +1941,9 @@
     <t>/devops/reports/submission</t>
   </si>
   <si>
+    <t>develop</t>
+  </si>
+  <si>
     <t>fd_report-2</t>
   </si>
   <si>
@@ -1993,6 +1999,9 @@
   </si>
   <si>
     <t>/devops/reports/deploy-times</t>
+  </si>
+  <si>
+    <t>deploy</t>
   </si>
   <si>
     <t>fd_report-6</t>
@@ -2069,9 +2078,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="38">
@@ -2144,7 +2153,45 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -2159,14 +2206,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2180,39 +2220,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -2227,7 +2244,22 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2241,6 +2273,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -2249,39 +2288,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2370,7 +2379,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2382,13 +2499,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2400,37 +2511,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2442,7 +2523,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2460,61 +2547,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2526,31 +2559,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2658,16 +2667,34 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2687,17 +2714,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -2713,34 +2729,12 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -2754,151 +2748,166 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="36" borderId="17" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="8" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -3368,21 +3377,21 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.4" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="15.5851851851852" style="6" customWidth="1"/>
+    <col min="1" max="1" width="15.5833333333333" style="6" customWidth="1"/>
     <col min="2" max="2" width="10.3333333333333" style="7" customWidth="1"/>
-    <col min="3" max="3" width="28.0814814814815" customWidth="1"/>
+    <col min="3" max="3" width="28.0833333333333" customWidth="1"/>
     <col min="4" max="4" width="35.3333333333333" style="5" customWidth="1"/>
-    <col min="5" max="5" width="38.5851851851852" customWidth="1"/>
-    <col min="6" max="6" width="23.4148148148148" customWidth="1"/>
-    <col min="7" max="7" width="21.5851851851852" customWidth="1"/>
+    <col min="5" max="5" width="38.5833333333333" customWidth="1"/>
+    <col min="6" max="6" width="23.4166666666667" customWidth="1"/>
+    <col min="7" max="7" width="21.5833333333333" customWidth="1"/>
     <col min="8" max="8" width="22" customWidth="1"/>
-    <col min="9" max="9" width="24.5851851851852" customWidth="1"/>
+    <col min="9" max="9" width="24.5833333333333" customWidth="1"/>
     <col min="10" max="10" width="27" customWidth="1"/>
-    <col min="11" max="11" width="19.0814814814815" customWidth="1"/>
-    <col min="12" max="12" width="18.5851851851852" customWidth="1"/>
-    <col min="13" max="13" width="13.0814814814815" customWidth="1"/>
+    <col min="11" max="11" width="19.0833333333333" customWidth="1"/>
+    <col min="12" max="12" width="18.5833333333333" customWidth="1"/>
+    <col min="13" max="13" width="13.0833333333333" customWidth="1"/>
     <col min="14" max="1025" width="10.3333333333333" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3397,7 +3406,7 @@
       <c r="G1" s="10"/>
       <c r="H1" s="10"/>
     </row>
-    <row r="2" ht="18" spans="5:5">
+    <row r="2" spans="5:5">
       <c r="E2" s="11"/>
     </row>
     <row r="3" ht="49.5" customHeight="1" spans="3:7">
@@ -3411,7 +3420,7 @@
       <c r="F3" s="13"/>
       <c r="G3" s="13"/>
     </row>
-    <row r="4" ht="18" spans="3:7">
+    <row r="4" spans="3:7">
       <c r="C4" s="14" t="s">
         <v>3</v>
       </c>
@@ -3432,7 +3441,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" ht="18" spans="3:5">
+    <row r="7" spans="3:5">
       <c r="C7" s="18" t="s">
         <v>8</v>
       </c>
@@ -3452,7 +3461,7 @@
       </c>
       <c r="E8" s="23"/>
     </row>
-    <row r="9" ht="51.75" spans="3:6">
+    <row r="9" ht="52.2" spans="3:6">
       <c r="C9" s="24" t="s">
         <v>13</v>
       </c>
@@ -3466,7 +3475,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" ht="51.75" spans="3:5">
+    <row r="10" ht="52.2" spans="3:5">
       <c r="C10" s="27" t="s">
         <v>17</v>
       </c>
@@ -3477,7 +3486,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" ht="69" spans="3:5">
+    <row r="11" ht="69.6" spans="3:5">
       <c r="C11" s="21" t="s">
         <v>20</v>
       </c>
@@ -3509,7 +3518,7 @@
       <c r="D14" s="22"/>
       <c r="E14" s="23"/>
     </row>
-    <row r="15" ht="34.5" spans="3:5">
+    <row r="15" ht="34.8" spans="3:5">
       <c r="C15" s="29" t="s">
         <v>26</v>
       </c>
@@ -3532,7 +3541,7 @@
       <c r="D19" s="32"/>
       <c r="E19" s="32"/>
     </row>
-    <row r="20" ht="18" spans="3:4">
+    <row r="20" spans="3:4">
       <c r="C20" s="33" t="s">
         <v>31</v>
       </c>
@@ -3540,7 +3549,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="21" ht="18" spans="3:4">
+    <row r="21" spans="3:4">
       <c r="C21" s="33" t="s">
         <v>33</v>
       </c>
@@ -3548,7 +3557,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="22" ht="18" spans="3:4">
+    <row r="22" spans="3:4">
       <c r="C22" s="33" t="s">
         <v>35</v>
       </c>
@@ -3556,7 +3565,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="23" ht="18" spans="3:4">
+    <row r="23" spans="3:4">
       <c r="C23" s="33" t="s">
         <v>37</v>
       </c>
@@ -3582,7 +3591,7 @@
       </c>
       <c r="E26" s="12"/>
     </row>
-    <row r="27" ht="51.75" spans="3:3">
+    <row r="27" ht="52.2" spans="3:3">
       <c r="C27" s="35" t="s">
         <v>43</v>
       </c>
@@ -3606,21 +3615,24 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L28"/>
+  <dimension ref="A1:M28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H7" workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+    <sheetView tabSelected="1" topLeftCell="J4" workbookViewId="0">
+      <selection activeCell="N13" sqref="N13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.4"/>
   <cols>
-    <col min="2" max="2" width="8.5037037037037" customWidth="1"/>
-    <col min="5" max="5" width="20.9185185185185" customWidth="1"/>
-    <col min="6" max="6" width="14.4148148148148" customWidth="1"/>
+    <col min="2" max="2" width="8.50694444444444" customWidth="1"/>
+    <col min="4" max="4" width="28.5" customWidth="1"/>
+    <col min="5" max="5" width="20.9166666666667" customWidth="1"/>
+    <col min="6" max="6" width="14.4166666666667" customWidth="1"/>
     <col min="7" max="7" width="30" customWidth="1"/>
-    <col min="8" max="8" width="16.162962962963" customWidth="1"/>
-    <col min="9" max="9" width="84.7481481481481" customWidth="1"/>
-    <col min="10" max="10" width="33.8296296296296" customWidth="1"/>
+    <col min="8" max="8" width="16.1597222222222" customWidth="1"/>
+    <col min="9" max="9" width="84.75" customWidth="1"/>
+    <col min="10" max="10" width="33.8263888888889" customWidth="1"/>
+    <col min="11" max="11" width="9.75" customWidth="1"/>
+    <col min="12" max="12" width="14.5833333333333" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -3648,7 +3660,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:13">
       <c r="A7" t="s">
         <v>50</v>
       </c>
@@ -3685,25 +3697,28 @@
       <c r="L7" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="8" spans="5:12">
+      <c r="M7" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="8" spans="5:13">
       <c r="E8" s="5" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F8" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="G8" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="H8" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="I8" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="J8" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="K8">
         <v>10</v>
@@ -3711,25 +3726,28 @@
       <c r="L8">
         <v>60</v>
       </c>
-    </row>
-    <row r="9" spans="5:12">
+      <c r="M8" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="9" spans="5:13">
       <c r="E9" s="5" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="F9" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="G9" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="H9" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="I9" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="J9" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="K9">
         <v>20</v>
@@ -3737,25 +3755,28 @@
       <c r="L9">
         <v>60</v>
       </c>
-    </row>
-    <row r="10" spans="5:12">
+      <c r="M9" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="10" spans="5:13">
       <c r="E10" s="5" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="F10" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="G10" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="H10" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="I10" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="J10" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="K10">
         <v>30</v>
@@ -3763,25 +3784,28 @@
       <c r="L10">
         <v>60</v>
       </c>
-    </row>
-    <row r="11" spans="5:12">
+      <c r="M10" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="11" spans="5:13">
       <c r="E11" s="5" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="F11" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="G11" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="H11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="I11" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="J11" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="K11">
         <v>40</v>
@@ -3789,25 +3813,28 @@
       <c r="L11">
         <v>60</v>
       </c>
-    </row>
-    <row r="12" spans="5:12">
+      <c r="M11" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="12" spans="5:13">
       <c r="E12" s="5" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="F12" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="G12" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="H12" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="I12" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="J12" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="K12">
         <v>50</v>
@@ -3815,25 +3842,28 @@
       <c r="L12">
         <v>60</v>
       </c>
-    </row>
-    <row r="13" spans="5:12">
+      <c r="M12" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="13" spans="5:13">
       <c r="E13" s="5" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="F13" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="G13" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="H13" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="I13" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="J13" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="K13">
         <v>60</v>
@@ -3841,25 +3871,28 @@
       <c r="L13">
         <v>60</v>
       </c>
-    </row>
-    <row r="14" spans="5:12">
+      <c r="M13" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="14" spans="5:13">
       <c r="E14" s="5" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="F14" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="G14" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="H14" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="I14" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="J14" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="K14">
         <v>70</v>
@@ -3867,25 +3900,28 @@
       <c r="L14">
         <v>70</v>
       </c>
-    </row>
-    <row r="15" spans="5:12">
+      <c r="M14" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="15" spans="5:13">
       <c r="E15" s="5" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="F15" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="G15" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="H15" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="I15" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="J15" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="K15">
         <v>80</v>
@@ -3893,149 +3929,152 @@
       <c r="L15">
         <v>80</v>
       </c>
+      <c r="M15" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="18" spans="1:10">
       <c r="A18" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>54</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="J18" s="3"/>
     </row>
     <row r="19" spans="5:7">
       <c r="E19" s="5" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="F19" s="5" t="str">
         <f>E8</f>
         <v>fd_report-1</v>
       </c>
       <c r="G19" s="5" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
     </row>
     <row r="20" spans="5:7">
       <c r="E20" s="5" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="F20" s="5" t="str">
         <f t="shared" ref="F20:F24" si="0">E9</f>
         <v>fd_report-2</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
     </row>
     <row r="21" spans="5:7">
       <c r="E21" s="5" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="F21" s="5" t="str">
         <f t="shared" si="0"/>
         <v>fd_report-3</v>
       </c>
       <c r="G21" s="5" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
     </row>
     <row r="22" spans="5:7">
       <c r="E22" s="5" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="F22" s="5" t="str">
         <f t="shared" si="0"/>
         <v>fd_report-4</v>
       </c>
       <c r="G22" s="5" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
     </row>
     <row r="23" spans="5:7">
       <c r="E23" s="5" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="F23" s="5" t="str">
         <f t="shared" si="0"/>
         <v>fd_report-5</v>
       </c>
       <c r="G23" s="5" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
     </row>
     <row r="24" spans="5:7">
       <c r="E24" s="5" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="F24" s="5" t="str">
         <f t="shared" si="0"/>
         <v>fd_report-6</v>
       </c>
       <c r="G24" s="5" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
     </row>
     <row r="25" spans="5:7">
       <c r="E25" s="5" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="F25" s="5" t="str">
         <f>E12</f>
         <v>fd_report-5</v>
       </c>
       <c r="G25" s="5" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
     </row>
     <row r="26" spans="5:7">
       <c r="E26" s="5" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="F26" s="5" t="str">
         <f>E13</f>
         <v>fd_report-6</v>
       </c>
       <c r="G26" s="5" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
     </row>
     <row r="27" spans="5:7">
       <c r="E27" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="F27" t="str">
         <f>E14</f>
         <v>fd_report-7</v>
       </c>
       <c r="G27" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
     </row>
     <row r="28" spans="5:7">
       <c r="E28" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="F28" t="str">
         <f>E15</f>
         <v>fd_report-8</v>
       </c>
       <c r="G28" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/script/db/init-data/devops_service/hzero_platform/choerodon-fd-report.xlsx
+++ b/src/main/resources/script/db/init-data/devops_service/hzero_platform/choerodon-fd-report.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="113">
   <si>
     <r>
       <rPr>
@@ -2078,10 +2078,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="38">
     <font>
@@ -2160,6 +2160,57 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -2168,7 +2219,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2182,10 +2240,11 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2205,66 +2264,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -2280,6 +2279,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -2289,13 +2296,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
@@ -2379,19 +2379,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2403,25 +2415,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2439,13 +2439,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2457,7 +2451,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2469,97 +2553,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2666,6 +2666,24 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -2683,18 +2701,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2710,6 +2721,21 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2731,183 +2757,157 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="27" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="36" borderId="17" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="8" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -3618,7 +3618,7 @@
   <dimension ref="A1:M28"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="J4" workbookViewId="0">
-      <selection activeCell="N13" sqref="N13"/>
+      <selection activeCell="M9" sqref="M9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.4"/>
@@ -3730,7 +3730,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="9" spans="5:13">
+    <row r="9" spans="5:12">
       <c r="E9" s="5" t="s">
         <v>70</v>
       </c>
@@ -3754,9 +3754,6 @@
       </c>
       <c r="L9">
         <v>60</v>
-      </c>
-      <c r="M9" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="10" spans="5:13">

--- a/src/main/resources/script/db/init-data/devops_service/hzero_platform/choerodon-fd-report.xlsx
+++ b/src/main/resources/script/db/init-data/devops_service/hzero_platform/choerodon-fd-report.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9420" tabRatio="597" activeTab="1"/>
+    <workbookView windowWidth="19815" windowHeight="7860" tabRatio="597" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
@@ -1938,7 +1938,7 @@
     <t>跟踪项目下团队与个人的代码提交情况。这有助于了解团队的整体效率与个人效率。</t>
   </si>
   <si>
-    <t>/devops/reports/submission</t>
+    <t>/devops/charts/develop/submission</t>
   </si>
   <si>
     <t>develop</t>
@@ -1971,7 +1971,7 @@
     <t>从应用的维度为您展示任意时间段某个应用的构建次数，构建成功次数以及构建成功率。</t>
   </si>
   <si>
-    <t>/devops/reports/build-number</t>
+    <t>/devops/charts/develop/build-number</t>
   </si>
   <si>
     <t>fd_report-4</t>
@@ -1986,7 +1986,7 @@
     <t>从应用的维度展示所选时间段某个应用每一次构建的时长。这将帮助您更直观地了解应用构建的效率。</t>
   </si>
   <si>
-    <t>/devops/reports/build-duration</t>
+    <t>/devops/charts/develop/build-duration</t>
   </si>
   <si>
     <t>fd_report-5</t>
@@ -1998,7 +1998,7 @@
     <t>展示该项目下各个环境中各个应用的部署频率，这将帮助您快速直观地了解团队的部署频次与整体的效率。</t>
   </si>
   <si>
-    <t>/devops/reports/deploy-times</t>
+    <t>/devops/charts/deploy/deploy-times</t>
   </si>
   <si>
     <t>deploy</t>
@@ -2016,7 +2016,7 @@
     <t>展示该项目下某一环境中各个应用部署时长等部署相关的信息。这将帮助您了解各个应用的部署情况。</t>
   </si>
   <si>
-    <t>/devops/reports/deploy-duration</t>
+    <t>/devops/charts/deploy/deploy-duration</t>
   </si>
   <si>
     <t>fd_report-7</t>
@@ -2031,7 +2031,7 @@
     <t>展示了项目下所有应用流水线的执行频率，这将帮助您了解团队持续交付的整体情况。</t>
   </si>
   <si>
-    <t>/devops/reports/pipelineTrigger-number</t>
+    <t>/devops/charts/develop/pipelineTrigger-number</t>
   </si>
   <si>
     <t>fd_report-8</t>
@@ -2043,7 +2043,7 @@
     <t>展示该项目下所有流水线的执行耗时。这将帮助您了解项目下流水线的整体耗时情况。</t>
   </si>
   <si>
-    <t>/devops/reports/pipeline-duration</t>
+    <t>/devops/charts/develop/pipeline-duration</t>
   </si>
   <si>
     <t>2020-05-29</t>
@@ -2080,8 +2080,8 @@
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="38">
     <font>
@@ -2153,42 +2153,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -2209,50 +2173,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2272,16 +2203,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2297,7 +2221,83 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2379,48 +2379,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -2439,7 +2397,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2451,13 +2517,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2475,91 +2547,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2666,24 +2666,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -2699,27 +2681,16 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -2740,17 +2711,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2763,151 +2728,186 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="27" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="27" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="16" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="28" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -3377,21 +3377,21 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.4" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="15.5833333333333" style="6" customWidth="1"/>
+    <col min="1" max="1" width="15.5851851851852" style="6" customWidth="1"/>
     <col min="2" max="2" width="10.3333333333333" style="7" customWidth="1"/>
-    <col min="3" max="3" width="28.0833333333333" customWidth="1"/>
+    <col min="3" max="3" width="28.0814814814815" customWidth="1"/>
     <col min="4" max="4" width="35.3333333333333" style="5" customWidth="1"/>
-    <col min="5" max="5" width="38.5833333333333" customWidth="1"/>
-    <col min="6" max="6" width="23.4166666666667" customWidth="1"/>
-    <col min="7" max="7" width="21.5833333333333" customWidth="1"/>
+    <col min="5" max="5" width="38.5851851851852" customWidth="1"/>
+    <col min="6" max="6" width="23.4148148148148" customWidth="1"/>
+    <col min="7" max="7" width="21.5851851851852" customWidth="1"/>
     <col min="8" max="8" width="22" customWidth="1"/>
-    <col min="9" max="9" width="24.5833333333333" customWidth="1"/>
+    <col min="9" max="9" width="24.5851851851852" customWidth="1"/>
     <col min="10" max="10" width="27" customWidth="1"/>
-    <col min="11" max="11" width="19.0833333333333" customWidth="1"/>
-    <col min="12" max="12" width="18.5833333333333" customWidth="1"/>
-    <col min="13" max="13" width="13.0833333333333" customWidth="1"/>
+    <col min="11" max="11" width="19.0814814814815" customWidth="1"/>
+    <col min="12" max="12" width="18.5851851851852" customWidth="1"/>
+    <col min="13" max="13" width="13.0814814814815" customWidth="1"/>
     <col min="14" max="1025" width="10.3333333333333" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3406,7 +3406,7 @@
       <c r="G1" s="10"/>
       <c r="H1" s="10"/>
     </row>
-    <row r="2" spans="5:5">
+    <row r="2" ht="18" spans="5:5">
       <c r="E2" s="11"/>
     </row>
     <row r="3" ht="49.5" customHeight="1" spans="3:7">
@@ -3420,7 +3420,7 @@
       <c r="F3" s="13"/>
       <c r="G3" s="13"/>
     </row>
-    <row r="4" spans="3:7">
+    <row r="4" ht="18" spans="3:7">
       <c r="C4" s="14" t="s">
         <v>3</v>
       </c>
@@ -3441,7 +3441,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="3:5">
+    <row r="7" ht="18" spans="3:5">
       <c r="C7" s="18" t="s">
         <v>8</v>
       </c>
@@ -3461,7 +3461,7 @@
       </c>
       <c r="E8" s="23"/>
     </row>
-    <row r="9" ht="52.2" spans="3:6">
+    <row r="9" ht="51.75" spans="3:6">
       <c r="C9" s="24" t="s">
         <v>13</v>
       </c>
@@ -3475,7 +3475,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" ht="52.2" spans="3:5">
+    <row r="10" ht="51.75" spans="3:5">
       <c r="C10" s="27" t="s">
         <v>17</v>
       </c>
@@ -3486,7 +3486,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" ht="69.6" spans="3:5">
+    <row r="11" ht="69" spans="3:5">
       <c r="C11" s="21" t="s">
         <v>20</v>
       </c>
@@ -3518,7 +3518,7 @@
       <c r="D14" s="22"/>
       <c r="E14" s="23"/>
     </row>
-    <row r="15" ht="34.8" spans="3:5">
+    <row r="15" ht="34.5" spans="3:5">
       <c r="C15" s="29" t="s">
         <v>26</v>
       </c>
@@ -3541,7 +3541,7 @@
       <c r="D19" s="32"/>
       <c r="E19" s="32"/>
     </row>
-    <row r="20" spans="3:4">
+    <row r="20" ht="18" spans="3:4">
       <c r="C20" s="33" t="s">
         <v>31</v>
       </c>
@@ -3549,7 +3549,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="21" spans="3:4">
+    <row r="21" ht="18" spans="3:4">
       <c r="C21" s="33" t="s">
         <v>33</v>
       </c>
@@ -3557,7 +3557,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="22" spans="3:4">
+    <row r="22" ht="18" spans="3:4">
       <c r="C22" s="33" t="s">
         <v>35</v>
       </c>
@@ -3565,7 +3565,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="23" spans="3:4">
+    <row r="23" ht="18" spans="3:4">
       <c r="C23" s="33" t="s">
         <v>37</v>
       </c>
@@ -3591,7 +3591,7 @@
       </c>
       <c r="E26" s="12"/>
     </row>
-    <row r="27" ht="52.2" spans="3:3">
+    <row r="27" ht="51.75" spans="3:3">
       <c r="C27" s="35" t="s">
         <v>43</v>
       </c>
@@ -3617,22 +3617,22 @@
   <sheetPr/>
   <dimension ref="A1:M28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J4" workbookViewId="0">
-      <selection activeCell="M9" sqref="M9"/>
+    <sheetView tabSelected="1" topLeftCell="I4" workbookViewId="0">
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
   <cols>
-    <col min="2" max="2" width="8.50694444444444" customWidth="1"/>
-    <col min="4" max="4" width="28.5" customWidth="1"/>
-    <col min="5" max="5" width="20.9166666666667" customWidth="1"/>
-    <col min="6" max="6" width="14.4166666666667" customWidth="1"/>
+    <col min="2" max="2" width="8.5037037037037" customWidth="1"/>
+    <col min="4" max="4" width="28.5037037037037" customWidth="1"/>
+    <col min="5" max="5" width="20.9185185185185" customWidth="1"/>
+    <col min="6" max="6" width="14.4148148148148" customWidth="1"/>
     <col min="7" max="7" width="30" customWidth="1"/>
-    <col min="8" max="8" width="16.1597222222222" customWidth="1"/>
-    <col min="9" max="9" width="84.75" customWidth="1"/>
-    <col min="10" max="10" width="33.8263888888889" customWidth="1"/>
-    <col min="11" max="11" width="9.75" customWidth="1"/>
-    <col min="12" max="12" width="14.5833333333333" customWidth="1"/>
+    <col min="8" max="8" width="16.162962962963" customWidth="1"/>
+    <col min="9" max="9" width="84.7481481481481" customWidth="1"/>
+    <col min="10" max="10" width="33.8296296296296" customWidth="1"/>
+    <col min="11" max="11" width="9.74814814814815" customWidth="1"/>
+    <col min="12" max="12" width="14.5851851851852" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">

--- a/src/main/resources/script/db/init-data/devops_service/hzero_platform/choerodon-fd-report.xlsx
+++ b/src/main/resources/script/db/init-data/devops_service/hzero_platform/choerodon-fd-report.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19815" windowHeight="7860" tabRatio="597" activeTab="1"/>
+    <workbookView windowWidth="22368" windowHeight="9420" tabRatio="597" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="132">
   <si>
     <r>
       <rPr>
@@ -1905,10 +1905,19 @@
     <t>icon</t>
   </si>
   <si>
-    <t>#title</t>
-  </si>
-  <si>
-    <t>description</t>
+    <t>#code</t>
+  </si>
+  <si>
+    <t>title:zh_CN</t>
+  </si>
+  <si>
+    <t>title:en_US</t>
+  </si>
+  <si>
+    <t>description:zh_CN</t>
+  </si>
+  <si>
+    <t>description:en_US</t>
   </si>
   <si>
     <t>path</t>
@@ -1932,9 +1941,15 @@
     <t>data:image/svg+xml;base64,PD94bWwgdmVyc2lvbj0iMS4wIiBlbmNvZGluZz0iVVRGLTgiIHN0YW5kYWxvbmU9Im5vIj8+Cjxzdmcgd2lkdGg9IjIwOXB4IiBoZWlnaHQ9IjEyNHB4IiB2aWV3Qm94PSIwIDAgMjA5IDEyNCIgdmVyc2lvbj0iMS4xIiB4bWxucz0iaHR0cDovL3d3dy53My5vcmcvMjAwMC9zdmciIHhtbG5zOnhsaW5rPSJodHRwOi8vd3d3LnczLm9yZy8xOTk5L3hsaW5rIj4KICAgIDwhLS0gR2VuZXJhdG9yOiBTa2V0Y2ggNDkgKDUxMDAyKSAtIGh0dHA6Ly93d3cuYm9oZW1pYW5jb2RpbmcuY29tL3NrZXRjaCAtLT4KICAgIDx0aXRsZT5Hcm91cCAxNzwvdGl0bGU+CiAgICA8ZGVzYz5DcmVhdGVkIHdpdGggU2tldGNoLjwvZGVzYz4KICAgIDxkZWZzPjwvZGVmcz4KICAgIDxnIGlkPSLmiqXooagiIHN0cm9rZT0ibm9uZSIgc3Ryb2tlLXdpZHRoPSIxIiBmaWxsPSJub25lIiBmaWxsLXJ1bGU9ImV2ZW5vZGQiPgogICAgICAgIDxnIGlkPSJEZXZPcHPmiqXooagiIHRyYW5zZm9ybT0idHJhbnNsYXRlKC0zMDguMDAwMDAwLCAtMjczLjAwMDAwMCkiPgogICAgICAgICAgICA8ZyBpZD0iR3JvdXAtNSIgdHJhbnNmb3JtPSJ0cmFuc2xhdGUoMjc0LjAwMDAwMCwgMTMyLjAwMDAwMCkiPgogICAgICAgICAgICAgICAgPGcgaWQ9IuaJgOacieaKpeihqO+8jeS7o+eggeaPkOS6pOaDheWGtSIgdHJhbnNmb3JtPSJ0cmFuc2xhdGUoMC4wMDAwMDAsIDEwMi4wMDAwMDApIj4KICAgICAgICAgICAgICAgICAgICA8ZyBpZD0iR3JvdXAiIHRyYW5zZm9ybT0idHJhbnNsYXRlKDE4LjAwMDAwMCwgMTguMDAwMDAwKSI+CiAgICAgICAgICAgICAgICAgICAgICAgIDxnIGlkPSJHcm91cC0xNyIgdHJhbnNmb3JtPSJ0cmFuc2xhdGUoMTcuMDAwMDAwLCAyMi4wMDAwMDApIj4KICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxnIGlkPSJHcm91cC0xNSI+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPGcgaWQ9Ikdyb3VwLTE2IiBzdHJva2U9IiMwMDAwMDAiIHN0cm9rZS1saW5lY2FwPSJzcXVhcmUiIHN0cm9rZS1vcGFjaXR5PSIwLjA0Ij4KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPHBhdGggZD0iTTAsNjkuNDQ0NDQ0NCBMMjA3LjEyODQ5Miw2OS40NDQ0NDQ0IiBpZD0iTGluZSI+PC9wYXRoPgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8cGF0aCBkPSJNMCw1MS42NjY2NjY3IEwyMDcuMTI4NDkyLDUxLjY2NjY2NjciIGlkPSJMaW5lIj48L3BhdGg+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxwYXRoIGQ9Ik0wLDM1IEwyMDcuMTI4NDkyLDM1IiBpZD0iTGluZSI+PC9wYXRoPgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8cGF0aCBkPSJNMCwxNy4yMjIyMjIyIEwyMDcuMTI4NDkyLDE3LjIyMjIyMjIiIGlkPSJMaW5lIj48L3BhdGg+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxwYXRoIGQ9Ik0wLDAuNTU1NTU1NTU2IEwyMDcuMTI4NDkyLDAuNTU1NTU1NTU2IiBpZD0iTGluZSI+PC9wYXRoPgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8cGF0aCBkPSJNMSwwIEwxLDcwIiBpZD0iTGluZS02Ij48L3BhdGg+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxwYXRoIGQ9Ik0zNS4xNjY2NjY3LDAgTDM1LjE2NjY2NjcsNzAiIGlkPSJMaW5lLTYiPjwvcGF0aD4KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPHBhdGggZD0iTTY5LjMzMzMzMzMsMCBMNjkuMzMzMzMzMyw3MCIgaWQ9IkxpbmUtNiI+PC9wYXRoPgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8cGF0aCBkPSJNMTAzLjUsMCBMMTAzLjUsNzAiIGlkPSJMaW5lLTYiPjwvcGF0aD4KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPHBhdGggZD0iTTEzNy42NjY2NjcsMCBMMTM3LjY2NjY2Nyw3MCIgaWQ9IkxpbmUtNiI+PC9wYXRoPgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8cGF0aCBkPSJNMTcxLjgzMzMzMywwIEwxNzEuODMzMzMzLDcwIiBpZD0iTGluZS02Ij48L3BhdGg+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxwYXRoIGQ9Ik0yMDYsMCBMMjA2LDcwIiBpZD0iTGluZS02Ij48L3BhdGg+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPC9nPgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxnIGlkPSJHcm91cC00IiB0cmFuc2Zvcm09InRyYW5zbGF0ZSgwLjAwMDAwMCwgOC4wMDAwMDApIj4KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPHBhdGggZD0iTTIwNiwxNC40NzA1MDY0IEMyMDEuMzMzMzMzLDMyLjI1ODU2NjkgMTk1LDQxLjE1MjU5NzIgMTg3LDQxLjE1MjU5NzIgQzE3NSw0MS4xNTI1OTcyIDE2Niw5LjE2NjU3ODE0ZS0xNCAxNTEsMS45NTE1ODE2OGUtMTQgQzEzNiwtNS4zODEwMjYwNWUtMTQgMTMwLjY4MDYyMiwzMy4zNzU1MjI5IDEyMywzMy4zNzU1MjI5IEMxMTUuMzE5Mzc4LDMzLjM3NTUyMjkgMTE1LDE0LjQ3MDUwNjQgMTAzLjU2NDI0NiwxNC40NzA1MDY0IEM5Mi4xMjg0OTE2LDE0LjQ3MDUwNjQgODQuMTc1MTI4NSw1MC4wODM5Mjg0IDcwLDUwLjA4MzkyODQgQzU1LjgyNDg3MTUsNTAuMDgzOTI4NCAzOSwzLjcwMzMzNTI5ZS0xNCAyNiwwIEMxNy4zMzMzMzMzLC0yLjQ1MjIzNzg2ZS0xNCA4LjY2NjY2NjY3LDkuNzQ4MDUxODIgMS40MjEwODU0N2UtMTQsMjkuMjQ0MTU1NSBMMCw2MSBMMjA2LDYxIEwyMDYsMTQuNDcwNTA2NCBaIiBpZD0iTGluZSIgZmlsbC1vcGFjaXR5PSIwLjQiIGZpbGw9IiM0Njc3REQiPjwvcGF0aD4KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPHBhdGggZD0iTTIwNiwxNC40NDYyNTc0IEMyMDEuMzMzMzMzLDMyLjIwNDUwOTQgMTk1LDQxLjA4MzYzNTUgMTg3LDQxLjA4MzYzNTUgQzE3NSw0MS4wODM2MzU1IDE2Niw5LjE1MTIxNzE5ZS0xNCAxNTEsMS45NDgzMTEzZS0xNCBDMTM2LC01LjM3MjAwODc3ZS0xNCAxMzAuNjgwNjIyLDMzLjMxOTU5MzcgMTIzLDMzLjMxOTU5MzcgQzExNS4zMTkzNzgsMzMuMzE5NTkzNyAxMTUsMTQuNDQ2MjU3NCAxMDMuNTY0MjQ2LDE0LjQ0NjI1NzQgQzkyLjEyODQ5MTYsMTQuNDQ2MjU3NCA4NC4xNzUxMjg1LDUwIDcwLDUwIEM1NS44MjQ4NzE1LDUwIDM5LDMuNjk3MTI5NDFlLTE0IDI2LDAgQzE3LjMzMzMzMzMsLTIuNDQ4MTI4NTFlLTE0IDguNjY2NjY2NjcsOS43MzE3MTY0NyAwLDI5LjE5NTE0OTQiIGlkPSJMaW5lIiBzdHJva2U9IiM0Njc3REQiIHN0cm9rZS1saW5lY2FwPSJzcXVhcmUiPjwvcGF0aD4KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8L2c+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICA8L2c+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICA8ZyBpZD0iR3JvdXAtMTQiIHRyYW5zZm9ybT0idHJhbnNsYXRlKDAuMDAwMDAwLCA3OC4wMDAwMDApIj4KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8ZyBpZD0iR3JvdXAtMTYiIHN0cm9rZT0iIzAwMDAwMCIgc3Ryb2tlLWxpbmVjYXA9InNxdWFyZSIgc3Ryb2tlLW9wYWNpdHk9IjAuMDQiPgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8cGF0aCBkPSJNMCwxNSBMMTAwLDE1IiBpZD0iTGluZSI+PC9wYXRoPgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8cGF0aCBkPSJNMCwyOSBMMTAwLDI5IiBpZD0iTGluZSI+PC9wYXRoPgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8cGF0aCBkPSJNMCw0MyBMMTAwLDQzIiBpZD0iTGluZSI+PC9wYXRoPgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8cGF0aCBkPSJNMCwxIEwxMDAsMSIgaWQ9IkxpbmUiPjwvcGF0aD4KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPHBhdGggZD0iTTEsMCBMMSw0NCIgaWQ9IkxpbmUtNiI+PC9wYXRoPgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8cGF0aCBkPSJNMzQsMCBMMzQsNDQiIGlkPSJMaW5lLTYiPjwvcGF0aD4KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPHBhdGggZD0iTTY3LDAgTDY3LDQ0IiBpZD0iTGluZS02Ij48L3BhdGg+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxwYXRoIGQ9Ik0xMDAsMCBMMTAwLDQ0IiBpZD0iTGluZS02Ij48L3BhdGg+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPC9nPgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxnIGlkPSJHcm91cC00IiB0cmFuc2Zvcm09InRyYW5zbGF0ZSg1MC41MDAwMDAsIDI1LjUwMDAwMCkgc2NhbGUoLTEsIDEpIHRyYW5zbGF0ZSgtNTAuNTAwMDAwLCAtMjUuNTAwMDAwKSB0cmFuc2xhdGUoMS4wMDAwMDAsIDcuMDAwMDAwKSI+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxwYXRoIGQ9Ik03OSwtNS42ODQzNDE4OWUtMTQgQzY4LC03LjU3MTgwMTI1ZS0xNCA1OCwyOCA0NywyOCBDMzQsMjggMzMsMTUgMjMsMTUgQzE2LjMzMzMzMzMsMTUgOC42NjY2NjY2NywyMi4zMzMzMzMzIDAsMzcgTDk4LjQwMTM4ODEsMzcgQzkyLjgwMDQ2MjcsMTIuMzMzMzMzMyA4Ni4zMzMzMzMzLC00LjUwMDEwMzk5ZS0xNCA3OSwtNS42ODQzNDE4OWUtMTQgWiIgaWQ9IkxpbmUiIGZpbGwtb3BhY2l0eT0iMC40IiBmaWxsPSIjRkY5OTE1Ij48L3BhdGg+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxwYXRoIGQ9Ik05OSwzNyBDOTMsMTIuMzMzMzMzMyA4Ni4zMzMzMzMzLC00LjUwMDEwMzk5ZS0xNCA3OSwtNS42ODQzNDE4OWUtMTQgQzY4LC03LjU3MTgwMTI1ZS0xNCA1OCwyOCA0NywyOCBDMzQsMjggMzMsMTUgMjMsMTUgQzE2LjMzMzMzMzMsMTUgOC42NjY2NjY2NywyMi4zMzMzMzMzIDAsMzciIGlkPSJMaW5lIiBzdHJva2U9IiNGRjk5MTUiIHN0cm9rZS1saW5lY2FwPSJzcXVhcmUiPjwvcGF0aD4KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8L2c+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICA8L2c+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICA8ZyBpZD0iR3JvdXAtMTQiIHRyYW5zZm9ybT0idHJhbnNsYXRlKDEwNy4wMDAwMDAsIDc4LjAwMDAwMCkiPgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxnIGlkPSJHcm91cC0xNiIgc3Ryb2tlPSIjMDAwMDAwIiBzdHJva2UtbGluZWNhcD0ic3F1YXJlIiBzdHJva2Utb3BhY2l0eT0iMC4wNCI+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxwYXRoIGQ9Ik0wLDE1IEwxMDAsMTUiIGlkPSJMaW5lIj48L3BhdGg+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxwYXRoIGQ9Ik0wLDI5IEwxMDAsMjkiIGlkPSJMaW5lIj48L3BhdGg+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxwYXRoIGQ9Ik0wLDQzIEwxMDAsNDMiIGlkPSJMaW5lIj48L3BhdGg+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxwYXRoIGQ9Ik0wLDEgTDEwMCwxIiBpZD0iTGluZSI+PC9wYXRoPgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8cGF0aCBkPSJNMSwwIEwxLDQ0IiBpZD0iTGluZS02Ij48L3BhdGg+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxwYXRoIGQ9Ik0zNCwwIEwzNCw0NCIgaWQ9IkxpbmUtNiI+PC9wYXRoPgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8cGF0aCBkPSJNNjcsMCBMNjcsNDQiIGlkPSJMaW5lLTYiPjwvcGF0aD4KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPHBhdGggZD0iTTEwMCwwIEwxMDAsNDQiIGlkPSJMaW5lLTYiPjwvcGF0aD4KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8L2c+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPGcgaWQ9Ikdyb3VwLTQiIHRyYW5zZm9ybT0idHJhbnNsYXRlKDEuMDAwMDAwLCA5LjAwMDAwMCkiPgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8cGF0aCBkPSJNOTguNDAxMzg4MSwxOS4wOTM5NjU2IEM5NS40NjcxMjk0LDE1LjAzMTMyMTkgOTIuMzMzMzMzMywxMyA4OSwxMyBDODQsMTMgNzAsMjggNjIsMjggQzQzLDI4IDM3LDAgMjUsMCBDMTcsMy40ODQ3MTgxNmUtMTYgOC42NjY2NjY2NywxMS42NjY2NjY3IDAsMzUgTDk4LjQwMTM4ODEsMzUgTDk4LjQwMTM4ODEsMTkuMDkzOTY1NiBaIiBpZD0iTGluZSIgZmlsbC1vcGFjaXR5PSIwLjQiIGZpbGw9IiNGRjk5MTUiPjwvcGF0aD4KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPHBhdGggZD0iTTk4LjQwMTM4ODEsMTkuMDkzOTY1NiBDOTUuNDY3MTI5NCwxNS4wMzEzMjE5IDkyLjMzMzMzMzMsMTMgODksMTMgQzg0LDEzIDcwLDI4IDYyLDI4IEM0MywyOCAzNywwIDI1LDAgQzE3LDMuNDg0NzE4MTZlLTE2IDguNjY2NjY2NjcsMTEuNjY2NjY2NyAwLDM1IiBpZD0iTGluZSIgc3Ryb2tlPSIjRkY5OTE1IiBzdHJva2UtbGluZWNhcD0ic3F1YXJlIj48L3BhdGg+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPC9nPgogICAgICAgICAgICAgICAgICAgICAgICAgICAgPC9nPgogICAgICAgICAgICAgICAgICAgICAgICA8L2c+CiAgICAgICAgICAgICAgICAgICAgPC9nPgogICAgICAgICAgICAgICAgPC9nPgogICAgICAgICAgICA8L2c+CiAgICAgICAgPC9nPgogICAgPC9nPgo8L3N2Zz4=</t>
   </si>
   <si>
+    <t>code-commit</t>
+  </si>
+  <si>
     <t>代码提交图</t>
   </si>
   <si>
+    <t>代码提交图eng</t>
+  </si>
+  <si>
     <t>跟踪项目下团队与个人的代码提交情况。这有助于了解团队的整体效率与个人效率。</t>
   </si>
   <si>
@@ -1950,9 +1965,15 @@
     <t>data:image/svg+xml;base64,PHN2ZyB4bWxucz0iaHR0cDovL3d3dy53My5vcmcvMjAwMC9zdmciIHdpZHRoPSIyMDgiIGhlaWdodD0iMTIyIiB2aWV3Qm94PSIwIDAgMjA4IDEyMiI+CiAgPGcgZmlsbD0ibm9uZSIgZmlsbC1ydWxlPSJldmVub2RkIj4KICAgIDxyZWN0IHdpZHRoPSIyMDgiIGhlaWdodD0iMzYiIGZpbGw9IiMwMDAiIGZpbGwtb3BhY2l0eT0iLjA0IiByeD0iMiIvPgogICAgPGcgdHJhbnNmb3JtPSJ0cmFuc2xhdGUoMTIgMTApIj4KICAgICAgPGNpcmNsZSBjeD0iOCIgY3k9IjgiIHI9IjgiIGZpbGw9IiMwMEJGQTUiIGZpbGwtb3BhY2l0eT0iLjgiLz4KICAgICAgPHBhdGggZmlsbD0iI0YzRjNGMyIgZD0iTTcuMyw0IEw4Ljc4OCw0IEwxMi4wODgsMTIuNTY4IEwxMC42ODQsMTIuNTY4IEw5Ljg4LDEwLjM2IEw2LjE5NiwxMC4zNiBMNS4zOTIsMTIuNTY4IEw0LDEyLjU2OCBMNy4zLDQgWiBNNi41OTIsOS4yOCBMOS40ODQsOS4yOCBMOC4wNjgsNS40MDQgTDguMDIsNS40MDQgTDYuNTkyLDkuMjggWiIvPgogICAgPC9nPgogICAgPGcgdHJhbnNmb3JtPSJ0cmFuc2xhdGUoNDAgMTApIj4KICAgICAgPGNpcmNsZSBjeD0iOCIgY3k9IjgiIHI9IjgiIGZpbGw9IiM0RDkwRkUiIGZpbGwtb3BhY2l0eT0iLjgiLz4KICAgICAgPHBhdGggZmlsbD0iI0YzRjNGMyIgZD0iTTUsNCBMOC45MTIsNCBDOS43NTIsNCAxMC40LDQuMTkyIDEwLjg4LDQuNiBDMTEuMzM2LDQuOTg0IDExLjU2NCw1LjUgMTEuNTY0LDYuMTYgQzExLjU2NCw2LjY0IDExLjQ0NCw3LjA0OCAxMS4yMDQsNy4zODQgQzEwLjk2NCw3LjY5NiAxMC42NCw3LjkzNiAxMC4yMDgsOC4wOTIgQzEwLjc3Miw4LjIgMTEuMjA0LDguNDI4IDExLjQ5Miw4Ljc3NiBDMTEuNzgsOS4xMjQgMTEuOTI0LDkuNTkyIDExLjkyNCwxMC4xNjggQzExLjkyNCwxMS4wMzIgMTEuNjI0LDExLjY1NiAxMS4wMzYsMTIuMDY0IEMxMC41MzIsMTIuNCA5LjgyNCwxMi41NjggOC45MTIsMTIuNTY4IEw1LDEyLjU2OCBMNSw0IFogTTYuMzA4LDUuMDggTDYuMzA4LDcuNjM2IEw4LjU2NCw3LjYzNiBDOS4xNjQsNy42MzYgOS41OTYsNy41MjggOS44Niw3LjMyNCBDMTAuMTI0LDcuMTA4IDEwLjI1Niw2Ljc3MiAxMC4yNTYsNi4zMTYgQzEwLjI1Niw1Ljg4NCAxMC4xMjQsNS41NzIgOS44Niw1LjM4IEM5LjU5Niw1LjE3NiA5LjE2NCw1LjA4IDguNTg4LDUuMDggTDYuMzA4LDUuMDggWiBNNi4zMDgsOC43MDQgTDYuMzA4LDExLjQ4OCBMOC43MzIsMTEuNDg4IEM5LjI4NCwxMS40ODggOS43MTYsMTEuMzkyIDEwLjAyOCwxMS4yMjQgQzEwLjQxMiwxMC45OTYgMTAuNjE2LDEwLjYzNiAxMC42MTYsMTAuMTQ0IEMxMC42MTYsOS42NCAxMC40Niw5LjI2OCAxMC4xNiw5LjA0IEM5Ljg2LDguODEyIDkuMzkyLDguNzA0IDguNzY4LDguNzA0IEw2LjMwOCw4LjcwNCBaIi8+CiAgICA8L2c+CiAgICA8ZyB0cmFuc2Zvcm09InRyYW5zbGF0ZSg2OCAxMCkiPgogICAgICA8Y2lyY2xlIGN4PSI4IiBjeT0iOCIgcj0iOCIgZmlsbD0iI0ZGQjEwMCIgZmlsbC1vcGFjaXR5PSIuOCIvPgogICAgICA8cGF0aCBmaWxsPSIjRjNGM0YzIiBkPSJNOC4wOCw0IEM5LjA3Niw0IDkuOTA0LDQuMjUyIDEwLjU1Miw0Ljc4IEMxMS4xNzYsNS4yODQgMTEuNTYsNS45OCAxMS42OTIsNi44NDQgTDEwLjQyLDYuODQ0IEMxMC4yNzYsNi4yNjggMTAsNS44MzYgOS41OTIsNS41NiBDOS4xODQsNS4yODQgOC42OCw1LjE1MiA4LjA1Niw1LjE1MiBDNy4xMzIsNS4xNTIgNi40MzYsNS40NjQgNS45NjgsNi4xIEM1LjUyNCw2LjY3NiA1LjMwOCw3LjQ2OCA1LjMwOCw4LjQ2NCBDNS4zMDgsOS40OTYgNS41MjQsMTAuMjg4IDUuOTU2LDEwLjg1MiBDNi40MTIsMTEuNDUyIDcuMTIsMTEuNzUyIDguMDgsMTEuNzUyIEM4LjcwNCwxMS43NTIgOS4yMzIsMTEuNTk2IDkuNjQsMTEuMjg0IEMxMC4wNzIsMTAuOTQ4IDEwLjM3MiwxMC40NDQgMTAuNTQsOS43NzIgTDExLjgxMiw5Ljc3MiBDMTEuNjIsMTAuNzY4IDExLjE3NiwxMS41NDggMTAuNDY4LDEyLjExMiBDOS44MDgsMTIuNjQgOS4wMTYsMTIuOTA0IDguMDkyLDEyLjkwNCBDNi42ODgsMTIuOTA0IDUuNjMyLDEyLjQ0OCA0LjkyNCwxMS41NiBDNC4zLDEwLjc5MiA0LDkuNzYgNCw4LjQ2NCBDNCw3LjE5MiA0LjMxMiw2LjE2IDQuOTYsNS4zNTYgQzUuNjgsNC40NDQgNi43MTIsNCA4LjA4LDQgWiIvPgogICAgPC9nPgogICAgPGNpcmNsZSBjeD0iMTA0IiBjeT0iMTgiIHI9IjYiIHN0cm9rZT0iI0Y0NDMzNiIgc3Ryb2tlLW9wYWNpdHk9Ii44IiBzdHJva2Utd2lkdGg9IjQiLz4KICAgIDxnIHRyYW5zZm9ybT0idHJhbnNsYXRlKDEyNCAxMCkiPgogICAgICA8Y2lyY2xlIGN4PSI4IiBjeT0iOCIgcj0iNyIgc3Ryb2tlPSIjNEQ5MEZFIiBzdHJva2Utb3BhY2l0eT0iLjgiIHN0cm9rZS13aWR0aD0iMiIvPgogICAgICA8Y2lyY2xlIGN4PSI4IiBjeT0iOCIgcj0iNC4yNjciIGZpbGw9IiM0RDkwRkUiIGZpbGwtb3BhY2l0eT0iLjgiLz4KICAgIDwvZz4KICAgIDxyZWN0IHdpZHRoPSIzMCIgaGVpZ2h0PSI2IiB4PSIxNjYiIHk9IjkiIGZpbGw9IiMwMDAiIGZpbGwtb3BhY2l0eT0iLjA4IiByeD0iMyIvPgogICAgPHJlY3Qgd2lkdGg9IjMwIiBoZWlnaHQ9IjYiIHg9IjE2NiIgeT0iMjEiIGZpbGw9IiMwMDAiIGZpbGwtb3BhY2l0eT0iLjA4IiByeD0iMyIvPgogICAgPGcgdHJhbnNmb3JtPSJ0cmFuc2xhdGUoMCA0MykiPgogICAgICA8cmVjdCB3aWR0aD0iMjA4IiBoZWlnaHQ9IjM2IiBmaWxsPSIjMDAwIiBmaWxsLW9wYWNpdHk9Ii4wNCIgcng9IjIiLz4KICAgICAgPGcgdHJhbnNmb3JtPSJ0cmFuc2xhdGUoMTIgMTApIj4KICAgICAgICA8Y2lyY2xlIGN4PSI4IiBjeT0iOCIgcj0iOCIgZmlsbD0iIzAwQkZBNSIgZmlsbC1vcGFjaXR5PSIuOCIvPgogICAgICAgIDxwYXRoIGZpbGw9IiNGM0YzRjMiIGQ9Ik03LjMsNCBMOC43ODgsNCBMMTIuMDg4LDEyLjU2OCBMMTAuNjg0LDEyLjU2OCBMOS44OCwxMC4zNiBMNi4xOTYsMTAuMzYgTDUuMzkyLDEyLjU2OCBMNCwxMi41NjggTDcuMyw0IFogTTYuNTkyLDkuMjggTDkuNDg0LDkuMjggTDguMDY4LDUuNDA0IEw4LjAyLDUuNDA0IEw2LjU5Miw5LjI4IFoiLz4KICAgICAgICA8ZyB0cmFuc2Zvcm09InRyYW5zbGF0ZSgyOCkiPgogICAgICAgICAgPGNpcmNsZSBjeD0iOCIgY3k9IjgiIHI9IjgiIGZpbGw9IiM0RDkwRkUiIGZpbGwtb3BhY2l0eT0iLjgiLz4KICAgICAgICAgIDxwYXRoIGZpbGw9IiNGM0YzRjMiIGQ9Ik01LDQgTDguOTEyLDQgQzkuNzUyLDQgMTAuNCw0LjE5MiAxMC44OCw0LjYgQzExLjMzNiw0Ljk4NCAxMS41NjQsNS41IDExLjU2NCw2LjE2IEMxMS41NjQsNi42NCAxMS40NDQsNy4wNDggMTEuMjA0LDcuMzg0IEMxMC45NjQsNy42OTYgMTAuNjQsNy45MzYgMTAuMjA4LDguMDkyIEMxMC43NzIsOC4yIDExLjIwNCw4LjQyOCAxMS40OTIsOC43NzYgQzExLjc4LDkuMTI0IDExLjkyNCw5LjU5MiAxMS45MjQsMTAuMTY4IEMxMS45MjQsMTEuMDMyIDExLjYyNCwxMS42NTYgMTEuMDM2LDEyLjA2NCBDMTAuNTMyLDEyLjQgOS44MjQsMTIuNTY4IDguOTEyLDEyLjU2OCBMNSwxMi41NjggTDUsNCBaIE02LjMwOCw1LjA4IEw2LjMwOCw3LjYzNiBMOC41NjQsNy42MzYgQzkuMTY0LDcuNjM2IDkuNTk2LDcuNTI4IDkuODYsNy4zMjQgQzEwLjEyNCw3LjEwOCAxMC4yNTYsNi43NzIgMTAuMjU2LDYuMzE2IEMxMC4yNTYsNS44ODQgMTAuMTI0LDUuNTcyIDkuODYsNS4zOCBDOS41OTYsNS4xNzYgOS4xNjQsNS4wOCA4LjU4OCw1LjA4IEw2LjMwOCw1LjA4IFogTTYuMzA4LDguNzA0IEw2LjMwOCwxMS40ODggTDguNzMyLDExLjQ4OCBDOS4yODQsMTEuNDg4IDkuNzE2LDExLjM5MiAxMC4wMjgsMTEuMjI0IEMxMC40MTIsMTAuOTk2IDEwLjYxNiwxMC42MzYgMTAuNjE2LDEwLjE0NCBDMTAuNjE2LDkuNjQgMTAuNDYsOS4yNjggMTAuMTYsOS4wNCBDOS44Niw4LjgxMiA5LjM5Miw4LjcwNCA4Ljc2OCw4LjcwNCBMNi4zMDgsOC43MDQgWiIvPgogICAgICAgIDwvZz4KICAgICAgICA8ZyB0cmFuc2Zvcm09InRyYW5zbGF0ZSg1NikiPgogICAgICAgICAgPGNpcmNsZSBjeD0iOCIgY3k9IjgiIHI9IjgiIGZpbGw9IiNGRkIxMDAiIGZpbGwtb3BhY2l0eT0iLjgiLz4KICAgICAgICAgIDxwYXRoIGZpbGw9IiNGM0YzRjMiIGQ9Ik04LjA4LDQgQzkuMDc2LDQgOS45MDQsNC4yNTIgMTAuNTUyLDQuNzggQzExLjE3Niw1LjI4NCAxMS41Niw1Ljk4IDExLjY5Miw2Ljg0NCBMMTAuNDIsNi44NDQgQzEwLjI3Niw2LjI2OCAxMCw1LjgzNiA5LjU5Miw1LjU2IEM5LjE4NCw1LjI4NCA4LjY4LDUuMTUyIDguMDU2LDUuMTUyIEM3LjEzMiw1LjE1MiA2LjQzNiw1LjQ2NCA1Ljk2OCw2LjEgQzUuNTI0LDYuNjc2IDUuMzA4LDcuNDY4IDUuMzA4LDguNDY0IEM1LjMwOCw5LjQ5NiA1LjUyNCwxMC4yODggNS45NTYsMTAuODUyIEM2LjQxMiwxMS40NTIgNy4xMiwxMS43NTIgOC4wOCwxMS43NTIgQzguNzA0LDExLjc1MiA5LjIzMiwxMS41OTYgOS42NCwxMS4yODQgQzEwLjA3MiwxMC45NDggMTAuMzcyLDEwLjQ0NCAxMC41NCw5Ljc3MiBMMTEuODEyLDkuNzcyIEMxMS42MiwxMC43NjggMTEuMTc2LDExLjU0OCAxMC40NjgsMTIuMTEyIEM5LjgwOCwxMi42NCA5LjAxNiwxMi45MDQgOC4wOTIsMTIuOTA0IEM2LjY4OCwxMi45MDQgNS42MzIsMTIuNDQ4IDQuOTI0LDExLjU2IEM0LjMsMTAuNzkyIDQsOS43NiA0LDguNDY0IEM0LDcuMTkyIDQuMzEyLDYuMTYgNC45Niw1LjM1NiBDNS42OCw0LjQ0NCA2LjcxMiw0IDguMDgsNCBaIi8+CiAgICAgICAgPC9nPgogICAgICA8L2c+CiAgICAgIDxjaXJjbGUgY3g9IjEwNCIgY3k9IjE4IiByPSI2IiBzdHJva2U9IiMwMEJGQTUiIHN0cm9rZS1vcGFjaXR5PSIuOCIgc3Ryb2tlLXdpZHRoPSI0Ii8+CiAgICAgIDxnIHRyYW5zZm9ybT0idHJhbnNsYXRlKDEyNCAxMCkiPgogICAgICAgIDxjaXJjbGUgY3g9IjgiIGN5PSI4IiByPSI3IiBzdHJva2U9IiM0RDkwRkUiIHN0cm9rZS1vcGFjaXR5PSIuOCIgc3Ryb2tlLXdpZHRoPSIyIi8+CiAgICAgICAgPGNpcmNsZSBjeD0iOCIgY3k9IjgiIHI9IjQuMjY3IiBmaWxsPSIjNEQ5MEZFIiBmaWxsLW9wYWNpdHk9Ii44Ii8+CiAgICAgIDwvZz4KICAgICAgPHJlY3Qgd2lkdGg9IjMwIiBoZWlnaHQ9IjYiIHg9IjE2NiIgeT0iOSIgZmlsbD0iIzAwMCIgZmlsbC1vcGFjaXR5PSIuMDgiIHJ4PSIzIi8+CiAgICAgIDxyZWN0IHdpZHRoPSIzMCIgaGVpZ2h0PSI2IiB4PSIxNjYiIHk9IjIxIiBmaWxsPSIjMDAwIiBmaWxsLW9wYWNpdHk9Ii4wOCIgcng9IjMiLz4KICAgIDwvZz4KICAgIDxnIHRyYW5zZm9ybT0idHJhbnNsYXRlKDAgODYpIj4KICAgICAgPHJlY3Qgd2lkdGg9IjIwOCIgaGVpZ2h0PSIzNiIgZmlsbD0iIzAwMCIgZmlsbC1vcGFjaXR5PSIuMDQiIHJ4PSIyIi8+CiAgICAgIDxnIHRyYW5zZm9ybT0idHJhbnNsYXRlKDEyIDEwKSI+CiAgICAgICAgPGNpcmNsZSBjeD0iOCIgY3k9IjgiIHI9IjgiIGZpbGw9IiMwMEJGQTUiIGZpbGwtb3BhY2l0eT0iLjgiLz4KICAgICAgICA8cGF0aCBmaWxsPSIjRjNGM0YzIiBkPSJNNy4zLDQgTDguNzg4LDQgTDEyLjA4OCwxMi41NjggTDEwLjY4NCwxMi41NjggTDkuODgsMTAuMzYgTDYuMTk2LDEwLjM2IEw1LjM5MiwxMi41NjggTDQsMTIuNTY4IEw3LjMsNCBaIE02LjU5Miw5LjI4IEw5LjQ4NCw5LjI4IEw4LjA2OCw1LjQwNCBMOC4wMiw1LjQwNCBMNi41OTIsOS4yOCBaIi8+CiAgICAgICAgPGcgdHJhbnNmb3JtPSJ0cmFuc2xhdGUoMjgpIj4KICAgICAgICAgIDxjaXJjbGUgY3g9IjgiIGN5PSI4IiByPSI4IiBmaWxsPSIjNEQ5MEZFIiBmaWxsLW9wYWNpdHk9Ii44Ii8+CiAgICAgICAgICA8cGF0aCBmaWxsPSIjRjNGM0YzIiBkPSJNNSw0IEw4LjkxMiw0IEM5Ljc1Miw0IDEwLjQsNC4xOTIgMTAuODgsNC42IEMxMS4zMzYsNC45ODQgMTEuNTY0LDUuNSAxMS41NjQsNi4xNiBDMTEuNTY0LDYuNjQgMTEuNDQ0LDcuMDQ4IDExLjIwNCw3LjM4NCBDMTAuOTY0LDcuNjk2IDEwLjY0LDcuOTM2IDEwLjIwOCw4LjA5MiBDMTAuNzcyLDguMiAxMS4yMDQsOC40MjggMTEuNDkyLDguNzc2IEMxMS43OCw5LjEyNCAxMS45MjQsOS41OTIgMTEuOTI0LDEwLjE2OCBDMTEuOTI0LDExLjAzMiAxMS42MjQsMTEuNjU2IDExLjAzNiwxMi4wNjQgQzEwLjUzMiwxMi40IDkuODI0LDEyLjU2OCA4LjkxMiwxMi41NjggTDUsMTIuNTY4IEw1LDQgWiBNNi4zMDgsNS4wOCBMNi4zMDgsNy42MzYgTDguNTY0LDcuNjM2IEM5LjE2NCw3LjYzNiA5LjU5Niw3LjUyOCA5Ljg2LDcuMzI0IEMxMC4xMjQsNy4xMDggMTAuMjU2LDYuNzcyIDEwLjI1Niw2LjMxNiBDMTAuMjU2LDUuODg0IDEwLjEyNCw1LjU3MiA5Ljg2LDUuMzggQzkuNTk2LDUuMTc2IDkuMTY0LDUuMDggOC41ODgsNS4wOCBMNi4zMDgsNS4wOCBaIE02LjMwOCw4LjcwNCBMNi4zMDgsMTEuNDg4IEw4LjczMiwxMS40ODggQzkuMjg0LDExLjQ4OCA5LjcxNiwxMS4zOTIgMTAuMDI4LDExLjIyNCBDMTAuNDEyLDEwLjk5NiAxMC42MTYsMTAuNjM2IDEwLjYxNiwxMC4xNDQgQzEwLjYxNiw5LjY0IDEwLjQ2LDkuMjY4IDEwLjE2LDkuMDQgQzkuODYsOC44MTIgOS4zOTIsOC43MDQgOC43NjgsOC43MDQgTDYuMzA4LDguNzA0IFoiLz4KICAgICAgICA8L2c+CiAgICAgICAgPGcgdHJhbnNmb3JtPSJ0cmFuc2xhdGUoNTYpIj4KICAgICAgICAgIDxjaXJjbGUgY3g9IjgiIGN5PSI4IiByPSI4IiBmaWxsPSIjRkZCMTAwIiBmaWxsLW9wYWNpdHk9Ii44Ii8+CiAgICAgICAgICA8cGF0aCBmaWxsPSIjRjNGM0YzIiBkPSJNOC4wOCw0IEM5LjA3Niw0IDkuOTA0LDQuMjUyIDEwLjU1Miw0Ljc4IEMxMS4xNzYsNS4yODQgMTEuNTYsNS45OCAxMS42OTIsNi44NDQgTDEwLjQyLDYuODQ0IEMxMC4yNzYsNi4yNjggMTAsNS44MzYgOS41OTIsNS41NiBDOS4xODQsNS4yODQgOC42OCw1LjE1MiA4LjA1Niw1LjE1MiBDNy4xMzIsNS4xNTIgNi40MzYsNS40NjQgNS45NjgsNi4xIEM1LjUyNCw2LjY3NiA1LjMwOCw3LjQ2OCA1LjMwOCw4LjQ2NCBDNS4zMDgsOS40OTYgNS41MjQsMTAuMjg4IDUuOTU2LDEwLjg1MiBDNi40MTIsMTEuNDUyIDcuMTIsMTEuNzUyIDguMDgsMTEuNzUyIEM4LjcwNCwxMS43NTIgOS4yMzIsMTEuNTk2IDkuNjQsMTEuMjg0IEMxMC4wNzIsMTAuOTQ4IDEwLjM3MiwxMC40NDQgMTAuNTQsOS43NzIgTDExLjgxMiw5Ljc3MiBDMTEuNjIsMTAuNzY4IDExLjE3NiwxMS41NDggMTAuNDY4LDEyLjExMiBDOS44MDgsMTIuNjQgOS4wMTYsMTIuOTA0IDguMDkyLDEyLjkwNCBDNi42ODgsMTIuOTA0IDUuNjMyLDEyLjQ0OCA0LjkyNCwxMS41NiBDNC4zLDEwLjc5MiA0LDkuNzYgNCw4LjQ2NCBDNCw3LjE5MiA0LjMxMiw2LjE2IDQuOTYsNS4zNTYgQzUuNjgsNC40NDQgNi43MTIsNCA4LjA4LDQgWiIvPgogICAgICAgIDwvZz4KICAgICAgPC9nPgogICAgICA8Y2lyY2xlIGN4PSIxMDQiIGN5PSIxOCIgcj0iNiIgc3Ryb2tlPSIjRjQ0MzM2IiBzdHJva2Utb3BhY2l0eT0iLjgiIHN0cm9rZS13aWR0aD0iNCIvPgogICAgICA8ZyB0cmFuc2Zvcm09InRyYW5zbGF0ZSgxMjQgMTApIj4KICAgICAgICA8Y2lyY2xlIGN4PSI4IiBjeT0iOCIgcj0iNyIgc3Ryb2tlPSIjNEQ5MEZFIiBzdHJva2Utb3BhY2l0eT0iLjgiIHN0cm9rZS13aWR0aD0iMiIvPgogICAgICAgIDxjaXJjbGUgY3g9IjgiIGN5PSI4IiByPSI0LjI2NyIgZmlsbD0iIzREOTBGRSIgZmlsbC1vcGFjaXR5PSIuOCIvPgogICAgICA8L2c+CiAgICAgIDxyZWN0IHdpZHRoPSIzMCIgaGVpZ2h0PSI2IiB4PSIxNjYiIHk9IjkiIGZpbGw9IiMwMDAiIGZpbGwtb3BhY2l0eT0iLjA4IiByeD0iMyIvPgogICAgICA8cmVjdCB3aWR0aD0iMzAiIGhlaWdodD0iNiIgeD0iMTY2IiB5PSIyMSIgZmlsbD0iIzAwMCIgZmlsbC1vcGFjaXR5PSIuMDgiIHJ4PSIzIi8+CiAgICA8L2c+CiAgPC9nPgo8L3N2Zz4K</t>
   </si>
   <si>
+    <t>code-quality</t>
+  </si>
+  <si>
     <t>代码质量图</t>
   </si>
   <si>
+    <t>代码质量图eng</t>
+  </si>
+  <si>
     <t>展示项目下所有应用的代码质量详情。这有助于您了解到每个应用的质量情况。</t>
   </si>
   <si>
@@ -1965,9 +1986,15 @@
     <t>data:image/svg+xml;base64,PD94bWwgdmVyc2lvbj0iMS4wIiBlbmNvZGluZz0iVVRGLTgiIHN0YW5kYWxvbmU9Im5vIj8+Cjxzdmcgd2lkdGg9IjIwOHB4IiBoZWlnaHQ9IjEyM3B4IiB2aWV3Qm94PSIwIDAgMjA4IDEyMyIgdmVyc2lvbj0iMS4xIiB4bWxucz0iaHR0cDovL3d3dy53My5vcmcvMjAwMC9zdmciIHhtbG5zOnhsaW5rPSJodHRwOi8vd3d3LnczLm9yZy8xOTk5L3hsaW5rIj4KICAgIDwhLS0gR2VuZXJhdG9yOiBTa2V0Y2ggNDkgKDUxMDAyKSAtIGh0dHA6Ly93d3cuYm9oZW1pYW5jb2RpbmcuY29tL3NrZXRjaCAtLT4KICAgIDx0aXRsZT5Hcm91cCA4PC90aXRsZT4KICAgIDxkZXNjPkNyZWF0ZWQgd2l0aCBTa2V0Y2guPC9kZXNjPgogICAgPGRlZnM+PC9kZWZzPgogICAgPGcgaWQ9IuaKpeihqCIgc3Ryb2tlPSJub25lIiBzdHJva2Utd2lkdGg9IjEiIGZpbGw9Im5vbmUiIGZpbGwtcnVsZT0iZXZlbm9kZCI+CiAgICAgICAgPGcgaWQ9IkRldk9wc+aKpeihqCIgdHJhbnNmb3JtPSJ0cmFuc2xhdGUoLTkxOC4wMDAwMDAsIC0yNzUuMDAwMDAwKSI+CiAgICAgICAgICAgIDxnIGlkPSJHcm91cC01IiB0cmFuc2Zvcm09InRyYW5zbGF0ZSgyNzQuMDAwMDAwLCAxMzIuMDAwMDAwKSI+CiAgICAgICAgICAgICAgICA8ZyBpZD0i5omA5pyJ5oql6KGo77yN54mI5pys5oql5ZGKIiB0cmFuc2Zvcm09InRyYW5zbGF0ZSg2MDguMDAwMDAwLCAxMDIuMDAwMDAwKSI+CiAgICAgICAgICAgICAgICAgICAgPGcgaWQ9Ikdyb3VwIiB0cmFuc2Zvcm09InRyYW5zbGF0ZSgxOC4wMDAwMDAsIDE4LjAwMDAwMCkiPgogICAgICAgICAgICAgICAgICAgICAgICA8ZyBpZD0iR3JvdXAtOCIgdHJhbnNmb3JtPSJ0cmFuc2xhdGUoMTguMDAwMDAwLCAyNC4wMDAwMDApIj4KICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxnIGlkPSJHcm91cC02IiB0cmFuc2Zvcm09InRyYW5zbGF0ZSgwLjAwMDAwMCwgOTYuMDAwMDAwKSIgZmlsbD0iIzAwMDAwMCIgZmlsbC1vcGFjaXR5PSIwLjA4Ij4KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8ZyBpZD0iUmVjdGFuZ2xlLTQiPgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8cmVjdCB4PSIwIiB5PSIwIiB3aWR0aD0iOTAuNDM0NzgyNiIgaGVpZ2h0PSI5IiByeD0iNCI+PC9yZWN0PgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8cmVjdCB4PSIxMDEuNzM5MTMiIHk9IjAiIHdpZHRoPSI0NS4yMTczOTEzIiBoZWlnaHQ9IjkiIHJ4PSI0Ij48L3JlY3Q+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxyZWN0IHg9IjE1OC4yNjA4NyIgeT0iMCIgd2lkdGg9IjQ5LjczOTEzMDQiIGhlaWdodD0iOSIgcng9IjQiPjwvcmVjdD4KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8L2c+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICA8L2c+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICA8ZyBpZD0iR3JvdXAtNiIgdHJhbnNmb3JtPSJ0cmFuc2xhdGUoMC4wMDAwMDAsIDExMy4wMDAwMDApIiBmaWxsPSIjMDAwMDAwIiBmaWxsLW9wYWNpdHk9IjAuMDgiPgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxnIGlkPSJSZWN0YW5nbGUtNCI+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxyZWN0IHg9IjAiIHk9IjAiIHdpZHRoPSI5MC40MzQ3ODI2IiBoZWlnaHQ9IjkiIHJ4PSI0Ij48L3JlY3Q+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxyZWN0IHg9IjEwMS43MzkxMyIgeT0iMCIgd2lkdGg9IjQ1LjIxNzM5MTMiIGhlaWdodD0iOSIgcng9IjQiPjwvcmVjdD4KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPHJlY3QgeD0iMTU4LjI2MDg3IiB5PSIwIiB3aWR0aD0iNDkuNzM5MTMwNCIgaGVpZ2h0PSI5IiByeD0iNCI+PC9yZWN0PgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDwvZz4KICAgICAgICAgICAgICAgICAgICAgICAgICAgIDwvZz4KICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxnIGlkPSJHcm91cC0xMyI+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPGcgaWQ9Ikdyb3VwLTIiIHN0cm9rZS1saW5lY2FwPSJzcXVhcmUiPgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8cGF0aCBkPSJNMS45NzE1NjM5OCw3OC41IEwyMDYuMDIzNjc0LDc4LjUiIGlkPSJMaW5lIiBzdHJva2U9IiNERkRGREYiPjwvcGF0aD4KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPHBhdGggZD0iTTEuOTcxNTYzOTgsNTguNSBMMjA2LjAyMzY3NCw1OC41IiBpZD0iTGluZSIgc3Ryb2tlPSIjREZERkRGIj48L3BhdGg+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxwYXRoIGQ9Ik0xLjk3MTU2Mzk4LDM5LjUgTDIwNi4wMjM2NzQsMzkuNSIgaWQ9IkxpbmUiIHN0cm9rZT0iI0RGREZERiI+PC9wYXRoPgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8cGF0aCBkPSJNMS45NzE1NjM5OCwxOS41IEwyMDYuMDIzNjc0LDE5LjUiIGlkPSJMaW5lIiBzdHJva2U9IiNERkRGREYiPjwvcGF0aD4KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPHBhdGggZD0iTTEuOTcxNTYzOTgsMC41IEwyMDYuMDIzNjc0LDAuNSIgaWQ9IkxpbmUiIHN0cm9rZT0iI0RGREZERiI+PC9wYXRoPgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8cGF0aCBkPSJNMTM4LjUwOTUxMywwIEwxMzguNTA5NTEzLDgwIiBpZD0iTGluZS02IiBzdHJva2Utb3BhY2l0eT0iMC4wNCIgc3Ryb2tlPSIjMDAwMDAwIj48L3BhdGg+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxwYXRoIGQ9Ik0xLjQ4NTgxNjMzLDAgTDEuNDg1ODE2MzMsODAiIGlkPSJMaW5lLTYiIHN0cm9rZS1vcGFjaXR5PSIwLjA0IiBzdHJva2U9IiMwMDAwMDAiPjwvcGF0aD4KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPHBhdGggZD0iTTM1Ljk4ODE4NiwwIEwzNS45ODgxODYsODAiIGlkPSJMaW5lLTYiIHN0cm9rZS1vcGFjaXR5PSIwLjA0IiBzdHJva2U9IiMwMDAwMDAiPjwvcGF0aD4KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPHBhdGggZD0iTTE3Mi4wMjYxMDEsMCBMMTcyLjAyNjEwMSw4MCIgaWQ9IkxpbmUtNiIgc3Ryb2tlLW9wYWNpdHk9IjAuMDQiIHN0cm9rZT0iIzAwMDAwMCI+PC9wYXRoPgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8cGF0aCBkPSJNMTA0LjAwNzE0MywwIEwxMDQuMDA3MTQzLDgwIiBpZD0iTGluZS02IiBzdHJva2Utb3BhY2l0eT0iMC4wNCIgc3Ryb2tlPSIjMDAwMDAwIj48L3BhdGg+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxwYXRoIGQ9Ik0yMDYuNTI4NDcsMCBMMjA2LjUyODQ3LDgwIiBpZD0iTGluZS02IiBzdHJva2Utb3BhY2l0eT0iMC4wNCIgc3Ryb2tlPSIjMDAwMDAwIj48L3BhdGg+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxwYXRoIGQ9Ik02OS41MDQ3NzM3LDAgTDY5LjUwNDc3MzcsODAiIGlkPSJMaW5lLTYiIHN0cm9rZS1vcGFjaXR5PSIwLjA0IiBzdHJva2U9IiMwMDAwMDAiPjwvcGF0aD4KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8L2c+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPGcgaWQ9ImNoYXJ0IiB0cmFuc2Zvcm09InRyYW5zbGF0ZSg3LjAwMDAwMCwgNi4wMDAwMDApIiBmaWxsLW9wYWNpdHk9IjAuNiI+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxnIGlkPSJHcm91cC05IiB0cmFuc2Zvcm09InRyYW5zbGF0ZSgwLjAwMDAwMCwgMjMuMDAwMDAwKSI+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8cGF0aCBkPSJNMi44NDUzNjczNSwwLjUyOTQxMTc2NSBMOC44NDUzNjczNSwwLjUyOTQxMTc2NSBDOS45NDk5MzY4NSwwLjUyOTQxMTc2NSAxMC44NDUzNjc0LDEuNDI0ODQyMjcgMTAuODQ1MzY3NCwyLjUyOTQxMTc2IEwxMC44NDUzNjc0LDEyLjc2NDcwNTkgTDAuODQ1MzY3MzU0LDEyLjc2NDcwNTkgTDAuODQ1MzY3MzU0LDIuNTI5NDExNzYgQzAuODQ1MzY3MzU0LDEuNDI0ODQyMjcgMS43NDA3OTc4NSwwLjUyOTQxMTc2NSAyLjg0NTM2NzM1LDAuNTI5NDExNzY1IFoiIGlkPSJSZWN0YW5nbGUtMyIgZmlsbD0iI0ZGQjEwMCI+PC9wYXRoPgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPHJlY3QgaWQ9IlJlY3RhbmdsZS0zIiBmaWxsPSIjMDBCRkE1IiB4PSIwLjg0NTM2NzM1NCIgeT0iMTIuNDk0MjM3MiIgd2lkdGg9IjEwIiBoZWlnaHQ9IjM3LjIxMTMwMzciPjwvcmVjdD4KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPC9nPgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8ZyBpZD0iR3JvdXAtMTAiIHRyYW5zZm9ybT0idHJhbnNsYXRlKDIzLjYwODY5NiwgMC4wMDAwMDApIj4KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxyZWN0IGlkPSJSZWN0YW5nbGUtMyIgZmlsbD0iIzAwQkZBNSIgeD0iMC42MDg2OTU2NTIiIHk9IjEyLjIzNTI5NDEiIHdpZHRoPSIxMCIgaGVpZ2h0PSI2MC43NDA3MTU0Ij48L3JlY3Q+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8cGF0aCBkPSJNMi42MDg2OTU2NSw3LjEwNTQyNzM2ZS0xNCBMOC42MDg2OTU2NSw3LjA4MzIyMjllLTE0IEM5LjcxMzI2NTE1LDcuMDYyOTMyMjhlLTE0IDEwLjYwODY5NTcsMC44OTU0MzA1IDEwLjYwODY5NTcsMiBMMTAuNjA4Njk1NywxMi4yMzUyOTQxIEwwLjYwODY5NTY1MiwxMi4yMzUyOTQxIEwwLjYwODY5NTY1MiwyIEMwLjYwODY5NTY1MiwwLjg5NTQzMDUgMS41MDQxMjYxNSw3LjEyNTcxNzk3ZS0xNCAyLjYwODY5NTY1LDcuMTA1NDI3MzZlLTE0IFoiIGlkPSJSZWN0YW5nbGUtMyIgZmlsbD0iI0ZGQjEwMCI+PC9wYXRoPgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8L2c+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxnIGlkPSJHcm91cC0xMSIgdHJhbnNmb3JtPSJ0cmFuc2xhdGUoNDYuNjA4Njk2LCAxMy4wMDAwMDApIj4KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxyZWN0IGlkPSJSZWN0YW5nbGUtMyIgZmlsbD0iIzAwQkZBNSIgeD0iMC42MDg2OTU2NTIiIHk9IjE0IiB3aWR0aD0iMTAiIGhlaWdodD0iNDUuOTc2MDA5NiI+PC9yZWN0PgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPHBhdGggZD0iTTIuNjA4Njk1NjUsMC40NzI4OTMzNjYgTDguNjA4Njk1NjUsMC40NzI4OTMzNjYgQzkuNzEzMjY1MTUsMC40NzI4OTMzNjYgMTAuNjA4Njk1NywxLjM2ODMyMzg3IDEwLjYwODY5NTcsMi40NzI4OTMzNyBMMTAuNjA4Njk1NywxNCBMMC42MDg2OTU2NTIsMTQgTDAuNjA4Njk1NjUyLDIuNDcyODkzMzcgQzAuNjA4Njk1NjUyLDEuMzY4MzIzODcgMS41MDQxMjYxNSwwLjQ3Mjg5MzM2NiAyLjYwODY5NTY1LDAuNDcyODkzMzY2IFoiIGlkPSJSZWN0YW5nbGUtMyIgZmlsbD0iI0ZGQjEwMCI+PC9wYXRoPgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8L2c+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxnIGlkPSJHcm91cC0xMiIgdHJhbnNmb3JtPSJ0cmFuc2xhdGUoNzAuNjA4Njk2LCAzNS4wMDAwMDApIj4KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxyZWN0IGlkPSJSZWN0YW5nbGUtMyIgZmlsbD0iIzAwQkZBNSIgeD0iMC42MDg2OTU2NTIiIHk9IjEzIiB3aWR0aD0iMTAiIGhlaWdodD0iMjQuOTc2MDA5NiI+PC9yZWN0PgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPHBhdGggZD0iTTIuNjA4Njk1NjUsMC43NjQ3MDU4ODIgTDguNjA4Njk1NjUsMC43NjQ3MDU4ODIgQzkuNzEzMjY1MTUsMC43NjQ3MDU4ODIgMTAuNjA4Njk1NywxLjY2MDEzNjM4IDEwLjYwODY5NTcsMi43NjQ3MDU4OCBMMTAuNjA4Njk1NywxMyBMMC42MDg2OTU2NTIsMTMgTDAuNjA4Njk1NjUyLDIuNzY0NzA1ODggQzAuNjA4Njk1NjUyLDEuNjYwMTM2MzggMS41MDQxMjYxNSwwLjc2NDcwNTg4MiAyLjYwODY5NTY1LDAuNzY0NzA1ODgyIFoiIGlkPSJSZWN0YW5nbGUtMyIgZmlsbD0iI0ZGQjEwMCI+PC9wYXRoPgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8L2c+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxnIGlkPSJHcm91cC0xOCIgdHJhbnNmb3JtPSJ0cmFuc2xhdGUoOTMuNjA4Njk2LCAyMy4wMDAwMDApIj4KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxwYXRoIGQ9Ik0yLjYwODY5NTY1LDAuNzk5ODgwNDc1IEw4LjYwODY5NTY1LDAuNzk5ODgwNDc1IEM5LjcxMzI2NTE1LDAuNzk5ODgwNDc1IDEwLjYwODY5NTcsMS42OTUzMTA5OCAxMC42MDg2OTU3LDIuNzk5ODgwNDcgTDEwLjYwODY5NTcsMTUgTDAuNjA4Njk1NjUyLDE1IEwwLjYwODY5NTY1MiwyLjc5OTg4MDQ3IEMwLjYwODY5NTY1MiwxLjY5NTMxMDk4IDEuNTA0MTI2MTUsMC43OTk4ODA0NzUgMi42MDg2OTU2NSwwLjc5OTg4MDQ3NSBaIiBpZD0iUmVjdGFuZ2xlLTMiIGZpbGw9IiNGRkIxMDAiPjwvcGF0aD4KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxyZWN0IGlkPSJSZWN0YW5nbGUtMyIgZmlsbD0iIzAwQkZBNSIgeD0iMC42MDg2OTU2NTIiIHk9IjE1IiB3aWR0aD0iMTAiIGhlaWdodD0iMzQuOTc2MDA5NiI+PC9yZWN0PgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8L2c+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxnIGlkPSJHcm91cC0xOSIgdHJhbnNmb3JtPSJ0cmFuc2xhdGUoMTE2LjYwODY5NiwgNDAuMDAwMDAwKSI+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8cmVjdCBpZD0iUmVjdGFuZ2xlLTMiIGZpbGw9IiMwMEJGQTUiIHg9IjAuNjA4Njk1NjUyIiB5PSIxMi45NzYzNTExIiB3aWR0aD0iMTAiIGhlaWdodD0iMTkuOTk5NjU4NSI+PC9yZWN0PgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPHBhdGggZD0iTTIuNjA4Njk1NjUsMC43NDEwNTY5NDUgTDguNjA4Njk1NjUsMC43NDEwNTY5NDUgQzkuNzEzMjY1MTUsMC43NDEwNTY5NDUgMTAuNjA4Njk1NywxLjYzNjQ4NzQ1IDEwLjYwODY5NTcsMi43NDEwNTY5NSBMMTAuNjA4Njk1NywxMi45NzYzNTExIEwwLjYwODY5NTY1MiwxMi45NzYzNTExIEwwLjYwODY5NTY1MiwyLjc0MTA1Njk1IEMwLjYwODY5NTY1MiwxLjYzNjQ4NzQ1IDEuNTA0MTI2MTUsMC43NDEwNTY5NDUgMi42MDg2OTU2NSwwLjc0MTA1Njk0NSBaIiBpZD0iUmVjdGFuZ2xlLTMiIGZpbGw9IiNGRkIxMDAiPjwvcGF0aD4KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPC9nPgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8ZyBpZD0iR3JvdXAtMjAiIHRyYW5zZm9ybT0idHJhbnNsYXRlKDE0MC42MDg2OTYsIDI5LjAwMDAwMCkiPgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPHJlY3QgaWQ9IlJlY3RhbmdsZS0zIiBmaWxsPSIjMDBCRkE1IiB4PSIwIiB5PSIxMi4yMzUyOTQxIiB3aWR0aD0iMTAiIGhlaWdodD0iMzEuNzY0MzY0NCI+PC9yZWN0PgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPHBhdGggZD0iTTIsMCBMOCwtMi4yMjA0NDYwNWUtMTYgQzkuMTA0NTY5NSwtNC4yNDk1MDczZS0xNiAxMCwwLjg5NTQzMDUgMTAsMiBMMTAsMTIuMjM1Mjk0MSBMMCwxMi4yMzUyOTQxIEwwLDIgQy0xLjM1MjcwNzVlLTE2LDAuODk1NDMwNSAwLjg5NTQzMDUsMi4wMjkwNjEyNWUtMTYgMiwwIFoiIGlkPSJSZWN0YW5nbGUtMyIgZmlsbD0iI0ZGQjEwMCI+PC9wYXRoPgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8L2c+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxnIGlkPSJHcm91cC0yMSIgdHJhbnNmb3JtPSJ0cmFuc2xhdGUoMTYyLjYwODY5NiwgMTIuMDAwMDAwKSI+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8cmVjdCBpZD0iUmVjdGFuZ2xlLTMiIGZpbGw9IiMwMEJGQTUiIHg9IjAiIHk9IjEyLjIzNTI5NDEiIHdpZHRoPSIxMCIgaGVpZ2h0PSI0OC43NjQzNjQ0Ij48L3JlY3Q+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8cGF0aCBkPSJNMiwwIEw4LC0yLjIyMDQ0NjA1ZS0xNiBDOS4xMDQ1Njk1LC00LjI0OTUwNzNlLTE2IDEwLDAuODk1NDMwNSAxMCwyIEwxMCwxMi4yMzUyOTQxIEwwLDEyLjIzNTI5NDEgTDAsMiBDLTEuMzUyNzA3NWUtMTYsMC44OTU0MzA1IDAuODk1NDMwNSwyLjAyOTA2MTI1ZS0xNiAyLDAgWiIgaWQ9IlJlY3RhbmdsZS0zIiBmaWxsPSIjRkZCMTAwIj48L3BhdGg+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDwvZz4KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPGcgaWQ9Ikdyb3VwLTIyIiB0cmFuc2Zvcm09InRyYW5zbGF0ZSgxODQuNjA4Njk2LCA0MS4wMDAwMDApIj4KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxyZWN0IGlkPSJSZWN0YW5nbGUtMyIgZmlsbD0iIzAwQkZBNSIgeD0iMCIgeT0iMTIiIHdpZHRoPSIxMCIgaGVpZ2h0PSIxOS45OTk2NTg1Ij48L3JlY3Q+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8cGF0aCBkPSJNMiwwIEw4LC0yLjIyMDQ0NjA1ZS0xNiBDOS4xMDQ1Njk1LC00LjI0OTUwNzNlLTE2IDEwLDAuODk1NDMwNSAxMCwyIEwxMCwxMi4yMzUyOTQxIEwwLDEyLjIzNTI5NDEgTDAsMiBDLTEuMzUyNzA3NWUtMTYsMC44OTU0MzA1IDAuODk1NDMwNSwyLjAyOTA2MTI1ZS0xNiAyLDAgWiIgaWQ9IlJlY3RhbmdsZS0zIiBmaWxsPSIjRkZCMTAwIj48L3BhdGg+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDwvZz4KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8L2c+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICA8L2c+CiAgICAgICAgICAgICAgICAgICAgICAgIDwvZz4KICAgICAgICAgICAgICAgICAgICA8L2c+CiAgICAgICAgICAgICAgICA8L2c+CiAgICAgICAgICAgIDwvZz4KICAgICAgICA8L2c+CiAgICA8L2c+Cjwvc3ZnPg==</t>
   </si>
   <si>
+    <t>build-number</t>
+  </si>
+  <si>
     <t>构建次数图</t>
   </si>
   <si>
+    <t>构建次数图eng</t>
+  </si>
+  <si>
     <t>从应用的维度为您展示任意时间段某个应用的构建次数，构建成功次数以及构建成功率。</t>
   </si>
   <si>
@@ -1980,9 +2007,15 @@
     <t>data:image/svg+xml;base64,PD94bWwgdmVyc2lvbj0iMS4wIiBlbmNvZGluZz0iVVRGLTgiIHN0YW5kYWxvbmU9Im5vIj8+Cjxzdmcgd2lkdGg9IjIwOHB4IiBoZWlnaHQ9IjEyM3B4IiB2aWV3Qm94PSIwIDAgMjA4IDEyMyIgdmVyc2lvbj0iMS4xIiB4bWxucz0iaHR0cDovL3d3dy53My5vcmcvMjAwMC9zdmciIHhtbG5zOnhsaW5rPSJodHRwOi8vd3d3LnczLm9yZy8xOTk5L3hsaW5rIj4KICAgIDwhLS0gR2VuZXJhdG9yOiBTa2V0Y2ggNDkgKDUxMDAyKSAtIGh0dHA6Ly93d3cuYm9oZW1pYW5jb2RpbmcuY29tL3NrZXRjaCAtLT4KICAgIDx0aXRsZT5Hcm91cCA4PC90aXRsZT4KICAgIDxkZXNjPkNyZWF0ZWQgd2l0aCBTa2V0Y2guPC9kZXNjPgogICAgPGRlZnM+PC9kZWZzPgogICAgPGcgaWQ9IuaKpeihqCIgc3Ryb2tlPSJub25lIiBzdHJva2Utd2lkdGg9IjEiIGZpbGw9Im5vbmUiIGZpbGwtcnVsZT0iZXZlbm9kZCI+CiAgICAgICAgPGcgaWQ9IkRldk9wc+aKpeihqCIgdHJhbnNmb3JtPSJ0cmFuc2xhdGUoLTMwOS4wMDAwMDAsIC02MTEuMDAwMDAwKSI+CiAgICAgICAgICAgIDxnIGlkPSJHcm91cC01IiB0cmFuc2Zvcm09InRyYW5zbGF0ZSgyNzQuMDAwMDAwLCAxMzIuMDAwMDAwKSI+CiAgICAgICAgICAgICAgICA8ZyBpZD0i5omA5pyJ5oql6KGo77yN54mI5pys5oql5ZGKIiB0cmFuc2Zvcm09InRyYW5zbGF0ZSgwLjAwMDAwMCwgNDM4LjAwMDAwMCkiPgogICAgICAgICAgICAgICAgICAgIDxnIGlkPSJHcm91cCIgdHJhbnNmb3JtPSJ0cmFuc2xhdGUoMTguMDAwMDAwLCAxOC4wMDAwMDApIj4KICAgICAgICAgICAgICAgICAgICAgICAgPGcgaWQ9Ikdyb3VwLTgiIHRyYW5zZm9ybT0idHJhbnNsYXRlKDE3LjAwMDAwMCwgMjQuMDAwMDAwKSI+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICA8ZyBpZD0iR3JvdXAtNiIgdHJhbnNmb3JtPSJ0cmFuc2xhdGUoMC4wMDAwMDAsIDk2LjAwMDAwMCkiIGZpbGw9IiMwMDAwMDAiIGZpbGwtb3BhY2l0eT0iMC4wOCI+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPGcgaWQ9IlJlY3RhbmdsZS00Ij4KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPHJlY3QgeD0iMCIgeT0iMCIgd2lkdGg9IjkwLjQzNDc4MjYiIGhlaWdodD0iOSIgcng9IjQiPjwvcmVjdD4KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPHJlY3QgeD0iMTAxLjczOTEzIiB5PSIwIiB3aWR0aD0iNDUuMjE3MzkxMyIgaGVpZ2h0PSI5IiByeD0iNCI+PC9yZWN0PgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8cmVjdCB4PSIxNTguMjYwODciIHk9IjAiIHdpZHRoPSI0OS43MzkxMzA0IiBoZWlnaHQ9IjkiIHJ4PSI0Ij48L3JlY3Q+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPC9nPgogICAgICAgICAgICAgICAgICAgICAgICAgICAgPC9nPgogICAgICAgICAgICAgICAgICAgICAgICAgICAgPGcgaWQ9Ikdyb3VwLTYiIHRyYW5zZm9ybT0idHJhbnNsYXRlKDAuMDAwMDAwLCAxMTMuMDAwMDAwKSIgZmlsbD0iIzAwMDAwMCIgZmlsbC1vcGFjaXR5PSIwLjA4Ij4KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8ZyBpZD0iUmVjdGFuZ2xlLTQiPgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8cmVjdCB4PSIwIiB5PSIwIiB3aWR0aD0iOTAuNDM0NzgyNiIgaGVpZ2h0PSI5IiByeD0iNCI+PC9yZWN0PgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8cmVjdCB4PSIxMDEuNzM5MTMiIHk9IjAiIHdpZHRoPSI0NS4yMTczOTEzIiBoZWlnaHQ9IjkiIHJ4PSI0Ij48L3JlY3Q+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxyZWN0IHg9IjE1OC4yNjA4NyIgeT0iMCIgd2lkdGg9IjQ5LjczOTEzMDQiIGhlaWdodD0iOSIgcng9IjQiPjwvcmVjdD4KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8L2c+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICA8L2c+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICA8ZyBpZD0iR3JvdXAtMTMiPgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxnIGlkPSJHcm91cC0yIiBzdHJva2UtbGluZWNhcD0ic3F1YXJlIj4KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPHBhdGggZD0iTTEuOTcxNTYzOTgsNzguNSBMMjA2LjAyMzY3NCw3OC41IiBpZD0iTGluZSIgc3Ryb2tlPSIjREZERkRGIj48L3BhdGg+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxwYXRoIGQ9Ik0xLjk3MTU2Mzk4LDU4LjUgTDIwNi4wMjM2NzQsNTguNSIgaWQ9IkxpbmUiIHN0cm9rZT0iI0RGREZERiI+PC9wYXRoPgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8cGF0aCBkPSJNMS45NzE1NjM5OCwzOS41IEwyMDYuMDIzNjc0LDM5LjUiIGlkPSJMaW5lIiBzdHJva2U9IiNERkRGREYiPjwvcGF0aD4KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPHBhdGggZD0iTTEuOTcxNTYzOTgsMTkuNSBMMjA2LjAyMzY3NCwxOS41IiBpZD0iTGluZSIgc3Ryb2tlPSIjREZERkRGIj48L3BhdGg+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxwYXRoIGQ9Ik0xLjk3MTU2Mzk4LDAuNSBMMjA2LjAyMzY3NCwwLjUiIGlkPSJMaW5lIiBzdHJva2U9IiNERkRGREYiPjwvcGF0aD4KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPHBhdGggZD0iTTEzOC41MDk1MTMsMCBMMTM4LjUwOTUxMyw4MCIgaWQ9IkxpbmUtNiIgc3Ryb2tlLW9wYWNpdHk9IjAuMDQiIHN0cm9rZT0iIzAwMDAwMCI+PC9wYXRoPgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8cGF0aCBkPSJNMS40ODU4MTYzMywwIEwxLjQ4NTgxNjMzLDgwIiBpZD0iTGluZS02IiBzdHJva2Utb3BhY2l0eT0iMC4wNCIgc3Ryb2tlPSIjMDAwMDAwIj48L3BhdGg+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxwYXRoIGQ9Ik0zNS45ODgxODYsMCBMMzUuOTg4MTg2LDgwIiBpZD0iTGluZS02IiBzdHJva2Utb3BhY2l0eT0iMC4wNCIgc3Ryb2tlPSIjMDAwMDAwIj48L3BhdGg+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxwYXRoIGQ9Ik0xNzIuMDI2MTAxLDAgTDE3Mi4wMjYxMDEsODAiIGlkPSJMaW5lLTYiIHN0cm9rZS1vcGFjaXR5PSIwLjA0IiBzdHJva2U9IiMwMDAwMDAiPjwvcGF0aD4KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPHBhdGggZD0iTTEwNC4wMDcxNDMsMCBMMTA0LjAwNzE0Myw4MCIgaWQ9IkxpbmUtNiIgc3Ryb2tlLW9wYWNpdHk9IjAuMDQiIHN0cm9rZT0iIzAwMDAwMCI+PC9wYXRoPgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8cGF0aCBkPSJNMjA2LjUyODQ3LDAgTDIwNi41Mjg0Nyw4MCIgaWQ9IkxpbmUtNiIgc3Ryb2tlLW9wYWNpdHk9IjAuMDQiIHN0cm9rZT0iIzAwMDAwMCI+PC9wYXRoPgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8cGF0aCBkPSJNNjkuNTA0NzczNywwIEw2OS41MDQ3NzM3LDgwIiBpZD0iTGluZS02IiBzdHJva2Utb3BhY2l0eT0iMC4wNCIgc3Ryb2tlPSIjMDAwMDAwIj48L3BhdGg+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPC9nPgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxnIGlkPSJjaGFydCIgdHJhbnNmb3JtPSJ0cmFuc2xhdGUoNS4wMDAwMDAsIDYuMDAwMDAwKSIgZmlsbD0iIzREOTBGRSIgZmlsbC1vcGFjaXR5PSIwLjYiPgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8cGF0aCBkPSJNMi44NDk0NTEyNSwzMC4wODkzNDk3IEw0Ljg3ODQzNjc2LDMwLjA4OTM0OTcgQzUuOTgzMDA2MjYsMzAuMDg5MzQ5NyA2Ljg3ODQzNjc2LDMwLjk4NDc4MDIgNi44Nzg0MzY3NiwzMi4wODkzNDk3IEw2Ljg3ODQzNjc2LDcyLjY2NjUzOTEgTDAuODQ5NDUxMjU0LDcyLjY2NjUzOTEgTDAuODQ5NDUxMjU0LDMyLjA4OTM0OTcgQzAuODQ5NDUxMjU0LDMwLjk4NDc4MDIgMS43NDQ4ODE3NSwzMC4wODkzNDk3IDIuODQ5NDUxMjUsMzAuMDg5MzQ5NyBaIiBpZD0iUmVjdGFuZ2xlLTMiPjwvcGF0aD4KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPHBhdGggZD0iTTMyLjU4MjY1MDcsMCBMMzQuNjExNjM2MiwwIEMzNS43MTYyMDU3LC0yLjAyOTA2MTI1ZS0xNiAzNi42MTE2MzYyLDAuODk1NDMwNSAzNi42MTE2MzYyLDIgTDM2LjYxMTYzNjIsNzIuOTc2MDA5NiBMMzAuNTgyNjUwNyw3Mi45NzYwMDk2IEwzMC41ODI2NTA3LDIgQzMwLjU4MjY1MDcsMC44OTU0MzA1IDMxLjQ3ODA4MTIsMi4wMjkwNjEyNWUtMTYgMzIuNTgyNjUwNywwIFoiIGlkPSJSZWN0YW5nbGUtMyI+PC9wYXRoPgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8cGF0aCBkPSJNNjEuNTgyNjUwNywyMC4zNzAyMzk5IEw2My42MTE2MzYyLDIwLjM3MDIzOTkgQzY0LjcxNjIwNTcsMjAuMzcwMjM5OSA2NS42MTE2MzYyLDIxLjI2NTY3MDQgNjUuNjExNjM2MiwyMi4zNzAyMzk5IEw2NS42MTE2MzYyLDcyLjk3NjAwOTYgTDU5LjU4MjY1MDcsNzIuOTc2MDA5NiBMNTkuNTgyNjUwNywyMi4zNzAyMzk5IEM1OS41ODI2NTA3LDIxLjI2NTY3MDQgNjAuNDc4MDgxMiwyMC4zNzAyMzk5IDYxLjU4MjY1MDcsMjAuMzcwMjM5OSBaIiBpZD0iUmVjdGFuZ2xlLTMiPjwvcGF0aD4KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPHBhdGggZD0iTTc1LjU4MjY1MDcsNDQuMzk4NDQ4OCBMNzcuNjExNjM2Miw0NC4zOTg0NDg4IEM3OC43MTYyMDU3LDQ0LjM5ODQ0ODggNzkuNjExNjM2Miw0NS4yOTM4NzkzIDc5LjYxMTYzNjIsNDYuMzk4NDQ4OCBMNzkuNjExNjM2Miw3Mi45NzYwMDk2IEw3My41ODI2NTA3LDcyLjk3NjAwOTYgTDczLjU4MjY1MDcsNDYuMzk4NDQ4OCBDNzMuNTgyNjUwNyw0NS4yOTM4NzkzIDc0LjQ3ODA4MTIsNDQuMzk4NDQ4OCA3NS41ODI2NTA3LDQ0LjM5ODQ0ODggWiIgaWQ9IlJlY3RhbmdsZS0zIj48L3BhdGg+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxwYXRoIGQ9Ik0xMDUuNTgyNjUxLDMyLjk1NjQ0NDYgTDEwNy42MTE2MzYsMzIuOTU2NDQ0NiBDMTA4LjcxNjIwNiwzMi45NTY0NDQ2IDEwOS42MTE2MzYsMzMuODUxODc1MSAxMDkuNjExNjM2LDM0Ljk1NjQ0NDYgTDEwOS42MTE2MzYsNzIuOTc2MDA5NiBMMTAzLjU4MjY1MSw3Mi45NzYwMDk2IEwxMDMuNTgyNjUxLDM0Ljk1NjQ0NDYgQzEwMy41ODI2NTEsMzMuODUxODc1MSAxMDQuNDc4MDgxLDMyLjk1NjQ0NDYgMTA1LjU4MjY1MSwzMi45NTY0NDQ2IFoiIGlkPSJSZWN0YW5nbGUtMyI+PC9wYXRoPgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8cGF0aCBkPSJNMTE5LjU4MjY1MSw1MC4wOTIzOTE4IEwxMjEuNjExNjM2LDUwLjA5MjM5MTggQzEyMi43MTYyMDYsNTAuMDkyMzkxOCAxMjMuNjExNjM2LDUwLjk4NzgyMjMgMTIzLjYxMTYzNiw1Mi4wOTIzOTE4IEwxMjMuNjExNjM2LDcyLjk3NjAwOTYgTDExNy41ODI2NTEsNzIuOTc2MDA5NiBMMTE3LjU4MjY1MSw1Mi4wOTIzOTE4IEMxMTcuNTgyNjUxLDUwLjk4NzgyMjMgMTE4LjQ3ODA4MSw1MC4wOTIzOTE4IDExOS41ODI2NTEsNTAuMDkyMzkxOCBaIiBpZD0iUmVjdGFuZ2xlLTMiPjwvcGF0aD4KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPHBhdGggZD0iTTE3LjU4MjY1MDcsNDEuNjkwNTI5NiBMMTkuNjExNjM2Miw0MS42OTA1Mjk2IEMyMC43MTYyMDU3LDQxLjY5MDUyOTYgMjEuNjExNjM2Miw0Mi41ODU5NjAxIDIxLjYxMTYzNjIsNDMuNjkwNTI5NiBMMjEuNjExNjM2Miw3Mi42NjY1MzkxIEwxNS41ODI2NTA3LDcyLjY2NjUzOTEgTDE1LjU4MjY1MDcsNDMuNjkwNTI5NiBDMTUuNTgyNjUwNyw0Mi41ODU5NjAxIDE2LjQ3ODA4MTIsNDEuNjkwNTI5NiAxNy41ODI2NTA3LDQxLjY5MDUyOTYgWiIgaWQ9IlJlY3RhbmdsZS0zIj48L3BhdGg+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxwYXRoIGQ9Ik00Ni41ODI2NTA3LDkgTDQ4LjYxMTYzNjIsOSBDNDkuNzE2MjA1Nyw5IDUwLjYxMTYzNjIsOS44OTU0MzA1IDUwLjYxMTYzNjIsMTEgTDUwLjYxMTYzNjIsNzIuOTc2MDA5NiBMNDQuNTgyNjUwNyw3Mi45NzYwMDk2IEw0NC41ODI2NTA3LDExIEM0NC41ODI2NTA3LDkuODk1NDMwNSA0NS40NzgwODEyLDkgNDYuNTgyNjUwNyw5IFoiIGlkPSJSZWN0YW5nbGUtMyI+PC9wYXRoPgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8cGF0aCBkPSJNMTQ5LjU4MjY1MSwyMC4zNzAyMzk5IEwxNTEuNjExNjM2LDIwLjM3MDIzOTkgQzE1Mi43MTYyMDYsMjAuMzcwMjM5OSAxNTMuNjExNjM2LDIxLjI2NTY3MDQgMTUzLjYxMTYzNiwyMi4zNzAyMzk5IEwxNTMuNjExNjM2LDcyLjk3NjAwOTYgTDE0Ny41ODI2NTEsNzIuOTc2MDA5NiBMMTQ3LjU4MjY1MSwyMi4zNzAyMzk5IEMxNDcuNTgyNjUxLDIxLjI2NTY3MDQgMTQ4LjQ3ODA4MSwyMC4zNzAyMzk5IDE0OS41ODI2NTEsMjAuMzcwMjM5OSBaIiBpZD0iUmVjdGFuZ2xlLTMiPjwvcGF0aD4KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPHBhdGggZD0iTTE2My41ODI2NTEsNDIgTDE2NS42MTE2MzYsNDIgQzE2Ni43MTYyMDYsNDIgMTY3LjYxMTYzNiw0Mi44OTU0MzA1IDE2Ny42MTE2MzYsNDQgTDE2Ny42MTE2MzYsNzIuOTc2MDA5NiBMMTYxLjU4MjY1MSw3Mi45NzYwMDk2IEwxNjEuNTgyNjUxLDQ0IEMxNjEuNTgyNjUxLDQyLjg5NTQzMDUgMTYyLjQ3ODA4MSw0MiAxNjMuNTgyNjUxLDQyIFoiIGlkPSJSZWN0YW5nbGUtMyI+PC9wYXRoPgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8cGF0aCBkPSJNOTAuNTgyNjUwNywzMCBMOTIuNjExNjM2MiwzMCBDOTMuNzE2MjA1NywzMCA5NC42MTE2MzYyLDMwLjg5NTQzMDUgOTQuNjExNjM2MiwzMiBMOTQuNjExNjM2Miw3Mi41NzcxODk1IEw4OC41ODI2NTA3LDcyLjU3NzE4OTUgTDg4LjU4MjY1MDcsMzIgQzg4LjU4MjY1MDcsMzAuODk1NDMwNSA4OS40NzgwODEyLDMwIDkwLjU4MjY1MDcsMzAgWiIgaWQ9IlJlY3RhbmdsZS0zIj48L3BhdGg+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxwYXRoIGQ9Ik0xMzQuNTgyNjUxLDMgTDEzNi42MTE2MzYsMyBDMTM3LjcxNjIwNiwzIDEzOC42MTE2MzYsMy44OTU0MzA1IDEzOC42MTE2MzYsNSBMMTM4LjYxMTYzNiw3Mi40OTk1NTI0IEwxMzIuNTgyNjUxLDcyLjQ5OTU1MjQgTDEzMi41ODI2NTEsNSBDMTMyLjU4MjY1MSwzLjg5NTQzMDUgMTMzLjQ3ODA4MSwzIDEzNC41ODI2NTEsMyBaIiBpZD0iUmVjdGFuZ2xlLTMiPjwvcGF0aD4KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPHBhdGggZD0iTTE3OC41ODI2NTEsMzIuODY0MDUyOCBMMTgwLjYxMTYzNiwzMi44NjQwNTI4IEMxODEuNzE2MjA2LDMyLjg2NDA1MjggMTgyLjYxMTYzNiwzMy43NTk0ODMzIDE4Mi42MTE2MzYsMzQuODY0MDUyOCBMMTgyLjYxMTYzNiw3Mi44ODM2MTc3IEwxNzYuNTgyNjUxLDcyLjg4MzYxNzcgTDE3Ni41ODI2NTEsMzQuODY0MDUyOCBDMTc2LjU4MjY1MSwzMy43NTk0ODMzIDE3Ny40NzgwODEsMzIuODY0MDUyOCAxNzguNTgyNjUxLDMyLjg2NDA1MjggWiIgaWQ9IlJlY3RhbmdsZS0zIj48L3BhdGg+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxwYXRoIGQ9Ik0xOTIuNTgyNjUxLDYxLjQ0MTgwODkgTDE5NC42MTE2MzYsNjEuNDQxODA4OSBDMTk1LjcxNjIwNiw2MS40NDE4MDg5IDE5Ni42MTE2MzYsNjIuMzM3MjM5NCAxOTYuNjExNjM2LDYzLjQ0MTgwODkgTDE5Ni42MTE2MzYsNzIuODgzNjE3NyBMMTkwLjU4MjY1MSw3Mi44ODM2MTc3IEwxOTAuNTgyNjUxLDYzLjQ0MTgwODkgQzE5MC41ODI2NTEsNjIuMzM3MjM5NCAxOTEuNDc4MDgxLDYxLjQ0MTgwODkgMTkyLjU4MjY1MSw2MS40NDE4MDg5IFoiIGlkPSJSZWN0YW5nbGUtMyI+PC9wYXRoPgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDwvZz4KICAgICAgICAgICAgICAgICAgICAgICAgICAgIDwvZz4KICAgICAgICAgICAgICAgICAgICAgICAgPC9nPgogICAgICAgICAgICAgICAgICAgIDwvZz4KICAgICAgICAgICAgICAgIDwvZz4KICAgICAgICAgICAgPC9nPgogICAgICAgIDwvZz4KICAgIDwvZz4KPC9zdmc+</t>
   </si>
   <si>
+    <t>build-duration</t>
+  </si>
+  <si>
     <t>构建时长图</t>
   </si>
   <si>
+    <t>构建时长图eng</t>
+  </si>
+  <si>
     <t>从应用的维度展示所选时间段某个应用每一次构建的时长。这将帮助您更直观地了解应用构建的效率。</t>
   </si>
   <si>
@@ -1992,9 +2025,15 @@
     <t>fd_report-5</t>
   </si>
   <si>
+    <t>deploy-times</t>
+  </si>
+  <si>
     <t>部署次数图</t>
   </si>
   <si>
+    <t>部署次数图eng</t>
+  </si>
+  <si>
     <t>展示该项目下各个环境中各个应用的部署频率，这将帮助您快速直观地了解团队的部署频次与整体的效率。</t>
   </si>
   <si>
@@ -2010,9 +2049,15 @@
     <t>data:image/svg+xml;base64,PD94bWwgdmVyc2lvbj0iMS4wIiBlbmNvZGluZz0iVVRGLTgiIHN0YW5kYWxvbmU9Im5vIj8+Cjxzdmcgd2lkdGg9IjIwOHB4IiBoZWlnaHQ9IjEyM3B4IiB2aWV3Qm94PSIwIDAgMjA4IDEyMyIgdmVyc2lvbj0iMS4xIiB4bWxucz0iaHR0cDovL3d3dy53My5vcmcvMjAwMC9zdmciIHhtbG5zOnhsaW5rPSJodHRwOi8vd3d3LnczLm9yZy8xOTk5L3hsaW5rIj4KICAgIDwhLS0gR2VuZXJhdG9yOiBTa2V0Y2ggNDkgKDUxMDAyKSAtIGh0dHA6Ly93d3cuYm9oZW1pYW5jb2RpbmcuY29tL3NrZXRjaCAtLT4KICAgIDx0aXRsZT5Hcm91cCA4PC90aXRsZT4KICAgIDxkZXNjPkNyZWF0ZWQgd2l0aCBTa2V0Y2guPC9kZXNjPgogICAgPGRlZnM+PC9kZWZzPgogICAgPGcgaWQ9IuaKpeihqCIgc3Ryb2tlPSJub25lIiBzdHJva2Utd2lkdGg9IjEiIGZpbGw9Im5vbmUiIGZpbGwtcnVsZT0iZXZlbm9kZCI+CiAgICAgICAgPGcgaWQ9IkRldk9wc+aKpeihqCIgdHJhbnNmb3JtPSJ0cmFuc2xhdGUoLTkxOC4wMDAwMDAsIC02MTEuMDAwMDAwKSI+CiAgICAgICAgICAgIDxnIGlkPSJHcm91cC01IiB0cmFuc2Zvcm09InRyYW5zbGF0ZSgyNzQuMDAwMDAwLCAxMzIuMDAwMDAwKSI+CiAgICAgICAgICAgICAgICA8ZyBpZD0i5omA5pyJ5oql6KGo77yN54eD5bC95Zu+IiB0cmFuc2Zvcm09InRyYW5zbGF0ZSg2MDguMDAwMDAwLCA0MzguMDAwMDAwKSI+CiAgICAgICAgICAgICAgICAgICAgPGcgaWQ9Ikdyb3VwIiB0cmFuc2Zvcm09InRyYW5zbGF0ZSgxOC4wMDAwMDAsIDE4LjAwMDAwMCkiPgogICAgICAgICAgICAgICAgICAgICAgICA8ZyBpZD0iR3JvdXAtOCIgdHJhbnNmb3JtPSJ0cmFuc2xhdGUoMTguMDAwMDAwLCAyNC4wMDAwMDApIj4KICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxnIGlkPSJHcm91cC02IiB0cmFuc2Zvcm09InRyYW5zbGF0ZSgwLjAwMDAwMCwgOTUuMDAwMDAwKSIgZmlsbD0iIzAwMDAwMCIgZmlsbC1vcGFjaXR5PSIwLjA4Ij4KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8ZyBpZD0iUmVjdGFuZ2xlLTQiPgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8cmVjdCB4PSIwIiB5PSIwIiB3aWR0aD0iOTAuNDM0NzgyNiIgaGVpZ2h0PSI5IiByeD0iNCI+PC9yZWN0PgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8cmVjdCB4PSIxMDEuNzM5MTMiIHk9IjAiIHdpZHRoPSI0NS4yMTczOTEzIiBoZWlnaHQ9IjkiIHJ4PSI0Ij48L3JlY3Q+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxyZWN0IHg9IjE1OC4yNjA4NyIgeT0iMCIgd2lkdGg9IjQ5LjczOTEzMDQiIGhlaWdodD0iOSIgcng9IjQiPjwvcmVjdD4KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8L2c+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICA8L2c+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICA8ZyBpZD0iR3JvdXAtNiIgdHJhbnNmb3JtPSJ0cmFuc2xhdGUoMC4wMDAwMDAsIDExMi43OTI0NTMpIiBmaWxsPSIjMDAwMDAwIiBmaWxsLW9wYWNpdHk9IjAuMDgiPgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxnIGlkPSJSZWN0YW5nbGUtNCI+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxyZWN0IHg9IjAiIHk9IjAiIHdpZHRoPSI5MC40MzQ3ODI2IiBoZWlnaHQ9IjkiIHJ4PSI0Ij48L3JlY3Q+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxyZWN0IHg9IjEwMS43MzkxMyIgeT0iMCIgd2lkdGg9IjQ1LjIxNzM5MTMiIGhlaWdodD0iOSIgcng9IjQiPjwvcmVjdD4KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPHJlY3QgeD0iMTU4LjI2MDg3IiB5PSIwIiB3aWR0aD0iNDkuNzM5MTMwNCIgaGVpZ2h0PSI5IiByeD0iNCI+PC9yZWN0PgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDwvZz4KICAgICAgICAgICAgICAgICAgICAgICAgICAgIDwvZz4KICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxnIGlkPSJHcm91cC0xMyI+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPGcgaWQ9Ikdyb3VwLTIiIHN0cm9rZS1saW5lY2FwPSJzcXVhcmUiPgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8cGF0aCBkPSJNMS45NzE1NjM5OCw3OC41IEwyMDYuMDIzNjc0LDc4LjUiIGlkPSJMaW5lIiBzdHJva2U9IiNERkRGREYiPjwvcGF0aD4KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPHBhdGggZD0iTTEuOTcxNTYzOTgsNTguNSBMMjA2LjAyMzY3NCw1OC41IiBpZD0iTGluZSIgc3Ryb2tlPSIjREZERkRGIj48L3BhdGg+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxwYXRoIGQ9Ik0xLjk3MTU2Mzk4LDM5LjUgTDIwNi4wMjM2NzQsMzkuNSIgaWQ9IkxpbmUiIHN0cm9rZT0iI0RGREZERiI+PC9wYXRoPgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8cGF0aCBkPSJNMS45NzE1NjM5OCwxOS41IEwyMDYuMDIzNjc0LDE5LjUiIGlkPSJMaW5lIiBzdHJva2U9IiNERkRGREYiPjwvcGF0aD4KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPHBhdGggZD0iTTEuOTcxNTYzOTgsMC41IEwyMDYuMDIzNjc0LDAuNSIgaWQ9IkxpbmUiIHN0cm9rZT0iI0RGREZERiI+PC9wYXRoPgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8cGF0aCBkPSJNMTM4LjUwOTUxMywwIEwxMzguNTA5NTEzLDgwIiBpZD0iTGluZS02IiBzdHJva2Utb3BhY2l0eT0iMC4wNCIgc3Ryb2tlPSIjMDAwMDAwIj48L3BhdGg+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxwYXRoIGQ9Ik0xLjQ4NTgxNjMzLDAgTDEuNDg1ODE2MzMsODAiIGlkPSJMaW5lLTYiIHN0cm9rZS1vcGFjaXR5PSIwLjA0IiBzdHJva2U9IiMwMDAwMDAiPjwvcGF0aD4KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPHBhdGggZD0iTTM1Ljk4ODE4NiwwIEwzNS45ODgxODYsODAiIGlkPSJMaW5lLTYiIHN0cm9rZS1vcGFjaXR5PSIwLjA0IiBzdHJva2U9IiMwMDAwMDAiPjwvcGF0aD4KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPHBhdGggZD0iTTE3Mi4wMjYxMDEsMCBMMTcyLjAyNjEwMSw4MCIgaWQ9IkxpbmUtNiIgc3Ryb2tlLW9wYWNpdHk9IjAuMDQiIHN0cm9rZT0iIzAwMDAwMCI+PC9wYXRoPgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8cGF0aCBkPSJNMTA0LjAwNzE0MywwIEwxMDQuMDA3MTQzLDgwIiBpZD0iTGluZS02IiBzdHJva2Utb3BhY2l0eT0iMC4wNCIgc3Ryb2tlPSIjMDAwMDAwIj48L3BhdGg+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxwYXRoIGQ9Ik0yMDYuNTI4NDcsMCBMMjA2LjUyODQ3LDgwIiBpZD0iTGluZS02IiBzdHJva2Utb3BhY2l0eT0iMC4wNCIgc3Ryb2tlPSIjMDAwMDAwIj48L3BhdGg+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxwYXRoIGQ9Ik02OS41MDQ3NzM3LDAgTDY5LjUwNDc3MzcsODAiIGlkPSJMaW5lLTYiIHN0cm9rZS1vcGFjaXR5PSIwLjA0IiBzdHJva2U9IiMwMDAwMDAiPjwvcGF0aD4KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8L2c+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPGcgaWQ9Ikdyb3VwLTciIHRyYW5zZm9ybT0idHJhbnNsYXRlKDcuMDAwMDAwLCAyLjAwMDAwMCkiPgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8ZyBpZD0iR3JvdXAtNCIgZmlsbD0iIzU3QUFGOCIgZmlsbC1vcGFjaXR5PSIwLjUiIHN0cm9rZT0iIzU3QUFGOCI+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8ZWxsaXBzZSBpZD0iT3ZhbC0yIiBjeD0iMi42MTAwODk5MyIgY3k9IjQwLjIyMTY3MzUiIHJ4PSIyLjYxMDA4OTkzIiByeT0iMi42MTE3OTY5OCI+PC9lbGxpcHNlPgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPGVsbGlwc2UgaWQ9Ik92YWwtMiIgY3g9IjgwLjQ5MjM5NzEiIGN5PSIzNC4zMjQ0MTk1IiByeD0iMi42MTAwODk5MyIgcnk9IjIuNjExNzk2OTgiPjwvZWxsaXBzZT4KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxlbGxpcHNlIGlkPSJPdmFsLTIiIGN4PSIxMi4wODc3MTU2IiBjeT0iMjAuODYzMTIzNiIgcng9IjIuNjEwMDg5OTMiIHJ5PSIyLjYxMTc5Njk4Ij48L2VsbGlwc2U+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8ZWxsaXBzZSBpZD0iT3ZhbC0yIiBjeD0iNjEuMjAyMDIzMSIgY3k9IjIzLjI3NTk5NzQiIHJ4PSIyLjYxMDA4OTkzIiByeT0iMi42MTE3OTY5OCI+PC9lbGxpcHNlPgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPGVsbGlwc2UgaWQ9Ik92YWwtMiIgY3g9IjIyLjQ0Njc3MzQiIGN5PSIzMi45MDg2NDIiIHJ4PSIyLjYxMDA4OTkzIiByeT0iMi42MTE3OTY5OCI+PC9lbGxpcHNlPgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPGVsbGlwc2UgaWQ9Ik92YWwtMiIgY3g9IjgyLjgzNzkxNDkiIGN5PSI0OC44OTYxODA0IiByeD0iMi42MTAwODk5MyIgcnk9IjIuNjExNzk2OTgiPjwvZWxsaXBzZT4KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxlbGxpcHNlIGlkPSJPdmFsLTIiIGN4PSIyNi42MjI5MTcyIiBjeT0iMTYuMTkzMTQxMyIgcng9IjIuNjEwMDg5OTMiIHJ5PSIyLjYxMTc5Njk4Ij48L2VsbGlwc2U+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8ZWxsaXBzZSBpZD0iT3ZhbC0yIiBjeD0iOTIuNDIxOTcwNSIgY3k9IjI0Ljc5OTkxNzciIHJ4PSIyLjYxMDA4OTkzIiByeT0iMi42MTE3OTY5OCI+PC9lbGxpcHNlPgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPGVsbGlwc2UgaWQ9Ik92YWwtMiIgY3g9IjMxLjg0MzA5NzEiIGN5PSIzMS44NjM5MjMyIiByeD0iMi42MTAwODk5MyIgcnk9IjIuNjExNzk2OTgiPjwvZWxsaXBzZT4KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxlbGxpcHNlIGlkPSJPdmFsLTIiIGN4PSI5OC4zODY3NTcyIiBjeT0iMzUuODQ4MzM5OCIgcng9IjIuNjEwMDg5OTMiIHJ5PSIyLjYxMTc5Njk4Ij48L2VsbGlwc2U+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8ZWxsaXBzZSBpZD0iT3ZhbC0yIiBjeD0iMjQuNTM0ODQ1MyIgY3k9IjQzLjM1NTgyOTkiIHJ4PSIyLjYxMDA4OTkzIiByeT0iMi42MTE3OTY5OCI+PC9lbGxpcHNlPgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPGVsbGlwc2UgaWQ9Ik92YWwtMiIgY3g9IjEwNC45MjU2MTUiIGN5PSIyMC4zNzIwMTY1IiByeD0iMi42MTAwODk5MyIgcnk9IjIuNjExNzk2OTgiPjwvZWxsaXBzZT4KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxlbGxpcHNlIGlkPSJPdmFsLTIiIGN4PSI0My4zMjc0OTI4IiBjeT0iMzcuMDg3NTE3MSIgcng9IjIuNjEwMDg5OTMiIHJ5PSIyLjYxMTc5Njk4Ij48L2VsbGlwc2U+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8ZWxsaXBzZSBpZD0iT3ZhbC0yIiBjeD0iMTEwLjY5NzA2MiIgY3k9IjMyLjgwMDQ5OTIiIHJ4PSIyLjYxMDA4OTkzIiByeT0iMi42MTE3OTY5OCI+PC9lbGxpcHNlPgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPGVsbGlwc2UgaWQ9Ik92YWwtMiIgY3g9IjQzLjMyNzQ5MjgiIGN5PSI1MC42Njg4NjE1IiByeD0iMi42MTAwODk5MyIgcnk9IjIuNjExNzk2OTgiPjwvZWxsaXBzZT4KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxlbGxpcHNlIGlkPSJPdmFsLTIiIGN4PSI0My4zMjc0OTI4IiBjeT0iMjAuMzcyMDE2NSIgcng9IjIuNjEwMDg5OTMiIHJ5PSIyLjYxMTc5Njk4Ij48L2VsbGlwc2U+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8ZWxsaXBzZSBpZD0iT3ZhbC0yIiBjeD0iMTE2LjI4MTExNyIgY3k9IjIuNjExNzk2OTgiIHJ4PSIyLjYxMDA4OTkzIiByeT0iMi42MTE3OTY5OCI+PC9lbGxpcHNlPgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPGVsbGlwc2UgaWQ9Ik92YWwtMiIgY3g9IjU2Ljg5OTk2MDQiIGN5PSI2Ljc5MDY3MjE1IiByeD0iMi42MTAwODk5MyIgcnk9IjIuNjExNzk2OTgiPjwvZWxsaXBzZT4KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxlbGxpcHNlIGlkPSJPdmFsLTIiIGN4PSIxMjIuNjc0MjI2IiBjeT0iMjIuNDYxNDU0IiByeD0iMi42MTAwODk5MyIgcnk9IjIuNjExNzk2OTgiPjwvZWxsaXBzZT4KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxlbGxpcHNlIGlkPSJPdmFsLTIiIGN4PSI3MC40NzI0MjgiIGN5PSI1NC44NDc3MzY2IiByeD0iMi42MTAwODk5MyIgcnk9IjIuNjExNzk2OTgiPjwvZWxsaXBzZT4KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxlbGxpcHNlIGlkPSJPdmFsLTIiIGN4PSI1NC44MTE4ODg0IiBjeT0iNDQuNDAwNTQ4NyIgcng9IjIuNjEwMDg5OTMiIHJ5PSIyLjYxMTc5Njk4Ij48L2VsbGlwc2U+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8ZWxsaXBzZSBpZD0iT3ZhbC0yIiBjeD0iMTE2LjQxMDAxMSIgY3k9IjY2LjMzOTY0MzMiIHJ4PSIyLjYxMDA4OTkzIiByeT0iMi42MTE3OTY5OCI+PC9lbGxpcHNlPgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPGVsbGlwc2UgaWQ9Ik92YWwtMiIgY3g9IjY5LjQyODM5MiIgY3k9IjI5Ljc3NDQ4NTYiIHJ4PSIyLjYxMDA4OTkzIiByeT0iMi42MTE3OTY5OCI+PC9lbGxpcHNlPgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPGVsbGlwc2UgaWQ9Ik92YWwtMiIgY3g9IjEwMi44Mzc1NDMiIGN5PSI2Ljc5MDY3MjE1IiByeD0iMi42MTAwODk5MyIgcnk9IjIuNjExNzk2OTgiPjwvZWxsaXBzZT4KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxlbGxpcHNlIGlkPSJPdmFsLTIiIGN4PSIxMzguMzM0NzY2IiBjeT0iNTAuNjY4ODYxNSIgcng9IjIuNjEwMDg5OTMiIHJ5PSIyLjYxMTc5Njk4Ij48L2VsbGlwc2U+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8ZWxsaXBzZSBpZD0iT3ZhbC0yIiBjeD0iMTY5LjYxMDA5IiBjeT0iMzEuNjExNzk3IiByeD0iMi42MTAwODk5MyIgcnk9IjIuNjExNzk2OTgiPjwvZWxsaXBzZT4KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxlbGxpcHNlIGlkPSJPdmFsLTIiIGN4PSIxNjkuNjEwMDkiIGN5PSI0Ni42MTE3OTciIHJ4PSIyLjYxMDA4OTkzIiByeT0iMi42MTE3OTY5OCI+PC9lbGxpcHNlPgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPGVsbGlwc2UgaWQ9Ik92YWwtMiIgY3g9IjE0OC42MTAwOSIgY3k9IjQwLjYxMTc5NyIgcng9IjIuNjEwMDg5OTMiIHJ5PSIyLjYxMTc5Njk4Ij48L2VsbGlwc2U+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8ZWxsaXBzZSBpZD0iT3ZhbC0yIiBjeD0iMTYyLjYxMDA5IiBjeT0iNDEuNjExNzk3IiByeD0iMi42MTAwODk5MyIgcnk9IjIuNjExNzk2OTgiPjwvZWxsaXBzZT4KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxlbGxpcHNlIGlkPSJPdmFsLTIiIGN4PSIxNzcuNjEwMDkiIGN5PSI0OS42MTE3OTciIHJ4PSIyLjYxMDA4OTkzIiByeT0iMi42MTE3OTY5OCI+PC9lbGxpcHNlPgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8L2c+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxnIGlkPSJHcm91cC00IiB0cmFuc2Zvcm09InRyYW5zbGF0ZSgyLjAyNzk4NCwgMTIuMTY3OTAxKSIgZmlsbD0iIzMyQzZERSIgZmlsbC1vcGFjaXR5PSIwLjQiIHN0cm9rZT0iIzMyQzZERSI+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8ZWxsaXBzZSBpZD0iT3ZhbC0yIiBjeD0iMi42MTE3OTY5OCIgY3k9IjQwLjc2MDIxMDEiIHJ4PSIyLjYxMTc5Njk4IiByeT0iMi42MTgwOTM1Ij48L2VsbGlwc2U+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8ZWxsaXBzZSBpZD0iT3ZhbC0yIiBjeD0iNzcuODMxNTUwMSIgY3k9IjM5LjI3MTQwMjYiIHJ4PSIyLjYxMTc5Njk4IiByeT0iMi42MTgwOTM1Ij48L2VsbGlwc2U+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8ZWxsaXBzZSBpZD0iT3ZhbC0yIiBjeD0iOC45NjE0NjQ4NiIgY3k9IjI1LjczODg2NzYiIHJ4PSIyLjYxMTc5Njk4IiByeT0iMi42MTgwOTM1Ij48L2VsbGlwc2U+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8ZWxsaXBzZSBpZD0iT3ZhbC0yIiBjeD0iMzkuMTc2OTU0NyIgY3k9IjMwLjg5MzUwMzMiIHJ4PSIyLjYxMTc5Njk4IiByeT0iMi42MTgwOTM1Ij48L2VsbGlwc2U+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8ZWxsaXBzZSBpZD0iT3ZhbC0yIiBjeD0iMTQuOTMwMTUyNyIgY3k9IjMxLjIxMjc0NjYiIHJ4PSIyLjYxMTc5Njk4IiByeT0iMi42MTgwOTM1Ij48L2VsbGlwc2U+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8ZWxsaXBzZSBpZD0iT3ZhbC0yIiBjeD0iODIuMDEwNDI1MiIgY3k9IjIxLjQ2ODM2NjciIHJ4PSIyLjYxMTc5Njk4IiByeT0iMi42MTgwOTM1Ij48L2VsbGlwc2U+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8ZWxsaXBzZSBpZD0iT3ZhbC0yIiBjeD0iMTcuOTc3OTkzMiIgY3k9IjI1LjEwMjM3IiByeD0iMi42MTE3OTY5OCIgcnk9IjIuNjE4MDkzNSI+PC9lbGxpcHNlPgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPGVsbGlwc2UgaWQ9Ik92YWwtMiIgY3g9IjkxLjQxMjg5NDQiIGN5PSIyNS42NTczMTYzIiByeD0iMi42MTE3OTY5OCIgcnk9IjIuNjE4MDkzNSI+PC9lbGxpcHNlPgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPGVsbGlwc2UgaWQ9Ik92YWwtMiIgY3g9IjI1LjU5NTYxMDQiIGN5PSI1Mi44ODU0ODg4IiByeD0iMi42MTE3OTY5OCIgcnk9IjIuNjE4MDkzNSI+PC9lbGxpcHNlPgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPGVsbGlwc2UgaWQ9Ik92YWwtMiIgY3g9Ijk1LjMxNjk0OCIgY3k9IjQwLjc2MDIxMDEiIHJ4PSIyLjYxMTc5Njk4IiByeT0iMi42MTgwOTM1Ij48L2VsbGlwc2U+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8ZWxsaXBzZSBpZD0iT3ZhbC0yIiBjeD0iNzUuNzQyMTEyNSIgY3k9IjMwLjg5MzUwMzMiIHJ4PSIyLjYxMTc5Njk4IiByeT0iMi42MTgwOTM1Ij48L2VsbGlwc2U+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8ZWxsaXBzZSBpZD0iT3ZhbC0yIiBjeD0iMzEuODIwMjY5MiIgY3k9IjM1Ljc5NTUyOTEiIHJ4PSIyLjYxMTc5Njk4IiByeT0iMi42MTgwOTM1Ij48L2VsbGlwc2U+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8ZWxsaXBzZSBpZD0iT3ZhbC0yIiBjeD0iMzEuODIwMjY5MiIgY3k9IjI1LjczODg2NzYiIHJ4PSIyLjYxMTc5Njk4IiByeT0iMi42MTgwOTM1Ij48L2VsbGlwc2U+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8ZWxsaXBzZSBpZD0iT3ZhbC0yIiBjeD0iMzMuOTUzMzYwOCIgY3k9IjE3LjI3OTQxNzEiIHJ4PSIyLjYxMTc5Njk4IiByeT0iMi42MTgwOTM1Ij48L2VsbGlwc2U+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8ZWxsaXBzZSBpZD0iT3ZhbC0yIiBjeD0iMTA3LjA4MzY3NiIgY3k9IjU5LjE2ODkxMzIiIHJ4PSIyLjYxMTc5Njk4IiByeT0iMi42MTgwOTM1Ij48L2VsbGlwc2U+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8ZWxsaXBzZSBpZD0iT3ZhbC0yIiBjeD0iMjAuMzcyMDE2NSIgY3k9IjEyLjA0MzIzMDEiIHJ4PSIyLjYxMTc5Njk4IiByeT0iMi42MTgwOTM1Ij48L2VsbGlwc2U+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8ZWxsaXBzZSBpZD0iT3ZhbC0yIiBjeD0iMTEyLjMwNzI3IiBjeT0iMzkuMjcxNDAyNiIgcng9IjIuNjExNzk2OTgiIHJ5PSIyLjYxODA5MzUiPjwvZWxsaXBzZT4KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxlbGxpcHNlIGlkPSJPdmFsLTIiIGN4PSI1MS43MTM1ODAyIiBjeT0iMzguMjI0MTY1MSIgcng9IjIuNjExNzk2OTgiIHJ5PSIyLjYxODA5MzUiPjwvZWxsaXBzZT4KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxlbGxpcHNlIGlkPSJPdmFsLTIiIGN4PSIzOS4xNzY5NTQ3IiBjeT0iMjEuNDY4MzY2NyIgcng9IjIuNjExNzk2OTgiIHJ5PSIyLjYxODA5MzUiPjwvZWxsaXBzZT4KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxlbGxpcHNlIGlkPSJPdmFsLTIiIGN4PSI5OS43NzA2NDQ3IiBjeT0iNTcuMDc0NDM4NCIgcng9IjIuNjExNzk2OTgiIHJ5PSIyLjYxODA5MzUiPjwvZWxsaXBzZT4KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxlbGxpcHNlIGlkPSJPdmFsLTIiIGN4PSI1MS42MzEyMzMiIGN5PSIxOS4zNzM4OTE5IiByeD0iMi42MTE3OTY5OCIgcnk9IjIuNjE4MDkzNSI+PC9lbGxpcHNlPgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPGVsbGlwc2UgaWQ9Ik92YWwtMiIgY3g9IjY2LjMzOTY0MzMiIGN5PSIyLjYxODA5MzUiIHJ4PSIyLjYxMTc5Njk4IiByeT0iMi42MTgwOTM1Ij48L2VsbGlwc2U+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8ZWxsaXBzZSBpZD0iT3ZhbC0yIiBjeD0iODIuMDEwNDI1MiIgY3k9IjQ3LjY0OTMwMTgiIHJ4PSIyLjYxMTc5Njk4IiByeT0iMi42MTgwOTM1Ij48L2VsbGlwc2U+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8ZWxsaXBzZSBpZD0iT3ZhbC0yIiBjeD0iNDYuNDg5OTg2MyIgY3k9IjMxLjk0MDc0MDciIHJ4PSIyLjYxMTc5Njk4IiByeT0iMi42MTgwOTM1Ij48L2VsbGlwc2U+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8ZWxsaXBzZSBpZD0iT3ZhbC0yIiBjeD0iNTMuODAzMDE3OCIgY3k9IjI2LjcwNDU1MzciIHJ4PSIyLjYxMTc5Njk4IiByeT0iMi42MTgwOTM1Ij48L2VsbGlwc2U+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8ZWxsaXBzZSBpZD0iT3ZhbC0yIiBjeD0iMTI2LjMwMzMyNyIgY3k9IjQzLjgxNTM5ODUiIHJ4PSIyLjYxMTc5Njk4IiByeT0iMi42MTgwOTM1Ij48L2VsbGlwc2U+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8ZWxsaXBzZSBpZD0iT3ZhbC0yIiBjeD0iNTkuMDI2NjExOCIgY3k9IjUwLjc5MTAxNCIgcng9IjIuNjExNzk2OTgiIHJ5PSIyLjYxODA5MzUiPjwvZWxsaXBzZT4KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxlbGxpcHNlIGlkPSJPdmFsLTIiIGN4PSI2NC40NTc1NjIxIiBjeT0iMjUuNzM4ODY3NiIgcng9IjIuNjExNzk2OTgiIHJ5PSIyLjYxODA5MzUiPjwvZWxsaXBzZT4KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxlbGxpcHNlIGlkPSJPdmFsLTIiIGN4PSIxMzUuMjkxMDg0IiBjeT0iNjEuMjYzMzg4IiByeD0iMi42MTE3OTY5OCIgcnk9IjIuNjE4MDkzNSI+PC9lbGxpcHNlPgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPGVsbGlwc2UgaWQ9Ik92YWwtMiIgY3g9IjE1NC42MTE3OTciIGN5PSIzOC42MTgwOTM1IiByeD0iMi42MTE3OTY5OCIgcnk9IjIuNjE4MDkzNSI+PC9lbGxpcHNlPgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPGVsbGlwc2UgaWQ9Ik92YWwtMiIgY3g9IjE4MS42MTE3OTciIGN5PSIyMy42MTgwOTM1IiByeD0iMi42MTE3OTY5OCIgcnk9IjIuNjE4MDkzNSI+PC9lbGxpcHNlPgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPGVsbGlwc2UgaWQ9Ik92YWwtMiIgY3g9IjE5MS42MTE3OTciIGN5PSI0MC42MTgwOTM1IiByeD0iMi42MTE3OTY5OCIgcnk9IjIuNjE4MDkzNSI+PC9lbGxpcHNlPgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPGVsbGlwc2UgaWQ9Ik92YWwtMiIgY3g9IjE2My42MTE3OTciIGN5PSI1LjYxODA5MzUiIHJ4PSIyLjYxMTc5Njk4IiByeT0iMi42MTgwOTM1Ij48L2VsbGlwc2U+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8ZWxsaXBzZSBpZD0iT3ZhbC0yIiBjeD0iMTY4LjYxMTc5NyIgY3k9IjI2LjYxODA5MzUiIHJ4PSIyLjYxMTc5Njk4IiByeT0iMi42MTgwOTM1Ij48L2VsbGlwc2U+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8ZWxsaXBzZSBpZD0iT3ZhbC0yIiBjeD0iMTQ0LjYxMTc5NyIgY3k9IjM2LjYxODA5MzUiIHJ4PSIyLjYxMTc5Njk4IiByeT0iMi42MTgwOTM1Ij48L2VsbGlwc2U+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDwvZz4KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8L2c+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICA8L2c+CiAgICAgICAgICAgICAgICAgICAgICAgIDwvZz4KICAgICAgICAgICAgICAgICAgICA8L2c+CiAgICAgICAgICAgICAgICA8L2c+CiAgICAgICAgICAgIDwvZz4KICAgICAgICA8L2c+CiAgICA8L2c+Cjwvc3ZnPg==</t>
   </si>
   <si>
+    <t>deploy-duration</t>
+  </si>
+  <si>
     <t>部署时长图</t>
   </si>
   <si>
+    <t>部署时长图eng</t>
+  </si>
+  <si>
     <t>展示该项目下某一环境中各个应用部署时长等部署相关的信息。这将帮助您了解各个应用的部署情况。</t>
   </si>
   <si>
@@ -2025,9 +2070,15 @@
     <t>data:image/svg+xml;base64,PD94bWwgdmVyc2lvbj0iMS4wIiBlbmNvZGluZz0iVVRGLTgiPz4KPHN2ZyB3aWR0aD0iMjA4cHgiIGhlaWdodD0iMTIzcHgiIHZpZXdCb3g9IjAgMCAyMDggMTIzIiB2ZXJzaW9uPSIxLjEiIHhtbG5zPSJodHRwOi8vd3d3LnczLm9yZy8yMDAwL3N2ZyIgeG1sbnM6eGxpbms9Imh0dHA6Ly93d3cudzMub3JnLzE5OTkveGxpbmsiPgogICAgPHRpdGxlPkdyb3VwIDg8L3RpdGxlPgogICAgPGcgaWQ9IuaKpeihqCIgc3Ryb2tlPSJub25lIiBzdHJva2Utd2lkdGg9IjEiIGZpbGw9Im5vbmUiIGZpbGwtcnVsZT0iZXZlbm9kZCI+CiAgICAgICAgPGcgaWQ9Iui/kOiQpS3miqXooagiIHRyYW5zZm9ybT0idHJhbnNsYXRlKC04OTAuMDAwMDAwLCAtMTk1Ny4wMDAwMDApIj4KICAgICAgICAgICAgPGcgaWQ9IuaJgOacieaKpeihqO+8jeeHg+WwveWbviIgdHJhbnNmb3JtPSJ0cmFuc2xhdGUoODU0LjAwMDAwMCwgMTkxNS4wMDAwMDApIj4KICAgICAgICAgICAgICAgIDxnIGlkPSJHcm91cCIgdHJhbnNmb3JtPSJ0cmFuc2xhdGUoMTguMDAwMDAwLCAxOC4wMDAwMDApIj4KICAgICAgICAgICAgICAgICAgICA8ZyBpZD0iR3JvdXAtOCIgdHJhbnNmb3JtPSJ0cmFuc2xhdGUoMTguMDAwMDAwLCAyNS4wMDAwMDApIj4KICAgICAgICAgICAgICAgICAgICAgICAgPGcgaWQ9Iue8lue7hCIgdHJhbnNmb3JtPSJ0cmFuc2xhdGUoMC4wMDAwMDAsIDk2LjAwMDAwMCkiIGZpbGw9IiMwMDAwMDAiIGZpbGwtb3BhY2l0eT0iMC4wOCI+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICA8ZyBpZD0iUmVjdGFuZ2xlLTQiPgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxyZWN0IHg9IjAiIHk9IjAiIHdpZHRoPSI5MC40MzQ3ODI2IiBoZWlnaHQ9IjkiIHJ4PSI0Ij48L3JlY3Q+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPHJlY3QgeD0iMTAxLjczOTEzIiB5PSIwIiB3aWR0aD0iNDUuMjE3MzkxMyIgaGVpZ2h0PSI5IiByeD0iNCI+PC9yZWN0PgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxyZWN0IHg9IjE1OC4yNjA4NyIgeT0iMCIgd2lkdGg9IjQ5LjczOTEzMDQiIGhlaWdodD0iOSIgcng9IjQiPjwvcmVjdD4KICAgICAgICAgICAgICAgICAgICAgICAgICAgIDwvZz4KICAgICAgICAgICAgICAgICAgICAgICAgPC9nPgogICAgICAgICAgICAgICAgICAgICAgICA8ZyBpZD0i57yW57uEIiB0cmFuc2Zvcm09InRyYW5zbGF0ZSgwLjAwMDAwMCwgMTEzLjAwMDAwMCkiIGZpbGw9IiMwMDAwMDAiIGZpbGwtb3BhY2l0eT0iMC4wOCI+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICA8ZyBpZD0iUmVjdGFuZ2xlLTQiPgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxyZWN0IHg9IjAiIHk9IjAiIHdpZHRoPSI5MC40MzQ3ODI2IiBoZWlnaHQ9IjkiIHJ4PSI0Ij48L3JlY3Q+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPHJlY3QgeD0iMTAxLjczOTEzIiB5PSIwIiB3aWR0aD0iNDUuMjE3MzkxMyIgaGVpZ2h0PSI5IiByeD0iNCI+PC9yZWN0PgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxyZWN0IHg9IjE1OC4yNjA4NyIgeT0iMCIgd2lkdGg9IjQ5LjczOTEzMDQiIGhlaWdodD0iOSIgcng9IjQiPjwvcmVjdD4KICAgICAgICAgICAgICAgICAgICAgICAgICAgIDwvZz4KICAgICAgICAgICAgICAgICAgICAgICAgPC9nPgogICAgICAgICAgICAgICAgICAgICAgICA8ZyBpZD0iR3JvdXAtMTMiPgogICAgICAgICAgICAgICAgICAgICAgICAgICAgPGcgaWQ9Ikdyb3VwLTIiIHN0cm9rZS1saW5lY2FwPSJzcXVhcmUiPgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxsaW5lIHgxPSIxLjk3MTU2Mzk4IiB5MT0iNzguNSIgeDI9IjIwNi4wMjM2NzQiIHkyPSI3OC41IiBpZD0iTGluZSIgc3Ryb2tlPSIjREZERkRGIj48L2xpbmU+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPGxpbmUgeDE9IjEuOTcxNTYzOTgiIHkxPSI1OC41IiB4Mj0iMjA2LjAyMzY3NCIgeTI9IjU4LjUiIGlkPSJMaW5lIiBzdHJva2U9IiNERkRGREYiPjwvbGluZT4KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8bGluZSB4MT0iMS45NzE1NjM5OCIgeTE9IjM5LjUiIHgyPSIyMDYuMDIzNjc0IiB5Mj0iMzkuNSIgaWQ9IkxpbmUiIHN0cm9rZT0iI0RGREZERiI+PC9saW5lPgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxsaW5lIHgxPSIxLjk3MTU2Mzk4IiB5MT0iMTkuNSIgeDI9IjIwNi4wMjM2NzQiIHkyPSIxOS41IiBpZD0iTGluZSIgc3Ryb2tlPSIjREZERkRGIj48L2xpbmU+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPGxpbmUgeDE9IjEuOTcxNTYzOTgiIHkxPSIwLjUiIHgyPSIyMDYuMDIzNjc0IiB5Mj0iMC41IiBpZD0iTGluZSIgc3Ryb2tlPSIjREZERkRGIj48L2xpbmU+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPGxpbmUgeDE9IjEzOC41MDk1MTMiIHkxPSIwIiB4Mj0iMTM4LjUwOTUxMyIgeTI9IjgwIiBpZD0iTGluZS02IiBzdHJva2Utb3BhY2l0eT0iMC4wNCIgc3Ryb2tlPSIjMDAwMDAwIj48L2xpbmU+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPGxpbmUgeDE9IjEuNDg1ODE2MzMiIHkxPSIwIiB4Mj0iMS40ODU4MTYzMyIgeTI9IjgwIiBpZD0iTGluZS02IiBzdHJva2Utb3BhY2l0eT0iMC4wNCIgc3Ryb2tlPSIjMDAwMDAwIj48L2xpbmU+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPGxpbmUgeDE9IjM1Ljk4ODE4NiIgeTE9IjAiIHgyPSIzNS45ODgxODYiIHkyPSI4MCIgaWQ9IkxpbmUtNiIgc3Ryb2tlLW9wYWNpdHk9IjAuMDQiIHN0cm9rZT0iIzAwMDAwMCI+PC9saW5lPgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxsaW5lIHgxPSIxNzIuMDI2MTAxIiB5MT0iMCIgeDI9IjE3Mi4wMjYxMDEiIHkyPSI4MCIgaWQ9IkxpbmUtNiIgc3Ryb2tlLW9wYWNpdHk9IjAuMDQiIHN0cm9rZT0iIzAwMDAwMCI+PC9saW5lPgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxsaW5lIHgxPSIxMDQuMDA3MTQzIiB5MT0iMCIgeDI9IjEwNC4wMDcxNDMiIHkyPSI4MCIgaWQ9IkxpbmUtNiIgc3Ryb2tlLW9wYWNpdHk9IjAuMDQiIHN0cm9rZT0iIzAwMDAwMCI+PC9saW5lPgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxsaW5lIHgxPSIyMDYuNTI4NDciIHkxPSIwIiB4Mj0iMjA2LjUyODQ3IiB5Mj0iODAiIGlkPSJMaW5lLTYiIHN0cm9rZS1vcGFjaXR5PSIwLjA0IiBzdHJva2U9IiMwMDAwMDAiPjwvbGluZT4KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8bGluZSB4MT0iNjkuNTA0NzczNyIgeTE9IjAiIHgyPSI2OS41MDQ3NzM3IiB5Mj0iODAiIGlkPSJMaW5lLTYiIHN0cm9rZS1vcGFjaXR5PSIwLjA0IiBzdHJva2U9IiMwMDAwMDAiPjwvbGluZT4KICAgICAgICAgICAgICAgICAgICAgICAgICAgIDwvZz4KICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxnIGlkPSJjaGFydCIgdHJhbnNmb3JtPSJ0cmFuc2xhdGUoMjUuMDAwMDAwLCA4LjAwMDAwMCkiIGZpbGwtb3BhY2l0eT0iMC42Ij4KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8ZyBpZD0iR3JvdXAtOSI+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxwYXRoIGQ9Ik0yLjg0NTM2NzM1LDAuMzI5NDExNzY1IEw2Ljg0NTM2NzM1LDAuMzI5NDExNzY1IEM3Ljk0OTkzNjg1LDAuMzI5NDExNzY1IDguODQ1MzY3MzUsMS4yMjQ4NDIyNyA4Ljg0NTM2NzM1LDIuMzI5NDExNzYgTDguODQ1MzY3MzUsNzAuMzI5NDExOCBMOC44NDUzNjczNSw3MC4zMjk0MTE4IEwwLjg0NTM2NzM1NCw3MC4zMjk0MTE4IEwwLjg0NTM2NzM1NCwyLjMyOTQxMTc2IEMwLjg0NTM2NzM1NCwxLjIyNDg0MjI3IDEuNzQwNzk3ODUsMC4zMjk0MTE3NjUgMi44NDUzNjczNSwwLjMyOTQxMTc2NSBaIiBpZD0iUmVjdGFuZ2xlLTMiIGZpbGw9IiMxRkMyQkIiPjwvcGF0aD4KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPHBhdGggZD0iTTE0Ljg0NTM2NzQsNTYuODI5NDExOCBMMTguODQ1MzY3NCw1Ni44Mjk0MTE4IEMxOS45NDk5MzY5LDU2LjgyOTQxMTggMjAuODQ1MzY3NCw1Ny43MjQ4NDIzIDIwLjg0NTM2NzQsNTguODI5NDExOCBMMjAuODQ1MzY3NCw3MC4zMjk0MTE4IEwyMC44NDUzNjc0LDcwLjMyOTQxMTggTDEyLjg0NTM2NzQsNzAuMzI5NDExOCBMMTIuODQ1MzY3NCw1OC44Mjk0MTE4IEMxMi44NDUzNjc0LDU3LjcyNDg0MjMgMTMuNzQwNzk3OSw1Ni44Mjk0MTE4IDE0Ljg0NTM2NzQsNTYuODI5NDExOCBaIiBpZD0iUmVjdGFuZ2xlLTMiIGZpbGw9IiNGRDcyOUMiPjwvcGF0aD4KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPHBhdGggZD0iTTM2LjM0NTM2NzQsMzUuNjI0MjgxNSBMNDAuMzQ1MzY3NCwzNS42MjQyODE1IEM0MS40NDk5MzY5LDM1LjYyNDI4MTUgNDIuMzQ1MzY3NCwzNi41MTk3MTIgNDIuMzQ1MzY3NCwzNy42MjQyODE1IEw0Mi4zNDUzNjc0LDcwLjMyOTQxMTggTDQyLjM0NTM2NzQsNzAuMzI5NDExOCBMMzQuMzQ1MzY3NCw3MC4zMjk0MTE4IEwzNC4zNDUzNjc0LDM3LjYyNDI4MTUgQzM0LjM0NTM2NzQsMzYuNTE5NzEyIDM1LjI0MDc5NzksMzUuNjI0MjgxNSAzNi4zNDUzNjc0LDM1LjYyNDI4MTUgWiIgaWQ9IlJlY3RhbmdsZS0zIiBmaWxsPSIjMUZDMkJCIj48L3BhdGg+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxwYXRoIGQ9Ik00OC4zNDUzNjc0LDQ5LjkyOTQxMTggTDUyLjM0NTM2NzQsNDkuOTI5NDExOCBDNTMuNDQ5OTM2OSw0OS45Mjk0MTE4IDU0LjM0NTM2NzQsNTAuODI0ODQyMyA1NC4zNDUzNjc0LDUxLjkyOTQxMTggTDU0LjM0NTM2NzQsNzAuMzI5NDExOCBMNTQuMzQ1MzY3NCw3MC4zMjk0MTE4IEw0Ni4zNDUzNjc0LDcwLjMyOTQxMTggTDQ2LjM0NTM2NzQsNTEuOTI5NDExOCBDNDYuMzQ1MzY3NCw1MC44MjQ4NDIzIDQ3LjI0MDc5NzksNDkuOTI5NDExOCA0OC4zNDUzNjc0LDQ5LjkyOTQxMTggWiIgaWQ9IlJlY3RhbmdsZS0zIiBmaWxsPSIjRkQ3MjlDIj48L3BhdGg+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxwYXRoIGQ9Ik03MS4zNDUzNjc0LDIyLjMyOTQxMTggTDc1LjM0NTM2NzQsMjIuMzI5NDExOCBDNzYuNDQ5OTM2OSwyMi4zMjk0MTE4IDc3LjM0NTM2NzQsMjMuMjI0ODQyMyA3Ny4zNDUzNjc0LDI0LjMyOTQxMTggTDc3LjM0NTM2NzQsNzAuMzI5NDExOCBMNzcuMzQ1MzY3NCw3MC4zMjk0MTE4IEw2OS4zNDUzNjc0LDcwLjMyOTQxMTggTDY5LjM0NTM2NzQsMjQuMzI5NDExOCBDNjkuMzQ1MzY3NCwyMy4yMjQ4NDIzIDcwLjI0MDc5NzksMjIuMzI5NDExOCA3MS4zNDUzNjc0LDIyLjMyOTQxMTggWiIgaWQ9IlJlY3RhbmdsZS0zIiBmaWxsPSIjMUZDMkJCIj48L3BhdGg+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxwYXRoIGQ9Ik04My4zNDUzNjc0LDYwLjEyOTQxMTggTDg3LjM0NTM2NzQsNjAuMTI5NDExOCBDODguNDQ5OTM2OSw2MC4xMjk0MTE4IDg5LjM0NTM2NzQsNjEuMDI0ODQyMyA4OS4zNDUzNjc0LDYyLjEyOTQxMTggTDg5LjM0NTM2NzQsNzAuMzI5NDExOCBMODkuMzQ1MzY3NCw3MC4zMjk0MTE4IEw4MS4zNDUzNjc0LDcwLjMyOTQxMTggTDgxLjM0NTM2NzQsNjIuMTI5NDExOCBDODEuMzQ1MzY3NCw2MS4wMjQ4NDIzIDgyLjI0MDc5NzksNjAuMTI5NDExOCA4My4zNDUzNjc0LDYwLjEyOTQxMTggWiIgaWQ9IlJlY3RhbmdsZS0zIiBmaWxsPSIjRkQ3MjlDIj48L3BhdGg+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxwYXRoIGQ9Ik0xMDUuODQ1MzY3LDM3LjgyOTQxMTggTDEwOS44NDUzNjcsMzcuODI5NDExOCBDMTEwLjk0OTkzNywzNy44Mjk0MTE4IDExMS44NDUzNjcsMzguNzI0ODQyMyAxMTEuODQ1MzY3LDM5LjgyOTQxMTggTDExMS44NDUzNjcsNzAuMzI5NDExOCBMMTExLjg0NTM2Nyw3MC4zMjk0MTE4IEwxMDMuODQ1MzY3LDcwLjMyOTQxMTggTDEwMy44NDUzNjcsMzkuODI5NDExOCBDMTAzLjg0NTM2NywzOC43MjQ4NDIzIDEwNC43NDA3OTgsMzcuODI5NDExOCAxMDUuODQ1MzY3LDM3LjgyOTQxMTggWiIgaWQ9IlJlY3RhbmdsZS0zIiBmaWxsPSIjMUZDMkJCIj48L3BhdGg+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxwYXRoIGQ9Ik0xMTcuODQ1MzY3LDU0LjMyOTQxMTggTDEyMS44NDUzNjcsNTQuMzI5NDExOCBDMTIyLjk0OTkzNyw1NC4zMjk0MTE4IDEyMy44NDUzNjcsNTUuMjI0ODQyMyAxMjMuODQ1MzY3LDU2LjMyOTQxMTggTDEyMy44NDUzNjcsNzAuMzI5NDExOCBMMTIzLjg0NTM2Nyw3MC4zMjk0MTE4IEwxMTUuODQ1MzY3LDcwLjMyOTQxMTggTDExNS44NDUzNjcsNTYuMzI5NDExOCBDMTE1Ljg0NTM2Nyw1NS4yMjQ4NDIzIDExNi43NDA3OTgsNTQuMzI5NDExOCAxMTcuODQ1MzY3LDU0LjMyOTQxMTggWiIgaWQ9IlJlY3RhbmdsZS0zIiBmaWxsPSIjRkQ3MjlDIj48L3BhdGg+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxwYXRoIGQ9Ik0xMzkuMzQ1MzY3LDE1LjgyOTQxMTggTDE0My4zNDUzNjcsMTUuODI5NDExOCBDMTQ0LjQ0OTkzNywxNS44Mjk0MTE4IDE0NS4zNDUzNjcsMTYuNzI0ODQyMyAxNDUuMzQ1MzY3LDE3LjgyOTQxMTggTDE0NS4zNDUzNjcsNzAuMzI5NDExOCBMMTQ1LjM0NTM2Nyw3MC4zMjk0MTE4IEwxMzcuMzQ1MzY3LDcwLjMyOTQxMTggTDEzNy4zNDUzNjcsMTcuODI5NDExOCBDMTM3LjM0NTM2NywxNi43MjQ4NDIzIDEzOC4yNDA3OTgsMTUuODI5NDExOCAxMzkuMzQ1MzY3LDE1LjgyOTQxMTggWiIgaWQ9IlJlY3RhbmdsZS0zIiBmaWxsPSIjMUZDMkJCIj48L3BhdGg+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxwYXRoIGQ9Ik0xNTEuMzQ1MzY3LDU4LjgyOTQxMTggTDE1NS4zNDUzNjcsNTguODI5NDExOCBDMTU2LjQ0OTkzNyw1OC44Mjk0MTE4IDE1Ny4zNDUzNjcsNTkuNzI0ODQyMyAxNTcuMzQ1MzY3LDYwLjgyOTQxMTggTDE1Ny4zNDUzNjcsNzAuMzI5NDExOCBMMTU3LjM0NTM2Nyw3MC4zMjk0MTE4IEwxNDkuMzQ1MzY3LDcwLjMyOTQxMTggTDE0OS4zNDUzNjcsNjAuODI5NDExOCBDMTQ5LjM0NTM2Nyw1OS43MjQ4NDIzIDE1MC4yNDA3OTgsNTguODI5NDExOCAxNTEuMzQ1MzY3LDU4LjgyOTQxMTggWiIgaWQ9IlJlY3RhbmdsZS0zIiBmaWxsPSIjRkQ3MjlDIj48L3BhdGg+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPC9nPgogICAgICAgICAgICAgICAgICAgICAgICAgICAgPC9nPgogICAgICAgICAgICAgICAgICAgICAgICA8L2c+CiAgICAgICAgICAgICAgICAgICAgPC9nPgogICAgICAgICAgICAgICAgPC9nPgogICAgICAgICAgICA8L2c+CiAgICAgICAgPC9nPgogICAgPC9nPgo8L3N2Zz4=</t>
   </si>
   <si>
+    <t>pipelineTrigger-number</t>
+  </si>
+  <si>
     <t>流水线触发次数图</t>
   </si>
   <si>
+    <t>流水线触发次数图eng</t>
+  </si>
+  <si>
     <t>展示了项目下所有应用流水线的执行频率，这将帮助您了解团队持续交付的整体情况。</t>
   </si>
   <si>
@@ -2037,7 +2088,13 @@
     <t>fd_report-8</t>
   </si>
   <si>
+    <t>pipeline-duration</t>
+  </si>
+  <si>
     <t>流水线执行时长图</t>
+  </si>
+  <si>
+    <t>流水线执行时长图eng</t>
   </si>
   <si>
     <t>展示该项目下所有流水线的执行耗时。这将帮助您了解项目下流水线的整体耗时情况。</t>
@@ -2078,9 +2135,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="38">
@@ -2153,14 +2210,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2174,6 +2224,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -2181,23 +2238,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2211,9 +2260,39 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2234,11 +2313,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2259,14 +2338,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -2281,23 +2352,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2379,7 +2436,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2391,13 +2448,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2409,19 +2490,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2433,73 +2520,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2511,25 +2532,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2547,19 +2550,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2729,6 +2786,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -2746,15 +2812,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -2766,43 +2823,28 @@
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2811,103 +2853,118 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="9" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="29" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="16" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="28" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -3374,24 +3431,24 @@
   <dimension ref="A1:H27"/>
   <sheetViews>
     <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.4" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="15.5851851851852" style="6" customWidth="1"/>
+    <col min="1" max="1" width="15.5833333333333" style="6" customWidth="1"/>
     <col min="2" max="2" width="10.3333333333333" style="7" customWidth="1"/>
-    <col min="3" max="3" width="28.0814814814815" customWidth="1"/>
+    <col min="3" max="3" width="28.0833333333333" customWidth="1"/>
     <col min="4" max="4" width="35.3333333333333" style="5" customWidth="1"/>
-    <col min="5" max="5" width="38.5851851851852" customWidth="1"/>
-    <col min="6" max="6" width="23.4148148148148" customWidth="1"/>
-    <col min="7" max="7" width="21.5851851851852" customWidth="1"/>
+    <col min="5" max="5" width="38.5833333333333" customWidth="1"/>
+    <col min="6" max="6" width="23.4166666666667" customWidth="1"/>
+    <col min="7" max="7" width="21.5833333333333" customWidth="1"/>
     <col min="8" max="8" width="22" customWidth="1"/>
-    <col min="9" max="9" width="24.5851851851852" customWidth="1"/>
+    <col min="9" max="9" width="24.5833333333333" customWidth="1"/>
     <col min="10" max="10" width="27" customWidth="1"/>
-    <col min="11" max="11" width="19.0814814814815" customWidth="1"/>
-    <col min="12" max="12" width="18.5851851851852" customWidth="1"/>
-    <col min="13" max="13" width="13.0814814814815" customWidth="1"/>
+    <col min="11" max="11" width="19.0833333333333" customWidth="1"/>
+    <col min="12" max="12" width="18.5833333333333" customWidth="1"/>
+    <col min="13" max="13" width="13.0833333333333" customWidth="1"/>
     <col min="14" max="1025" width="10.3333333333333" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3406,7 +3463,7 @@
       <c r="G1" s="10"/>
       <c r="H1" s="10"/>
     </row>
-    <row r="2" ht="18" spans="5:5">
+    <row r="2" spans="5:5">
       <c r="E2" s="11"/>
     </row>
     <row r="3" ht="49.5" customHeight="1" spans="3:7">
@@ -3420,7 +3477,7 @@
       <c r="F3" s="13"/>
       <c r="G3" s="13"/>
     </row>
-    <row r="4" ht="18" spans="3:7">
+    <row r="4" spans="3:7">
       <c r="C4" s="14" t="s">
         <v>3</v>
       </c>
@@ -3441,7 +3498,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" ht="18" spans="3:5">
+    <row r="7" spans="3:5">
       <c r="C7" s="18" t="s">
         <v>8</v>
       </c>
@@ -3461,7 +3518,7 @@
       </c>
       <c r="E8" s="23"/>
     </row>
-    <row r="9" ht="51.75" spans="3:6">
+    <row r="9" ht="52.2" spans="3:6">
       <c r="C9" s="24" t="s">
         <v>13</v>
       </c>
@@ -3475,7 +3532,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" ht="51.75" spans="3:5">
+    <row r="10" ht="52.2" spans="3:5">
       <c r="C10" s="27" t="s">
         <v>17</v>
       </c>
@@ -3486,7 +3543,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" ht="69" spans="3:5">
+    <row r="11" ht="69.6" spans="3:5">
       <c r="C11" s="21" t="s">
         <v>20</v>
       </c>
@@ -3518,7 +3575,7 @@
       <c r="D14" s="22"/>
       <c r="E14" s="23"/>
     </row>
-    <row r="15" ht="34.5" spans="3:5">
+    <row r="15" ht="34.8" spans="3:5">
       <c r="C15" s="29" t="s">
         <v>26</v>
       </c>
@@ -3541,7 +3598,7 @@
       <c r="D19" s="32"/>
       <c r="E19" s="32"/>
     </row>
-    <row r="20" ht="18" spans="3:4">
+    <row r="20" spans="3:4">
       <c r="C20" s="33" t="s">
         <v>31</v>
       </c>
@@ -3549,7 +3606,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="21" ht="18" spans="3:4">
+    <row r="21" spans="3:4">
       <c r="C21" s="33" t="s">
         <v>33</v>
       </c>
@@ -3557,7 +3614,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="22" ht="18" spans="3:4">
+    <row r="22" spans="3:4">
       <c r="C22" s="33" t="s">
         <v>35</v>
       </c>
@@ -3565,7 +3622,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="23" ht="18" spans="3:4">
+    <row r="23" spans="3:4">
       <c r="C23" s="33" t="s">
         <v>37</v>
       </c>
@@ -3591,7 +3648,7 @@
       </c>
       <c r="E26" s="12"/>
     </row>
-    <row r="27" ht="51.75" spans="3:3">
+    <row r="27" ht="52.2" spans="3:3">
       <c r="C27" s="35" t="s">
         <v>43</v>
       </c>
@@ -3615,24 +3672,25 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M28"/>
+  <dimension ref="A1:P28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I4" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+    <sheetView tabSelected="1" topLeftCell="D4" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.4"/>
   <cols>
-    <col min="2" max="2" width="8.5037037037037" customWidth="1"/>
-    <col min="4" max="4" width="28.5037037037037" customWidth="1"/>
-    <col min="5" max="5" width="20.9185185185185" customWidth="1"/>
-    <col min="6" max="6" width="14.4148148148148" customWidth="1"/>
-    <col min="7" max="7" width="30" customWidth="1"/>
-    <col min="8" max="8" width="16.162962962963" customWidth="1"/>
-    <col min="9" max="9" width="84.7481481481481" customWidth="1"/>
-    <col min="10" max="10" width="33.8296296296296" customWidth="1"/>
-    <col min="11" max="11" width="9.74814814814815" customWidth="1"/>
-    <col min="12" max="12" width="14.5851851851852" customWidth="1"/>
+    <col min="2" max="2" width="8.50694444444444" customWidth="1"/>
+    <col min="4" max="4" width="28.5069444444444" customWidth="1"/>
+    <col min="5" max="5" width="16.75" customWidth="1"/>
+    <col min="6" max="6" width="14.4166666666667" customWidth="1"/>
+    <col min="7" max="8" width="19.6666666666667" customWidth="1"/>
+    <col min="9" max="9" width="16.1597222222222" customWidth="1"/>
+    <col min="10" max="10" width="20.6666666666667" customWidth="1"/>
+    <col min="11" max="12" width="84.75" customWidth="1"/>
+    <col min="13" max="13" width="33.8263888888889" customWidth="1"/>
+    <col min="14" max="14" width="9.75" customWidth="1"/>
+    <col min="15" max="15" width="14.5833333333333" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -3649,7 +3707,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="5:7">
+    <row r="4" spans="5:8">
       <c r="E4" s="2" t="s">
         <v>47</v>
       </c>
@@ -3659,8 +3717,9 @@
       <c r="G4" s="4" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="7" spans="1:13">
+      <c r="H4" s="4"/>
+    </row>
+    <row r="7" spans="1:16">
       <c r="A7" t="s">
         <v>50</v>
       </c>
@@ -3685,10 +3744,10 @@
       <c r="H7" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="I7" t="s">
+      <c r="I7" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="J7" t="s">
+      <c r="J7" s="5" t="s">
         <v>59</v>
       </c>
       <c r="K7" t="s">
@@ -3700,378 +3759,468 @@
       <c r="M7" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="8" spans="5:13">
+      <c r="N7" t="s">
+        <v>63</v>
+      </c>
+      <c r="O7" t="s">
+        <v>64</v>
+      </c>
+      <c r="P7" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="8" spans="5:16">
       <c r="E8" s="5" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="F8" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="G8" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="H8" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="I8" t="s">
+        <v>70</v>
+      </c>
+      <c r="J8" t="s">
+        <v>71</v>
+      </c>
+      <c r="K8" t="s">
+        <v>72</v>
+      </c>
+      <c r="L8" t="s">
+        <v>72</v>
+      </c>
+      <c r="M8" t="s">
+        <v>73</v>
+      </c>
+      <c r="N8">
+        <v>10</v>
+      </c>
+      <c r="O8">
+        <v>60</v>
+      </c>
+      <c r="P8" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="9" spans="5:15">
+      <c r="E9" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="F9" t="s">
         <v>67</v>
       </c>
-      <c r="J8" t="s">
-        <v>68</v>
-      </c>
-      <c r="K8">
-        <v>10</v>
-      </c>
-      <c r="L8">
+      <c r="G9" t="s">
+        <v>76</v>
+      </c>
+      <c r="H9" t="s">
+        <v>77</v>
+      </c>
+      <c r="I9" t="s">
+        <v>78</v>
+      </c>
+      <c r="J9" t="s">
+        <v>79</v>
+      </c>
+      <c r="K9" t="s">
+        <v>80</v>
+      </c>
+      <c r="L9" t="s">
+        <v>80</v>
+      </c>
+      <c r="M9" t="s">
+        <v>81</v>
+      </c>
+      <c r="N9">
+        <v>20</v>
+      </c>
+      <c r="O9">
         <v>60</v>
       </c>
-      <c r="M8" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="9" spans="5:12">
-      <c r="E9" s="5" t="s">
+    </row>
+    <row r="10" spans="5:16">
+      <c r="E10" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="F10" t="s">
+        <v>67</v>
+      </c>
+      <c r="G10" t="s">
+        <v>83</v>
+      </c>
+      <c r="H10" t="s">
+        <v>84</v>
+      </c>
+      <c r="I10" t="s">
+        <v>85</v>
+      </c>
+      <c r="J10" t="s">
+        <v>86</v>
+      </c>
+      <c r="K10" t="s">
+        <v>87</v>
+      </c>
+      <c r="L10" t="s">
+        <v>87</v>
+      </c>
+      <c r="M10" t="s">
+        <v>88</v>
+      </c>
+      <c r="N10">
+        <v>30</v>
+      </c>
+      <c r="O10">
+        <v>60</v>
+      </c>
+      <c r="P10" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="11" spans="5:16">
+      <c r="E11" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="F11" t="s">
+        <v>67</v>
+      </c>
+      <c r="G11" t="s">
+        <v>90</v>
+      </c>
+      <c r="H11" t="s">
+        <v>91</v>
+      </c>
+      <c r="I11" t="s">
+        <v>92</v>
+      </c>
+      <c r="J11" t="s">
+        <v>93</v>
+      </c>
+      <c r="K11" t="s">
+        <v>94</v>
+      </c>
+      <c r="L11" t="s">
+        <v>94</v>
+      </c>
+      <c r="M11" t="s">
+        <v>95</v>
+      </c>
+      <c r="N11">
+        <v>40</v>
+      </c>
+      <c r="O11">
+        <v>60</v>
+      </c>
+      <c r="P11" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="12" spans="5:16">
+      <c r="E12" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="F12" t="s">
+        <v>67</v>
+      </c>
+      <c r="G12" t="s">
+        <v>83</v>
+      </c>
+      <c r="H12" t="s">
+        <v>97</v>
+      </c>
+      <c r="I12" t="s">
+        <v>98</v>
+      </c>
+      <c r="J12" t="s">
+        <v>99</v>
+      </c>
+      <c r="K12" t="s">
+        <v>100</v>
+      </c>
+      <c r="L12" t="s">
+        <v>100</v>
+      </c>
+      <c r="M12" t="s">
+        <v>101</v>
+      </c>
+      <c r="N12">
+        <v>50</v>
+      </c>
+      <c r="O12">
+        <v>60</v>
+      </c>
+      <c r="P12" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="13" spans="5:16">
+      <c r="E13" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="F13" t="s">
+        <v>67</v>
+      </c>
+      <c r="G13" t="s">
+        <v>104</v>
+      </c>
+      <c r="H13" t="s">
+        <v>105</v>
+      </c>
+      <c r="I13" t="s">
+        <v>106</v>
+      </c>
+      <c r="J13" t="s">
+        <v>107</v>
+      </c>
+      <c r="K13" t="s">
+        <v>108</v>
+      </c>
+      <c r="L13" t="s">
+        <v>108</v>
+      </c>
+      <c r="M13" t="s">
+        <v>109</v>
+      </c>
+      <c r="N13">
+        <v>60</v>
+      </c>
+      <c r="O13">
+        <v>60</v>
+      </c>
+      <c r="P13" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="14" spans="5:16">
+      <c r="E14" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="F14" t="s">
+        <v>67</v>
+      </c>
+      <c r="G14" t="s">
+        <v>111</v>
+      </c>
+      <c r="H14" t="s">
+        <v>112</v>
+      </c>
+      <c r="I14" t="s">
+        <v>113</v>
+      </c>
+      <c r="J14" t="s">
+        <v>114</v>
+      </c>
+      <c r="K14" t="s">
+        <v>115</v>
+      </c>
+      <c r="L14" t="s">
+        <v>115</v>
+      </c>
+      <c r="M14" t="s">
+        <v>116</v>
+      </c>
+      <c r="N14">
         <v>70</v>
       </c>
-      <c r="F9" t="s">
-        <v>64</v>
-      </c>
-      <c r="G9" t="s">
-        <v>71</v>
-      </c>
-      <c r="H9" t="s">
-        <v>72</v>
-      </c>
-      <c r="I9" t="s">
-        <v>73</v>
-      </c>
-      <c r="J9" t="s">
+      <c r="O14">
+        <v>70</v>
+      </c>
+      <c r="P14" t="s">
         <v>74</v>
       </c>
-      <c r="K9">
-        <v>20</v>
-      </c>
-      <c r="L9">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="10" spans="5:13">
-      <c r="E10" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="F10" t="s">
-        <v>64</v>
-      </c>
-      <c r="G10" t="s">
-        <v>76</v>
-      </c>
-      <c r="H10" t="s">
-        <v>77</v>
-      </c>
-      <c r="I10" t="s">
-        <v>78</v>
-      </c>
-      <c r="J10" t="s">
-        <v>79</v>
-      </c>
-      <c r="K10">
-        <v>30</v>
-      </c>
-      <c r="L10">
-        <v>60</v>
-      </c>
-      <c r="M10" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="11" spans="5:13">
-      <c r="E11" s="5" t="s">
+    </row>
+    <row r="15" spans="5:16">
+      <c r="E15" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="F15" t="s">
+        <v>67</v>
+      </c>
+      <c r="G15" t="s">
+        <v>104</v>
+      </c>
+      <c r="H15" t="s">
+        <v>118</v>
+      </c>
+      <c r="I15" t="s">
+        <v>119</v>
+      </c>
+      <c r="J15" t="s">
+        <v>120</v>
+      </c>
+      <c r="K15" t="s">
+        <v>121</v>
+      </c>
+      <c r="L15" t="s">
+        <v>121</v>
+      </c>
+      <c r="M15" t="s">
+        <v>122</v>
+      </c>
+      <c r="N15">
         <v>80</v>
       </c>
-      <c r="F11" t="s">
-        <v>64</v>
-      </c>
-      <c r="G11" t="s">
-        <v>81</v>
-      </c>
-      <c r="H11" t="s">
-        <v>82</v>
-      </c>
-      <c r="I11" t="s">
-        <v>83</v>
-      </c>
-      <c r="J11" t="s">
-        <v>84</v>
-      </c>
-      <c r="K11">
-        <v>40</v>
-      </c>
-      <c r="L11">
-        <v>60</v>
-      </c>
-      <c r="M11" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="12" spans="5:13">
-      <c r="E12" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="F12" t="s">
-        <v>64</v>
-      </c>
-      <c r="G12" t="s">
-        <v>76</v>
-      </c>
-      <c r="H12" t="s">
-        <v>86</v>
-      </c>
-      <c r="I12" t="s">
-        <v>87</v>
-      </c>
-      <c r="J12" t="s">
-        <v>88</v>
-      </c>
-      <c r="K12">
-        <v>50</v>
-      </c>
-      <c r="L12">
-        <v>60</v>
-      </c>
-      <c r="M12" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="13" spans="5:13">
-      <c r="E13" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="F13" t="s">
-        <v>64</v>
-      </c>
-      <c r="G13" t="s">
-        <v>91</v>
-      </c>
-      <c r="H13" t="s">
-        <v>92</v>
-      </c>
-      <c r="I13" t="s">
-        <v>93</v>
-      </c>
-      <c r="J13" t="s">
-        <v>94</v>
-      </c>
-      <c r="K13">
-        <v>60</v>
-      </c>
-      <c r="L13">
-        <v>60</v>
-      </c>
-      <c r="M13" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="14" spans="5:13">
-      <c r="E14" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="F14" t="s">
-        <v>64</v>
-      </c>
-      <c r="G14" t="s">
-        <v>96</v>
-      </c>
-      <c r="H14" t="s">
-        <v>97</v>
-      </c>
-      <c r="I14" t="s">
-        <v>98</v>
-      </c>
-      <c r="J14" t="s">
-        <v>99</v>
-      </c>
-      <c r="K14">
-        <v>70</v>
-      </c>
-      <c r="L14">
-        <v>70</v>
-      </c>
-      <c r="M14" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="15" spans="5:13">
-      <c r="E15" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="F15" t="s">
-        <v>64</v>
-      </c>
-      <c r="G15" t="s">
-        <v>91</v>
-      </c>
-      <c r="H15" t="s">
-        <v>101</v>
-      </c>
-      <c r="I15" t="s">
-        <v>102</v>
-      </c>
-      <c r="J15" t="s">
-        <v>103</v>
-      </c>
-      <c r="K15">
+      <c r="O15">
         <v>80</v>
       </c>
-      <c r="L15">
-        <v>80</v>
-      </c>
-      <c r="M15" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10">
+      <c r="P15" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" t="s">
-        <v>104</v>
+        <v>123</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>105</v>
+        <v>124</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>106</v>
+        <v>125</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>107</v>
+        <v>126</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>54</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>108</v>
+        <v>127</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="J18" s="3"/>
-    </row>
-    <row r="19" spans="5:7">
+        <v>128</v>
+      </c>
+      <c r="H18" s="3"/>
+      <c r="M18" s="3"/>
+    </row>
+    <row r="19" spans="5:8">
       <c r="E19" s="5" t="s">
-        <v>110</v>
+        <v>129</v>
       </c>
       <c r="F19" s="5" t="str">
         <f>E8</f>
         <v>fd_report-1</v>
       </c>
       <c r="G19" s="5" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="20" spans="5:7">
+        <v>130</v>
+      </c>
+      <c r="H19" s="5"/>
+    </row>
+    <row r="20" spans="5:8">
       <c r="E20" s="5" t="s">
-        <v>110</v>
+        <v>129</v>
       </c>
       <c r="F20" s="5" t="str">
         <f t="shared" ref="F20:F24" si="0">E9</f>
         <v>fd_report-2</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="21" spans="5:7">
+        <v>130</v>
+      </c>
+      <c r="H20" s="5"/>
+    </row>
+    <row r="21" spans="5:8">
       <c r="E21" s="5" t="s">
-        <v>110</v>
+        <v>129</v>
       </c>
       <c r="F21" s="5" t="str">
         <f t="shared" si="0"/>
         <v>fd_report-3</v>
       </c>
       <c r="G21" s="5" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="22" spans="5:7">
+        <v>130</v>
+      </c>
+      <c r="H21" s="5"/>
+    </row>
+    <row r="22" spans="5:8">
       <c r="E22" s="5" t="s">
-        <v>110</v>
+        <v>129</v>
       </c>
       <c r="F22" s="5" t="str">
         <f t="shared" si="0"/>
         <v>fd_report-4</v>
       </c>
       <c r="G22" s="5" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="23" spans="5:7">
+        <v>130</v>
+      </c>
+      <c r="H22" s="5"/>
+    </row>
+    <row r="23" spans="5:8">
       <c r="E23" s="5" t="s">
-        <v>110</v>
+        <v>129</v>
       </c>
       <c r="F23" s="5" t="str">
         <f t="shared" si="0"/>
         <v>fd_report-5</v>
       </c>
       <c r="G23" s="5" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="24" spans="5:7">
+        <v>130</v>
+      </c>
+      <c r="H23" s="5"/>
+    </row>
+    <row r="24" spans="5:8">
       <c r="E24" s="5" t="s">
-        <v>110</v>
+        <v>129</v>
       </c>
       <c r="F24" s="5" t="str">
         <f t="shared" si="0"/>
         <v>fd_report-6</v>
       </c>
       <c r="G24" s="5" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="25" spans="5:7">
+        <v>130</v>
+      </c>
+      <c r="H24" s="5"/>
+    </row>
+    <row r="25" spans="5:8">
       <c r="E25" s="5" t="s">
-        <v>110</v>
+        <v>129</v>
       </c>
       <c r="F25" s="5" t="str">
         <f>E12</f>
         <v>fd_report-5</v>
       </c>
       <c r="G25" s="5" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="26" spans="5:7">
+        <v>131</v>
+      </c>
+      <c r="H25" s="5"/>
+    </row>
+    <row r="26" spans="5:8">
       <c r="E26" s="5" t="s">
-        <v>110</v>
+        <v>129</v>
       </c>
       <c r="F26" s="5" t="str">
         <f>E13</f>
         <v>fd_report-6</v>
       </c>
       <c r="G26" s="5" t="s">
-        <v>112</v>
-      </c>
+        <v>131</v>
+      </c>
+      <c r="H26" s="5"/>
     </row>
     <row r="27" spans="5:7">
       <c r="E27" t="s">
-        <v>110</v>
+        <v>129</v>
       </c>
       <c r="F27" t="str">
         <f>E14</f>
         <v>fd_report-7</v>
       </c>
       <c r="G27" t="s">
-        <v>111</v>
+        <v>130</v>
       </c>
     </row>
     <row r="28" spans="5:7">
       <c r="E28" t="s">
-        <v>110</v>
+        <v>129</v>
       </c>
       <c r="F28" t="str">
         <f>E15</f>
         <v>fd_report-8</v>
       </c>
       <c r="G28" t="s">
-        <v>111</v>
+        <v>130</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/script/db/init-data/devops_service/hzero_platform/choerodon-fd-report.xlsx
+++ b/src/main/resources/script/db/init-data/devops_service/hzero_platform/choerodon-fd-report.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="9420" tabRatio="597" activeTab="1"/>
+    <workbookView windowWidth="18810" windowHeight="8460" tabRatio="597" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="140">
   <si>
     <r>
       <rPr>
@@ -1947,12 +1947,15 @@
     <t>代码提交图</t>
   </si>
   <si>
-    <t>代码提交图eng</t>
+    <t>Code Commit Chart</t>
   </si>
   <si>
     <t>跟踪项目下团队与个人的代码提交情况。这有助于了解团队的整体效率与个人效率。</t>
   </si>
   <si>
+    <t>Track team and individual code commit under the project. This helps to understand the overall effectiveness of the team versus individual effectiveness</t>
+  </si>
+  <si>
     <t>/devops/charts/develop/submission</t>
   </si>
   <si>
@@ -1971,12 +1974,15 @@
     <t>代码质量图</t>
   </si>
   <si>
-    <t>代码质量图eng</t>
+    <t>Code Quality Chart</t>
   </si>
   <si>
     <t>展示项目下所有应用的代码质量详情。这有助于您了解到每个应用的质量情况。</t>
   </si>
   <si>
+    <t>Show code quality details for all applications under the project. This helps you understand the quality of each application.</t>
+  </si>
+  <si>
     <t>/devops/reports/code-quality</t>
   </si>
   <si>
@@ -1992,12 +1998,15 @@
     <t>构建次数图</t>
   </si>
   <si>
-    <t>构建次数图eng</t>
+    <t>Build Times Chart</t>
   </si>
   <si>
     <t>从应用的维度为您展示任意时间段某个应用的构建次数，构建成功次数以及构建成功率。</t>
   </si>
   <si>
+    <t>Displays the number of builds, number of successful builds, and success rate of an application in any period from an application dimension.</t>
+  </si>
+  <si>
     <t>/devops/charts/develop/build-number</t>
   </si>
   <si>
@@ -2013,12 +2022,15 @@
     <t>构建时长图</t>
   </si>
   <si>
-    <t>构建时长图eng</t>
+    <t>Build Time Chart</t>
   </si>
   <si>
     <t>从应用的维度展示所选时间段某个应用每一次构建的时长。这将帮助您更直观地了解应用构建的效率。</t>
   </si>
   <si>
+    <t>Displays the construction duration of an application in the selected period by application dimension. This will help you visualize the efficiency of application building.</t>
+  </si>
+  <si>
     <t>/devops/charts/develop/build-duration</t>
   </si>
   <si>
@@ -2031,12 +2043,15 @@
     <t>部署次数图</t>
   </si>
   <si>
-    <t>部署次数图eng</t>
+    <t>Deployment Times Chart</t>
   </si>
   <si>
     <t>展示该项目下各个环境中各个应用的部署频率，这将帮助您快速直观地了解团队的部署频次与整体的效率。</t>
   </si>
   <si>
+    <t>Show the deployment frequency of each application in each environment of the project, which will help you quickly and intuitively understand the deployment frequency and overall efficiency of the team.</t>
+  </si>
+  <si>
     <t>/devops/charts/deploy/deploy-times</t>
   </si>
   <si>
@@ -2055,12 +2070,15 @@
     <t>部署时长图</t>
   </si>
   <si>
-    <t>部署时长图eng</t>
+    <t>Deployment Time Chart</t>
   </si>
   <si>
     <t>展示该项目下某一环境中各个应用部署时长等部署相关的信息。这将帮助您了解各个应用的部署情况。</t>
   </si>
   <si>
+    <t>Displays deployment information, such as the deployment duration of each application in a certain environment. This will help you understand how each application is deployed.</t>
+  </si>
+  <si>
     <t>/devops/charts/deploy/deploy-duration</t>
   </si>
   <si>
@@ -2076,12 +2094,15 @@
     <t>流水线触发次数图</t>
   </si>
   <si>
-    <t>流水线触发次数图eng</t>
+    <t>Pipeline Trigger Times Chart</t>
   </si>
   <si>
     <t>展示了项目下所有应用流水线的执行频率，这将帮助您了解团队持续交付的整体情况。</t>
   </si>
   <si>
+    <t>It shows performance ratings for all application pipelines under the project, which will help you get an overall picture of your team's ongoing delivery.</t>
+  </si>
+  <si>
     <t>/devops/charts/develop/pipelineTrigger-number</t>
   </si>
   <si>
@@ -2094,10 +2115,13 @@
     <t>流水线执行时长图</t>
   </si>
   <si>
-    <t>流水线执行时长图eng</t>
+    <t>Pipeline Execution Time Chart</t>
   </si>
   <si>
     <t>展示该项目下所有流水线的执行耗时。这将帮助您了解项目下流水线的整体耗时情况。</t>
+  </si>
+  <si>
+    <t>It shows the execution time of all pipelines under this item. This will give you an idea of the overall pipeline time under the project</t>
   </si>
   <si>
     <t>/devops/charts/develop/pipeline-duration</t>
@@ -2210,6 +2234,27 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -2217,7 +2262,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2230,69 +2275,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2307,7 +2292,54 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2322,10 +2354,10 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2337,24 +2369,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2436,7 +2460,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2448,7 +2502,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2460,61 +2616,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2526,97 +2640,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2738,6 +2762,26 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -2748,6 +2792,21 @@
         <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -2780,191 +2839,156 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="10" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="16" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="29" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -3434,21 +3458,21 @@
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.4" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="15.5833333333333" style="6" customWidth="1"/>
+    <col min="1" max="1" width="15.5851851851852" style="6" customWidth="1"/>
     <col min="2" max="2" width="10.3333333333333" style="7" customWidth="1"/>
-    <col min="3" max="3" width="28.0833333333333" customWidth="1"/>
+    <col min="3" max="3" width="28.0814814814815" customWidth="1"/>
     <col min="4" max="4" width="35.3333333333333" style="5" customWidth="1"/>
-    <col min="5" max="5" width="38.5833333333333" customWidth="1"/>
-    <col min="6" max="6" width="23.4166666666667" customWidth="1"/>
-    <col min="7" max="7" width="21.5833333333333" customWidth="1"/>
+    <col min="5" max="5" width="38.5851851851852" customWidth="1"/>
+    <col min="6" max="6" width="23.4148148148148" customWidth="1"/>
+    <col min="7" max="7" width="21.5851851851852" customWidth="1"/>
     <col min="8" max="8" width="22" customWidth="1"/>
-    <col min="9" max="9" width="24.5833333333333" customWidth="1"/>
+    <col min="9" max="9" width="24.5851851851852" customWidth="1"/>
     <col min="10" max="10" width="27" customWidth="1"/>
-    <col min="11" max="11" width="19.0833333333333" customWidth="1"/>
-    <col min="12" max="12" width="18.5833333333333" customWidth="1"/>
-    <col min="13" max="13" width="13.0833333333333" customWidth="1"/>
+    <col min="11" max="11" width="19.0814814814815" customWidth="1"/>
+    <col min="12" max="12" width="18.5851851851852" customWidth="1"/>
+    <col min="13" max="13" width="13.0814814814815" customWidth="1"/>
     <col min="14" max="1025" width="10.3333333333333" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3463,7 +3487,7 @@
       <c r="G1" s="10"/>
       <c r="H1" s="10"/>
     </row>
-    <row r="2" spans="5:5">
+    <row r="2" ht="18" spans="5:5">
       <c r="E2" s="11"/>
     </row>
     <row r="3" ht="49.5" customHeight="1" spans="3:7">
@@ -3477,7 +3501,7 @@
       <c r="F3" s="13"/>
       <c r="G3" s="13"/>
     </row>
-    <row r="4" spans="3:7">
+    <row r="4" ht="18" spans="3:7">
       <c r="C4" s="14" t="s">
         <v>3</v>
       </c>
@@ -3498,7 +3522,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="3:5">
+    <row r="7" ht="18" spans="3:5">
       <c r="C7" s="18" t="s">
         <v>8</v>
       </c>
@@ -3518,7 +3542,7 @@
       </c>
       <c r="E8" s="23"/>
     </row>
-    <row r="9" ht="52.2" spans="3:6">
+    <row r="9" ht="51.75" spans="3:6">
       <c r="C9" s="24" t="s">
         <v>13</v>
       </c>
@@ -3532,7 +3556,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" ht="52.2" spans="3:5">
+    <row r="10" ht="51.75" spans="3:5">
       <c r="C10" s="27" t="s">
         <v>17</v>
       </c>
@@ -3543,7 +3567,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" ht="69.6" spans="3:5">
+    <row r="11" ht="69" spans="3:5">
       <c r="C11" s="21" t="s">
         <v>20</v>
       </c>
@@ -3575,7 +3599,7 @@
       <c r="D14" s="22"/>
       <c r="E14" s="23"/>
     </row>
-    <row r="15" ht="34.8" spans="3:5">
+    <row r="15" ht="34.5" spans="3:5">
       <c r="C15" s="29" t="s">
         <v>26</v>
       </c>
@@ -3598,7 +3622,7 @@
       <c r="D19" s="32"/>
       <c r="E19" s="32"/>
     </row>
-    <row r="20" spans="3:4">
+    <row r="20" ht="18" spans="3:4">
       <c r="C20" s="33" t="s">
         <v>31</v>
       </c>
@@ -3606,7 +3630,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="21" spans="3:4">
+    <row r="21" ht="18" spans="3:4">
       <c r="C21" s="33" t="s">
         <v>33</v>
       </c>
@@ -3614,7 +3638,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="22" spans="3:4">
+    <row r="22" ht="18" spans="3:4">
       <c r="C22" s="33" t="s">
         <v>35</v>
       </c>
@@ -3622,7 +3646,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="23" spans="3:4">
+    <row r="23" ht="18" spans="3:4">
       <c r="C23" s="33" t="s">
         <v>37</v>
       </c>
@@ -3648,7 +3672,7 @@
       </c>
       <c r="E26" s="12"/>
     </row>
-    <row r="27" ht="52.2" spans="3:3">
+    <row r="27" ht="51.75" spans="3:3">
       <c r="C27" s="35" t="s">
         <v>43</v>
       </c>
@@ -3674,23 +3698,23 @@
   <sheetPr/>
   <dimension ref="A1:P28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D4" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
   <cols>
-    <col min="2" max="2" width="8.50694444444444" customWidth="1"/>
-    <col min="4" max="4" width="28.5069444444444" customWidth="1"/>
-    <col min="5" max="5" width="16.75" customWidth="1"/>
-    <col min="6" max="6" width="14.4166666666667" customWidth="1"/>
+    <col min="2" max="2" width="8.5037037037037" customWidth="1"/>
+    <col min="4" max="4" width="28.5037037037037" customWidth="1"/>
+    <col min="5" max="5" width="16.7481481481481" customWidth="1"/>
+    <col min="6" max="6" width="14.4148148148148" customWidth="1"/>
     <col min="7" max="8" width="19.6666666666667" customWidth="1"/>
-    <col min="9" max="9" width="16.1597222222222" customWidth="1"/>
+    <col min="9" max="9" width="16.162962962963" customWidth="1"/>
     <col min="10" max="10" width="20.6666666666667" customWidth="1"/>
-    <col min="11" max="12" width="84.75" customWidth="1"/>
-    <col min="13" max="13" width="33.8263888888889" customWidth="1"/>
-    <col min="14" max="14" width="9.75" customWidth="1"/>
-    <col min="15" max="15" width="14.5833333333333" customWidth="1"/>
+    <col min="11" max="12" width="84.7481481481481" customWidth="1"/>
+    <col min="13" max="13" width="33.8296296296296" customWidth="1"/>
+    <col min="14" max="14" width="9.74814814814815" customWidth="1"/>
+    <col min="15" max="15" width="14.5851851851852" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -3792,10 +3816,10 @@
         <v>72</v>
       </c>
       <c r="L8" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="M8" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="N8">
         <v>10</v>
@@ -3804,36 +3828,36 @@
         <v>60</v>
       </c>
       <c r="P8" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="9" spans="5:15">
       <c r="E9" s="5" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F9" t="s">
         <v>67</v>
       </c>
       <c r="G9" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H9" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I9" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="J9" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="K9" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L9" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="M9" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="N9">
         <v>20</v>
@@ -3844,31 +3868,31 @@
     </row>
     <row r="10" spans="5:16">
       <c r="E10" s="5" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="F10" t="s">
         <v>67</v>
       </c>
       <c r="G10" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="H10" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="I10" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="J10" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="K10" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="L10" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="M10" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="N10">
         <v>30</v>
@@ -3877,36 +3901,36 @@
         <v>60</v>
       </c>
       <c r="P10" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="11" spans="5:16">
       <c r="E11" s="5" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="F11" t="s">
         <v>67</v>
       </c>
       <c r="G11" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="H11" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="I11" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="J11" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="K11" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="L11" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="M11" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="N11">
         <v>40</v>
@@ -3915,36 +3939,36 @@
         <v>60</v>
       </c>
       <c r="P11" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="12" spans="5:16">
       <c r="E12" s="5" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="F12" t="s">
         <v>67</v>
       </c>
       <c r="G12" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="H12" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="I12" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="J12" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="K12" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="L12" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="M12" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="N12">
         <v>50</v>
@@ -3953,36 +3977,36 @@
         <v>60</v>
       </c>
       <c r="P12" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
     </row>
     <row r="13" spans="5:16">
       <c r="E13" s="5" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="F13" t="s">
         <v>67</v>
       </c>
       <c r="G13" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="H13" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="I13" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="J13" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="K13" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="L13" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="M13" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="N13">
         <v>60</v>
@@ -3991,36 +4015,36 @@
         <v>60</v>
       </c>
       <c r="P13" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
     </row>
     <row r="14" spans="5:16">
       <c r="E14" s="5" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="F14" t="s">
         <v>67</v>
       </c>
       <c r="G14" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="H14" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="I14" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="J14" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="K14" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="L14" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="M14" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="N14">
         <v>70</v>
@@ -4029,36 +4053,36 @@
         <v>70</v>
       </c>
       <c r="P14" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="15" spans="5:16">
       <c r="E15" s="5" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="F15" t="s">
         <v>67</v>
       </c>
       <c r="G15" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="H15" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="I15" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="J15" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="K15" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="L15" t="s">
-        <v>121</v>
+        <v>129</v>
       </c>
       <c r="M15" t="s">
-        <v>122</v>
+        <v>130</v>
       </c>
       <c r="N15">
         <v>80</v>
@@ -4067,160 +4091,160 @@
         <v>80</v>
       </c>
       <c r="P15" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="18" spans="1:13">
       <c r="A18" t="s">
-        <v>123</v>
+        <v>131</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>54</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>127</v>
+        <v>135</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="H18" s="3"/>
       <c r="M18" s="3"/>
     </row>
     <row r="19" spans="5:8">
       <c r="E19" s="5" t="s">
-        <v>129</v>
+        <v>137</v>
       </c>
       <c r="F19" s="5" t="str">
         <f>E8</f>
         <v>fd_report-1</v>
       </c>
       <c r="G19" s="5" t="s">
-        <v>130</v>
+        <v>138</v>
       </c>
       <c r="H19" s="5"/>
     </row>
     <row r="20" spans="5:8">
       <c r="E20" s="5" t="s">
-        <v>129</v>
+        <v>137</v>
       </c>
       <c r="F20" s="5" t="str">
         <f t="shared" ref="F20:F24" si="0">E9</f>
         <v>fd_report-2</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>130</v>
+        <v>138</v>
       </c>
       <c r="H20" s="5"/>
     </row>
     <row r="21" spans="5:8">
       <c r="E21" s="5" t="s">
-        <v>129</v>
+        <v>137</v>
       </c>
       <c r="F21" s="5" t="str">
         <f t="shared" si="0"/>
         <v>fd_report-3</v>
       </c>
       <c r="G21" s="5" t="s">
-        <v>130</v>
+        <v>138</v>
       </c>
       <c r="H21" s="5"/>
     </row>
     <row r="22" spans="5:8">
       <c r="E22" s="5" t="s">
-        <v>129</v>
+        <v>137</v>
       </c>
       <c r="F22" s="5" t="str">
         <f t="shared" si="0"/>
         <v>fd_report-4</v>
       </c>
       <c r="G22" s="5" t="s">
-        <v>130</v>
+        <v>138</v>
       </c>
       <c r="H22" s="5"/>
     </row>
     <row r="23" spans="5:8">
       <c r="E23" s="5" t="s">
-        <v>129</v>
+        <v>137</v>
       </c>
       <c r="F23" s="5" t="str">
         <f t="shared" si="0"/>
         <v>fd_report-5</v>
       </c>
       <c r="G23" s="5" t="s">
-        <v>130</v>
+        <v>138</v>
       </c>
       <c r="H23" s="5"/>
     </row>
     <row r="24" spans="5:8">
       <c r="E24" s="5" t="s">
-        <v>129</v>
+        <v>137</v>
       </c>
       <c r="F24" s="5" t="str">
         <f t="shared" si="0"/>
         <v>fd_report-6</v>
       </c>
       <c r="G24" s="5" t="s">
-        <v>130</v>
+        <v>138</v>
       </c>
       <c r="H24" s="5"/>
     </row>
     <row r="25" spans="5:8">
       <c r="E25" s="5" t="s">
-        <v>129</v>
+        <v>137</v>
       </c>
       <c r="F25" s="5" t="str">
         <f>E12</f>
         <v>fd_report-5</v>
       </c>
       <c r="G25" s="5" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="H25" s="5"/>
     </row>
     <row r="26" spans="5:8">
       <c r="E26" s="5" t="s">
-        <v>129</v>
+        <v>137</v>
       </c>
       <c r="F26" s="5" t="str">
         <f>E13</f>
         <v>fd_report-6</v>
       </c>
       <c r="G26" s="5" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="H26" s="5"/>
     </row>
     <row r="27" spans="5:7">
       <c r="E27" t="s">
-        <v>129</v>
+        <v>137</v>
       </c>
       <c r="F27" t="str">
         <f>E14</f>
         <v>fd_report-7</v>
       </c>
       <c r="G27" t="s">
-        <v>130</v>
+        <v>138</v>
       </c>
     </row>
     <row r="28" spans="5:7">
       <c r="E28" t="s">
-        <v>129</v>
+        <v>137</v>
       </c>
       <c r="F28" t="str">
         <f>E15</f>
         <v>fd_report-8</v>
       </c>
       <c r="G28" t="s">
-        <v>130</v>
+        <v>138</v>
       </c>
     </row>
   </sheetData>
